--- a/src/Quadrotor_States.xlsx
+++ b/src/Quadrotor_States.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -428,1382 +428,2302 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>5.073169208943288</v>
+        <v>5.05256339220226</v>
       </c>
       <c r="B2">
-        <v>-0.028376439084989487</v>
+        <v>-0.05844122252062655</v>
       </c>
       <c r="C2">
-        <v>19.999999999671918</v>
+        <v>20.00143186137265</v>
       </c>
       <c r="D2">
-        <v>0.9641520738648012</v>
+        <v>0.9813605303747358</v>
       </c>
       <c r="E2">
-        <v>0.06792653252458915</v>
+        <v>0.14148139105040888</v>
       </c>
       <c r="F2">
-        <v>0.17490799515037161</v>
+        <v>0.1272251203673557</v>
       </c>
       <c r="G2">
-        <v>0.18611402649628273</v>
+        <v>0.024723616609225535</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>5.198658344166025</v>
+        <v>5.11076056248141</v>
       </c>
       <c r="B3">
-        <v>-0.07870355174395592</v>
+        <v>-0.06071164059579578</v>
       </c>
       <c r="C3">
-        <v>20.334042000471044</v>
+        <v>20.00107478390545</v>
       </c>
       <c r="D3">
-        <v>0.9502680686578826</v>
+        <v>0.9898582067425725</v>
       </c>
       <c r="E3">
-        <v>0.0939406172631884</v>
+        <v>0.005522851286703152</v>
       </c>
       <c r="F3">
-        <v>0.23422296209816884</v>
+        <v>0.14167441330103497</v>
       </c>
       <c r="G3">
-        <v>0.17961548499650404</v>
+        <v>-0.006930829388904424</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>5.943336874060615</v>
+        <v>5.1684783856700145</v>
       </c>
       <c r="B4">
-        <v>-0.07869014729786686</v>
+        <v>-0.08051854957723338</v>
       </c>
       <c r="C4">
-        <v>22.020586072909886</v>
+        <v>20.001671429779517</v>
       </c>
       <c r="D4">
-        <v>0.7316014844634704</v>
+        <v>0.984634327489087</v>
       </c>
       <c r="E4">
-        <v>-1.644299873210815e-5</v>
+        <v>0.04792520215181346</v>
       </c>
       <c r="F4">
-        <v>0.6671156440576403</v>
+        <v>0.1398652232141237</v>
       </c>
       <c r="G4">
-        <v>0.00015769815620508167</v>
+        <v>-0.09238854239295884</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>5.943445852784647</v>
+        <v>5.226578176273162</v>
       </c>
       <c r="B5">
-        <v>-0.0761196544764599</v>
+        <v>-0.08105974170966172</v>
       </c>
       <c r="C5">
-        <v>21.399901073213243</v>
+        <v>20.000804308682152</v>
       </c>
       <c r="D5">
-        <v>0.9997895958520955</v>
+        <v>0.9899196759961719</v>
       </c>
       <c r="E5">
-        <v>-0.012732608036733643</v>
+        <v>0.0013188506606451298</v>
       </c>
       <c r="F5">
-        <v>0.0005383320043326232</v>
+        <v>0.1415178342017879</v>
       </c>
       <c r="G5">
-        <v>-0.016072805261726265</v>
+        <v>-0.0004791764466615682</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>6.605953988391703</v>
+        <v>5.2854450678618665</v>
       </c>
       <c r="B6">
-        <v>-0.07708738599640527</v>
+        <v>-0.07396125035796328</v>
       </c>
       <c r="C6">
-        <v>22.826904230480167</v>
+        <v>20.000080485149116</v>
       </c>
       <c r="D6">
-        <v>0.742956202931077</v>
+        <v>0.9888919381260376</v>
       </c>
       <c r="E6">
-        <v>0.000947909792751992</v>
+        <v>-0.017245956196137304</v>
       </c>
       <c r="F6">
-        <v>0.6555648412964232</v>
+        <v>0.14324940440950862</v>
       </c>
       <c r="G6">
-        <v>0.00037080118811202474</v>
+        <v>0.035085584126304734</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>6.620929810541013</v>
+        <v>5.3143356187040895</v>
       </c>
       <c r="B7">
-        <v>-0.07802112317101172</v>
+        <v>-0.07436331218336774</v>
       </c>
       <c r="C7">
-        <v>22.095637187802133</v>
+        <v>20.000192236432568</v>
       </c>
       <c r="D7">
-        <v>0.9958198633800064</v>
+        <v>0.9975152068822354</v>
       </c>
       <c r="E7">
-        <v>0.005653285604156249</v>
+        <v>0.0009793679428433543</v>
       </c>
       <c r="F7">
-        <v>0.09057438750583928</v>
+        <v>0.07059424828852673</v>
       </c>
       <c r="G7">
-        <v>0.01006037182621706</v>
+        <v>-4.006622040721618e-5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>6.62095137974438</v>
+        <v>5.343365704338772</v>
       </c>
       <c r="B8">
-        <v>-0.07802165059766679</v>
+        <v>-0.07476728490600479</v>
       </c>
       <c r="C8">
-        <v>21.46479964659717</v>
+        <v>20.00019759333767</v>
       </c>
       <c r="D8">
-        <v>0.9999999698266734</v>
+        <v>0.9974907750022312</v>
       </c>
       <c r="E8">
-        <v>2.657278350088296e-6</v>
+        <v>0.0009840045285681989</v>
       </c>
       <c r="F8">
-        <v>0.00010867695199762693</v>
+        <v>0.07093982718296842</v>
       </c>
       <c r="G8">
-        <v>-0.000220292784355935</v>
+        <v>-4.057107292378602e-5</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>6.62094772951908</v>
+        <v>5.291838821239579</v>
       </c>
       <c r="B9">
-        <v>-0.07802739342873574</v>
+        <v>-0.07542591637229533</v>
       </c>
       <c r="C9">
-        <v>20.908088871182812</v>
+        <v>20.000335027439597</v>
       </c>
       <c r="D9">
-        <v>0.9999999977443028</v>
+        <v>0.9920772578673986</v>
       </c>
       <c r="E9">
-        <v>2.5731872450664856e-5</v>
+        <v>0.0016045974096886406</v>
       </c>
       <c r="F9">
-        <v>-1.6355529308029378e-5</v>
+        <v>-0.1255463221385169</v>
       </c>
       <c r="G9">
-        <v>-5.9847821102519715e-5</v>
+        <v>8.062645461824147e-5</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>6.620948992549326</v>
+        <v>5.3501369979533955</v>
       </c>
       <c r="B10">
-        <v>-0.07802581597795043</v>
+        <v>-0.07544927369210747</v>
       </c>
       <c r="C10">
-        <v>20.38406101763481</v>
+        <v>20.000733752554407</v>
       </c>
       <c r="D10">
-        <v>0.9999999996229735</v>
+        <v>0.9898698828548463</v>
       </c>
       <c r="E10">
-        <v>-6.739109073588649e-6</v>
+        <v>5.678532436579376e-5</v>
       </c>
       <c r="F10">
-        <v>5.395858914814519e-6</v>
+        <v>0.14185778907201763</v>
       </c>
       <c r="G10">
-        <v>2.606764532329108e-5</v>
+        <v>-6.362162447042821e-5</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>6.650857601387378</v>
+        <v>5.408301406749585</v>
       </c>
       <c r="B11">
-        <v>-0.07858479165781462</v>
+        <v>-0.07566838488423157</v>
       </c>
       <c r="C11">
-        <v>20.000000000007947</v>
+        <v>20.000732340891766</v>
       </c>
       <c r="D11">
-        <v>0.9943333449780221</v>
+        <v>0.9899095689873284</v>
       </c>
       <c r="E11">
-        <v>0.001985172386539552</v>
+        <v>0.000532766495051208</v>
       </c>
       <c r="F11">
-        <v>0.1062371603926741</v>
+        <v>0.14158089241858893</v>
       </c>
       <c r="G11">
-        <v>-0.0005102228702385648</v>
+        <v>-0.0007477130675819267</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>6.7022738542702776</v>
+        <v>5.466571961388493</v>
       </c>
       <c r="B12">
-        <v>-0.07948316577418925</v>
+        <v>-0.07589222356858445</v>
       </c>
       <c r="C12">
-        <v>19.999873806162753</v>
+        <v>20.00074804988271</v>
       </c>
       <c r="D12">
-        <v>0.9921065835343922</v>
+        <v>0.9898732753827215</v>
       </c>
       <c r="E12">
-        <v>0.0021894493145624212</v>
+        <v>0.0005445769561241475</v>
       </c>
       <c r="F12">
-        <v>0.12530574308879983</v>
+        <v>0.14183467231560068</v>
       </c>
       <c r="G12">
-        <v>0.00011105508890635248</v>
+        <v>-0.00033377065565802445</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>6.753701682054283</v>
+        <v>5.525363663629996</v>
       </c>
       <c r="B13">
-        <v>-0.08038819742186024</v>
+        <v>-0.08240738038047872</v>
       </c>
       <c r="C13">
-        <v>19.999872672100853</v>
+        <v>20.0001140689421</v>
       </c>
       <c r="D13">
-        <v>0.9921044637202939</v>
+        <v>0.9890385101529628</v>
       </c>
       <c r="E13">
-        <v>0.002205463281369714</v>
+        <v>0.015829318388100706</v>
       </c>
       <c r="F13">
-        <v>0.12532156811905368</v>
+        <v>0.14307203455792467</v>
       </c>
       <c r="G13">
-        <v>0.00012148454833814864</v>
+        <v>-0.032253472255864696</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>6.805127988945389</v>
+        <v>5.58380043877666</v>
       </c>
       <c r="B14">
-        <v>-0.0813010952500954</v>
+        <v>-0.08447006129884267</v>
       </c>
       <c r="C14">
-        <v>19.999828007160527</v>
+        <v>20.001098893667425</v>
       </c>
       <c r="D14">
-        <v>0.9921042994836654</v>
+        <v>0.9898029480410018</v>
       </c>
       <c r="E14">
-        <v>0.002224723980759183</v>
+        <v>0.005012848475338384</v>
       </c>
       <c r="F14">
-        <v>0.12532229576012144</v>
+        <v>0.14211792395828657</v>
       </c>
       <c r="G14">
-        <v>0.00014716669736429658</v>
+        <v>-0.006055400464256392</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>6.856561518754301</v>
+        <v>5.642097338112591</v>
       </c>
       <c r="B15">
-        <v>-0.08219056016835105</v>
+        <v>-0.08363419439453906</v>
       </c>
       <c r="C15">
-        <v>19.999829073273542</v>
+        <v>20.00090522575166</v>
       </c>
       <c r="D15">
-        <v>0.9921028278475705</v>
+        <v>0.9898631385921257</v>
       </c>
       <c r="E15">
-        <v>0.0021673457351977965</v>
+        <v>-0.0020333734981008425</v>
       </c>
       <c r="F15">
-        <v>0.12533542553236257</v>
+        <v>0.14191516931318227</v>
       </c>
       <c r="G15">
-        <v>-0.0001312423920312786</v>
+        <v>0.00013667392940023377</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>6.9087781352405075</v>
+        <v>5.70033364099307</v>
       </c>
       <c r="B16">
-        <v>-0.0831371053457009</v>
+        <v>-0.0841308562867962</v>
       </c>
       <c r="C16">
-        <v>19.999993569871055</v>
+        <v>20.000816268325767</v>
       </c>
       <c r="D16">
-        <v>0.9918632674106183</v>
+        <v>0.9898850934940449</v>
       </c>
       <c r="E16">
-        <v>0.0023060702285017014</v>
+        <v>0.0012099151311252524</v>
       </c>
       <c r="F16">
-        <v>0.12721132543872873</v>
+        <v>0.1417604383488843</v>
       </c>
       <c r="G16">
-        <v>0.00013519275420105294</v>
+        <v>-0.00026489879397713573</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>6.961015935944239</v>
+        <v>5.7584543094192435</v>
       </c>
       <c r="B17">
-        <v>-0.08410634838243947</v>
+        <v>-0.08436028052698004</v>
       </c>
       <c r="C17">
-        <v>19.9999937439329</v>
+        <v>20.00072623932265</v>
       </c>
       <c r="D17">
-        <v>0.9918524776339191</v>
+        <v>0.9899233591202234</v>
       </c>
       <c r="E17">
-        <v>0.0023619431381781708</v>
+        <v>0.0005581938204134648</v>
       </c>
       <c r="F17">
-        <v>0.127278432478491</v>
+        <v>0.14148554893856416</v>
       </c>
       <c r="G17">
-        <v>0.0004810054430442985</v>
+        <v>-0.00038859720060776366</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>7.013267674496656</v>
+        <v>5.7969343425026825</v>
       </c>
       <c r="B18">
-        <v>-0.08507650648213187</v>
+        <v>-0.08490905290123966</v>
       </c>
       <c r="C18">
-        <v>19.99999388469049</v>
+        <v>20.00023635187211</v>
       </c>
       <c r="D18">
-        <v>0.9918496196170441</v>
+        <v>0.9955727122277686</v>
       </c>
       <c r="E18">
-        <v>0.002364029640693305</v>
+        <v>0.00133972896642274</v>
       </c>
       <c r="F18">
-        <v>0.1273122122485526</v>
+        <v>0.09396144065292306</v>
       </c>
       <c r="G18">
-        <v>0.00025292456664089937</v>
+        <v>3.6366418054158317e-6</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>7.065541245813937</v>
+        <v>5.826658704816033</v>
       </c>
       <c r="B19">
-        <v>-0.08605550337119149</v>
+        <v>-0.08535026066052014</v>
       </c>
       <c r="C19">
-        <v>19.999994025351825</v>
+        <v>20.00020572790846</v>
       </c>
       <c r="D19">
-        <v>0.991842814169707</v>
+        <v>0.9973691058616836</v>
       </c>
       <c r="E19">
-        <v>0.002385558142208298</v>
+        <v>0.0010747425341568052</v>
       </c>
       <c r="F19">
-        <v>0.12736498304881527</v>
+        <v>0.07263415977871976</v>
       </c>
       <c r="G19">
-        <v>0.00023664296954822536</v>
+        <v>-4.2686213924921896e-5</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>7.1178380814820805</v>
+        <v>5.851114660649399</v>
       </c>
       <c r="B20">
-        <v>-0.08703815729327835</v>
+        <v>-0.08577688921553529</v>
       </c>
       <c r="C20">
-        <v>19.999994165945232</v>
+        <v>20.00014747065011</v>
       </c>
       <c r="D20">
-        <v>0.9918352087700034</v>
+        <v>0.9982216006181608</v>
       </c>
       <c r="E20">
-        <v>0.002394414533292411</v>
+        <v>0.0010388818232311436</v>
       </c>
       <c r="F20">
-        <v>0.12742128427459237</v>
+        <v>0.059786007815439315</v>
       </c>
       <c r="G20">
-        <v>0.0001854327824552207</v>
+        <v>2.2016698705789743e-6</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>7.1701558129299485</v>
+        <v>5.882805685398091</v>
       </c>
       <c r="B21">
-        <v>-0.0880282323863342</v>
+        <v>-0.0862385551302805</v>
       </c>
       <c r="C21">
-        <v>19.999994306532077</v>
+        <v>20.00022204941989</v>
       </c>
       <c r="D21">
-        <v>0.9918291054348092</v>
+        <v>0.9970099208659771</v>
       </c>
       <c r="E21">
-        <v>0.0024124058739099937</v>
+        <v>0.001123950640681896</v>
       </c>
       <c r="F21">
-        <v>0.12747186813667233</v>
+        <v>0.07742098414733362</v>
       </c>
       <c r="G21">
-        <v>8.079764033125668e-5</v>
+        <v>-4.889961331892929e-5</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>7.222486772232538</v>
+        <v>5.912982926575449</v>
       </c>
       <c r="B22">
-        <v>-0.08896500960502753</v>
+        <v>-0.0866861666409225</v>
       </c>
       <c r="C22">
-        <v>19.99999460698635</v>
+        <v>20.00020956888301</v>
       </c>
       <c r="D22">
-        <v>0.9918256238790332</v>
+        <v>0.9972883918363374</v>
       </c>
       <c r="E22">
-        <v>0.0022823814538260674</v>
+        <v>0.0010902177000794802</v>
       </c>
       <c r="F22">
-        <v>0.12750369230051523</v>
+        <v>0.07373706255941133</v>
       </c>
       <c r="G22">
-        <v>-0.0003594733125999042</v>
+        <v>-4.4087601270241705e-5</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>7.274847947557471</v>
+        <v>5.861581212815967</v>
       </c>
       <c r="B23">
-        <v>-0.08997541550256773</v>
+        <v>-0.08742200780437767</v>
       </c>
       <c r="C23">
-        <v>19.999994583917683</v>
+        <v>20.0001751638801</v>
       </c>
       <c r="D23">
-        <v>0.9918156750507405</v>
+        <v>0.9921139309567493</v>
       </c>
       <c r="E23">
-        <v>0.002461961582380853</v>
+        <v>0.001791947391671434</v>
       </c>
       <c r="F23">
-        <v>0.1275768423031473</v>
+        <v>-0.12525979842956414</v>
       </c>
       <c r="G23">
-        <v>8.829093109727652e-5</v>
+        <v>0.0004020569674987747</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>7.327229187199447</v>
+        <v>5.893321995617409</v>
       </c>
       <c r="B24">
-        <v>-0.09099120845261116</v>
+        <v>-0.08789246950747684</v>
       </c>
       <c r="C24">
-        <v>19.99999474478191</v>
+        <v>20.00022357954719</v>
       </c>
       <c r="D24">
-        <v>0.9918098654392251</v>
+        <v>0.9970003938422647</v>
       </c>
       <c r="E24">
-        <v>0.002475065488706703</v>
+        <v>0.0011454216386328246</v>
       </c>
       <c r="F24">
-        <v>0.1276253773744604</v>
+        <v>0.07754365694734629</v>
       </c>
       <c r="G24">
-        <v>5.3247102456864966e-5</v>
+        <v>-4.90687957961616e-5</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>7.3796308514233235</v>
+        <v>5.925215361395892</v>
       </c>
       <c r="B25">
-        <v>-0.09198474787402258</v>
+        <v>-0.08836514976965812</v>
       </c>
       <c r="C25">
-        <v>19.999994942424046</v>
+        <v>20.000226940481916</v>
       </c>
       <c r="D25">
-        <v>0.9918038932657534</v>
+        <v>0.9969712998571322</v>
       </c>
       <c r="E25">
-        <v>0.0024205895946995027</v>
+        <v>0.0011507888610459186</v>
       </c>
       <c r="F25">
-        <v>0.12767480953822483</v>
+        <v>0.07791788523657432</v>
       </c>
       <c r="G25">
-        <v>-0.0003800054694214364</v>
+        <v>-4.960937447209101e-5</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>7.432051036922695</v>
+        <v>5.957264156600536</v>
       </c>
       <c r="B26">
-        <v>-0.09299967083595834</v>
+        <v>-0.0888400883053766</v>
       </c>
       <c r="C26">
-        <v>19.999995080482222</v>
+        <v>20.000228693927234</v>
       </c>
       <c r="D26">
-        <v>0.9917983416810892</v>
+        <v>0.9969417052335487</v>
       </c>
       <c r="E26">
-        <v>0.002472932639070523</v>
+        <v>0.001156242348637936</v>
       </c>
       <c r="F26">
-        <v>0.1277195239028236</v>
+        <v>0.07829661391739091</v>
       </c>
       <c r="G26">
-        <v>-1.9727778522785202e-5</v>
+        <v>-5.012518414071884e-5</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>7.484491486884473</v>
+        <v>5.9894689859710315</v>
       </c>
       <c r="B27">
-        <v>-0.09402147723209449</v>
+        <v>-0.08931729320841619</v>
       </c>
       <c r="C27">
-        <v>19.99999521842797</v>
+        <v>20.000230405514404</v>
       </c>
       <c r="D27">
-        <v>0.991792191235954</v>
+        <v>0.9969118578490196</v>
       </c>
       <c r="E27">
-        <v>0.0024897139381055435</v>
+        <v>0.0011617144838369914</v>
       </c>
       <c r="F27">
-        <v>0.12776854219364722</v>
+        <v>0.07867671202841886</v>
       </c>
       <c r="G27">
-        <v>2.204598334703444e-5</v>
+        <v>-5.0643844935645955e-5</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>7.536961225074725</v>
+        <v>6.021830371563342</v>
       </c>
       <c r="B28">
-        <v>-0.0950630420781558</v>
+        <v>-0.08979677139661732</v>
       </c>
       <c r="C28">
-        <v>19.999995486454623</v>
+        <v>20.000232131788</v>
       </c>
       <c r="D28">
-        <v>0.9917799779323434</v>
+        <v>0.9968817656261437</v>
       </c>
       <c r="E28">
-        <v>0.002537816028261589</v>
+        <v>0.0011672027367477529</v>
       </c>
       <c r="F28">
-        <v>0.12783874560908964</v>
+        <v>0.07905806227526865</v>
       </c>
       <c r="G28">
-        <v>-0.00011487276669762343</v>
+        <v>-5.1166361313906966e-5</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>7.589453918351046</v>
+        <v>6.054348830812312</v>
       </c>
       <c r="B29">
-        <v>-0.09611228745124877</v>
+        <v>-0.09027852971249817</v>
       </c>
       <c r="C29">
-        <v>19.99999557887262</v>
+        <v>20.000233874912762</v>
       </c>
       <c r="D29">
-        <v>0.9917739364415004</v>
+        <v>0.9968514277812222</v>
       </c>
       <c r="E29">
-        <v>0.0025563615680153622</v>
+        <v>0.0011727069296640553</v>
       </c>
       <c r="F29">
-        <v>0.1278944392024643</v>
+        <v>0.0794406562101629</v>
       </c>
       <c r="G29">
-        <v>-0.00033899453020985276</v>
+        <v>-5.169277534842531e-5</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>7.641965173282231</v>
+        <v>6.085336245689358</v>
       </c>
       <c r="B30">
-        <v>-0.0971706620532481</v>
+        <v>-0.09074654901060815</v>
       </c>
       <c r="C30">
-        <v>19.999995890765888</v>
+        <v>20.000218021308118</v>
       </c>
       <c r="D30">
-        <v>0.9917677406347453</v>
+        <v>0.997140804656919</v>
       </c>
       <c r="E30">
-        <v>0.0025787094723443964</v>
+        <v>0.0011397673295638134</v>
       </c>
       <c r="F30">
-        <v>0.12793919984185567</v>
+        <v>0.0757116453463124</v>
       </c>
       <c r="G30">
-        <v>-0.00015576574594962977</v>
+        <v>-4.665349353956287e-5</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <v>7.694495579884945</v>
+        <v>6.1181631669564105</v>
       </c>
       <c r="B31">
-        <v>-0.09823893183566088</v>
+        <v>-0.09123283119173205</v>
       </c>
       <c r="C31">
-        <v>19.999996061086208</v>
+        <v>20.000236688709105</v>
       </c>
       <c r="D31">
-        <v>0.9917620581766965</v>
+        <v>0.9967914992816519</v>
       </c>
       <c r="E31">
-        <v>0.0026029425715320964</v>
+        <v>0.0011836235186213635</v>
       </c>
       <c r="F31">
-        <v>0.12798554015820252</v>
+        <v>0.08019097501092047</v>
       </c>
       <c r="G31">
-        <v>-1.462098944237934e-5</v>
+        <v>-5.2718180835901076e-5</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
-        <v>7.747048345234885</v>
+        <v>6.143341003839844</v>
       </c>
       <c r="B32">
-        <v>-0.09932026507269277</v>
+        <v>-0.09168922704343238</v>
       </c>
       <c r="C32">
-        <v>19.999996192452898</v>
+        <v>20.00015366327127</v>
       </c>
       <c r="D32">
-        <v>0.9917559656233175</v>
+        <v>0.9981148127245377</v>
       </c>
       <c r="E32">
-        <v>0.002634811931328362</v>
+        <v>0.0011113246007057106</v>
       </c>
       <c r="F32">
-        <v>0.12803971235069236</v>
+        <v>0.06154885451038006</v>
       </c>
       <c r="G32">
-        <v>2.5281688417376047e-5</v>
+        <v>2.4911410207325326e-6</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
-        <v>7.799632274938338</v>
+        <v>6.106873300528015</v>
       </c>
       <c r="B33">
-        <v>-0.1004481408345602</v>
+        <v>-0.09247406084633998</v>
       </c>
       <c r="C33">
-        <v>19.9999959746243</v>
+        <v>20.000201354898685</v>
       </c>
       <c r="D33">
-        <v>0.9917459763687968</v>
+        <v>0.9960248563666421</v>
       </c>
       <c r="E33">
-        <v>0.0027482154037956528</v>
+        <v>0.0019161708191343283</v>
       </c>
       <c r="F33">
-        <v>0.1281148730609796</v>
+        <v>-0.08903529909198835</v>
       </c>
       <c r="G33">
-        <v>9.794683406554074e-5</v>
+        <v>4.888287996912392e-6</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
-        <v>7.852238111532764</v>
+        <v>6.142598365232279</v>
       </c>
       <c r="B34">
-        <v>-0.101590370789074</v>
+        <v>-0.09301529084320544</v>
       </c>
       <c r="C34">
-        <v>19.999996114624764</v>
+        <v>20.000196324337566</v>
       </c>
       <c r="D34">
-        <v>0.9917393304276243</v>
+        <v>0.9961856779373339</v>
       </c>
       <c r="E34">
-        <v>0.002783376132726939</v>
+        <v>0.001321288996765934</v>
       </c>
       <c r="F34">
-        <v>0.12816766617499767</v>
+        <v>0.08723269848816681</v>
       </c>
       <c r="G34">
-        <v>0.0001799720863674096</v>
+        <v>3.152009384111711e-6</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
-        <v>7.904874333360549</v>
+        <v>6.178511168157083</v>
       </c>
       <c r="B35">
-        <v>-0.10277971548683859</v>
+        <v>-0.09355936882607901</v>
       </c>
       <c r="C35">
-        <v>19.99999630909253</v>
+        <v>20.000197737409064</v>
       </c>
       <c r="D35">
-        <v>0.9917280782632988</v>
+        <v>0.9961455623931134</v>
       </c>
       <c r="E35">
-        <v>0.002898189353018462</v>
+        <v>0.0013282067255424076</v>
       </c>
       <c r="F35">
-        <v>0.12823996354948874</v>
+        <v>0.08768895563085438</v>
       </c>
       <c r="G35">
-        <v>0.00022505536902893056</v>
+        <v>3.179886703514076e-6</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36">
-        <v>8.143961499971214</v>
+        <v>6.216435763569733</v>
       </c>
       <c r="B36">
-        <v>-0.1712901965800958</v>
+        <v>-0.09420056651458276</v>
       </c>
       <c r="C36">
-        <v>20.42257162456889</v>
+        <v>20.000215268118385</v>
       </c>
       <c r="D36">
-        <v>0.8781310394331879</v>
+        <v>0.9957020447261691</v>
       </c>
       <c r="E36">
-        <v>0.11539627625029718</v>
+        <v>0.0015649402543437385</v>
       </c>
       <c r="F36">
-        <v>0.40649889091571545</v>
+        <v>0.09257944044210205</v>
       </c>
       <c r="G36">
-        <v>0.2117840264339755</v>
+        <v>3.492754143200163e-6</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37">
-        <v>8.172204261022326</v>
+        <v>6.252734097387901</v>
       </c>
       <c r="B37">
-        <v>-0.17240854000375502</v>
+        <v>-0.09475088182573099</v>
       </c>
       <c r="C37">
-        <v>19.999999999999993</v>
+        <v>20.00020155963685</v>
       </c>
       <c r="D37">
-        <v>0.9944429286387118</v>
+        <v>0.9960623758141159</v>
       </c>
       <c r="E37">
-        <v>0.00416189260796063</v>
+        <v>0.0013433886630861366</v>
       </c>
       <c r="F37">
-        <v>0.10513286477179366</v>
+        <v>0.08862749708580087</v>
       </c>
       <c r="G37">
-        <v>-0.001661874369205379</v>
+        <v>3.240672104392183e-6</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38">
-        <v>8.22494388056763</v>
+        <v>6.284552461775739</v>
       </c>
       <c r="B38">
-        <v>-0.17420987611031719</v>
+        <v>-0.09525898102526405</v>
       </c>
       <c r="C38">
-        <v>19.99999642964262</v>
+        <v>20.00022535765848</v>
       </c>
       <c r="D38">
-        <v>0.991693637694984</v>
+        <v>0.9969855047195458</v>
       </c>
       <c r="E38">
-        <v>0.004388128694210878</v>
+        <v>0.0012373348453792465</v>
       </c>
       <c r="F38">
-        <v>0.12849188604297881</v>
+        <v>0.07773402654590664</v>
       </c>
       <c r="G38">
-        <v>-4.416718855647947e-5</v>
+        <v>-4.927098321263245e-5</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39">
-        <v>8.27648078148682</v>
+        <v>6.309861389195119</v>
       </c>
       <c r="B39">
-        <v>-0.17674205055619854</v>
+        <v>-0.0958468805714878</v>
       </c>
       <c r="C39">
-        <v>19.999742991855815</v>
+        <v>20.00015427062856</v>
       </c>
       <c r="D39">
-        <v>0.9920539965532629</v>
+        <v>0.9980947372632161</v>
       </c>
       <c r="E39">
-        <v>0.006172388707575695</v>
+        <v>0.0014326922696968857</v>
       </c>
       <c r="F39">
-        <v>0.125609586371057</v>
+        <v>0.06186823192666134</v>
       </c>
       <c r="G39">
-        <v>0.0002963147613074188</v>
+        <v>3.32494187778376e-6</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40">
-        <v>8.329290489552356</v>
+        <v>6.342091766570134</v>
       </c>
       <c r="B40">
-        <v>-0.17862988255536463</v>
+        <v>-0.09636019892408589</v>
       </c>
       <c r="C40">
-        <v>19.99999669770926</v>
+        <v>20.000227958173085</v>
       </c>
       <c r="D40">
-        <v>0.9916728750597834</v>
+        <v>0.9969071605069367</v>
       </c>
       <c r="E40">
-        <v>0.004598300787874255</v>
+        <v>0.0012498987134190033</v>
       </c>
       <c r="F40">
-        <v>0.1286354050314609</v>
+        <v>0.07873487317440891</v>
       </c>
       <c r="G40">
-        <v>-0.0001911733017124957</v>
+        <v>-5.059368860630765e-5</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41">
-        <v>8.380777212858765</v>
+        <v>6.372306932766875</v>
       </c>
       <c r="B41">
-        <v>-0.18058957673213036</v>
+        <v>-0.09691978577483235</v>
       </c>
       <c r="C41">
-        <v>19.999762688366346</v>
+        <v>20.000210170994226</v>
       </c>
       <c r="D41">
-        <v>0.9920753319450301</v>
+        <v>0.9972812168928595</v>
       </c>
       <c r="E41">
-        <v>0.004776492554199017</v>
+        <v>0.001363781543137576</v>
       </c>
       <c r="F41">
-        <v>0.12548600042788008</v>
+        <v>0.07382976791509825</v>
       </c>
       <c r="G41">
-        <v>-4.447363707939665e-5</v>
+        <v>-4.401096118046319e-5</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42">
-        <v>8.432285392323742</v>
+        <v>6.409416504504535</v>
       </c>
       <c r="B42">
-        <v>-0.18257282977823508</v>
+        <v>-0.09748449049873344</v>
       </c>
       <c r="C42">
-        <v>19.999760471237405</v>
+        <v>20.000208397371914</v>
       </c>
       <c r="D42">
-        <v>0.9920712383087392</v>
+        <v>0.9958846805657448</v>
       </c>
       <c r="E42">
-        <v>0.004832915646351225</v>
+        <v>0.0013783724605744626</v>
       </c>
       <c r="F42">
-        <v>0.12551618913166784</v>
+        <v>0.09059938785839647</v>
       </c>
       <c r="G42">
-        <v>-0.00013771983884487164</v>
+        <v>3.3642584357824156e-6</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43">
-        <v>8.483798215902876</v>
+        <v>6.44671826869409</v>
       </c>
       <c r="B43">
-        <v>-0.18456319152897613</v>
+        <v>-0.09807122915286663</v>
       </c>
       <c r="C43">
-        <v>19.99975902892298</v>
+        <v>20.00021003367004</v>
       </c>
       <c r="D43">
-        <v>0.9920697057098343</v>
+        <v>0.995841949834811</v>
       </c>
       <c r="E43">
-        <v>0.004850134057622919</v>
+        <v>0.0014321278912134848</v>
       </c>
       <c r="F43">
-        <v>0.125527322799103</v>
+        <v>0.09106643186426167</v>
       </c>
       <c r="G43">
-        <v>-0.0003059459079664804</v>
+        <v>3.3948691377535913e-6</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44">
-        <v>8.53531889969012</v>
+        <v>6.484212697493496</v>
       </c>
       <c r="B44">
-        <v>-0.1855204780626318</v>
+        <v>-0.09864190961260594</v>
       </c>
       <c r="C44">
-        <v>19.999744422778434</v>
+        <v>20.0002117843202</v>
       </c>
       <c r="D44">
-        <v>0.9920780148345304</v>
+        <v>0.9957990069971517</v>
       </c>
       <c r="E44">
-        <v>0.002333386383039847</v>
+        <v>0.0013928909180425393</v>
       </c>
       <c r="F44">
-        <v>0.12554836565939642</v>
+        <v>0.09153480005465599</v>
       </c>
       <c r="G44">
-        <v>0.0007240908921248426</v>
+        <v>3.423414632746235e-6</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45">
-        <v>8.586840675691139</v>
+        <v>6.519904212388029</v>
       </c>
       <c r="B45">
-        <v>-0.18757506281766012</v>
+        <v>-0.09929379798055225</v>
       </c>
       <c r="C45">
-        <v>19.99975148643452</v>
+        <v>20.000196376382934</v>
       </c>
       <c r="D45">
-        <v>0.9920658979938402</v>
+        <v>0.9961923814497954</v>
       </c>
       <c r="E45">
-        <v>0.005006541097836983</v>
+        <v>0.0015915084005453189</v>
       </c>
       <c r="F45">
-        <v>0.12554814468752734</v>
+        <v>0.087151684167821</v>
       </c>
       <c r="G45">
-        <v>-0.00040851237392358695</v>
+        <v>3.1552279910507113e-6</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46">
-        <v>8.668679999849376</v>
+        <v>6.55164312128634</v>
       </c>
       <c r="B46">
-        <v>-0.1886882327919863</v>
+        <v>-0.09986298444877201</v>
       </c>
       <c r="C46">
-        <v>20.116487155827784</v>
+        <v>20.000224351740442</v>
       </c>
       <c r="D46">
-        <v>0.9656523405192579</v>
+        <v>0.9970003566358964</v>
       </c>
       <c r="E46">
-        <v>0.002524298558454595</v>
+        <v>0.0013865884845313484</v>
       </c>
       <c r="F46">
-        <v>0.17878512950479028</v>
+        <v>0.07754022112284419</v>
       </c>
       <c r="G46">
-        <v>0.18715055943655393</v>
+        <v>-4.8881530320527376e-5</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47">
-        <v>9.458440460302112</v>
+        <v>6.587841143268808</v>
       </c>
       <c r="B47">
-        <v>-0.19025468242081192</v>
+        <v>-0.1004262645463536</v>
       </c>
       <c r="C47">
-        <v>21.926019987829562</v>
+        <v>20.000200986340797</v>
       </c>
       <c r="D47">
-        <v>0.722924363547155</v>
+        <v>0.9960839847931537</v>
       </c>
       <c r="E47">
-        <v>0.0013755249325182932</v>
+        <v>0.0013750703341203635</v>
       </c>
       <c r="F47">
-        <v>0.6756579387635101</v>
+        <v>0.08838411303596735</v>
       </c>
       <c r="G47">
-        <v>-0.0011917394875567875</v>
+        <v>3.2273831868516323e-6</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48">
-        <v>9.459743009273843</v>
+        <v>6.62606161681383</v>
       </c>
       <c r="B48">
-        <v>-0.1922916795647771</v>
+        <v>-0.1010263330188222</v>
       </c>
       <c r="C48">
-        <v>21.318432621024883</v>
+        <v>20.000218041633946</v>
       </c>
       <c r="D48">
-        <v>0.9993726513736269</v>
+        <v>0.9956349776235057</v>
       </c>
       <c r="E48">
-        <v>0.00987156288456035</v>
+        <v>0.001464484249394706</v>
       </c>
       <c r="F48">
-        <v>0.006315664815935785</v>
+        <v>0.09329859102266158</v>
       </c>
       <c r="G48">
-        <v>-0.03341883531417179</v>
+        <v>3.5357402121262228e-6</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49">
-        <v>9.45974139393566</v>
+        <v>6.66447691129823</v>
       </c>
       <c r="B49">
-        <v>-0.1923137284595929</v>
+        <v>-0.10170827628716343</v>
       </c>
       <c r="C49">
-        <v>20.77028520091881</v>
+        <v>20.000220352768313</v>
       </c>
       <c r="D49">
-        <v>0.9999999941177816</v>
+        <v>0.9955900339463154</v>
       </c>
       <c r="E49">
-        <v>9.754672013807153e-5</v>
+        <v>0.0016643209628002225</v>
       </c>
       <c r="F49">
-        <v>-7.14646595805019e-6</v>
+        <v>0.09377296751502995</v>
       </c>
       <c r="G49">
-        <v>4.6882854298664006e-5</v>
+        <v>3.5736384127551277e-6</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50">
-        <v>9.459751415912214</v>
+        <v>6.704713394493513</v>
       </c>
       <c r="B50">
-        <v>-0.1923095392719592</v>
+        <v>-0.10238856643294772</v>
       </c>
       <c r="C50">
-        <v>20.254353186796727</v>
+        <v>20.00026423213105</v>
       </c>
       <c r="D50">
-        <v>0.9824212773636702</v>
+        <v>0.9951625788504987</v>
       </c>
       <c r="E50">
-        <v>-1.740791810587814e-5</v>
+        <v>0.0016601217995656295</v>
       </c>
       <c r="F50">
-        <v>4.176565605665657e-5</v>
+        <v>0.09819420006888686</v>
       </c>
       <c r="G50">
-        <v>0.18640449301018772</v>
+        <v>8.135395831997807e-7</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51">
-        <v>9.520359633830271</v>
+        <v>6.737146401626442</v>
       </c>
       <c r="B51">
-        <v>-0.20160660818874002</v>
+        <v>-0.10293104309438864</v>
       </c>
       <c r="C51">
-        <v>20.00001641171317</v>
+        <v>20.00023414461768</v>
       </c>
       <c r="D51">
-        <v>0.9646648262130849</v>
+        <v>0.9968676229559159</v>
       </c>
       <c r="E51">
-        <v>0.027964277759683243</v>
+        <v>0.0013210665488337064</v>
       </c>
       <c r="F51">
-        <v>0.18288882138686977</v>
+        <v>0.07923432203201955</v>
       </c>
       <c r="G51">
-        <v>-0.18612275050109175</v>
+        <v>-5.1302356602197225e-5</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52">
-        <v>9.57195977242744</v>
+        <v>6.776127190590343</v>
       </c>
       <c r="B52">
-        <v>-0.20366657156214593</v>
+        <v>-0.10352692112111417</v>
       </c>
       <c r="C52">
-        <v>19.999725361387476</v>
+        <v>20.00022607094331</v>
       </c>
       <c r="D52">
-        <v>0.9920408951784125</v>
+        <v>0.9954597304042928</v>
       </c>
       <c r="E52">
-        <v>0.005021153270827973</v>
+        <v>0.0014541397558529487</v>
       </c>
       <c r="F52">
-        <v>0.12576619601983732</v>
+        <v>0.09514776193629494</v>
       </c>
       <c r="G52">
-        <v>-0.00036250578787724934</v>
+        <v>3.656819062932192e-6</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53">
-        <v>9.653770718971106</v>
+        <v>6.813499138198775</v>
       </c>
       <c r="B53">
-        <v>-0.20881921234433945</v>
+        <v>-0.10412731256097921</v>
       </c>
       <c r="C53">
-        <v>20.12154378135186</v>
+        <v>20.0002111901647</v>
       </c>
       <c r="D53">
-        <v>0.9657369554724325</v>
+        <v>0.9958261697713798</v>
       </c>
       <c r="E53">
-        <v>0.011307042383526587</v>
+        <v>0.0014654637951902211</v>
       </c>
       <c r="F53">
-        <v>0.17805286127247008</v>
+        <v>0.09123806550399388</v>
       </c>
       <c r="G53">
-        <v>0.18709427973280493</v>
+        <v>3.408618473867968e-6</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54">
-        <v>9.69963069645066</v>
+        <v>6.852868762751613</v>
       </c>
       <c r="B54">
-        <v>-0.2106063026950142</v>
+        <v>-0.10491974875827621</v>
       </c>
       <c r="C54">
-        <v>20.000000000000004</v>
+        <v>20.00022907322212</v>
       </c>
       <c r="D54">
-        <v>0.9922452447419549</v>
+        <v>0.9953681997987612</v>
       </c>
       <c r="E54">
-        <v>0.0048313546613357825</v>
+        <v>0.0019337794534182518</v>
       </c>
       <c r="F54">
-        <v>0.12405719983438213</v>
+        <v>0.09609073729600341</v>
       </c>
       <c r="G54">
-        <v>-0.003983978501520832</v>
+        <v>3.728700903792367e-6</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55">
-        <v>9.75124882805125</v>
+        <v>6.8907017360673235</v>
       </c>
       <c r="B55">
-        <v>-0.21281129721756364</v>
+        <v>-0.10564177298525886</v>
       </c>
       <c r="C55">
-        <v>19.99972012425782</v>
+        <v>20.00021540690742</v>
       </c>
       <c r="D55">
-        <v>0.9920333554121044</v>
+        <v>0.995722243844625</v>
       </c>
       <c r="E55">
-        <v>0.005375120569548828</v>
+        <v>0.001762307812997961</v>
       </c>
       <c r="F55">
-        <v>0.12580886127315527</v>
+        <v>0.09235866821820823</v>
       </c>
       <c r="G55">
-        <v>0.00027657238409848695</v>
+        <v>3.4880913184940923e-6</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56">
-        <v>9.802891180800264</v>
+        <v>6.935417857859401</v>
       </c>
       <c r="B56">
-        <v>-0.21503787876186617</v>
+        <v>-0.10661684039072696</v>
       </c>
       <c r="C56">
-        <v>19.99972480453675</v>
+        <v>20.000423791548624</v>
       </c>
       <c r="D56">
-        <v>0.9920292585995034</v>
+        <v>0.9940274622858977</v>
       </c>
       <c r="E56">
-        <v>0.0054258830141443405</v>
+        <v>0.0023779020504573942</v>
       </c>
       <c r="F56">
-        <v>0.12584120323885406</v>
+        <v>0.10905075139170622</v>
       </c>
       <c r="G56">
-        <v>0.0005983189092041703</v>
+        <v>1.2832505636802233e-6</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57">
-        <v>9.854540190995081</v>
+        <v>6.963898151144365</v>
       </c>
       <c r="B57">
-        <v>-0.21731499241157032</v>
+        <v>-0.10718838022716844</v>
       </c>
       <c r="C57">
-        <v>19.999723260084707</v>
+        <v>20.00020102155008</v>
       </c>
       <c r="D57">
-        <v>0.992026193530801</v>
+        <v>0.9975836666681517</v>
       </c>
       <c r="E57">
-        <v>0.005549692974793455</v>
+        <v>0.0013937470676639715</v>
       </c>
       <c r="F57">
-        <v>0.12585745413149704</v>
+        <v>0.06961077479225919</v>
       </c>
       <c r="G57">
-        <v>0.00040674381353621755</v>
+        <v>-3.88077878879416e-5</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58">
-        <v>9.906196601794072</v>
+        <v>7.000414853001457</v>
       </c>
       <c r="B58">
-        <v>-0.21963822953434822</v>
+        <v>-0.10781328109851934</v>
       </c>
       <c r="C58">
-        <v>19.99972179471787</v>
+        <v>20.000202999554027</v>
       </c>
       <c r="D58">
-        <v>0.992022948133181</v>
+        <v>0.9960147465981349</v>
       </c>
       <c r="E58">
-        <v>0.005662120503586323</v>
+        <v>0.0015254405247067755</v>
       </c>
       <c r="F58">
-        <v>0.12587522501977663</v>
+        <v>0.08915758396970219</v>
       </c>
       <c r="G58">
-        <v>0.00016578527486941857</v>
+        <v>3.277033070214492e-6</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59">
-        <v>9.957860277609079</v>
+        <v>7.040545827539268</v>
       </c>
       <c r="B59">
-        <v>-0.22200069952460572</v>
+        <v>-0.10862107978281026</v>
       </c>
       <c r="C59">
-        <v>19.999720324033927</v>
+        <v>20.000262524742055</v>
       </c>
       <c r="D59">
-        <v>0.992019830483543</v>
+        <v>0.9951874067391052</v>
       </c>
       <c r="E59">
-        <v>0.005757609027827989</v>
+        <v>0.0019712988809204753</v>
       </c>
       <c r="F59">
-        <v>0.12589272717645125</v>
+        <v>0.09793688524063807</v>
       </c>
       <c r="G59">
-        <v>-7.754546158723701e-5</v>
+        <v>8.071768157896646e-7</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60">
-        <v>10.029018349568656</v>
+        <v>7.071210772289519</v>
       </c>
       <c r="B60">
-        <v>-0.24421007854940846</v>
+        <v>-0.10920149594812238</v>
       </c>
       <c r="C60">
-        <v>19.987911511994728</v>
+        <v>20.000215861472206</v>
       </c>
       <c r="D60">
-        <v>0.965604384065906</v>
+        <v>0.9971995167347256</v>
       </c>
       <c r="E60">
-        <v>0.053749745680964925</v>
+        <v>0.001414500561756713</v>
       </c>
       <c r="F60">
-        <v>0.1719038552134231</v>
+        <v>0.07492747916392299</v>
       </c>
       <c r="G60">
-        <v>0.18613681297530507</v>
+        <v>-4.5426963327733266e-5</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61">
-        <v>10.083543967443958</v>
+        <v>7.10942899541342</v>
       </c>
       <c r="B61">
-        <v>-0.24693568048547584</v>
+        <v>-0.11001884382081284</v>
       </c>
       <c r="C61">
-        <v>19.99967541794583</v>
+        <v>20.00021850884793</v>
       </c>
       <c r="D61">
-        <v>0.9912802410273951</v>
+        <v>0.99563448673663</v>
       </c>
       <c r="E61">
-        <v>0.006577423558375139</v>
+        <v>0.001994893279315311</v>
       </c>
       <c r="F61">
-        <v>0.13155180007189768</v>
+        <v>0.09329398433445579</v>
       </c>
       <c r="G61">
-        <v>0.0006235130136186967</v>
+        <v>3.5526212645847277e-6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62">
+        <v>7.149912101077057</v>
+      </c>
+      <c r="B62">
+        <v>-0.11064561622312118</v>
+      </c>
+      <c r="C62">
+        <v>20.00035791149437</v>
+      </c>
+      <c r="D62">
+        <v>0.995103566183205</v>
+      </c>
+      <c r="E62">
+        <v>0.0015294194120025544</v>
+      </c>
+      <c r="F62">
+        <v>0.09878630174068366</v>
+      </c>
+      <c r="G62">
+        <v>1.0470204599140672e-6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63">
+        <v>7.181095114204883</v>
+      </c>
+      <c r="B63">
+        <v>-0.11123622473963252</v>
+      </c>
+      <c r="C63">
+        <v>20.000224550651605</v>
+      </c>
+      <c r="D63">
+        <v>0.9971037467258795</v>
+      </c>
+      <c r="E63">
+        <v>0.0014392223251829242</v>
+      </c>
+      <c r="F63">
+        <v>0.07619467747619808</v>
+      </c>
+      <c r="G63">
+        <v>-4.714947323579749e-5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64">
+        <v>7.128338332282285</v>
+      </c>
+      <c r="B64">
+        <v>-0.11216580433809419</v>
+      </c>
+      <c r="C64">
+        <v>20.000435331116933</v>
+      </c>
+      <c r="D64">
+        <v>0.9916963127556572</v>
+      </c>
+      <c r="E64">
+        <v>0.002264653586888631</v>
+      </c>
+      <c r="F64">
+        <v>-0.1285105668173512</v>
+      </c>
+      <c r="G64">
+        <v>-0.0004092269628447307</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65">
+        <v>7.165631027617243</v>
+      </c>
+      <c r="B65">
+        <v>-0.1128061961774246</v>
+      </c>
+      <c r="C65">
+        <v>20.000216837287994</v>
+      </c>
+      <c r="D65">
+        <v>0.9958425286427576</v>
+      </c>
+      <c r="E65">
+        <v>0.0015633667366981266</v>
+      </c>
+      <c r="F65">
+        <v>0.09105786997485553</v>
+      </c>
+      <c r="G65">
+        <v>3.4239997307514815e-6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66">
+        <v>7.203169476659154</v>
+      </c>
+      <c r="B66">
+        <v>-0.11366512608101727</v>
+      </c>
+      <c r="C66">
+        <v>20.000212429811075</v>
+      </c>
+      <c r="D66">
+        <v>0.9957878870383703</v>
+      </c>
+      <c r="E66">
+        <v>0.0020965831106308026</v>
+      </c>
+      <c r="F66">
+        <v>0.09164213454987816</v>
+      </c>
+      <c r="G66">
+        <v>3.4509241483850042e-6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67">
+        <v>7.244115053035866</v>
+      </c>
+      <c r="B67">
+        <v>-0.11431154569230392</v>
+      </c>
+      <c r="C67">
+        <v>20.00036242158547</v>
+      </c>
+      <c r="D67">
+        <v>0.9949912807021745</v>
+      </c>
+      <c r="E67">
+        <v>0.001577259004980717</v>
+      </c>
+      <c r="F67">
+        <v>0.09990835577192315</v>
+      </c>
+      <c r="G67">
+        <v>1.0803715648572592e-6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68">
+        <v>7.285269826542091</v>
+      </c>
+      <c r="B68">
+        <v>-0.11497037895023712</v>
+      </c>
+      <c r="C68">
+        <v>20.000374442913785</v>
+      </c>
+      <c r="D68">
+        <v>0.9949389814530258</v>
+      </c>
+      <c r="E68">
+        <v>0.0016076734359030509</v>
+      </c>
+      <c r="F68">
+        <v>0.10042645776022509</v>
+      </c>
+      <c r="G68">
+        <v>1.098099081103257e-6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69">
+        <v>7.326608154011361</v>
+      </c>
+      <c r="B69">
+        <v>-0.11562305832056895</v>
+      </c>
+      <c r="C69">
+        <v>20.00037556727214</v>
+      </c>
+      <c r="D69">
+        <v>0.9948937716160765</v>
+      </c>
+      <c r="E69">
+        <v>0.0015926321481555526</v>
+      </c>
+      <c r="F69">
+        <v>0.10087285487161936</v>
+      </c>
+      <c r="G69">
+        <v>1.1192451810981327e-6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70">
+        <v>7.369911157634886</v>
+      </c>
+      <c r="B70">
+        <v>-0.11655865739923982</v>
+      </c>
+      <c r="C70">
+        <v>20.00040818590383</v>
+      </c>
+      <c r="D70">
+        <v>0.9943968623985592</v>
+      </c>
+      <c r="E70">
+        <v>0.0022823776048050844</v>
+      </c>
+      <c r="F70">
+        <v>0.10563804048527997</v>
+      </c>
+      <c r="G70">
+        <v>1.2156812768974237e-6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71">
+        <v>7.411659729358689</v>
+      </c>
+      <c r="B71">
+        <v>-0.11721924752861007</v>
+      </c>
+      <c r="C71">
+        <v>20.000384854531386</v>
+      </c>
+      <c r="D71">
+        <v>0.9947919019693412</v>
+      </c>
+      <c r="E71">
+        <v>0.0016118827267008085</v>
+      </c>
+      <c r="F71">
+        <v>0.10187055162842892</v>
+      </c>
+      <c r="G71">
+        <v>1.1389374419392085e-6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72">
+        <v>7.4503854359016595</v>
+      </c>
+      <c r="B72">
+        <v>-0.11786416991234455</v>
+      </c>
+      <c r="C72">
+        <v>20.000228275789713</v>
+      </c>
+      <c r="D72">
+        <v>0.9955177767558472</v>
+      </c>
+      <c r="E72">
+        <v>0.001574073804071973</v>
+      </c>
+      <c r="F72">
+        <v>0.09453739804563248</v>
+      </c>
+      <c r="G72">
+        <v>3.6394882134551053e-6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73">
+        <v>7.4925342229974365</v>
+      </c>
+      <c r="B73">
+        <v>-0.11871939028420586</v>
+      </c>
+      <c r="C73">
+        <v>20.00038383351028</v>
+      </c>
+      <c r="D73">
+        <v>0.9946923064203308</v>
+      </c>
+      <c r="E73">
+        <v>0.0020864139097541007</v>
+      </c>
+      <c r="F73">
+        <v>0.10282827889760762</v>
+      </c>
+      <c r="G73">
+        <v>1.133020028616569e-6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74">
+        <v>7.534878061153688</v>
+      </c>
+      <c r="B74">
+        <v>-0.11939065536747992</v>
+      </c>
+      <c r="C74">
+        <v>20.00039461352284</v>
+      </c>
+      <c r="D74">
+        <v>0.9946428609821709</v>
+      </c>
+      <c r="E74">
+        <v>0.001637765413155243</v>
+      </c>
+      <c r="F74">
+        <v>0.10331268195099491</v>
+      </c>
+      <c r="G74">
+        <v>1.1626231646255765e-6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75">
+        <v>7.577426231407261</v>
+      </c>
+      <c r="B75">
+        <v>-0.12006516618662696</v>
+      </c>
+      <c r="C75">
+        <v>20.000395248142087</v>
+      </c>
+      <c r="D75">
+        <v>0.9945910543122229</v>
+      </c>
+      <c r="E75">
+        <v>0.0016456523696332386</v>
+      </c>
+      <c r="F75">
+        <v>0.10380924832927282</v>
+      </c>
+      <c r="G75">
+        <v>1.1887224633417554e-6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76">
+        <v>7.620178848591056</v>
+      </c>
+      <c r="B76">
+        <v>-0.12074292145964519</v>
+      </c>
+      <c r="C76">
+        <v>20.000399308469895</v>
+      </c>
+      <c r="D76">
+        <v>0.9945390716203699</v>
+      </c>
+      <c r="E76">
+        <v>0.0016535206607317975</v>
+      </c>
+      <c r="F76">
+        <v>0.10430506446843828</v>
+      </c>
+      <c r="G76">
+        <v>1.196905388877891e-6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77">
+        <v>7.661376374449138</v>
+      </c>
+      <c r="B77">
+        <v>-0.12142577081832745</v>
+      </c>
+      <c r="C77">
+        <v>20.000374548748066</v>
+      </c>
+      <c r="D77">
+        <v>0.9949281133121204</v>
+      </c>
+      <c r="E77">
+        <v>0.0016663136206271673</v>
+      </c>
+      <c r="F77">
+        <v>0.1005329488429764</v>
+      </c>
+      <c r="G77">
+        <v>1.1134349045737627e-6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78">
+        <v>7.70119312863931</v>
+      </c>
+      <c r="B78">
+        <v>-0.12209819564134615</v>
+      </c>
+      <c r="C78">
+        <v>20.00026485651765</v>
+      </c>
+      <c r="D78">
+        <v>0.9952618158985411</v>
+      </c>
+      <c r="E78">
+        <v>0.0016411912534067547</v>
+      </c>
+      <c r="F78">
+        <v>0.09718507110858711</v>
+      </c>
+      <c r="G78">
+        <v>7.783596317207319e-7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79">
+        <v>7.744545841948116</v>
+      </c>
+      <c r="B79">
+        <v>-0.12278587402349075</v>
+      </c>
+      <c r="C79">
+        <v>20.000404741037382</v>
+      </c>
+      <c r="D79">
+        <v>0.9943861143908788</v>
+      </c>
+      <c r="E79">
+        <v>0.0016774296214994721</v>
+      </c>
+      <c r="F79">
+        <v>0.10575031044389907</v>
+      </c>
+      <c r="G79">
+        <v>1.2097488314605407e-6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80">
+        <v>7.788096834530364</v>
+      </c>
+      <c r="B80">
+        <v>-0.12347670323279877</v>
+      </c>
+      <c r="C80">
+        <v>20.00041267914357</v>
+      </c>
+      <c r="D80">
+        <v>0.9943336370480222</v>
+      </c>
+      <c r="E80">
+        <v>0.001685236888369937</v>
+      </c>
+      <c r="F80">
+        <v>0.10624155529033734</v>
+      </c>
+      <c r="G80">
+        <v>1.2436080658119664e-6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81">
+        <v>7.831854040149032</v>
+      </c>
+      <c r="B81">
+        <v>-0.12417080705343163</v>
+      </c>
+      <c r="C81">
+        <v>20.000417251543418</v>
+      </c>
+      <c r="D81">
+        <v>0.9942799241922886</v>
+      </c>
+      <c r="E81">
+        <v>0.0016931836961382501</v>
+      </c>
+      <c r="F81">
+        <v>0.1067419872418195</v>
+      </c>
+      <c r="G81">
+        <v>1.2528442476949355e-6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82">
+        <v>7.86117476664199</v>
+      </c>
+      <c r="B82">
+        <v>-0.12484533934611647</v>
+      </c>
+      <c r="C82">
+        <v>20.00020854392931</v>
+      </c>
+      <c r="D82">
+        <v>0.9974386559111622</v>
+      </c>
+      <c r="E82">
+        <v>0.0016451019475059846</v>
+      </c>
+      <c r="F82">
+        <v>0.07165936374109391</v>
+      </c>
+      <c r="G82">
+        <v>-4.117561102857836e-5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83">
+        <v>7.905290883214833</v>
+      </c>
+      <c r="B83">
+        <v>-0.1255463193799094</v>
+      </c>
+      <c r="C83">
+        <v>20.00041325241802</v>
+      </c>
+      <c r="D83">
+        <v>0.9941876136042096</v>
+      </c>
+      <c r="E83">
+        <v>0.0017096202443126485</v>
+      </c>
+      <c r="F83">
+        <v>0.10759649937095257</v>
+      </c>
+      <c r="G83">
+        <v>1.2549995564599818e-6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84">
+        <v>7.949602311138106</v>
+      </c>
+      <c r="B84">
+        <v>-0.12625040730844966</v>
+      </c>
+      <c r="C84">
+        <v>20.00042572318785</v>
+      </c>
+      <c r="D84">
+        <v>0.9941344640966966</v>
+      </c>
+      <c r="E84">
+        <v>0.0017174016517742497</v>
+      </c>
+      <c r="F84">
+        <v>0.1080853756718342</v>
+      </c>
+      <c r="G84">
+        <v>1.2888564118619507e-6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85">
+        <v>7.994121423143115</v>
+      </c>
+      <c r="B85">
+        <v>-0.12695779963464157</v>
+      </c>
+      <c r="C85">
+        <v>20.00042979841068</v>
+      </c>
+      <c r="D85">
+        <v>0.9940793900065391</v>
+      </c>
+      <c r="E85">
+        <v>0.0017254244282206707</v>
+      </c>
+      <c r="F85">
+        <v>0.10858961774049962</v>
+      </c>
+      <c r="G85">
+        <v>1.3024943072390505e-6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86">
+        <v>8.038849154790233</v>
+      </c>
+      <c r="B86">
+        <v>-0.12766851128117354</v>
+      </c>
+      <c r="C86">
+        <v>20.00043353748738</v>
+      </c>
+      <c r="D86">
+        <v>0.9940238814471317</v>
+      </c>
+      <c r="E86">
+        <v>0.001733472384122232</v>
+      </c>
+      <c r="F86">
+        <v>0.10909544296440227</v>
+      </c>
+      <c r="G86">
+        <v>1.315318998587664e-6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87">
+        <v>8.083785736250654</v>
+      </c>
+      <c r="B87">
+        <v>-0.1283825452416133</v>
+      </c>
+      <c r="C87">
+        <v>20.00043814633116</v>
+      </c>
+      <c r="D87">
+        <v>0.993968062725938</v>
+      </c>
+      <c r="E87">
+        <v>0.0017415257444921824</v>
+      </c>
+      <c r="F87">
+        <v>0.1096016974834207</v>
+      </c>
+      <c r="G87">
+        <v>1.3244136550861427e-6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88">
+        <v>8.128931899203312</v>
+      </c>
+      <c r="B88">
+        <v>-0.12909991466048806</v>
+      </c>
+      <c r="C88">
+        <v>20.00044112069172</v>
+      </c>
+      <c r="D88">
+        <v>0.9939117704379707</v>
+      </c>
+      <c r="E88">
+        <v>0.001749612756568247</v>
+      </c>
+      <c r="F88">
+        <v>0.11010986239353494</v>
+      </c>
+      <c r="G88">
+        <v>1.3412525401820178e-6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89">
+        <v>8.174287356792856</v>
+      </c>
+      <c r="B89">
+        <v>-0.12982061209213408</v>
+      </c>
+      <c r="C89">
+        <v>20.00044751505142</v>
+      </c>
+      <c r="D89">
+        <v>0.9938553342011741</v>
+      </c>
+      <c r="E89">
+        <v>0.001757676010497563</v>
+      </c>
+      <c r="F89">
+        <v>0.1106169238250444</v>
+      </c>
+      <c r="G89">
+        <v>1.3428062948945325e-6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90">
+        <v>8.211422975880957</v>
+      </c>
+      <c r="B90">
+        <v>-0.13056143598191605</v>
+      </c>
+      <c r="C90">
+        <v>20.00021584185666</v>
+      </c>
+      <c r="D90">
+        <v>0.9958769360539376</v>
+      </c>
+      <c r="E90">
+        <v>0.0018086422945701537</v>
+      </c>
+      <c r="F90">
+        <v>0.09067671972206968</v>
+      </c>
+      <c r="G90">
+        <v>3.4081107650068207e-6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91">
+        <v>8.257175375487588</v>
+      </c>
+      <c r="B91">
+        <v>-0.13128928884789998</v>
+      </c>
+      <c r="C91">
+        <v>20.000444335776496</v>
+      </c>
+      <c r="D91">
+        <v>0.9937495998140775</v>
+      </c>
+      <c r="E91">
+        <v>0.0017747358396734618</v>
+      </c>
+      <c r="F91">
+        <v>0.11156062892217831</v>
+      </c>
+      <c r="G91">
+        <v>1.3417996259554428e-6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92">
+        <v>8.303124551273624</v>
+      </c>
+      <c r="B92">
+        <v>-0.13202027852396622</v>
+      </c>
+      <c r="C92">
+        <v>20.00045640926613</v>
+      </c>
+      <c r="D92">
+        <v>0.9936938112493621</v>
+      </c>
+      <c r="E92">
+        <v>0.0017826230066021196</v>
+      </c>
+      <c r="F92">
+        <v>0.11205529055223658</v>
+      </c>
+      <c r="G92">
+        <v>1.3866895635127456e-6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93">
+        <v>8.32871940393607</v>
+      </c>
+      <c r="B93">
+        <v>-0.13269992555887827</v>
+      </c>
+      <c r="C93">
+        <v>20.0001268687317</v>
+      </c>
+      <c r="D93">
+        <v>0.9980561956305817</v>
+      </c>
+      <c r="E93">
+        <v>0.0016435271720546933</v>
+      </c>
+      <c r="F93">
+        <v>0.06259131688196955</v>
+      </c>
+      <c r="G93">
+        <v>-0.0001454138794220857</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94">
+        <v>8.375018451258518</v>
+      </c>
+      <c r="B94">
+        <v>-0.13343800297156155</v>
+      </c>
+      <c r="C94">
+        <v>20.00044835829346</v>
+      </c>
+      <c r="D94">
+        <v>0.9936005547440991</v>
+      </c>
+      <c r="E94">
+        <v>0.0017994046147026138</v>
+      </c>
+      <c r="F94">
+        <v>0.11287724288535851</v>
+      </c>
+      <c r="G94">
+        <v>1.3735344381726002e-6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95">
+        <v>8.421508771708083</v>
+      </c>
+      <c r="B95">
+        <v>-0.13417913540908108</v>
+      </c>
+      <c r="C95">
+        <v>20.000465428238144</v>
+      </c>
+      <c r="D95">
+        <v>0.9935447722552428</v>
+      </c>
+      <c r="E95">
+        <v>0.0018072139622509397</v>
+      </c>
+      <c r="F95">
+        <v>0.11336599411119666</v>
+      </c>
+      <c r="G95">
+        <v>1.424384976655362e-6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96">
+        <v>8.468210179973347</v>
+      </c>
+      <c r="B96">
+        <v>-0.13492363700122526</v>
+      </c>
+      <c r="C96">
+        <v>20.000470960169416</v>
+      </c>
+      <c r="D96">
+        <v>0.993486036570533</v>
+      </c>
+      <c r="E96">
+        <v>0.0018153916074823008</v>
+      </c>
+      <c r="F96">
+        <v>0.11387833571360945</v>
+      </c>
+      <c r="G96">
+        <v>1.4353631116680663e-6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97">
+        <v>8.515124157920559</v>
+      </c>
+      <c r="B97">
+        <v>-0.13567153302497303</v>
+      </c>
+      <c r="C97">
+        <v>20.00047418653088</v>
+      </c>
+      <c r="D97">
+        <v>0.9934267155659351</v>
+      </c>
+      <c r="E97">
+        <v>0.001823616482874458</v>
+      </c>
+      <c r="F97">
+        <v>0.11439342493684655</v>
+      </c>
+      <c r="G97">
+        <v>1.453320745764427e-6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98">
+        <v>8.56225099378071</v>
+      </c>
+      <c r="B98">
+        <v>-0.136422827347588</v>
+      </c>
+      <c r="C98">
+        <v>20.000478261458078</v>
+      </c>
+      <c r="D98">
+        <v>0.9933670752930157</v>
+      </c>
+      <c r="E98">
+        <v>0.0018318461299891636</v>
+      </c>
+      <c r="F98">
+        <v>0.11490891279412416</v>
+      </c>
+      <c r="G98">
+        <v>1.4670577521726613e-6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99">
+        <v>8.609590563590233</v>
+      </c>
+      <c r="B99">
+        <v>-0.1371775164133943</v>
+      </c>
+      <c r="C99">
+        <v>20.000484289806078</v>
+      </c>
+      <c r="D99">
+        <v>0.993307209211588</v>
+      </c>
+      <c r="E99">
+        <v>0.0018400657740515994</v>
+      </c>
+      <c r="F99">
+        <v>0.11542398545822295</v>
+      </c>
+      <c r="G99">
+        <v>1.4726905902902035e-6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100">
+        <v>8.657143829796023</v>
+      </c>
+      <c r="B100">
+        <v>-0.13793561892772369</v>
+      </c>
+      <c r="C100">
+        <v>20.00048667250571</v>
+      </c>
+      <c r="D100">
+        <v>0.9932467561225055</v>
+      </c>
+      <c r="E100">
+        <v>0.001848335887300684</v>
+      </c>
+      <c r="F100">
+        <v>0.11594176553929182</v>
+      </c>
+      <c r="G100">
+        <v>1.495189354498543e-6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101">
+        <v>8.704910370171243</v>
+      </c>
+      <c r="B101">
+        <v>-0.13869712406104776</v>
+      </c>
+      <c r="C101">
+        <v>20.00049368738637</v>
+      </c>
+      <c r="D101">
+        <v>0.9931862255984698</v>
+      </c>
+      <c r="E101">
+        <v>0.0018565698420135194</v>
+      </c>
+      <c r="F101">
+        <v>0.11645783514232909</v>
+      </c>
+      <c r="G101">
+        <v>1.496542782585446e-6</v>
       </c>
     </row>
   </sheetData>

--- a/src/Quadrotor_States.xlsx
+++ b/src/Quadrotor_States.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -428,2302 +428,4602 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>5.05256339220226</v>
+        <v>5.035642387696711</v>
       </c>
       <c r="B2">
-        <v>-0.05844122252062655</v>
+        <v>-0.06809808570749247</v>
       </c>
       <c r="C2">
-        <v>20.00143186137265</v>
+        <v>5.510166466524662</v>
       </c>
       <c r="D2">
-        <v>0.9813605303747358</v>
+        <v>0.9910460816590916</v>
       </c>
       <c r="E2">
-        <v>0.14148139105040888</v>
+        <v>0.11712756812453935</v>
       </c>
       <c r="F2">
-        <v>0.1272251203673557</v>
+        <v>0.061288741055772415</v>
       </c>
       <c r="G2">
-        <v>0.024723616609225535</v>
+        <v>0.018034268124087944</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>5.11076056248141</v>
+        <v>5.10293919217708</v>
       </c>
       <c r="B3">
-        <v>-0.06071164059579578</v>
+        <v>-0.06904291609310334</v>
       </c>
       <c r="C3">
-        <v>20.00107478390545</v>
+        <v>6.01798165698084</v>
       </c>
       <c r="D3">
-        <v>0.9898582067425725</v>
+        <v>0.9932373008245485</v>
       </c>
       <c r="E3">
-        <v>0.005522851286703152</v>
+        <v>0.0016299756652217424</v>
       </c>
       <c r="F3">
-        <v>0.14167441330103497</v>
+        <v>0.1160305630398293</v>
       </c>
       <c r="G3">
-        <v>-0.006930829388904424</v>
+        <v>-0.00046299348573926053</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>5.1684783856700145</v>
+        <v>5.170422899056915</v>
       </c>
       <c r="B4">
-        <v>-0.08051854957723338</v>
+        <v>-0.06656857854675277</v>
       </c>
       <c r="C4">
-        <v>20.001671429779517</v>
+        <v>6.525849044879631</v>
       </c>
       <c r="D4">
-        <v>0.984634327489087</v>
+        <v>0.9931929366535261</v>
       </c>
       <c r="E4">
-        <v>0.04792520215181346</v>
+        <v>-0.004264180693289705</v>
       </c>
       <c r="F4">
-        <v>0.1398652232141237</v>
+        <v>0.11634765994188782</v>
       </c>
       <c r="G4">
-        <v>-0.09238854239295884</v>
+        <v>0.0011369127075967758</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>5.226578176273162</v>
+        <v>5.237884663824209</v>
       </c>
       <c r="B5">
-        <v>-0.08105974170966172</v>
+        <v>-0.08020509865339244</v>
       </c>
       <c r="C5">
-        <v>20.000804308682152</v>
+        <v>7.034018569092713</v>
       </c>
       <c r="D5">
-        <v>0.9899196759961719</v>
+        <v>0.9929149928723985</v>
       </c>
       <c r="E5">
-        <v>0.0013188506606451298</v>
+        <v>0.0234999856006796</v>
       </c>
       <c r="F5">
-        <v>0.1415178342017879</v>
+        <v>0.11627316753755994</v>
       </c>
       <c r="G5">
-        <v>-0.0004791764466615682</v>
+        <v>-0.005755529940172351</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>5.2854450678618665</v>
+        <v>5.30531085988926</v>
       </c>
       <c r="B6">
-        <v>-0.07396125035796328</v>
+        <v>-0.08511916089136681</v>
       </c>
       <c r="C6">
-        <v>20.000080485149116</v>
+        <v>7.541903323573031</v>
       </c>
       <c r="D6">
-        <v>0.9888919381260376</v>
+        <v>0.9931776854879131</v>
       </c>
       <c r="E6">
-        <v>-0.017245956196137304</v>
+        <v>0.0084713781419799</v>
       </c>
       <c r="F6">
-        <v>0.14324940440950862</v>
+        <v>0.1162480157732346</v>
       </c>
       <c r="G6">
-        <v>0.035085584126304734</v>
+        <v>-0.0007462041899138481</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>5.3143356187040895</v>
+        <v>5.350014088222509</v>
       </c>
       <c r="B7">
-        <v>-0.07436331218336774</v>
+        <v>-0.08677656847813871</v>
       </c>
       <c r="C7">
-        <v>20.000192236432568</v>
+        <v>8.04536954534289</v>
       </c>
       <c r="D7">
-        <v>0.9975152068822354</v>
+        <v>0.9969934151763415</v>
       </c>
       <c r="E7">
-        <v>0.0009793679428433543</v>
+        <v>0.0028702763201767594</v>
       </c>
       <c r="F7">
-        <v>0.07059424828852673</v>
+        <v>0.07741662245342047</v>
       </c>
       <c r="G7">
-        <v>-4.006622040721618e-5</v>
+        <v>1.6110811892920391e-6</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>5.343365704338772</v>
+        <v>5.417481379715789</v>
       </c>
       <c r="B8">
-        <v>-0.07476728490600479</v>
+        <v>-0.08532454403049479</v>
       </c>
       <c r="C8">
-        <v>20.00019759333767</v>
+        <v>8.553225820883137</v>
       </c>
       <c r="D8">
-        <v>0.9974907750022312</v>
+        <v>0.9932022297901502</v>
       </c>
       <c r="E8">
-        <v>0.0009840045285681989</v>
+        <v>-0.00250276032653211</v>
       </c>
       <c r="F8">
-        <v>0.07093982718296842</v>
+        <v>0.11632084234706769</v>
       </c>
       <c r="G8">
-        <v>-4.057107292378602e-5</v>
+        <v>0.00019004168641474092</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>5.291838821239579</v>
+        <v>5.48502621037789</v>
       </c>
       <c r="B9">
-        <v>-0.07542591637229533</v>
+        <v>-0.08669212174884236</v>
       </c>
       <c r="C9">
-        <v>20.000335027439597</v>
+        <v>9.061099104020863</v>
       </c>
       <c r="D9">
-        <v>0.9920772578673986</v>
+        <v>0.9931910290457827</v>
       </c>
       <c r="E9">
-        <v>0.0016045974096886406</v>
+        <v>0.002353511008044727</v>
       </c>
       <c r="F9">
-        <v>-0.1255463221385169</v>
+        <v>0.11645522468366813</v>
       </c>
       <c r="G9">
-        <v>8.062645461824147e-5</v>
+        <v>-0.0004022020349415138</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>5.3501369979533955</v>
+        <v>5.55252356826896</v>
       </c>
       <c r="B10">
-        <v>-0.07544927369210747</v>
+        <v>-0.08724105105666906</v>
       </c>
       <c r="C10">
-        <v>20.000733752554407</v>
+        <v>9.568959556753212</v>
       </c>
       <c r="D10">
-        <v>0.9898698828548463</v>
+        <v>0.993198530918748</v>
       </c>
       <c r="E10">
-        <v>5.678532436579376e-5</v>
+        <v>0.0009467770875848457</v>
       </c>
       <c r="F10">
-        <v>0.14185778907201763</v>
+        <v>0.11637307311820991</v>
       </c>
       <c r="G10">
-        <v>-6.362162447042821e-5</v>
+        <v>-0.00014468063654611536</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>5.408301406749585</v>
+        <v>5.620072292538352</v>
       </c>
       <c r="B11">
-        <v>-0.07566838488423157</v>
+        <v>-0.10281652465791541</v>
       </c>
       <c r="C11">
-        <v>20.000732340891766</v>
+        <v>10.077245932376933</v>
       </c>
       <c r="D11">
-        <v>0.9899095689873284</v>
+        <v>0.992805220597311</v>
       </c>
       <c r="E11">
-        <v>0.000532766495051208</v>
+        <v>0.02683754112284901</v>
       </c>
       <c r="F11">
-        <v>0.14158089241858893</v>
+        <v>0.11640878232003676</v>
       </c>
       <c r="G11">
-        <v>-0.0007477130675819267</v>
+        <v>-0.00714023071116033</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>5.466571961388493</v>
+        <v>5.687497185848088</v>
       </c>
       <c r="B12">
-        <v>-0.07589222356858445</v>
+        <v>-0.11109631875155694</v>
       </c>
       <c r="C12">
-        <v>20.00074804988271</v>
+        <v>10.585206113918604</v>
       </c>
       <c r="D12">
-        <v>0.9898732753827215</v>
+        <v>0.9931059191742464</v>
       </c>
       <c r="E12">
-        <v>0.0005445769561241475</v>
+        <v>0.01427188071298898</v>
       </c>
       <c r="F12">
-        <v>0.14183467231560068</v>
+        <v>0.11623584994365678</v>
       </c>
       <c r="G12">
-        <v>-0.00033377065565802445</v>
+        <v>-0.0033850119420871386</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>5.525363663629996</v>
+        <v>5.754931277613334</v>
       </c>
       <c r="B13">
-        <v>-0.08240738038047872</v>
+        <v>-0.11502730997143248</v>
       </c>
       <c r="C13">
-        <v>20.0001140689421</v>
+        <v>11.093077824196243</v>
       </c>
       <c r="D13">
-        <v>0.9890385101529628</v>
+        <v>0.9931883633609675</v>
       </c>
       <c r="E13">
-        <v>0.015829318388100706</v>
+        <v>0.006777865553197745</v>
       </c>
       <c r="F13">
-        <v>0.14307203455792467</v>
+        <v>0.11626172143400709</v>
       </c>
       <c r="G13">
-        <v>-0.032253472255864696</v>
+        <v>-0.0011855742121240813</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>5.58380043877666</v>
+        <v>5.822492597855638</v>
       </c>
       <c r="B14">
-        <v>-0.08447006129884267</v>
+        <v>-0.11528439295792003</v>
       </c>
       <c r="C14">
-        <v>20.001098893667425</v>
+        <v>11.600952879575974</v>
       </c>
       <c r="D14">
-        <v>0.9898029480410018</v>
+        <v>0.9931877752841167</v>
       </c>
       <c r="E14">
-        <v>0.005012848475338384</v>
+        <v>0.0004444708670780838</v>
       </c>
       <c r="F14">
-        <v>0.14211792395828657</v>
+        <v>0.11647961892518342</v>
       </c>
       <c r="G14">
-        <v>-0.006055400464256392</v>
+        <v>-0.0008432152320985844</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>5.642097338112591</v>
+        <v>5.890062541069258</v>
       </c>
       <c r="B15">
-        <v>-0.08363419439453906</v>
+        <v>-0.11303877144501558</v>
       </c>
       <c r="C15">
-        <v>20.00090522575166</v>
+        <v>12.10883779666348</v>
       </c>
       <c r="D15">
-        <v>0.9898631385921257</v>
+        <v>0.9931770543196596</v>
       </c>
       <c r="E15">
-        <v>-0.0020333734981008425</v>
+        <v>-0.0038712785196472832</v>
       </c>
       <c r="F15">
-        <v>0.14191516931318227</v>
+        <v>0.11649507861399655</v>
       </c>
       <c r="G15">
-        <v>0.00013667392940023377</v>
+        <v>0.00049210356855309</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>5.70033364099307</v>
+        <v>5.957529455678412</v>
       </c>
       <c r="B16">
-        <v>-0.0841308562867962</v>
+        <v>-0.1127463573809303</v>
       </c>
       <c r="C16">
-        <v>20.000816268325767</v>
+        <v>12.616691015755016</v>
       </c>
       <c r="D16">
-        <v>0.9898850934940449</v>
+        <v>0.9932051814105872</v>
       </c>
       <c r="E16">
-        <v>0.0012099151311252524</v>
+        <v>-0.0005029682143334494</v>
       </c>
       <c r="F16">
-        <v>0.1417604383488843</v>
+        <v>0.11632033697073788</v>
       </c>
       <c r="G16">
-        <v>-0.00026489879397713573</v>
+        <v>-5.728100324478417e-6</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>5.7584543094192435</v>
+        <v>6.025368658780118</v>
       </c>
       <c r="B17">
-        <v>-0.08436028052698004</v>
+        <v>-0.12912255287239235</v>
       </c>
       <c r="C17">
-        <v>20.00072623932265</v>
+        <v>13.12508788756249</v>
       </c>
       <c r="D17">
-        <v>0.9899233591202234</v>
+        <v>0.9926609025781684</v>
       </c>
       <c r="E17">
-        <v>0.0005581938204134648</v>
+        <v>0.02820963637748603</v>
       </c>
       <c r="F17">
-        <v>0.14148554893856416</v>
+        <v>0.11689280867851502</v>
       </c>
       <c r="G17">
-        <v>-0.00038859720060776366</v>
+        <v>-0.012128462265723368</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>5.7969343425026825</v>
+        <v>6.092999754954365</v>
       </c>
       <c r="B18">
-        <v>-0.08490905290123966</v>
+        <v>-0.11900846318449743</v>
       </c>
       <c r="C18">
-        <v>20.00023635187211</v>
+        <v>13.633153362335266</v>
       </c>
       <c r="D18">
-        <v>0.9955727122277686</v>
+        <v>0.9930081230606538</v>
       </c>
       <c r="E18">
-        <v>0.00133972896642274</v>
+        <v>-0.017430187178347357</v>
       </c>
       <c r="F18">
-        <v>0.09396144065292306</v>
+        <v>0.11657857331843251</v>
       </c>
       <c r="G18">
-        <v>3.6366418054158317e-6</v>
+        <v>0.005060926854779322</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>5.826658704816033</v>
+        <v>6.160514681423837</v>
       </c>
       <c r="B19">
-        <v>-0.08535026066052014</v>
+        <v>-0.12038187423499229</v>
       </c>
       <c r="C19">
-        <v>20.00020572790846</v>
+        <v>14.141019750498144</v>
       </c>
       <c r="D19">
-        <v>0.9973691058616836</v>
+        <v>0.9931988704734594</v>
       </c>
       <c r="E19">
-        <v>0.0010747425341568052</v>
+        <v>0.002368284790075792</v>
       </c>
       <c r="F19">
-        <v>0.07263415977871976</v>
+        <v>0.11640437592751625</v>
       </c>
       <c r="G19">
-        <v>-4.2686213924921896e-5</v>
+        <v>-0.00026068591846056506</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>5.851114660649399</v>
+        <v>6.2282609092076</v>
       </c>
       <c r="B20">
-        <v>-0.08577688921553529</v>
+        <v>-0.1057095808385932</v>
       </c>
       <c r="C20">
-        <v>20.00014747065011</v>
+        <v>14.649304440961828</v>
       </c>
       <c r="D20">
-        <v>0.9982216006181608</v>
+        <v>0.9927664008307068</v>
       </c>
       <c r="E20">
-        <v>0.0010388818232311436</v>
+        <v>-0.025275929423140324</v>
       </c>
       <c r="F20">
-        <v>0.059786007815439315</v>
+        <v>0.11674643177392004</v>
       </c>
       <c r="G20">
-        <v>2.2016698705789743e-6</v>
+        <v>0.01143777407518259</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>5.882805685398091</v>
+        <v>6.29564859171105</v>
       </c>
       <c r="B21">
-        <v>-0.0862385551302805</v>
+        <v>-0.1053143896723687</v>
       </c>
       <c r="C21">
-        <v>20.00022204941989</v>
+        <v>15.157139556277846</v>
       </c>
       <c r="D21">
-        <v>0.9970099208659771</v>
+        <v>0.9932204605858806</v>
       </c>
       <c r="E21">
-        <v>0.001123950640681896</v>
+        <v>-0.0006799228602852598</v>
       </c>
       <c r="F21">
-        <v>0.07742098414733362</v>
+        <v>0.11618601141802147</v>
       </c>
       <c r="G21">
-        <v>-4.889961331892929e-5</v>
+        <v>-0.0005799559380260811</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>5.912982926575449</v>
+        <v>6.363501071084612</v>
       </c>
       <c r="B22">
-        <v>-0.0866861666409225</v>
+        <v>-0.11954312151861203</v>
       </c>
       <c r="C22">
-        <v>20.00020956888301</v>
+        <v>15.665425242431501</v>
       </c>
       <c r="D22">
-        <v>0.9972883918363374</v>
+        <v>0.99265707885901</v>
       </c>
       <c r="E22">
-        <v>0.0010902177000794802</v>
+        <v>0.024505017487351507</v>
       </c>
       <c r="F22">
-        <v>0.07373706255941133</v>
+        <v>0.11692211182324345</v>
       </c>
       <c r="G22">
-        <v>-4.4087601270241705e-5</v>
+        <v>-0.018497884232292042</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>5.861581212815967</v>
+        <v>6.431827175729046</v>
       </c>
       <c r="B23">
-        <v>-0.08742200780437767</v>
+        <v>-0.13863046499185566</v>
       </c>
       <c r="C23">
-        <v>20.0001751638801</v>
+        <v>16.174095240106855</v>
       </c>
       <c r="D23">
-        <v>0.9921139309567493</v>
+        <v>0.9921436836501583</v>
       </c>
       <c r="E23">
-        <v>0.001791947391671434</v>
+        <v>0.03285411621691605</v>
       </c>
       <c r="F23">
-        <v>-0.12525979842956414</v>
+        <v>0.11767831669464261</v>
       </c>
       <c r="G23">
-        <v>0.0004020569674987747</v>
+        <v>-0.026487695920814326</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>5.893321995617409</v>
+        <v>6.503381821458273</v>
       </c>
       <c r="B24">
-        <v>-0.08789246950747684</v>
+        <v>-0.13568689444200652</v>
       </c>
       <c r="C24">
-        <v>20.00022357954719</v>
+        <v>16.68293605559262</v>
       </c>
       <c r="D24">
-        <v>0.9970003938422647</v>
+        <v>0.9923563153859251</v>
       </c>
       <c r="E24">
-        <v>0.0011454216386328246</v>
+        <v>-0.005068882027521012</v>
       </c>
       <c r="F24">
-        <v>0.07754365694734629</v>
+        <v>0.12324697443856697</v>
       </c>
       <c r="G24">
-        <v>-4.90687957961616e-5</v>
+        <v>0.00043104224052851743</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>5.925215361395892</v>
+        <v>6.5780083181880515</v>
       </c>
       <c r="B25">
-        <v>-0.08836514976965812</v>
+        <v>-0.14079293741559132</v>
       </c>
       <c r="C25">
-        <v>20.000226940481916</v>
+        <v>17.19257314711885</v>
       </c>
       <c r="D25">
-        <v>0.9969712998571322</v>
+        <v>0.9916622414550411</v>
       </c>
       <c r="E25">
-        <v>0.0011507888610459186</v>
+        <v>0.008786099073881322</v>
       </c>
       <c r="F25">
-        <v>0.07791788523657432</v>
+        <v>0.12843199445281922</v>
       </c>
       <c r="G25">
-        <v>-4.960937447209101e-5</v>
+        <v>-0.0039061680505370804</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>5.957264156600536</v>
+        <v>6.6583704695655825</v>
       </c>
       <c r="B26">
-        <v>-0.0888400883053766</v>
+        <v>-0.13322076671624586</v>
       </c>
       <c r="C26">
-        <v>20.000228693927234</v>
+        <v>17.70377819517014</v>
       </c>
       <c r="D26">
-        <v>0.9969417052335487</v>
+        <v>0.990295735087506</v>
       </c>
       <c r="E26">
-        <v>0.001156242348637936</v>
+        <v>-0.013004487980652138</v>
       </c>
       <c r="F26">
-        <v>0.07829661391739091</v>
+        <v>0.13808463105037505</v>
       </c>
       <c r="G26">
-        <v>-5.012518414071884e-5</v>
+        <v>0.007110946144095703</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>5.9894689859710315</v>
+        <v>6.743573729302295</v>
       </c>
       <c r="B27">
-        <v>-0.08931729320841619</v>
+        <v>-0.13278390164441975</v>
       </c>
       <c r="C27">
-        <v>20.000230405514404</v>
+        <v>18.216247843784316</v>
       </c>
       <c r="D27">
-        <v>0.9969118578490196</v>
+        <v>0.9892322462634335</v>
       </c>
       <c r="E27">
-        <v>0.0011617144838369914</v>
+        <v>-0.0007492109909173709</v>
       </c>
       <c r="F27">
-        <v>0.07867671202841886</v>
+        <v>0.14621980281166355</v>
       </c>
       <c r="G27">
-        <v>-5.0643844935645955e-5</v>
+        <v>0.0006317692002020403</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>6.021830371563342</v>
+        <v>6.830074132516668</v>
       </c>
       <c r="B28">
-        <v>-0.08979677139661732</v>
+        <v>-0.13254639383864486</v>
       </c>
       <c r="C28">
-        <v>20.000232131788</v>
+        <v>18.729094055374343</v>
       </c>
       <c r="D28">
-        <v>0.9968817656261437</v>
+        <v>0.9889083022650177</v>
       </c>
       <c r="E28">
-        <v>0.0011672027367477529</v>
+        <v>-0.0004073298341107639</v>
       </c>
       <c r="F28">
-        <v>0.07905806227526865</v>
+        <v>0.14838962151905075</v>
       </c>
       <c r="G28">
-        <v>-5.1166361313906966e-5</v>
+        <v>0.00013645497563962217</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>6.054348830812312</v>
+        <v>6.912608918274305</v>
       </c>
       <c r="B29">
-        <v>-0.09027852971249817</v>
+        <v>-0.13272029437571747</v>
       </c>
       <c r="C29">
-        <v>20.000233874912762</v>
+        <v>19.162802220878017</v>
       </c>
       <c r="D29">
-        <v>0.9968514277812222</v>
+        <v>0.9889232386020906</v>
       </c>
       <c r="E29">
-        <v>0.0011727069296640553</v>
+        <v>0.00031335595295587455</v>
       </c>
       <c r="F29">
-        <v>0.0794406562101629</v>
+        <v>0.1483382082024608</v>
       </c>
       <c r="G29">
-        <v>-5.169277534842531e-5</v>
+        <v>0.0006971885970310698</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>6.085336245689358</v>
+        <v>6.992712268840959</v>
       </c>
       <c r="B30">
-        <v>-0.09074654901060815</v>
+        <v>-0.13187507241575375</v>
       </c>
       <c r="C30">
-        <v>20.000218021308118</v>
+        <v>19.547677550261096</v>
       </c>
       <c r="D30">
-        <v>0.997140804656919</v>
+        <v>0.9889223552672775</v>
       </c>
       <c r="E30">
-        <v>0.0011397673295638134</v>
+        <v>-0.0015648393888433197</v>
       </c>
       <c r="F30">
-        <v>0.0757116453463124</v>
+        <v>0.14833035308222975</v>
       </c>
       <c r="G30">
-        <v>-4.665349353956287e-5</v>
+        <v>-0.0003759463777802889</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <v>6.1181631669564105</v>
+        <v>7.09273270801995</v>
       </c>
       <c r="B31">
-        <v>-0.09123283119173205</v>
+        <v>-0.08761388026092976</v>
       </c>
       <c r="C31">
-        <v>20.000236688709105</v>
+        <v>19.93908217541484</v>
       </c>
       <c r="D31">
-        <v>0.9967914992816519</v>
+        <v>0.9769973315168811</v>
       </c>
       <c r="E31">
-        <v>0.0011836235186213635</v>
+        <v>-0.081130434033784</v>
       </c>
       <c r="F31">
-        <v>0.08019097501092047</v>
+        <v>0.1832084173424336</v>
       </c>
       <c r="G31">
-        <v>-5.2718180835901076e-5</v>
+        <v>-0.0716259524463152</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
-        <v>6.143341003839844</v>
+        <v>7.151472887465271</v>
       </c>
       <c r="B32">
-        <v>-0.09168922704343238</v>
+        <v>-0.08780702885446874</v>
       </c>
       <c r="C32">
-        <v>20.00015366327127</v>
+        <v>19.999999557783056</v>
       </c>
       <c r="D32">
-        <v>0.9981148127245377</v>
+        <v>0.9906574223067584</v>
       </c>
       <c r="E32">
-        <v>0.0011113246007057106</v>
+        <v>0.0004478130064938394</v>
       </c>
       <c r="F32">
-        <v>0.06154885451038006</v>
+        <v>0.13626682634187087</v>
       </c>
       <c r="G32">
-        <v>2.4911410207325326e-6</v>
+        <v>-0.00033092467529650276</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
-        <v>6.106873300528015</v>
+        <v>7.212068886248305</v>
       </c>
       <c r="B33">
-        <v>-0.09247406084633998</v>
+        <v>-0.09269266931768215</v>
       </c>
       <c r="C33">
-        <v>20.000201354898685</v>
+        <v>19.999999999998327</v>
       </c>
       <c r="D33">
-        <v>0.9960248563666421</v>
+        <v>0.9886606624074102</v>
       </c>
       <c r="E33">
-        <v>0.0019161708191343283</v>
+        <v>0.011863655082836256</v>
       </c>
       <c r="F33">
-        <v>-0.08903529909198835</v>
+        <v>0.14739595993789414</v>
       </c>
       <c r="G33">
-        <v>4.888287996912392e-6</v>
+        <v>-0.025291021523176787</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
-        <v>6.142598365232279</v>
+        <v>7.272807855801512</v>
       </c>
       <c r="B34">
-        <v>-0.09301529084320544</v>
+        <v>-0.09379875407628091</v>
       </c>
       <c r="C34">
-        <v>20.000196324337566</v>
+        <v>19.99967373754761</v>
       </c>
       <c r="D34">
-        <v>0.9961856779373339</v>
+        <v>0.9889954595703678</v>
       </c>
       <c r="E34">
-        <v>0.001321288996765934</v>
+        <v>0.0026930512489050733</v>
       </c>
       <c r="F34">
-        <v>0.08723269848816681</v>
+        <v>0.14781865940241498</v>
       </c>
       <c r="G34">
-        <v>3.152009384111711e-6</v>
+        <v>4.214820211013949e-5</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
-        <v>6.178511168157083</v>
+        <v>7.333560331200581</v>
       </c>
       <c r="B35">
-        <v>-0.09355936882607901</v>
+        <v>-0.09439938154985064</v>
       </c>
       <c r="C35">
-        <v>20.000197737409064</v>
+        <v>19.99961385110187</v>
       </c>
       <c r="D35">
-        <v>0.9961455623931134</v>
+        <v>0.9889944251988786</v>
       </c>
       <c r="E35">
-        <v>0.0013282067255424076</v>
+        <v>0.0014620187663355016</v>
       </c>
       <c r="F35">
-        <v>0.08768895563085438</v>
+        <v>0.14782112169984654</v>
       </c>
       <c r="G35">
-        <v>3.179886703514076e-6</v>
+        <v>-0.0007165667356065092</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36">
-        <v>6.216435763569733</v>
+        <v>7.388006324011366</v>
       </c>
       <c r="B36">
-        <v>-0.09420056651458276</v>
+        <v>-0.08134339156871156</v>
       </c>
       <c r="C36">
-        <v>20.000215268118385</v>
+        <v>19.999999999999993</v>
       </c>
       <c r="D36">
-        <v>0.9957020447261691</v>
+        <v>0.9903819236196671</v>
       </c>
       <c r="E36">
-        <v>0.0015649402543437385</v>
+        <v>-0.03176118436971427</v>
       </c>
       <c r="F36">
-        <v>0.09257944044210205</v>
+        <v>0.132527473683233</v>
       </c>
       <c r="G36">
-        <v>3.492754143200163e-6</v>
+        <v>0.023226587464358715</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37">
-        <v>6.252734097387901</v>
+        <v>7.4483781664425806</v>
       </c>
       <c r="B37">
-        <v>-0.09475088182573099</v>
+        <v>-0.09532179323928394</v>
       </c>
       <c r="C37">
-        <v>20.00020155963685</v>
+        <v>19.999999995356912</v>
       </c>
       <c r="D37">
-        <v>0.9960623758141159</v>
+        <v>0.9867303801329295</v>
       </c>
       <c r="E37">
-        <v>0.0013433886630861366</v>
+        <v>0.033907921743392196</v>
       </c>
       <c r="F37">
-        <v>0.08862749708580087</v>
+        <v>0.146654745134995</v>
       </c>
       <c r="G37">
-        <v>3.240672104392183e-6</v>
+        <v>-0.06031302732196128</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38">
-        <v>6.284552461775739</v>
+        <v>7.394803479378491</v>
       </c>
       <c r="B38">
-        <v>-0.09525898102526405</v>
+        <v>-0.09578692875245662</v>
       </c>
       <c r="C38">
-        <v>20.00022535765848</v>
+        <v>19.999580602931488</v>
       </c>
       <c r="D38">
-        <v>0.9969855047195458</v>
+        <v>0.9914286673355321</v>
       </c>
       <c r="E38">
-        <v>0.0012373348453792465</v>
+        <v>0.0011330174031034352</v>
       </c>
       <c r="F38">
-        <v>0.07773402654590664</v>
+        <v>-0.13055297322486745</v>
       </c>
       <c r="G38">
-        <v>-4.927098321263245e-5</v>
+        <v>0.00035867315027278467</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39">
-        <v>6.309861389195119</v>
+        <v>7.445305093548706</v>
       </c>
       <c r="B39">
-        <v>-0.0958468805714878</v>
+        <v>-0.09708865396267972</v>
       </c>
       <c r="C39">
-        <v>20.00015427062856</v>
+        <v>19.999999999999993</v>
       </c>
       <c r="D39">
-        <v>0.9980947372632161</v>
+        <v>0.9923852907608461</v>
       </c>
       <c r="E39">
-        <v>0.0014326922696968857</v>
+        <v>0.003171712109361785</v>
       </c>
       <c r="F39">
-        <v>0.06186823192666134</v>
+        <v>0.12305325014252529</v>
       </c>
       <c r="G39">
-        <v>3.32494187778376e-6</v>
+        <v>-0.00016595310639291004</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40">
-        <v>6.342091766570134</v>
+        <v>7.484127070123657</v>
       </c>
       <c r="B40">
-        <v>-0.09636019892408589</v>
+        <v>-0.097628242374842</v>
       </c>
       <c r="C40">
-        <v>20.000227958173085</v>
+        <v>19.99977938589074</v>
       </c>
       <c r="D40">
-        <v>0.9969071605069367</v>
+        <v>0.9954948828808281</v>
       </c>
       <c r="E40">
-        <v>0.0012498987134190033</v>
+        <v>0.0013173099800393823</v>
       </c>
       <c r="F40">
-        <v>0.07873487317440891</v>
+        <v>0.09478062098571684</v>
       </c>
       <c r="G40">
-        <v>-5.059368860630765e-5</v>
+        <v>3.97712364276925e-6</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41">
-        <v>6.372306932766875</v>
+        <v>7.497541826326916</v>
       </c>
       <c r="B41">
-        <v>-0.09691978577483235</v>
+        <v>-0.09860106174920759</v>
       </c>
       <c r="C41">
-        <v>20.000210170994226</v>
+        <v>19.999779363399245</v>
       </c>
       <c r="D41">
-        <v>0.9972812168928595</v>
+        <v>0.9994912101538135</v>
       </c>
       <c r="E41">
-        <v>0.001363781543137576</v>
+        <v>0.0023545438981898764</v>
       </c>
       <c r="F41">
-        <v>0.07382976791509825</v>
+        <v>0.03285493320498619</v>
       </c>
       <c r="G41">
-        <v>-4.401096118046319e-5</v>
+        <v>-0.00023871845504845127</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42">
-        <v>6.409416504504535</v>
+        <v>7.55136836196287</v>
       </c>
       <c r="B42">
-        <v>-0.09748449049873344</v>
+        <v>-0.09942408514618711</v>
       </c>
       <c r="C42">
-        <v>20.000208397371914</v>
+        <v>19.99961090449558</v>
       </c>
       <c r="D42">
-        <v>0.9958846805657448</v>
+        <v>0.9913534711832312</v>
       </c>
       <c r="E42">
-        <v>0.0013783724605744626</v>
+        <v>0.0020051795207671613</v>
       </c>
       <c r="F42">
-        <v>0.09059938785839647</v>
+        <v>0.13113543655483068</v>
       </c>
       <c r="G42">
-        <v>3.3642584357824156e-6</v>
+        <v>-6.550958800583505e-5</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43">
-        <v>6.44671826869409</v>
+        <v>7.60509487448715</v>
       </c>
       <c r="B43">
-        <v>-0.09807122915286663</v>
+        <v>-0.0845358289164677</v>
       </c>
       <c r="C43">
-        <v>20.00021003367004</v>
+        <v>19.999999999999964</v>
       </c>
       <c r="D43">
-        <v>0.995841949834811</v>
+        <v>0.9905099239831863</v>
       </c>
       <c r="E43">
-        <v>0.0014321278912134848</v>
+        <v>-0.03622557737060998</v>
       </c>
       <c r="F43">
-        <v>0.09106643186426167</v>
+        <v>0.13078639732218972</v>
       </c>
       <c r="G43">
-        <v>3.3948691377535913e-6</v>
+        <v>0.02102110108413239</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44">
-        <v>6.484212697493496</v>
+        <v>7.648054192393927</v>
       </c>
       <c r="B44">
-        <v>-0.09864190961260594</v>
+        <v>-0.08501370161972714</v>
       </c>
       <c r="C44">
-        <v>20.0002117843202</v>
+        <v>19.999676064806607</v>
       </c>
       <c r="D44">
-        <v>0.9957990069971517</v>
+        <v>0.9944836654019876</v>
       </c>
       <c r="E44">
-        <v>0.0013928909180425393</v>
+        <v>0.0011662213338814633</v>
       </c>
       <c r="F44">
-        <v>0.09153480005465599</v>
+        <v>0.10483712902632218</v>
       </c>
       <c r="G44">
-        <v>3.423414632746235e-6</v>
+        <v>1.7648972717765037e-6</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45">
-        <v>6.519904212388029</v>
+        <v>7.698854018289018</v>
       </c>
       <c r="B45">
-        <v>-0.09929379798055225</v>
+        <v>-0.08504009495090564</v>
       </c>
       <c r="C45">
-        <v>20.000196376382934</v>
+        <v>19.99999999999999</v>
       </c>
       <c r="D45">
-        <v>0.9961923814497954</v>
+        <v>0.9922996435106717</v>
       </c>
       <c r="E45">
-        <v>0.0015915084005453189</v>
+        <v>6.43358708765278e-5</v>
       </c>
       <c r="F45">
-        <v>0.087151684167821</v>
+        <v>0.1237809791385775</v>
       </c>
       <c r="G45">
-        <v>3.1552279910507113e-6</v>
+        <v>-5.702877052552144e-6</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46">
-        <v>6.55164312128634</v>
+        <v>7.761706125441439</v>
       </c>
       <c r="B46">
-        <v>-0.09986298444877201</v>
+        <v>-0.1063570351452664</v>
       </c>
       <c r="C46">
-        <v>20.000224351740442</v>
+        <v>19.999999995486874</v>
       </c>
       <c r="D46">
-        <v>0.9970003566358964</v>
+        <v>0.9805550023504286</v>
       </c>
       <c r="E46">
-        <v>0.0013865884845313484</v>
+        <v>0.05147686249260195</v>
       </c>
       <c r="F46">
-        <v>0.07754022112284419</v>
+        <v>0.15202715478993037</v>
       </c>
       <c r="G46">
-        <v>-4.8881530320527376e-5</v>
+        <v>-0.1121880379414307</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47">
-        <v>6.587841143268808</v>
+        <v>7.8224302035521625</v>
       </c>
       <c r="B47">
-        <v>-0.1004262645463536</v>
+        <v>-0.10404906494280683</v>
       </c>
       <c r="C47">
-        <v>20.000200986340797</v>
+        <v>19.99974120390786</v>
       </c>
       <c r="D47">
-        <v>0.9960839847931537</v>
+        <v>0.9889645941149976</v>
       </c>
       <c r="E47">
-        <v>0.0013750703341203635</v>
+        <v>-0.005609609959559908</v>
       </c>
       <c r="F47">
-        <v>0.08838411303596735</v>
+        <v>0.14776936132430393</v>
       </c>
       <c r="G47">
-        <v>3.2273831868516323e-6</v>
+        <v>0.0066914599423477305</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48">
-        <v>6.62606161681383</v>
+        <v>7.876252569969361</v>
       </c>
       <c r="B48">
-        <v>-0.1010263330188222</v>
+        <v>-0.10376376397126041</v>
       </c>
       <c r="C48">
-        <v>20.000218041633946</v>
+        <v>19.999602730522387</v>
       </c>
       <c r="D48">
-        <v>0.9956349776235057</v>
+        <v>0.9913567486056378</v>
       </c>
       <c r="E48">
-        <v>0.001464484249394706</v>
+        <v>-0.0006941003523827061</v>
       </c>
       <c r="F48">
-        <v>0.09329859102266158</v>
+        <v>0.13112203870592615</v>
       </c>
       <c r="G48">
-        <v>3.5357402121262228e-6</v>
+        <v>0.000524030018023912</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49">
-        <v>6.66447691129823</v>
+        <v>7.932582495563669</v>
       </c>
       <c r="B49">
-        <v>-0.10170827628716343</v>
+        <v>-0.1332908697734228</v>
       </c>
       <c r="C49">
-        <v>20.000220352768313</v>
+        <v>19.99999999999998</v>
       </c>
       <c r="D49">
-        <v>0.9955900339463154</v>
+        <v>0.9867352908645433</v>
       </c>
       <c r="E49">
-        <v>0.0016643209628002225</v>
+        <v>0.07168424997403848</v>
       </c>
       <c r="F49">
-        <v>0.09377296751502995</v>
+        <v>0.13683880997940331</v>
       </c>
       <c r="G49">
-        <v>3.5736384127551277e-6</v>
+        <v>-0.049242729418871284</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50">
-        <v>6.704713394493513</v>
+        <v>7.993311548703622</v>
       </c>
       <c r="B50">
-        <v>-0.10238856643294772</v>
+        <v>-0.13464365834548406</v>
       </c>
       <c r="C50">
-        <v>20.00026423213105</v>
+        <v>19.999679924550893</v>
       </c>
       <c r="D50">
-        <v>0.9951625788504987</v>
+        <v>0.9889922299246805</v>
       </c>
       <c r="E50">
-        <v>0.0016601217995656295</v>
+        <v>0.003291809093573693</v>
       </c>
       <c r="F50">
-        <v>0.09819420006888686</v>
+        <v>0.14779355122324506</v>
       </c>
       <c r="G50">
-        <v>8.135395831997807e-7</v>
+        <v>-0.002333723971093336</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51">
-        <v>6.737146401626442</v>
+        <v>8.044588189024292</v>
       </c>
       <c r="B51">
-        <v>-0.10293104309438864</v>
+        <v>-0.1355028386374243</v>
       </c>
       <c r="C51">
-        <v>20.00023414461768</v>
+        <v>19.999666964524497</v>
       </c>
       <c r="D51">
-        <v>0.9968676229559159</v>
+        <v>0.9921512606020115</v>
       </c>
       <c r="E51">
-        <v>0.0013210665488337064</v>
+        <v>0.0020943825138811456</v>
       </c>
       <c r="F51">
-        <v>0.07923432203201955</v>
+        <v>0.12495895458256073</v>
       </c>
       <c r="G51">
-        <v>-5.1302356602197225e-5</v>
+        <v>-9.10738879014636e-5</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52">
-        <v>6.776127190590343</v>
+        <v>8.098373343405047</v>
       </c>
       <c r="B52">
-        <v>-0.10352692112111417</v>
+        <v>-0.1350704270367093</v>
       </c>
       <c r="C52">
-        <v>20.00022607094331</v>
+        <v>19.999584187829665</v>
       </c>
       <c r="D52">
-        <v>0.9954597304042928</v>
+        <v>0.991366280756293</v>
       </c>
       <c r="E52">
-        <v>0.0014541397558529487</v>
+        <v>-0.0010533641936682399</v>
       </c>
       <c r="F52">
-        <v>0.09514776193629494</v>
+        <v>0.13102602168206448</v>
       </c>
       <c r="G52">
-        <v>3.656819062932192e-6</v>
+        <v>3.0579469032147736e-5</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53">
-        <v>6.813499138198775</v>
+        <v>8.159126651407504</v>
       </c>
       <c r="B53">
-        <v>-0.10412731256097921</v>
+        <v>-0.13495405606125865</v>
       </c>
       <c r="C53">
-        <v>20.0002111901647</v>
+        <v>19.999570374978134</v>
       </c>
       <c r="D53">
-        <v>0.9958261697713798</v>
+        <v>0.988994358634459</v>
       </c>
       <c r="E53">
-        <v>0.0014654637951902211</v>
+        <v>-0.0002827619063570473</v>
       </c>
       <c r="F53">
-        <v>0.09123806550399388</v>
+        <v>0.14781671255852466</v>
       </c>
       <c r="G53">
-        <v>3.408618473867968e-6</v>
+        <v>0.000468042730135516</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54">
-        <v>6.852868762751613</v>
+        <v>8.213053314047265</v>
       </c>
       <c r="B54">
-        <v>-0.10491974875827621</v>
+        <v>-0.1350818704872164</v>
       </c>
       <c r="C54">
-        <v>20.00022907322212</v>
+        <v>19.99957802236709</v>
       </c>
       <c r="D54">
-        <v>0.9953681997987612</v>
+        <v>0.9913223365619817</v>
       </c>
       <c r="E54">
-        <v>0.0019337794534182518</v>
+        <v>0.0003111612492164629</v>
       </c>
       <c r="F54">
-        <v>0.09609073729600341</v>
+        <v>0.1313579802730914</v>
       </c>
       <c r="G54">
-        <v>3.728700903792367e-6</v>
+        <v>-0.00023176274244760434</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55">
-        <v>6.8907017360673235</v>
+        <v>8.269683477123206</v>
       </c>
       <c r="B55">
-        <v>-0.10564177298525886</v>
+        <v>-0.08953463798098982</v>
       </c>
       <c r="C55">
-        <v>20.00021540690742</v>
+        <v>19.999999999999986</v>
       </c>
       <c r="D55">
-        <v>0.995722243844625</v>
+        <v>0.9832213228003509</v>
       </c>
       <c r="E55">
-        <v>0.001762307812997961</v>
+        <v>-0.11040984220637733</v>
       </c>
       <c r="F55">
-        <v>0.09235866821820823</v>
+        <v>0.1373346482047093</v>
       </c>
       <c r="G55">
-        <v>3.4880913184940923e-6</v>
+        <v>0.04608620707977573</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56">
-        <v>6.935417857859401</v>
+        <v>8.31994270370643</v>
       </c>
       <c r="B56">
-        <v>-0.10661684039072696</v>
+        <v>-0.08999366136368014</v>
       </c>
       <c r="C56">
-        <v>20.000423791548624</v>
+        <v>19.999999995510965</v>
       </c>
       <c r="D56">
-        <v>0.9940274622858977</v>
+        <v>0.9924589812901025</v>
       </c>
       <c r="E56">
-        <v>0.0023779020504573942</v>
+        <v>0.0011187412340369803</v>
       </c>
       <c r="F56">
-        <v>0.10905075139170622</v>
+        <v>0.12249513666172356</v>
       </c>
       <c r="G56">
-        <v>1.2832505636802233e-6</v>
+        <v>-2.8693203496922426e-5</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57">
-        <v>6.963898151144365</v>
+        <v>8.380669342204714</v>
       </c>
       <c r="B57">
-        <v>-0.10718838022716844</v>
+        <v>-0.09043822661618768</v>
       </c>
       <c r="C57">
-        <v>20.00020102155008</v>
+        <v>19.999619976474587</v>
       </c>
       <c r="D57">
-        <v>0.9975836666681517</v>
+        <v>0.9890028647044687</v>
       </c>
       <c r="E57">
-        <v>0.0013937470676639715</v>
+        <v>0.001083278527913989</v>
       </c>
       <c r="F57">
-        <v>0.06961077479225919</v>
+        <v>0.14779600627955844</v>
       </c>
       <c r="G57">
-        <v>-3.88077878879416e-5</v>
+        <v>-0.0008112130231970798</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58">
-        <v>7.000414853001457</v>
+        <v>8.434592139056477</v>
       </c>
       <c r="B58">
-        <v>-0.10781328109851934</v>
+        <v>-0.09054267147929061</v>
       </c>
       <c r="C58">
-        <v>20.000202999554027</v>
+        <v>19.99957800549062</v>
       </c>
       <c r="D58">
-        <v>0.9960147465981349</v>
+        <v>0.9913229019152604</v>
       </c>
       <c r="E58">
-        <v>0.0015254405247067755</v>
+        <v>0.00025427878981203373</v>
       </c>
       <c r="F58">
-        <v>0.08915758396970219</v>
+        <v>0.1313539161604438</v>
       </c>
       <c r="G58">
-        <v>3.277033070214492e-6</v>
+        <v>-0.0001896116178358416</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59">
-        <v>7.040545827539268</v>
+        <v>8.49531488597658</v>
       </c>
       <c r="B59">
-        <v>-0.10862107978281026</v>
+        <v>-0.08793992693716289</v>
       </c>
       <c r="C59">
-        <v>20.000262524742055</v>
+        <v>19.99981682297446</v>
       </c>
       <c r="D59">
-        <v>0.9951874067391052</v>
+        <v>0.9889390739778025</v>
       </c>
       <c r="E59">
-        <v>0.0019712988809204753</v>
+        <v>-0.006323000541806612</v>
       </c>
       <c r="F59">
-        <v>0.09793688524063807</v>
+        <v>0.1477139357574929</v>
       </c>
       <c r="G59">
-        <v>8.071768157896646e-7</v>
+        <v>0.01010795992536136</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60">
-        <v>7.071210772289519</v>
+        <v>8.556040039314437</v>
       </c>
       <c r="B60">
-        <v>-0.10920149594812238</v>
+        <v>-0.08794565749922965</v>
       </c>
       <c r="C60">
-        <v>20.000215861472206</v>
+        <v>19.999580094303738</v>
       </c>
       <c r="D60">
-        <v>0.9971995167347256</v>
+        <v>0.9889989409517932</v>
       </c>
       <c r="E60">
-        <v>0.001414500561756713</v>
+        <v>1.4739858290297174e-5</v>
       </c>
       <c r="F60">
-        <v>0.07492747916392299</v>
+        <v>0.1477745862056323</v>
       </c>
       <c r="G60">
-        <v>-4.5426963327733266e-5</v>
+        <v>0.00044969640191220846</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61">
-        <v>7.10942899541342</v>
+        <v>8.544598068710757</v>
       </c>
       <c r="B61">
-        <v>-0.11001884382081284</v>
+        <v>-0.08942764594861106</v>
       </c>
       <c r="C61">
-        <v>20.00021850884793</v>
+        <v>19.99975801608084</v>
       </c>
       <c r="D61">
-        <v>0.99563448673663</v>
+        <v>0.9996237987366414</v>
       </c>
       <c r="E61">
-        <v>0.001994893279315311</v>
+        <v>0.003615493531967324</v>
       </c>
       <c r="F61">
-        <v>0.09329398433445579</v>
+        <v>-0.02798005475581879</v>
       </c>
       <c r="G61">
-        <v>3.5526212645847277e-6</v>
+        <v>-1.3966601586482667e-6</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62">
-        <v>7.149912101077057</v>
+        <v>8.605332038220528</v>
       </c>
       <c r="B62">
-        <v>-0.11064561622312118</v>
+        <v>-0.08868264863918542</v>
       </c>
       <c r="C62">
-        <v>20.00035791149437</v>
+        <v>19.99964037727116</v>
       </c>
       <c r="D62">
-        <v>0.995103566183205</v>
+        <v>0.989003249412406</v>
       </c>
       <c r="E62">
-        <v>0.0015294194120025544</v>
+        <v>-0.0018127983335333852</v>
       </c>
       <c r="F62">
-        <v>0.09878630174068366</v>
+        <v>0.1477842516400879</v>
       </c>
       <c r="G62">
-        <v>1.0470204599140672e-6</v>
+        <v>-0.0006691301225139386</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63">
-        <v>7.181095114204883</v>
+        <v>8.659553991621376</v>
       </c>
       <c r="B63">
-        <v>-0.11123622473963252</v>
+        <v>-0.07856662627200695</v>
       </c>
       <c r="C63">
-        <v>20.000224550651605</v>
+        <v>19.99999999999999</v>
       </c>
       <c r="D63">
-        <v>0.9971037467258795</v>
+        <v>0.9907644299301018</v>
       </c>
       <c r="E63">
-        <v>0.0014392223251829242</v>
+        <v>-0.024614898044555515</v>
       </c>
       <c r="F63">
-        <v>0.07619467747619808</v>
+        <v>0.13201176709159546</v>
       </c>
       <c r="G63">
-        <v>-4.714947323579749e-5</v>
+        <v>0.017996202839363155</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64">
-        <v>7.128338332282285</v>
+        <v>8.717207343346137</v>
       </c>
       <c r="B64">
-        <v>-0.11216580433809419</v>
+        <v>-0.12737290704324628</v>
       </c>
       <c r="C64">
-        <v>20.000435331116933</v>
+        <v>19.999999995441648</v>
       </c>
       <c r="D64">
-        <v>0.9916963127556572</v>
+        <v>0.9824426131979536</v>
       </c>
       <c r="E64">
-        <v>0.002264653586888631</v>
+        <v>0.11831724178174119</v>
       </c>
       <c r="F64">
-        <v>-0.1285105668173512</v>
+        <v>0.1398067890079205</v>
       </c>
       <c r="G64">
-        <v>-0.0004092269628447307</v>
+        <v>-0.033990976191178225</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65">
-        <v>7.165631027617243</v>
+        <v>8.778119861217277</v>
       </c>
       <c r="B65">
-        <v>-0.1128061961774246</v>
+        <v>-0.14382658118681618</v>
       </c>
       <c r="C65">
-        <v>20.000216837287994</v>
+        <v>19.99999999540162</v>
       </c>
       <c r="D65">
-        <v>0.9958425286427576</v>
+        <v>0.9851380432729481</v>
       </c>
       <c r="E65">
-        <v>0.0015633667366981266</v>
+        <v>0.03986388873508806</v>
       </c>
       <c r="F65">
-        <v>0.09105786997485553</v>
+        <v>0.14780527882198505</v>
       </c>
       <c r="G65">
-        <v>3.4239997307514815e-6</v>
+        <v>-0.07731543021680749</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66">
-        <v>7.203169476659154</v>
+        <v>8.838554901199753</v>
       </c>
       <c r="B66">
-        <v>-0.11366512608101727</v>
+        <v>-0.15536530829372214</v>
       </c>
       <c r="C66">
-        <v>20.000212429811075</v>
+        <v>19.999999995322806</v>
       </c>
       <c r="D66">
-        <v>0.9957878870383703</v>
+        <v>0.9873107598202207</v>
       </c>
       <c r="E66">
-        <v>0.0020965831106308026</v>
+        <v>0.027998417890220284</v>
       </c>
       <c r="F66">
-        <v>0.09164213454987816</v>
+        <v>0.1468656718709664</v>
       </c>
       <c r="G66">
-        <v>3.4509241483850042e-6</v>
+        <v>-0.052945613437391105</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67">
-        <v>7.244115053035866</v>
+        <v>8.899003506886555</v>
       </c>
       <c r="B67">
-        <v>-0.11431154569230392</v>
+        <v>-0.16568148947425257</v>
       </c>
       <c r="C67">
-        <v>20.00036242158547</v>
+        <v>19.999999995300183</v>
       </c>
       <c r="D67">
-        <v>0.9949912807021745</v>
+        <v>0.987626925570634</v>
       </c>
       <c r="E67">
-        <v>0.001577259004980717</v>
+        <v>0.02503672050299067</v>
       </c>
       <c r="F67">
-        <v>0.09990835577192315</v>
+        <v>0.14693063898323255</v>
       </c>
       <c r="G67">
-        <v>1.0803715648572592e-6</v>
+        <v>-0.04817435134952061</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68">
-        <v>7.285269826542091</v>
+        <v>8.95971758638462</v>
       </c>
       <c r="B68">
-        <v>-0.11497037895023712</v>
+        <v>-0.1660427512403666</v>
       </c>
       <c r="C68">
-        <v>20.000374442913785</v>
+        <v>19.999608481601136</v>
       </c>
       <c r="D68">
-        <v>0.9949389814530258</v>
+        <v>0.9890080561051104</v>
       </c>
       <c r="E68">
-        <v>0.0016076734359030509</v>
+        <v>0.0008797868258017363</v>
       </c>
       <c r="F68">
-        <v>0.10042645776022509</v>
+        <v>0.14776791636134926</v>
       </c>
       <c r="G68">
-        <v>1.098099081103257e-6</v>
+        <v>0.0005913008643254275</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69">
-        <v>7.326608154011361</v>
+        <v>9.013641522249381</v>
       </c>
       <c r="B69">
-        <v>-0.11562305832056895</v>
+        <v>-0.16635693471003993</v>
       </c>
       <c r="C69">
-        <v>20.00037556727214</v>
+        <v>19.999578009331827</v>
       </c>
       <c r="D69">
-        <v>0.9948937716160765</v>
+        <v>0.9913222941076185</v>
       </c>
       <c r="E69">
-        <v>0.0015926321481555526</v>
+        <v>0.0007648974632244726</v>
       </c>
       <c r="F69">
-        <v>0.10087285487161936</v>
+        <v>0.13135541584623522</v>
       </c>
       <c r="G69">
-        <v>1.1192451810981327e-6</v>
+        <v>-0.0005679293780784959</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70">
-        <v>7.369911157634886</v>
+        <v>9.070523659533439</v>
       </c>
       <c r="B70">
-        <v>-0.11655865739923982</v>
+        <v>-0.21157667969592991</v>
       </c>
       <c r="C70">
-        <v>20.00040818590383</v>
+        <v>19.999999999999964</v>
       </c>
       <c r="D70">
-        <v>0.9943968623985592</v>
+        <v>0.983111303213435</v>
       </c>
       <c r="E70">
-        <v>0.0022823776048050844</v>
+        <v>0.1096046457820707</v>
       </c>
       <c r="F70">
-        <v>0.10563804048527997</v>
+        <v>0.13793452964122235</v>
       </c>
       <c r="G70">
-        <v>1.2156812768974237e-6</v>
+        <v>-0.04847931394606078</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71">
-        <v>7.411659729358689</v>
+        <v>9.131252926113051</v>
       </c>
       <c r="B71">
-        <v>-0.11721924752861007</v>
+        <v>-0.21304864856861536</v>
       </c>
       <c r="C71">
-        <v>20.000384854531386</v>
+        <v>19.999681268420453</v>
       </c>
       <c r="D71">
-        <v>0.9947919019693412</v>
+        <v>0.988987748354</v>
       </c>
       <c r="E71">
-        <v>0.0016118827267008085</v>
+        <v>0.0035808889492279115</v>
       </c>
       <c r="F71">
-        <v>0.10187055162842892</v>
+        <v>0.14779358178925323</v>
       </c>
       <c r="G71">
-        <v>1.1389374419392085e-6</v>
+        <v>-0.003333916362394058</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72">
-        <v>7.4503854359016595</v>
+        <v>9.191993193451186</v>
       </c>
       <c r="B72">
-        <v>-0.11786416991234455</v>
+        <v>-0.2129203073030713</v>
       </c>
       <c r="C72">
-        <v>20.000228275789713</v>
+        <v>19.999563140487137</v>
       </c>
       <c r="D72">
-        <v>0.9955177767558472</v>
+        <v>0.9889971743474367</v>
       </c>
       <c r="E72">
-        <v>0.001574073804071973</v>
+        <v>-0.0003118846747026587</v>
       </c>
       <c r="F72">
-        <v>0.09453739804563248</v>
+        <v>0.14779776493959426</v>
       </c>
       <c r="G72">
-        <v>3.6394882134551053e-6</v>
+        <v>0.0005038034195977828</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73">
-        <v>7.4925342229974365</v>
+        <v>9.245846642498604</v>
       </c>
       <c r="B73">
-        <v>-0.11871939028420586</v>
+        <v>-0.21279742088006048</v>
       </c>
       <c r="C73">
-        <v>20.00038383351028</v>
+        <v>19.99957789182044</v>
       </c>
       <c r="D73">
-        <v>0.9946923064203308</v>
+        <v>0.9913459217301626</v>
       </c>
       <c r="E73">
-        <v>0.0020864139097541007</v>
+        <v>-0.0002991696254472565</v>
       </c>
       <c r="F73">
-        <v>0.10282827889760762</v>
+        <v>0.1311804327795113</v>
       </c>
       <c r="G73">
-        <v>1.133020028616569e-6</v>
+        <v>0.00021816349715191185</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74">
-        <v>7.534878061153688</v>
+        <v>9.306571750706043</v>
       </c>
       <c r="B74">
-        <v>-0.11939065536747992</v>
+        <v>-0.21042588922706107</v>
       </c>
       <c r="C74">
-        <v>20.00039461352284</v>
+        <v>19.999753843963127</v>
       </c>
       <c r="D74">
-        <v>0.9946428609821709</v>
+        <v>0.9889401463164038</v>
       </c>
       <c r="E74">
-        <v>0.001637765413155243</v>
+        <v>-0.005760345191846434</v>
       </c>
       <c r="F74">
-        <v>0.10331268195099491</v>
+        <v>0.14772438472944252</v>
       </c>
       <c r="G74">
-        <v>1.1626231646255765e-6</v>
+        <v>0.010115220737764228</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75">
-        <v>7.577426231407261</v>
+        <v>9.367313760316492</v>
       </c>
       <c r="B75">
-        <v>-0.12006516618662696</v>
+        <v>-0.21056112777896213</v>
       </c>
       <c r="C75">
-        <v>20.000395248142087</v>
+        <v>19.999568190234907</v>
       </c>
       <c r="D75">
-        <v>0.9945910543122229</v>
+        <v>0.9889953053293998</v>
       </c>
       <c r="E75">
-        <v>0.0016456523696332386</v>
+        <v>0.0003286443312403988</v>
       </c>
       <c r="F75">
-        <v>0.10380924832927282</v>
+        <v>0.14781000504173047</v>
       </c>
       <c r="G75">
-        <v>1.1887224633417554e-6</v>
+        <v>-0.0005549901026594171</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76">
-        <v>7.620178848591056</v>
+        <v>9.421697951395155</v>
       </c>
       <c r="B76">
-        <v>-0.12074292145964519</v>
+        <v>-0.22269464968319239</v>
       </c>
       <c r="C76">
-        <v>20.000399308469895</v>
+        <v>19.99999999999999</v>
       </c>
       <c r="D76">
-        <v>0.9945390716203699</v>
+        <v>0.9905068477552631</v>
       </c>
       <c r="E76">
-        <v>0.0016535206607317975</v>
+        <v>0.029518482533857623</v>
       </c>
       <c r="F76">
-        <v>0.10430506446843828</v>
+        <v>0.1323828305856806</v>
       </c>
       <c r="G76">
-        <v>1.196905388877891e-6</v>
+        <v>-0.021649989887117502</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77">
-        <v>7.661376374449138</v>
+        <v>9.48239995895495</v>
       </c>
       <c r="B77">
-        <v>-0.12142577081832745</v>
+        <v>-0.22003799384047745</v>
       </c>
       <c r="C77">
-        <v>20.000374548748066</v>
+        <v>19.999815023944706</v>
       </c>
       <c r="D77">
-        <v>0.9949281133121204</v>
+        <v>0.9889074926063699</v>
       </c>
       <c r="E77">
-        <v>0.0016663136206271673</v>
+        <v>-0.006453712492250596</v>
       </c>
       <c r="F77">
-        <v>0.1005329488429764</v>
+        <v>0.14770248206562067</v>
       </c>
       <c r="G77">
-        <v>1.1134349045737627e-6</v>
+        <v>0.012801827251127378</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78">
-        <v>7.70119312863931</v>
+        <v>9.536101482934782</v>
       </c>
       <c r="B78">
-        <v>-0.12209819564134615</v>
+        <v>-0.2200452023153012</v>
       </c>
       <c r="C78">
-        <v>20.00026485651765</v>
+        <v>19.999596587923676</v>
       </c>
       <c r="D78">
-        <v>0.9952618158985411</v>
+        <v>0.9913952082463554</v>
       </c>
       <c r="E78">
-        <v>0.0016411912534067547</v>
+        <v>1.7499548527904782e-5</v>
       </c>
       <c r="F78">
-        <v>0.09718507110858711</v>
+        <v>0.1308381587145463</v>
       </c>
       <c r="G78">
-        <v>7.783596317207319e-7</v>
+        <v>-0.00012844518647556864</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79">
-        <v>7.744545841948116</v>
+        <v>9.590114959418282</v>
       </c>
       <c r="B79">
-        <v>-0.12278587402349075</v>
+        <v>-0.2133961387264245</v>
       </c>
       <c r="C79">
-        <v>20.000404741037382</v>
+        <v>19.99974005657016</v>
       </c>
       <c r="D79">
-        <v>0.9943861143908788</v>
+        <v>0.9911212001019563</v>
       </c>
       <c r="E79">
-        <v>0.0016774296214994721</v>
+        <v>-0.016185365239461572</v>
       </c>
       <c r="F79">
-        <v>0.10575031044389907</v>
+        <v>0.13154620367313313</v>
       </c>
       <c r="G79">
-        <v>1.2097488314605407e-6</v>
+        <v>0.009370133260803321</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80">
-        <v>7.788096834530364</v>
+        <v>9.650847824141252</v>
       </c>
       <c r="B80">
-        <v>-0.12347670323279877</v>
+        <v>-0.21431811145592256</v>
       </c>
       <c r="C80">
-        <v>20.00041267914357</v>
+        <v>19.9996353482156</v>
       </c>
       <c r="D80">
-        <v>0.9943336370480222</v>
+        <v>0.9890001292193845</v>
       </c>
       <c r="E80">
-        <v>0.001685236888369937</v>
+        <v>0.002243718738068159</v>
       </c>
       <c r="F80">
-        <v>0.10624155529033734</v>
+        <v>0.1477797498446413</v>
       </c>
       <c r="G80">
-        <v>1.2436080658119664e-6</v>
+        <v>-0.0004989675453726341</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81">
-        <v>7.831854040149032</v>
+        <v>9.70475393667122</v>
       </c>
       <c r="B81">
-        <v>-0.12417080705343163</v>
+        <v>-0.21296486632556083</v>
       </c>
       <c r="C81">
-        <v>20.000417251543418</v>
+        <v>19.999617558873606</v>
       </c>
       <c r="D81">
-        <v>0.9942799241922886</v>
+        <v>0.9913247630848621</v>
       </c>
       <c r="E81">
-        <v>0.0016931836961382501</v>
+        <v>-0.003295308107448146</v>
       </c>
       <c r="F81">
-        <v>0.1067419872418195</v>
+        <v>0.13131233754409238</v>
       </c>
       <c r="G81">
-        <v>1.2528442476949355e-6</v>
+        <v>0.0004429943955524317</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82">
-        <v>7.86117476664199</v>
+        <v>9.765484148008008</v>
       </c>
       <c r="B82">
-        <v>-0.12484533934611647</v>
+        <v>-0.21036873014129498</v>
       </c>
       <c r="C82">
-        <v>20.00020854392931</v>
+        <v>19.99967024362928</v>
       </c>
       <c r="D82">
-        <v>0.9974386559111622</v>
+        <v>0.9888848286066892</v>
       </c>
       <c r="E82">
-        <v>0.0016451019475059846</v>
+        <v>-0.0063041525810605655</v>
       </c>
       <c r="F82">
-        <v>0.07165936374109391</v>
+        <v>0.14774387712444903</v>
       </c>
       <c r="G82">
-        <v>-4.117561102857836e-5</v>
+        <v>0.014044910937425981</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83">
-        <v>7.905290883214833</v>
+        <v>9.819785863380083</v>
       </c>
       <c r="B83">
-        <v>-0.1255463193799094</v>
+        <v>-0.19936780380178848</v>
       </c>
       <c r="C83">
-        <v>20.00041325241802</v>
+        <v>19.99999999999996</v>
       </c>
       <c r="D83">
-        <v>0.9941876136042096</v>
+        <v>0.9906512482121166</v>
       </c>
       <c r="E83">
-        <v>0.0017096202443126485</v>
+        <v>-0.026766727417983766</v>
       </c>
       <c r="F83">
-        <v>0.10759649937095257</v>
+        <v>0.132199899652467</v>
       </c>
       <c r="G83">
-        <v>1.2549995564599818e-6</v>
+        <v>0.019672709007562066</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84">
-        <v>7.949602311138106</v>
+        <v>9.880500955253659</v>
       </c>
       <c r="B84">
-        <v>-0.12625040730844966</v>
+        <v>-0.19883774236821428</v>
       </c>
       <c r="C84">
-        <v>20.00042572318785</v>
+        <v>19.999624077869647</v>
       </c>
       <c r="D84">
-        <v>0.9941344640966966</v>
+        <v>0.9890076375544119</v>
       </c>
       <c r="E84">
-        <v>0.0017174016517742497</v>
+        <v>-0.0012885130869345043</v>
       </c>
       <c r="F84">
-        <v>0.1080853756718342</v>
+        <v>0.14776801438761328</v>
       </c>
       <c r="G84">
-        <v>1.2888564118619507e-6</v>
+        <v>0.00012092677520577407</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85">
-        <v>7.994121423143115</v>
+        <v>9.941234157306111</v>
       </c>
       <c r="B85">
-        <v>-0.12695779963464157</v>
+        <v>-0.20023817215773607</v>
       </c>
       <c r="C85">
-        <v>20.00042979841068</v>
+        <v>19.99967136127329</v>
       </c>
       <c r="D85">
-        <v>0.9940793900065391</v>
+        <v>0.9889937329765305</v>
       </c>
       <c r="E85">
-        <v>0.0017254244282206707</v>
+        <v>0.0034061557793370932</v>
       </c>
       <c r="F85">
-        <v>0.10858961774049962</v>
+        <v>0.1477633457386166</v>
       </c>
       <c r="G85">
-        <v>1.3024943072390505e-6</v>
+        <v>-0.0030916744249188536</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86">
-        <v>8.038849154790233</v>
+        <v>9.995112572902809</v>
       </c>
       <c r="B86">
-        <v>-0.12766851128117354</v>
+        <v>-0.19754775629008284</v>
       </c>
       <c r="C86">
-        <v>20.00043353748738</v>
+        <v>19.999673021190148</v>
       </c>
       <c r="D86">
-        <v>0.9940238814471317</v>
+        <v>0.9913192160820058</v>
       </c>
       <c r="E86">
-        <v>0.001733472384122232</v>
+        <v>-0.006552366107091561</v>
       </c>
       <c r="F86">
-        <v>0.10909544296440227</v>
+        <v>0.13124336049033272</v>
       </c>
       <c r="G86">
-        <v>1.315318998587664e-6</v>
+        <v>0.0004855241187042745</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87">
-        <v>8.083785736250654</v>
+        <v>10.053759978352225</v>
       </c>
       <c r="B87">
-        <v>-0.1283825452416133</v>
+        <v>-0.2130442324124504</v>
       </c>
       <c r="C87">
-        <v>20.00043814633116</v>
+        <v>19.999999999999957</v>
       </c>
       <c r="D87">
-        <v>0.993968062725938</v>
+        <v>0.9878063985785782</v>
       </c>
       <c r="E87">
-        <v>0.0017415257444921824</v>
+        <v>0.037623692193567176</v>
       </c>
       <c r="F87">
-        <v>0.1096016974834207</v>
+        <v>0.14254108138049246</v>
       </c>
       <c r="G87">
-        <v>1.3244136550861427e-6</v>
+        <v>-0.04949140717424902</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88">
-        <v>8.128931899203312</v>
+        <v>10.114406049628267</v>
       </c>
       <c r="B88">
-        <v>-0.12909991466048806</v>
+        <v>-0.22540155709879037</v>
       </c>
       <c r="C88">
-        <v>20.00044112069172</v>
+        <v>19.999999995348556</v>
       </c>
       <c r="D88">
-        <v>0.9939117704379707</v>
+        <v>0.986729282107175</v>
       </c>
       <c r="E88">
-        <v>0.001749612756568247</v>
+        <v>0.02996944078485216</v>
       </c>
       <c r="F88">
-        <v>0.11010986239353494</v>
+        <v>0.147318388631074</v>
       </c>
       <c r="G88">
-        <v>1.3412525401820178e-6</v>
+        <v>-0.06079612916043062</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89">
-        <v>8.174287356792856</v>
+        <v>10.175124840883463</v>
       </c>
       <c r="B89">
-        <v>-0.12982061209213408</v>
+        <v>-0.22599646037300544</v>
       </c>
       <c r="C89">
-        <v>20.00044751505142</v>
+        <v>19.99959949949833</v>
       </c>
       <c r="D89">
-        <v>0.9938553342011741</v>
+        <v>0.9890006365937591</v>
       </c>
       <c r="E89">
-        <v>0.001757676010497563</v>
+        <v>0.0014484881702576838</v>
       </c>
       <c r="F89">
-        <v>0.1106169238250444</v>
+        <v>0.14777944938568854</v>
       </c>
       <c r="G89">
-        <v>1.3428062948945325e-6</v>
+        <v>-0.0007715032796790208</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90">
-        <v>8.211422975880957</v>
+        <v>10.23253806810711</v>
       </c>
       <c r="B90">
-        <v>-0.13056143598191605</v>
+        <v>-0.18503942801047346</v>
       </c>
       <c r="C90">
-        <v>20.00021584185666</v>
+        <v>19.999999999999947</v>
       </c>
       <c r="D90">
-        <v>0.9958769360539376</v>
+        <v>0.9835540374977492</v>
       </c>
       <c r="E90">
-        <v>0.0018086422945701537</v>
+        <v>-0.09927315955832802</v>
       </c>
       <c r="F90">
-        <v>0.09067671972206968</v>
+        <v>0.13923858733847772</v>
       </c>
       <c r="G90">
-        <v>3.4081107650068207e-6</v>
+        <v>0.057255314639905526</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91">
-        <v>8.257175375487588</v>
+        <v>10.293147738159206</v>
       </c>
       <c r="B91">
-        <v>-0.13128928884789998</v>
+        <v>-0.19039250270158398</v>
       </c>
       <c r="C91">
-        <v>20.000444335776496</v>
+        <v>19.999999995163083</v>
       </c>
       <c r="D91">
-        <v>0.9937495998140775</v>
+        <v>0.9886084325054498</v>
       </c>
       <c r="E91">
-        <v>0.0017747358396734618</v>
+        <v>0.012999255909407701</v>
       </c>
       <c r="F91">
-        <v>0.11156062892217831</v>
+        <v>0.14742407603975916</v>
       </c>
       <c r="G91">
-        <v>1.3417996259554428e-6</v>
+        <v>-0.026565690033805604</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92">
-        <v>8.303124551273624</v>
+        <v>10.353865108942378</v>
       </c>
       <c r="B92">
-        <v>-0.13202027852396622</v>
+        <v>-0.1893439553647796</v>
       </c>
       <c r="C92">
-        <v>20.00045640926613</v>
+        <v>19.999646883712252</v>
       </c>
       <c r="D92">
-        <v>0.9936938112493621</v>
+        <v>0.9890003109262915</v>
       </c>
       <c r="E92">
-        <v>0.0017826230066021196</v>
+        <v>-0.002549691464069628</v>
       </c>
       <c r="F92">
-        <v>0.11205529055223658</v>
+        <v>0.14776990395490067</v>
       </c>
       <c r="G92">
-        <v>1.3866895635127456e-6</v>
+        <v>0.0010832913006282533</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93">
-        <v>8.32871940393607</v>
+        <v>10.414592547584173</v>
       </c>
       <c r="B93">
-        <v>-0.13269992555887827</v>
+        <v>-0.19090792104341914</v>
       </c>
       <c r="C93">
-        <v>20.0001268687317</v>
+        <v>19.999669344312892</v>
       </c>
       <c r="D93">
-        <v>0.9980561956305817</v>
+        <v>0.9889880523396294</v>
       </c>
       <c r="E93">
-        <v>0.0016435271720546933</v>
+        <v>0.0038027668072218783</v>
       </c>
       <c r="F93">
-        <v>0.06259131688196955</v>
+        <v>0.14775158975664893</v>
       </c>
       <c r="G93">
-        <v>-0.0001454138794220857</v>
+        <v>-0.004501956173107041</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94">
-        <v>8.375018451258518</v>
+        <v>10.466043142768157</v>
       </c>
       <c r="B94">
-        <v>-0.13343800297156155</v>
+        <v>-0.19186583463574972</v>
       </c>
       <c r="C94">
-        <v>20.00044835829346</v>
+        <v>19.999613835992015</v>
       </c>
       <c r="D94">
-        <v>0.9936005547440991</v>
+        <v>0.9920963666110885</v>
       </c>
       <c r="E94">
-        <v>0.0017994046147026138</v>
+        <v>0.0023353610134923776</v>
       </c>
       <c r="F94">
-        <v>0.11287724288535851</v>
+        <v>0.12538263492629126</v>
       </c>
       <c r="G94">
-        <v>1.3735344381726002e-6</v>
+        <v>0.0006908114397580242</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95">
-        <v>8.421508771708083</v>
+        <v>10.51981380200656</v>
       </c>
       <c r="B95">
-        <v>-0.13417913540908108</v>
+        <v>-0.19134313263374614</v>
       </c>
       <c r="C95">
-        <v>20.000465428238144</v>
+        <v>19.999625030423534</v>
       </c>
       <c r="D95">
-        <v>0.9935447722552428</v>
+        <v>0.9913777668487781</v>
       </c>
       <c r="E95">
-        <v>0.0018072139622509397</v>
+        <v>-0.0012730524212053991</v>
       </c>
       <c r="F95">
-        <v>0.11336599411119666</v>
+        <v>0.13098205579705335</v>
       </c>
       <c r="G95">
-        <v>1.424384976655362e-6</v>
+        <v>2.0419823553481875e-5</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96">
-        <v>8.468210179973347</v>
+        <v>10.519796495115765</v>
       </c>
       <c r="B96">
-        <v>-0.13492363700122526</v>
+        <v>-0.19134302338875733</v>
       </c>
       <c r="C96">
-        <v>20.000470960169416</v>
+        <v>20.0</v>
       </c>
       <c r="D96">
-        <v>0.993486036570533</v>
+        <v>0.9999999998376576</v>
       </c>
       <c r="E96">
-        <v>0.0018153916074823008</v>
+        <v>-2.6721157467565395e-7</v>
       </c>
       <c r="F96">
-        <v>0.11387833571360945</v>
+        <v>-4.23323839967569e-5</v>
       </c>
       <c r="G96">
-        <v>1.4353631116680663e-6</v>
+        <v>-8.553292868489081e-12</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97">
-        <v>8.515124157920559</v>
+        <v>10.580510883432767</v>
       </c>
       <c r="B97">
-        <v>-0.13567153302497303</v>
+        <v>-0.19128269498222894</v>
       </c>
       <c r="C97">
-        <v>20.00047418653088</v>
+        <v>19.999562808621846</v>
       </c>
       <c r="D97">
-        <v>0.9934267155659351</v>
+        <v>0.9890026857763357</v>
       </c>
       <c r="E97">
-        <v>0.001823616482874458</v>
+        <v>-0.0001471674685015786</v>
       </c>
       <c r="F97">
-        <v>0.11439342493684655</v>
+        <v>0.14777377636786057</v>
       </c>
       <c r="G97">
-        <v>1.453320745764427e-6</v>
+        <v>-0.00042020297013001766</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98">
-        <v>8.56225099378071</v>
+        <v>10.641242258044183</v>
       </c>
       <c r="B98">
-        <v>-0.136422827347588</v>
+        <v>-0.1919909810410602</v>
       </c>
       <c r="C98">
-        <v>20.000478261458078</v>
+        <v>19.999625457791055</v>
       </c>
       <c r="D98">
-        <v>0.9933670752930157</v>
+        <v>0.9890064125950124</v>
       </c>
       <c r="E98">
-        <v>0.0018318461299891636</v>
+        <v>0.001723641912626183</v>
       </c>
       <c r="F98">
-        <v>0.11490891279412416</v>
+        <v>0.14775720581656065</v>
       </c>
       <c r="G98">
-        <v>1.4670577521726613e-6</v>
+        <v>-0.0005891627648543128</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99">
-        <v>8.609590563590233</v>
+        <v>10.642302633407452</v>
       </c>
       <c r="B99">
-        <v>-0.1371775164133943</v>
+        <v>-0.19199089865696184</v>
       </c>
       <c r="C99">
-        <v>20.000484289806078</v>
+        <v>19.999999999996927</v>
       </c>
       <c r="D99">
-        <v>0.993307209211588</v>
+        <v>0.9999997369009374</v>
       </c>
       <c r="E99">
-        <v>0.0018400657740515994</v>
+        <v>-5.198121200724287e-7</v>
       </c>
       <c r="F99">
-        <v>0.11542398545822295</v>
+        <v>0.002594767269761278</v>
       </c>
       <c r="G99">
-        <v>1.4726905902902035e-6</v>
+        <v>-2.006465433859431e-6</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100">
-        <v>8.657143829796023</v>
+        <v>10.692820636037027</v>
       </c>
       <c r="B100">
-        <v>-0.13793561892772369</v>
+        <v>-0.19281553005626137</v>
       </c>
       <c r="C100">
-        <v>20.00048667250571</v>
+        <v>19.999999995514756</v>
       </c>
       <c r="D100">
-        <v>0.9932467561225055</v>
+        <v>0.9923799270938799</v>
       </c>
       <c r="E100">
-        <v>0.001848335887300684</v>
+        <v>0.002009682927471881</v>
       </c>
       <c r="F100">
-        <v>0.11594176553929182</v>
+        <v>0.12312096680854823</v>
       </c>
       <c r="G100">
-        <v>1.495189354498543e-6</v>
+        <v>-0.00011381340500811797</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101">
-        <v>8.704910370171243</v>
+        <v>10.743353529282986</v>
       </c>
       <c r="B101">
-        <v>-0.13869712406104776</v>
+        <v>-0.1938260420457274</v>
       </c>
       <c r="C101">
-        <v>20.00049368738637</v>
+        <v>19.99999999551498</v>
       </c>
       <c r="D101">
-        <v>0.9931862255984698</v>
+        <v>0.9923744273532679</v>
       </c>
       <c r="E101">
-        <v>0.0018565698420135194</v>
+        <v>0.0024626764522160654</v>
       </c>
       <c r="F101">
-        <v>0.11645783514232909</v>
+        <v>0.12315691870266757</v>
       </c>
       <c r="G101">
-        <v>1.496542782585446e-6</v>
+        <v>-0.00014398301692691363</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102">
+        <v>10.793741662706772</v>
+      </c>
+      <c r="B102">
+        <v>-0.19466467406931057</v>
+      </c>
+      <c r="C102">
+        <v>19.99999999551284</v>
+      </c>
+      <c r="D102">
+        <v>0.9924188798449973</v>
+      </c>
+      <c r="E102">
+        <v>0.002043867051707473</v>
+      </c>
+      <c r="F102">
+        <v>0.1228068498251504</v>
+      </c>
+      <c r="G102">
+        <v>-8.368325718456098e-5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103">
+        <v>10.844007105462339</v>
+      </c>
+      <c r="B103">
+        <v>-0.1956255086957996</v>
+      </c>
+      <c r="C103">
+        <v>19.999999995511065</v>
+      </c>
+      <c r="D103">
+        <v>0.9924549976114004</v>
+      </c>
+      <c r="E103">
+        <v>0.0023417599140645824</v>
+      </c>
+      <c r="F103">
+        <v>0.12251004292254465</v>
+      </c>
+      <c r="G103">
+        <v>-6.186533121634353e-5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104">
+        <v>10.88624877744946</v>
+      </c>
+      <c r="B104">
+        <v>-0.19685503391375497</v>
+      </c>
+      <c r="C104">
+        <v>19.999676692932976</v>
+      </c>
+      <c r="D104">
+        <v>0.994662260328699</v>
+      </c>
+      <c r="E104">
+        <v>0.003000808781724552</v>
+      </c>
+      <c r="F104">
+        <v>0.10309496388947345</v>
+      </c>
+      <c r="G104">
+        <v>1.703313565279285e-6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105">
+        <v>10.936837825187228</v>
+      </c>
+      <c r="B105">
+        <v>-0.19770084170943653</v>
+      </c>
+      <c r="C105">
+        <v>19.999999999999986</v>
+      </c>
+      <c r="D105">
+        <v>0.9923611086423224</v>
+      </c>
+      <c r="E105">
+        <v>0.0020609105245503376</v>
+      </c>
+      <c r="F105">
+        <v>0.12327124428133521</v>
+      </c>
+      <c r="G105">
+        <v>-0.00013085800411998013</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106">
+        <v>10.988027437629635</v>
+      </c>
+      <c r="B106">
+        <v>-0.19881022822011837</v>
+      </c>
+      <c r="C106">
+        <v>19.99965314675099</v>
+      </c>
+      <c r="D106">
+        <v>0.9921724813784287</v>
+      </c>
+      <c r="E106">
+        <v>0.0027046974323385203</v>
+      </c>
+      <c r="F106">
+        <v>0.12477981249496793</v>
+      </c>
+      <c r="G106">
+        <v>-0.0003035244657253857</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107">
+        <v>11.039249525705191</v>
+      </c>
+      <c r="B107">
+        <v>-0.19928095468890136</v>
+      </c>
+      <c r="C107">
+        <v>19.999653253288002</v>
+      </c>
+      <c r="D107">
+        <v>0.992169459798376</v>
+      </c>
+      <c r="E107">
+        <v>0.0011477200470977865</v>
+      </c>
+      <c r="F107">
+        <v>0.12482589286377976</v>
+      </c>
+      <c r="G107">
+        <v>0.00030208159040773035</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108">
+        <v>11.080252507097654</v>
+      </c>
+      <c r="B108">
+        <v>-0.20018789973806522</v>
+      </c>
+      <c r="C108">
+        <v>19.999675508620587</v>
+      </c>
+      <c r="D108">
+        <v>0.9949745932843248</v>
+      </c>
+      <c r="E108">
+        <v>0.002213285108609885</v>
+      </c>
+      <c r="F108">
+        <v>0.10006165909165331</v>
+      </c>
+      <c r="G108">
+        <v>1.5426595346598785e-6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109">
+        <v>11.137492977069767</v>
+      </c>
+      <c r="B109">
+        <v>-0.15553382308411176</v>
+      </c>
+      <c r="C109">
+        <v>20.0</v>
+      </c>
+      <c r="D109">
+        <v>0.9829479829806168</v>
+      </c>
+      <c r="E109">
+        <v>-0.10822165922535323</v>
+      </c>
+      <c r="F109">
+        <v>0.1387931853269881</v>
+      </c>
+      <c r="G109">
+        <v>0.05226596624166313</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110">
+        <v>11.198082581130825</v>
+      </c>
+      <c r="B110">
+        <v>-0.14664970100038333</v>
+      </c>
+      <c r="C110">
+        <v>19.999999995272173</v>
+      </c>
+      <c r="D110">
+        <v>0.9877865658371723</v>
+      </c>
+      <c r="E110">
+        <v>-0.02156045205490493</v>
+      </c>
+      <c r="F110">
+        <v>0.14728935307850038</v>
+      </c>
+      <c r="G110">
+        <v>0.045429637105340835</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111">
+        <v>11.262759026085249</v>
+      </c>
+      <c r="B111">
+        <v>-0.12845112868549916</v>
+      </c>
+      <c r="C111">
+        <v>19.999999995522845</v>
+      </c>
+      <c r="D111">
+        <v>0.977839063171988</v>
+      </c>
+      <c r="E111">
+        <v>-0.043835942239277094</v>
+      </c>
+      <c r="F111">
+        <v>0.15611799811115915</v>
+      </c>
+      <c r="G111">
+        <v>0.1316053782361634</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112">
+        <v>11.323437971457784</v>
+      </c>
+      <c r="B112">
+        <v>-0.13126907371145444</v>
+      </c>
+      <c r="C112">
+        <v>19.999770706858747</v>
+      </c>
+      <c r="D112">
+        <v>0.9889168087446991</v>
+      </c>
+      <c r="E112">
+        <v>0.006847360100848884</v>
+      </c>
+      <c r="F112">
+        <v>0.14765261943834193</v>
+      </c>
+      <c r="G112">
+        <v>-0.012444287705100464</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113">
+        <v>11.378096256630464</v>
+      </c>
+      <c r="B113">
+        <v>-0.1155841826523817</v>
+      </c>
+      <c r="C113">
+        <v>19.999999999999975</v>
+      </c>
+      <c r="D113">
+        <v>0.9899713692218753</v>
+      </c>
+      <c r="E113">
+        <v>-0.03815088986236907</v>
+      </c>
+      <c r="F113">
+        <v>0.13302551977475777</v>
+      </c>
+      <c r="G113">
+        <v>0.027754739868698152</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114">
+        <v>11.438800123020766</v>
+      </c>
+      <c r="B114">
+        <v>-0.11595976814688562</v>
+      </c>
+      <c r="C114">
+        <v>19.99960169641141</v>
+      </c>
+      <c r="D114">
+        <v>0.9890114528729078</v>
+      </c>
+      <c r="E114">
+        <v>0.0009144635743450432</v>
+      </c>
+      <c r="F114">
+        <v>0.14774412722167218</v>
+      </c>
+      <c r="G114">
+        <v>8.566643434054376e-5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115">
+        <v>11.492724447774695</v>
+      </c>
+      <c r="B115">
+        <v>-0.11572416863348858</v>
+      </c>
+      <c r="C115">
+        <v>19.999578011284378</v>
+      </c>
+      <c r="D115">
+        <v>0.991322464129177</v>
+      </c>
+      <c r="E115">
+        <v>-0.000573577052504444</v>
+      </c>
+      <c r="F115">
+        <v>0.13135564882464928</v>
+      </c>
+      <c r="G115">
+        <v>0.000426136331592633</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116">
+        <v>11.54718922093969</v>
+      </c>
+      <c r="B116">
+        <v>-0.1289653112573724</v>
+      </c>
+      <c r="C116">
+        <v>19.99999999999999</v>
+      </c>
+      <c r="D116">
+        <v>0.9903539562761606</v>
+      </c>
+      <c r="E116">
+        <v>0.032210506809216895</v>
+      </c>
+      <c r="F116">
+        <v>0.1325685609973291</v>
+      </c>
+      <c r="G116">
+        <v>-0.023558873491594634</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117">
+        <v>11.607793916037664</v>
+      </c>
+      <c r="B117">
+        <v>-0.13561642437832486</v>
+      </c>
+      <c r="C117">
+        <v>19.99999999519853</v>
+      </c>
+      <c r="D117">
+        <v>0.9883276426455277</v>
+      </c>
+      <c r="E117">
+        <v>0.016147130143344325</v>
+      </c>
+      <c r="F117">
+        <v>0.14738241061925794</v>
+      </c>
+      <c r="G117">
+        <v>-0.03432169306646966</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118">
+        <v>11.668553141234531</v>
+      </c>
+      <c r="B118">
+        <v>-0.14685684349807646</v>
+      </c>
+      <c r="C118">
+        <v>19.999999995338644</v>
+      </c>
+      <c r="D118">
+        <v>0.9868463189225403</v>
+      </c>
+      <c r="E118">
+        <v>0.02725949970441719</v>
+      </c>
+      <c r="F118">
+        <v>0.1476042305851512</v>
+      </c>
+      <c r="G118">
+        <v>-0.05947650902182569</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119">
+        <v>11.729276654139126</v>
+      </c>
+      <c r="B119">
+        <v>-0.1453822849898279</v>
+      </c>
+      <c r="C119">
+        <v>19.999665974336416</v>
+      </c>
+      <c r="D119">
+        <v>0.9889729842592558</v>
+      </c>
+      <c r="E119">
+        <v>-0.0035833295455956144</v>
+      </c>
+      <c r="F119">
+        <v>0.14777905599448035</v>
+      </c>
+      <c r="G119">
+        <v>0.0065671065056885835</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120">
+        <v>11.774266395040017</v>
+      </c>
+      <c r="B120">
+        <v>-0.1463610305312827</v>
+      </c>
+      <c r="C120">
+        <v>19.999677408165606</v>
+      </c>
+      <c r="D120">
+        <v>0.9939518871801507</v>
+      </c>
+      <c r="E120">
+        <v>0.0023873027004214366</v>
+      </c>
+      <c r="F120">
+        <v>0.1097354564149124</v>
+      </c>
+      <c r="G120">
+        <v>1.8595337417326806e-6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121">
+        <v>11.834989068959823</v>
+      </c>
+      <c r="B121">
+        <v>-0.14745109043316607</v>
+      </c>
+      <c r="C121">
+        <v>19.999650705199656</v>
+      </c>
+      <c r="D121">
+        <v>0.9890053068294518</v>
+      </c>
+      <c r="E121">
+        <v>0.002653195219418972</v>
+      </c>
+      <c r="F121">
+        <v>0.1477465628031083</v>
+      </c>
+      <c r="G121">
+        <v>-0.00046016153656058215</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122">
+        <v>11.888909491144231</v>
+      </c>
+      <c r="B122">
+        <v>-0.14741804256869612</v>
+      </c>
+      <c r="C122">
+        <v>19.999577994790076</v>
+      </c>
+      <c r="D122">
+        <v>0.9913232755080713</v>
+      </c>
+      <c r="E122">
+        <v>-8.045889634701859e-5</v>
+      </c>
+      <c r="F122">
+        <v>0.13135144931358997</v>
+      </c>
+      <c r="G122">
+        <v>6.080984603277796e-5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123">
+        <v>11.944274450034056</v>
+      </c>
+      <c r="B123">
+        <v>-0.16967086450193047</v>
+      </c>
+      <c r="C123">
+        <v>19.999999999999993</v>
+      </c>
+      <c r="D123">
+        <v>0.9886442218654262</v>
+      </c>
+      <c r="E123">
+        <v>0.054080407775344924</v>
+      </c>
+      <c r="F123">
+        <v>0.13463326021423783</v>
+      </c>
+      <c r="G123">
+        <v>-0.03854030687500889</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124">
+        <v>12.00497926501918</v>
+      </c>
+      <c r="B124">
+        <v>-0.17033238106673856</v>
+      </c>
+      <c r="C124">
+        <v>19.99962024612781</v>
+      </c>
+      <c r="D124">
+        <v>0.9890087609812849</v>
+      </c>
+      <c r="E124">
+        <v>0.0016109919053480944</v>
+      </c>
+      <c r="F124">
+        <v>0.14774289729068213</v>
+      </c>
+      <c r="G124">
+        <v>3.7821170907459845e-5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125">
+        <v>12.059248241605355</v>
+      </c>
+      <c r="B125">
+        <v>-0.18077879283881612</v>
+      </c>
+      <c r="C125">
+        <v>19.99999999999999</v>
+      </c>
+      <c r="D125">
+        <v>0.9907163502691412</v>
+      </c>
+      <c r="E125">
+        <v>0.025417781314110467</v>
+      </c>
+      <c r="F125">
+        <v>0.1321213387234768</v>
+      </c>
+      <c r="G125">
+        <v>-0.018699839525328256</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126">
+        <v>12.123948219056496</v>
+      </c>
+      <c r="B126">
+        <v>-0.19802588351128844</v>
+      </c>
+      <c r="C126">
+        <v>19.999999995525805</v>
+      </c>
+      <c r="D126">
+        <v>0.9779881429455026</v>
+      </c>
+      <c r="E126">
+        <v>0.04154320985049395</v>
+      </c>
+      <c r="F126">
+        <v>0.15618786091184741</v>
+      </c>
+      <c r="G126">
+        <v>-0.13116861824013684</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127">
+        <v>12.184579185635332</v>
+      </c>
+      <c r="B127">
+        <v>-0.2049678152737668</v>
+      </c>
+      <c r="C127">
+        <v>19.99999999521032</v>
+      </c>
+      <c r="D127">
+        <v>0.9882095956875264</v>
+      </c>
+      <c r="E127">
+        <v>0.016850799634439313</v>
+      </c>
+      <c r="F127">
+        <v>0.14743386890341953</v>
+      </c>
+      <c r="G127">
+        <v>-0.03703349210078647</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128">
+        <v>12.243440647662004</v>
+      </c>
+      <c r="B128">
+        <v>-0.2589356787652278</v>
+      </c>
+      <c r="C128">
+        <v>19.9996429596125</v>
+      </c>
+      <c r="D128">
+        <v>0.9808082765516687</v>
+      </c>
+      <c r="E128">
+        <v>0.13078513729158833</v>
+      </c>
+      <c r="F128">
+        <v>0.14266844639311146</v>
+      </c>
+      <c r="G128">
+        <v>-0.020884733844298106</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129">
+        <v>12.304133460581253</v>
+      </c>
+      <c r="B129">
+        <v>-0.26205558507777815</v>
+      </c>
+      <c r="C129">
+        <v>19.99976804323471</v>
+      </c>
+      <c r="D129">
+        <v>0.988890108819544</v>
+      </c>
+      <c r="E129">
+        <v>0.007578876480722128</v>
+      </c>
+      <c r="F129">
+        <v>0.14764787381610706</v>
+      </c>
+      <c r="G129">
+        <v>-0.014079790086624471</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130">
+        <v>12.358044984528668</v>
+      </c>
+      <c r="B130">
+        <v>-0.26224483843778174</v>
+      </c>
+      <c r="C130">
+        <v>19.99957795397925</v>
+      </c>
+      <c r="D130">
+        <v>0.9913243144758473</v>
+      </c>
+      <c r="E130">
+        <v>0.00046080816844503895</v>
+      </c>
+      <c r="F130">
+        <v>0.13134241322401127</v>
+      </c>
+      <c r="G130">
+        <v>-0.000342586937931559</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131">
+        <v>12.411970998218697</v>
+      </c>
+      <c r="B131">
+        <v>-0.2624554600084358</v>
+      </c>
+      <c r="C131">
+        <v>19.999578019426448</v>
+      </c>
+      <c r="D131">
+        <v>0.9913223086735522</v>
+      </c>
+      <c r="E131">
+        <v>0.0005127571225297659</v>
+      </c>
+      <c r="F131">
+        <v>0.13135720887135086</v>
+      </c>
+      <c r="G131">
+        <v>-0.0003810725608767657</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132">
+        <v>12.469409529293147</v>
+      </c>
+      <c r="B132">
+        <v>-0.30615358107999496</v>
+      </c>
+      <c r="C132">
+        <v>19.999999999999925</v>
+      </c>
+      <c r="D132">
+        <v>0.9829002466425056</v>
+      </c>
+      <c r="E132">
+        <v>0.10588617951205288</v>
+      </c>
+      <c r="F132">
+        <v>0.13925492577799314</v>
+      </c>
+      <c r="G132">
+        <v>-0.056525373970782306</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133">
+        <v>12.536882101065187</v>
+      </c>
+      <c r="B133">
+        <v>-0.2878434213982705</v>
+      </c>
+      <c r="C133">
+        <v>19.999999995566416</v>
+      </c>
+      <c r="D133">
+        <v>0.9724312933523616</v>
+      </c>
+      <c r="E133">
+        <v>-0.04392426511885082</v>
+      </c>
+      <c r="F133">
+        <v>0.16222696394188738</v>
+      </c>
+      <c r="G133">
+        <v>0.1606038594277434</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134">
+        <v>12.597518970051956</v>
+      </c>
+      <c r="B134">
+        <v>-0.28167416900302006</v>
+      </c>
+      <c r="C134">
+        <v>19.999999995180435</v>
+      </c>
+      <c r="D134">
+        <v>0.9883802324815889</v>
+      </c>
+      <c r="E134">
+        <v>-0.014976958541766753</v>
+      </c>
+      <c r="F134">
+        <v>0.1474661427794482</v>
+      </c>
+      <c r="G134">
+        <v>0.0329606468570379</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135">
+        <v>12.651929487049618</v>
+      </c>
+      <c r="B135">
+        <v>-0.28392206009631027</v>
+      </c>
+      <c r="C135">
+        <v>19.999673756521084</v>
+      </c>
+      <c r="D135">
+        <v>0.9911517031424567</v>
+      </c>
+      <c r="E135">
+        <v>0.005477848641957582</v>
+      </c>
+      <c r="F135">
+        <v>0.1325598531910903</v>
+      </c>
+      <c r="G135">
+        <v>0.00031020982562372573</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136">
+        <v>12.70584242484867</v>
+      </c>
+      <c r="B136">
+        <v>-0.28057691414707886</v>
+      </c>
+      <c r="C136">
+        <v>19.99967303040276</v>
+      </c>
+      <c r="D136">
+        <v>0.9912910152256993</v>
+      </c>
+      <c r="E136">
+        <v>-0.008145460575082898</v>
+      </c>
+      <c r="F136">
+        <v>0.1313258285680853</v>
+      </c>
+      <c r="G136">
+        <v>0.0027544345814523056</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137">
+        <v>12.763719270369485</v>
+      </c>
+      <c r="B137">
+        <v>-0.3306614780824905</v>
+      </c>
+      <c r="C137">
+        <v>19.999999999999975</v>
+      </c>
+      <c r="D137">
+        <v>0.9821304611079632</v>
+      </c>
+      <c r="E137">
+        <v>0.12138329739680262</v>
+      </c>
+      <c r="F137">
+        <v>0.14030500584860062</v>
+      </c>
+      <c r="G137">
+        <v>-0.029857531691829226</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138">
+        <v>12.824423233456509</v>
+      </c>
+      <c r="B138">
+        <v>-0.3318550803096521</v>
+      </c>
+      <c r="C138">
+        <v>19.999647392319595</v>
+      </c>
+      <c r="D138">
+        <v>0.9890013056209137</v>
+      </c>
+      <c r="E138">
+        <v>0.0029040921052153256</v>
+      </c>
+      <c r="F138">
+        <v>0.14773723836796218</v>
+      </c>
+      <c r="G138">
+        <v>-0.002353795498406157</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139">
+        <v>12.878365075122124</v>
+      </c>
+      <c r="B139">
+        <v>-0.33656333295908536</v>
+      </c>
+      <c r="C139">
+        <v>19.999685896603822</v>
+      </c>
+      <c r="D139">
+        <v>0.9912396184724628</v>
+      </c>
+      <c r="E139">
+        <v>0.011465151350633149</v>
+      </c>
+      <c r="F139">
+        <v>0.13138791166354719</v>
+      </c>
+      <c r="G139">
+        <v>-0.005254655097577422</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140">
+        <v>12.929511190302383</v>
+      </c>
+      <c r="B140">
+        <v>-0.33809902577947</v>
+      </c>
+      <c r="C140">
+        <v>19.99966674625269</v>
+      </c>
+      <c r="D140">
+        <v>0.9921865996575645</v>
+      </c>
+      <c r="E140">
+        <v>0.0037433322029083085</v>
+      </c>
+      <c r="F140">
+        <v>0.12464339012004719</v>
+      </c>
+      <c r="G140">
+        <v>-0.0003897413302863775</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141">
+        <v>12.98065615677967</v>
+      </c>
+      <c r="B141">
+        <v>-0.3397356204610542</v>
+      </c>
+      <c r="C141">
+        <v>19.999653124815875</v>
+      </c>
+      <c r="D141">
+        <v>0.9921857917910303</v>
+      </c>
+      <c r="E141">
+        <v>0.003989862259873446</v>
+      </c>
+      <c r="F141">
+        <v>0.1246400180542009</v>
+      </c>
+      <c r="G141">
+        <v>0.0009462170896359128</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142">
+        <v>13.031813750815175</v>
+      </c>
+      <c r="B142">
+        <v>-0.3413769467229565</v>
+      </c>
+      <c r="C142">
+        <v>19.999653148156007</v>
+      </c>
+      <c r="D142">
+        <v>0.9921820540649423</v>
+      </c>
+      <c r="E142">
+        <v>0.004001298315185153</v>
+      </c>
+      <c r="F142">
+        <v>0.12466928953585533</v>
+      </c>
+      <c r="G142">
+        <v>0.0009271258741877115</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143">
+        <v>13.082983027087918</v>
+      </c>
+      <c r="B143">
+        <v>-0.3430229982111068</v>
+      </c>
+      <c r="C143">
+        <v>19.999653168007224</v>
+      </c>
+      <c r="D143">
+        <v>0.9921784408800062</v>
+      </c>
+      <c r="E143">
+        <v>0.004012762258575336</v>
+      </c>
+      <c r="F143">
+        <v>0.12469756134494828</v>
+      </c>
+      <c r="G143">
+        <v>0.0009085590188134199</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144">
+        <v>13.134163934301199</v>
+      </c>
+      <c r="B144">
+        <v>-0.3446737963985228</v>
+      </c>
+      <c r="C144">
+        <v>19.99965318780659</v>
+      </c>
+      <c r="D144">
+        <v>0.9921748421905184</v>
+      </c>
+      <c r="E144">
+        <v>0.004024280165336709</v>
+      </c>
+      <c r="F144">
+        <v>0.12472570698331656</v>
+      </c>
+      <c r="G144">
+        <v>0.0008905736639653104</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145">
+        <v>13.185356421047999</v>
+      </c>
+      <c r="B145">
+        <v>-0.3463293647989821</v>
+      </c>
+      <c r="C145">
+        <v>19.99965320755311</v>
+      </c>
+      <c r="D145">
+        <v>0.9921712580141989</v>
+      </c>
+      <c r="E145">
+        <v>0.004035857042226902</v>
+      </c>
+      <c r="F145">
+        <v>0.12475372658265768</v>
+      </c>
+      <c r="G145">
+        <v>0.0008732177683419614</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146">
+        <v>13.236560437171113</v>
+      </c>
+      <c r="B146">
+        <v>-0.3479897261580221</v>
+      </c>
+      <c r="C146">
+        <v>19.999653225834617</v>
+      </c>
+      <c r="D146">
+        <v>0.9921676879976119</v>
+      </c>
+      <c r="E146">
+        <v>0.004047491030031364</v>
+      </c>
+      <c r="F146">
+        <v>0.12478162340209246</v>
+      </c>
+      <c r="G146">
+        <v>0.0008565437761726677</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147">
+        <v>13.287775930210463</v>
+      </c>
+      <c r="B147">
+        <v>-0.3496549092628501</v>
+      </c>
+      <c r="C147">
+        <v>19.999653245456667</v>
+      </c>
+      <c r="D147">
+        <v>0.9921641328869402</v>
+      </c>
+      <c r="E147">
+        <v>0.00405919679711118</v>
+      </c>
+      <c r="F147">
+        <v>0.12480939155811233</v>
+      </c>
+      <c r="G147">
+        <v>0.0008405535006891757</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148">
+        <v>13.339002848678053</v>
+      </c>
+      <c r="B148">
+        <v>-0.351324941429917</v>
+      </c>
+      <c r="C148">
+        <v>19.99965326502461</v>
+      </c>
+      <c r="D148">
+        <v>0.9921605923827224</v>
+      </c>
+      <c r="E148">
+        <v>0.004070970740202441</v>
+      </c>
+      <c r="F148">
+        <v>0.12483703392737887</v>
+      </c>
+      <c r="G148">
+        <v>0.0008252813434923563</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149">
+        <v>13.390226796713478</v>
+      </c>
+      <c r="B149">
+        <v>-0.3529962470194287</v>
+      </c>
+      <c r="C149">
+        <v>19.999635320052473</v>
+      </c>
+      <c r="D149">
+        <v>0.9921602148407742</v>
+      </c>
+      <c r="E149">
+        <v>0.004075198215016487</v>
+      </c>
+      <c r="F149">
+        <v>0.12482742716900079</v>
+      </c>
+      <c r="G149">
+        <v>-0.0003160378978996396</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150">
+        <v>13.441463200750581</v>
+      </c>
+      <c r="B150">
+        <v>-0.3546726052590092</v>
+      </c>
+      <c r="C150">
+        <v>19.999634634346762</v>
+      </c>
+      <c r="D150">
+        <v>0.9921565666231625</v>
+      </c>
+      <c r="E150">
+        <v>0.004087389379247339</v>
+      </c>
+      <c r="F150">
+        <v>0.12485593835442782</v>
+      </c>
+      <c r="G150">
+        <v>-0.0003397212925129415</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151">
+        <v>13.49271140276834</v>
+      </c>
+      <c r="B151">
+        <v>-0.35635413084322315</v>
+      </c>
+      <c r="C151">
+        <v>19.999635365805922</v>
+      </c>
+      <c r="D151">
+        <v>0.9921529488410451</v>
+      </c>
+      <c r="E151">
+        <v>0.004099948259398274</v>
+      </c>
+      <c r="F151">
+        <v>0.12488440609786322</v>
+      </c>
+      <c r="G151">
+        <v>-0.0003312663234544796</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152">
+        <v>13.543970482566095</v>
+      </c>
+      <c r="B152">
+        <v>-0.35804027385101544</v>
+      </c>
+      <c r="C152">
+        <v>19.99963396315388</v>
+      </c>
+      <c r="D152">
+        <v>0.9921495386600065</v>
+      </c>
+      <c r="E152">
+        <v>0.00411111397961346</v>
+      </c>
+      <c r="F152">
+        <v>0.12491095708102913</v>
+      </c>
+      <c r="G152">
+        <v>-0.00037472016955641247</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153">
+        <v>13.595241578442574</v>
+      </c>
+      <c r="B153">
+        <v>-0.359731589886657</v>
+      </c>
+      <c r="C153">
+        <v>19.99963540673977</v>
+      </c>
+      <c r="D153">
+        <v>0.992145883908253</v>
+      </c>
+      <c r="E153">
+        <v>0.004123697771378083</v>
+      </c>
+      <c r="F153">
+        <v>0.12493983524681739</v>
+      </c>
+      <c r="G153">
+        <v>-0.0003499918129215464</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154">
+        <v>13.646570318503079</v>
+      </c>
+      <c r="B154">
+        <v>-0.361430190889794</v>
+      </c>
+      <c r="C154">
+        <v>19.999634035474724</v>
+      </c>
+      <c r="D154">
+        <v>0.9921281211245432</v>
+      </c>
+      <c r="E154">
+        <v>0.004141403995511181</v>
+      </c>
+      <c r="F154">
+        <v>0.12507952419731483</v>
+      </c>
+      <c r="G154">
+        <v>-0.0003481956377625122</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155">
+        <v>13.697910533313353</v>
+      </c>
+      <c r="B155">
+        <v>-0.363133390432664</v>
+      </c>
+      <c r="C155">
+        <v>19.99963475398459</v>
+      </c>
+      <c r="D155">
+        <v>0.9921246144308019</v>
+      </c>
+      <c r="E155">
+        <v>0.004152560188950284</v>
+      </c>
+      <c r="F155">
+        <v>0.12510716398580068</v>
+      </c>
+      <c r="G155">
+        <v>-0.0003443062675199165</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156">
+        <v>13.749261407834098</v>
+      </c>
+      <c r="B156">
+        <v>-0.3648407010809332</v>
+      </c>
+      <c r="C156">
+        <v>19.99963334728847</v>
+      </c>
+      <c r="D156">
+        <v>0.9921212735607761</v>
+      </c>
+      <c r="E156">
+        <v>0.004162479117679756</v>
+      </c>
+      <c r="F156">
+        <v>0.1251332033505373</v>
+      </c>
+      <c r="G156">
+        <v>-0.0003931105431261817</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157">
+        <v>13.800623214589454</v>
+      </c>
+      <c r="B157">
+        <v>-0.3665520867341007</v>
+      </c>
+      <c r="C157">
+        <v>19.999632688953323</v>
+      </c>
+      <c r="D157">
+        <v>0.9921178958511809</v>
+      </c>
+      <c r="E157">
+        <v>0.00417231598474921</v>
+      </c>
+      <c r="F157">
+        <v>0.12515964318619616</v>
+      </c>
+      <c r="G157">
+        <v>-0.0004282870026683701</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158">
+        <v>13.851997357547443</v>
+      </c>
+      <c r="B158">
+        <v>-0.36826940120160606</v>
+      </c>
+      <c r="C158">
+        <v>19.99963757453031</v>
+      </c>
+      <c r="D158">
+        <v>0.992114231778155</v>
+      </c>
+      <c r="E158">
+        <v>0.004186822634626468</v>
+      </c>
+      <c r="F158">
+        <v>0.12518912032170698</v>
+      </c>
+      <c r="G158">
+        <v>-0.00031408101282458896</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159">
+        <v>13.903385845341818</v>
+      </c>
+      <c r="B159">
+        <v>-0.3699980079679987</v>
+      </c>
+      <c r="C159">
+        <v>19.999652856158523</v>
+      </c>
+      <c r="D159">
+        <v>0.9921101349041803</v>
+      </c>
+      <c r="E159">
+        <v>0.004214746812136266</v>
+      </c>
+      <c r="F159">
+        <v>0.12522310255709534</v>
+      </c>
+      <c r="G159">
+        <v>0.00010210778163011029</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160">
+        <v>13.954784104812338</v>
+      </c>
+      <c r="B160">
+        <v>-0.37173172024786205</v>
+      </c>
+      <c r="C160">
+        <v>19.999652871977865</v>
+      </c>
+      <c r="D160">
+        <v>0.9921069322618608</v>
+      </c>
+      <c r="E160">
+        <v>0.0042271737803742425</v>
+      </c>
+      <c r="F160">
+        <v>0.1252482756706497</v>
+      </c>
+      <c r="G160">
+        <v>0.00010138783133433447</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161">
+        <v>14.006193095772565</v>
+      </c>
+      <c r="B161">
+        <v>-0.37347047038242187</v>
+      </c>
+      <c r="C161">
+        <v>19.999652891588568</v>
+      </c>
+      <c r="D161">
+        <v>0.9921036190342842</v>
+      </c>
+      <c r="E161">
+        <v>0.004239384948796488</v>
+      </c>
+      <c r="F161">
+        <v>0.12527432322030352</v>
+      </c>
+      <c r="G161">
+        <v>9.940598993281584e-5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162">
+        <v>14.057612761239021</v>
+      </c>
+      <c r="B162">
+        <v>-0.37521416323965945</v>
+      </c>
+      <c r="C162">
+        <v>19.99965291114268</v>
+      </c>
+      <c r="D162">
+        <v>0.992100323056513</v>
+      </c>
+      <c r="E162">
+        <v>0.004251362992560556</v>
+      </c>
+      <c r="F162">
+        <v>0.12530023455270184</v>
+      </c>
+      <c r="G162">
+        <v>9.622464131220268e-5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163">
+        <v>14.10904304409773</v>
+      </c>
+      <c r="B163">
+        <v>-0.37696271035223294</v>
+      </c>
+      <c r="C163">
+        <v>19.999652930650033</v>
+      </c>
+      <c r="D163">
+        <v>0.9920970442437208</v>
+      </c>
+      <c r="E163">
+        <v>0.004263124348765202</v>
+      </c>
+      <c r="F163">
+        <v>0.12532600868670668</v>
+      </c>
+      <c r="G163">
+        <v>9.196769448297751e-5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164">
+        <v>14.160483886637158</v>
+      </c>
+      <c r="B164">
+        <v>-0.37871603342630955</v>
+      </c>
+      <c r="C164">
+        <v>19.999652950092376</v>
+      </c>
+      <c r="D164">
+        <v>0.9920937825882641</v>
+      </c>
+      <c r="E164">
+        <v>0.00427469405397793</v>
+      </c>
+      <c r="F164">
+        <v>0.12535164386471356</v>
+      </c>
+      <c r="G164">
+        <v>8.681232827585802e-5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165">
+        <v>14.211935230406901</v>
+      </c>
+      <c r="B165">
+        <v>-0.38047406686200125</v>
+      </c>
+      <c r="C165">
+        <v>19.999652969478763</v>
+      </c>
+      <c r="D165">
+        <v>0.9920905381099882</v>
+      </c>
+      <c r="E165">
+        <v>0.004286103312563447</v>
+      </c>
+      <c r="F165">
+        <v>0.1253771379695236</v>
+      </c>
+      <c r="G165">
+        <v>8.097006049771088e-5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166">
+        <v>14.26339701614899</v>
+      </c>
+      <c r="B166">
+        <v>-0.38223675916905026</v>
+      </c>
+      <c r="C166">
+        <v>19.99965298880909</v>
+      </c>
+      <c r="D166">
+        <v>0.9920873108394784</v>
+      </c>
+      <c r="E166">
+        <v>0.004297386788478375</v>
+      </c>
+      <c r="F166">
+        <v>0.12540248871437468</v>
+      </c>
+      <c r="G166">
+        <v>7.466744498157377e-5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167">
+        <v>14.314869183800246</v>
+      </c>
+      <c r="B167">
+        <v>-0.384004073350776</v>
+      </c>
+      <c r="C167">
+        <v>19.999653008083268</v>
+      </c>
+      <c r="D167">
+        <v>0.9920841008044634</v>
+      </c>
+      <c r="E167">
+        <v>0.004308580074789697</v>
+      </c>
+      <c r="F167">
+        <v>0.1254276938187714</v>
+      </c>
+      <c r="G167">
+        <v>6.812935946218105e-5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168">
+        <v>14.366351672549536</v>
+      </c>
+      <c r="B168">
+        <v>-0.38577598643811345</v>
+      </c>
+      <c r="C168">
+        <v>19.9996530273012</v>
+      </c>
+      <c r="D168">
+        <v>0.992080908021017</v>
+      </c>
+      <c r="E168">
+        <v>0.004319717608860089</v>
+      </c>
+      <c r="F168">
+        <v>0.12545275116058152</v>
+      </c>
+      <c r="G168">
+        <v>6.156663852642324e-5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169">
+        <v>14.417844420935115</v>
+      </c>
+      <c r="B169">
+        <v>-0.38755248842207235</v>
+      </c>
+      <c r="C169">
+        <v>19.99965304646275</v>
+      </c>
+      <c r="D169">
+        <v>0.992077732489871</v>
+      </c>
+      <c r="E169">
+        <v>0.004330831193465638</v>
+      </c>
+      <c r="F169">
+        <v>0.12547765888432968</v>
+      </c>
+      <c r="G169">
+        <v>5.516863825029753e-5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170">
+        <v>14.469347366966508</v>
+      </c>
+      <c r="B170">
+        <v>-0.3893335808264565</v>
+      </c>
+      <c r="C170">
+        <v>19.99965306556794</v>
+      </c>
+      <c r="D170">
+        <v>0.9920745741947582</v>
+      </c>
+      <c r="E170">
+        <v>0.0043419491130887115</v>
+      </c>
+      <c r="F170">
+        <v>0.12550241547122318</v>
+      </c>
+      <c r="G170">
+        <v>4.9100138449559706e-5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171">
+        <v>14.52086044825541</v>
+      </c>
+      <c r="B171">
+        <v>-0.39111927512822603</v>
+      </c>
+      <c r="C171">
+        <v>19.999653084616618</v>
+      </c>
+      <c r="D171">
+        <v>0.9920714331033583</v>
+      </c>
+      <c r="E171">
+        <v>0.004353095758654663</v>
+      </c>
+      <c r="F171">
+        <v>0.12552701977137112</v>
+      </c>
+      <c r="G171">
+        <v>4.350152110275875e-5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172">
+        <v>14.572383602144154</v>
+      </c>
+      <c r="B172">
+        <v>-0.3929095911891011</v>
+      </c>
+      <c r="C172">
+        <v>19.99965310360871</v>
+      </c>
+      <c r="D172">
+        <v>0.9920683091689573</v>
+      </c>
+      <c r="E172">
+        <v>0.00436429165447968</v>
+      </c>
+      <c r="F172">
+        <v>0.12555147099788133</v>
+      </c>
+      <c r="G172">
+        <v>3.8491069460009015e-5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173">
+        <v>14.6239167658219</v>
+      </c>
+      <c r="B173">
+        <v>-0.3947045558062242</v>
+      </c>
+      <c r="C173">
+        <v>19.999653122544125</v>
+      </c>
+      <c r="D173">
+        <v>0.9920652023326711</v>
+      </c>
+      <c r="E173">
+        <v>0.004375553750460218</v>
+      </c>
+      <c r="F173">
+        <v>0.12557576869545362</v>
+      </c>
+      <c r="G173">
+        <v>3.4168321697657014e-5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174">
+        <v>14.675459873659948</v>
+      </c>
+      <c r="B174">
+        <v>-0.3965042014289705</v>
+      </c>
+      <c r="C174">
+        <v>19.999653105693795</v>
+      </c>
+      <c r="D174">
+        <v>0.9920621129118278</v>
+      </c>
+      <c r="E174">
+        <v>0.004386895960967093</v>
+      </c>
+      <c r="F174">
+        <v>0.1255999096429289</v>
+      </c>
+      <c r="G174">
+        <v>3.061776601264213e-5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175">
+        <v>14.727012867976988</v>
+      </c>
+      <c r="B175">
+        <v>-0.39830856522248814</v>
+      </c>
+      <c r="C175">
+        <v>19.999653124715593</v>
+      </c>
+      <c r="D175">
+        <v>0.9920590397533393</v>
+      </c>
+      <c r="E175">
+        <v>0.004398329373446329</v>
+      </c>
+      <c r="F175">
+        <v>0.12562390236711662</v>
+      </c>
+      <c r="G175">
+        <v>2.7911754337682634e-5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176">
+        <v>14.778575683603254</v>
+      </c>
+      <c r="B176">
+        <v>-0.4001176879337051</v>
+      </c>
+      <c r="C176">
+        <v>19.999653143671193</v>
+      </c>
+      <c r="D176">
+        <v>0.9920559837674391</v>
+      </c>
+      <c r="E176">
+        <v>0.004409863036972295</v>
+      </c>
+      <c r="F176">
+        <v>0.12564773924760922</v>
+      </c>
+      <c r="G176">
+        <v>2.6113489235807057e-5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177">
+        <v>14.830148257886147</v>
+      </c>
+      <c r="B177">
+        <v>-0.4019316133999241</v>
+      </c>
+      <c r="C177">
+        <v>19.99965316256963</v>
+      </c>
+      <c r="D177">
+        <v>0.9920529445638193</v>
+      </c>
+      <c r="E177">
+        <v>0.004421504285304785</v>
+      </c>
+      <c r="F177">
+        <v>0.1256714229819452</v>
+      </c>
+      <c r="G177">
+        <v>2.527802159665892e-5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178">
+        <v>14.881730528321429</v>
+      </c>
+      <c r="B178">
+        <v>-0.4037503878177988</v>
+      </c>
+      <c r="C178">
+        <v>19.999653181410807</v>
+      </c>
+      <c r="D178">
+        <v>0.9920499220523659</v>
+      </c>
+      <c r="E178">
+        <v>0.004433258770790691</v>
+      </c>
+      <c r="F178">
+        <v>0.12569495395764038</v>
+      </c>
+      <c r="G178">
+        <v>2.5452279325055083e-5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179">
+        <v>14.933322432590964</v>
+      </c>
+      <c r="B179">
+        <v>-0.4055740590376021</v>
+      </c>
+      <c r="C179">
+        <v>19.999653200194626</v>
+      </c>
+      <c r="D179">
+        <v>0.9920469161406148</v>
+      </c>
+      <c r="E179">
+        <v>0.004445130405633405</v>
+      </c>
+      <c r="F179">
+        <v>0.1257183326441511</v>
+      </c>
+      <c r="G179">
+        <v>2.6673441052375022e-5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180">
+        <v>14.984923908621004</v>
+      </c>
+      <c r="B180">
+        <v>-0.40740267567614374</v>
+      </c>
+      <c r="C180">
+        <v>19.999653218920994</v>
+      </c>
+      <c r="D180">
+        <v>0.9920439267334555</v>
+      </c>
+      <c r="E180">
+        <v>0.004457120919874722</v>
+      </c>
+      <c r="F180">
+        <v>0.12574155963353767</v>
+      </c>
+      <c r="G180">
+        <v>2.896560377716232e-5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181">
+        <v>15.03653489467617</v>
+      </c>
+      <c r="B181">
+        <v>-0.40923628589187744</v>
+      </c>
+      <c r="C181">
+        <v>19.999653237589797</v>
+      </c>
+      <c r="D181">
+        <v>0.9920409537341665</v>
+      </c>
+      <c r="E181">
+        <v>0.004469229034425951</v>
+      </c>
+      <c r="F181">
+        <v>0.12576463572558277</v>
+      </c>
+      <c r="G181">
+        <v>3.2334645581408934e-5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182">
+        <v>15.08815532950529</v>
+      </c>
+      <c r="B182">
+        <v>-0.4110749356418042</v>
+      </c>
+      <c r="C182">
+        <v>19.999653256200908</v>
+      </c>
+      <c r="D182">
+        <v>0.9920379970466697</v>
+      </c>
+      <c r="E182">
+        <v>0.004481449192370038</v>
+      </c>
+      <c r="F182">
+        <v>0.125787562051764</v>
+      </c>
+      <c r="G182">
+        <v>3.676100344703992e-5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183">
+        <v>15.139785152550692</v>
+      </c>
+      <c r="B183">
+        <v>-0.41291866620128276</v>
+      </c>
+      <c r="C183">
+        <v>19.99965327475419</v>
+      </c>
+      <c r="D183">
+        <v>0.9920350565805477</v>
+      </c>
+      <c r="E183">
+        <v>0.0044937697558284145</v>
+      </c>
+      <c r="F183">
+        <v>0.12581034023475834</v>
+      </c>
+      <c r="G183">
+        <v>4.218955101441735e-5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184">
+        <v>15.191424304228397</v>
+      </c>
+      <c r="B184">
+        <v>-0.4147675106367379</v>
+      </c>
+      <c r="C184">
+        <v>19.999653293249477</v>
+      </c>
+      <c r="D184">
+        <v>0.9920321322615506</v>
+      </c>
+      <c r="E184">
+        <v>0.004506170442230372</v>
+      </c>
+      <c r="F184">
+        <v>0.12583297256968612</v>
+      </c>
+      <c r="G184">
+        <v>4.851431986775494e-5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185">
+        <v>15.243072726289492</v>
+      </c>
+      <c r="B185">
+        <v>-0.41662148872741156</v>
+      </c>
+      <c r="C185">
+        <v>19.999653311686558</v>
+      </c>
+      <c r="D185">
+        <v>0.9920292240419271</v>
+      </c>
+      <c r="E185">
+        <v>0.004518618531814832</v>
+      </c>
+      <c r="F185">
+        <v>0.12585546222744154</v>
+      </c>
+      <c r="G185">
+        <v>5.555308692447257e-5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186">
+        <v>15.294730412350093</v>
+      </c>
+      <c r="B186">
+        <v>-0.41848063672216873</v>
+      </c>
+      <c r="C186">
+        <v>19.999652654942324</v>
+      </c>
+      <c r="D186">
+        <v>0.992026306890311</v>
+      </c>
+      <c r="E186">
+        <v>0.004531160886588068</v>
+      </c>
+      <c r="F186">
+        <v>0.12587799660184784</v>
+      </c>
+      <c r="G186">
+        <v>6.264119537614712e-5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187">
+        <v>15.34639736193106</v>
+      </c>
+      <c r="B187">
+        <v>-0.42034489291874827</v>
+      </c>
+      <c r="C187">
+        <v>19.99965259497713</v>
+      </c>
+      <c r="D187">
+        <v>0.9920234059960304</v>
+      </c>
+      <c r="E187">
+        <v>0.00454354240607033</v>
+      </c>
+      <c r="F187">
+        <v>0.1259004091654406</v>
+      </c>
+      <c r="G187">
+        <v>7.000692019278423e-5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188">
+        <v>15.398073431916764</v>
+      </c>
+      <c r="B188">
+        <v>-0.42221417968986436</v>
+      </c>
+      <c r="C188">
+        <v>19.999652586219067</v>
+      </c>
+      <c r="D188">
+        <v>0.9920205428264697</v>
+      </c>
+      <c r="E188">
+        <v>0.00455573425554718</v>
+      </c>
+      <c r="F188">
+        <v>0.1259225253078712</v>
+      </c>
+      <c r="G188">
+        <v>7.657290596929601e-5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189">
+        <v>15.4497584536567</v>
+      </c>
+      <c r="B189">
+        <v>-0.42408823656825806</v>
+      </c>
+      <c r="C189">
+        <v>19.999653381038286</v>
+      </c>
+      <c r="D189">
+        <v>0.9920177441570699</v>
+      </c>
+      <c r="E189">
+        <v>0.004567282056145385</v>
+      </c>
+      <c r="F189">
+        <v>0.12594415796212186</v>
+      </c>
+      <c r="G189">
+        <v>8.112089533166174e-5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190">
+        <v>15.501452536878615</v>
+      </c>
+      <c r="B190">
+        <v>-0.42596706843666204</v>
+      </c>
+      <c r="C190">
+        <v>19.999652600253864</v>
+      </c>
+      <c r="D190">
+        <v>0.9920148803032786</v>
+      </c>
+      <c r="E190">
+        <v>0.00457885311991494</v>
+      </c>
+      <c r="F190">
+        <v>0.12596628224104792</v>
+      </c>
+      <c r="G190">
+        <v>8.217156903400039e-5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191">
+        <v>15.553155715007904</v>
+      </c>
+      <c r="B191">
+        <v>-0.42785023084896406</v>
+      </c>
+      <c r="C191">
+        <v>19.999652549688932</v>
+      </c>
+      <c r="D191">
+        <v>0.9920120389033007</v>
+      </c>
+      <c r="E191">
+        <v>0.004589324814188667</v>
+      </c>
+      <c r="F191">
+        <v>0.1259882617743482</v>
+      </c>
+      <c r="G191">
+        <v>7.759238160892135e-5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192">
+        <v>15.604874196946419</v>
+      </c>
+      <c r="B192">
+        <v>-0.4297319172871945</v>
+      </c>
+      <c r="C192">
+        <v>19.99966620397794</v>
+      </c>
+      <c r="D192">
+        <v>0.9920078842695819</v>
+      </c>
+      <c r="E192">
+        <v>0.004585913757550627</v>
+      </c>
+      <c r="F192">
+        <v>0.12602458155626667</v>
+      </c>
+      <c r="G192">
+        <v>0.0005984098197874489</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193">
+        <v>15.65660020054732</v>
+      </c>
+      <c r="B193">
+        <v>-0.43161328754231176</v>
+      </c>
+      <c r="C193">
+        <v>19.999667082944377</v>
+      </c>
+      <c r="D193">
+        <v>0.9920053611966967</v>
+      </c>
+      <c r="E193">
+        <v>0.004584937388241295</v>
+      </c>
+      <c r="F193">
+        <v>0.1260440480679465</v>
+      </c>
+      <c r="G193">
+        <v>0.0004702803809697062</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194">
+        <v>15.708349278098071</v>
+      </c>
+      <c r="B194">
+        <v>-0.4334220741527083</v>
+      </c>
+      <c r="C194">
+        <v>19.999713211428606</v>
+      </c>
+      <c r="D194">
+        <v>0.9920006589769377</v>
+      </c>
+      <c r="E194">
+        <v>0.004407588018397194</v>
+      </c>
+      <c r="F194">
+        <v>0.12609505149103342</v>
+      </c>
+      <c r="G194">
+        <v>-5.1139631760073684e-5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195">
+        <v>15.760109795824293</v>
+      </c>
+      <c r="B195">
+        <v>-0.43522806666805713</v>
+      </c>
+      <c r="C195">
+        <v>19.999724497979475</v>
+      </c>
+      <c r="D195">
+        <v>0.9919967972318231</v>
+      </c>
+      <c r="E195">
+        <v>0.004401396080848498</v>
+      </c>
+      <c r="F195">
+        <v>0.12612626443108152</v>
+      </c>
+      <c r="G195">
+        <v>0.00022403208143254646</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196">
+        <v>15.811858005157637</v>
+      </c>
+      <c r="B196">
+        <v>-0.43710802722246916</v>
+      </c>
+      <c r="C196">
+        <v>19.99966712089629</v>
+      </c>
+      <c r="D196">
+        <v>0.9919976480686427</v>
+      </c>
+      <c r="E196">
+        <v>0.004581166996035761</v>
+      </c>
+      <c r="F196">
+        <v>0.12610319554066626</v>
+      </c>
+      <c r="G196">
+        <v>8.799152606173041e-5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197">
+        <v>15.863645539206397</v>
+      </c>
+      <c r="B197">
+        <v>-0.43890030326588625</v>
+      </c>
+      <c r="C197">
+        <v>19.999724536178896</v>
+      </c>
+      <c r="D197">
+        <v>0.9919894343832025</v>
+      </c>
+      <c r="E197">
+        <v>0.004367455917255271</v>
+      </c>
+      <c r="F197">
+        <v>0.12618985061642984</v>
+      </c>
+      <c r="G197">
+        <v>0.00037714291152400907</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198">
+        <v>15.915411736571457</v>
+      </c>
+      <c r="B198">
+        <v>-0.4407786707283894</v>
+      </c>
+      <c r="C198">
+        <v>19.99966715538627</v>
+      </c>
+      <c r="D198">
+        <v>0.9919920240077437</v>
+      </c>
+      <c r="E198">
+        <v>0.004577144201783139</v>
+      </c>
+      <c r="F198">
+        <v>0.12614661534835142</v>
+      </c>
+      <c r="G198">
+        <v>-0.0001490573079214476</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199">
+        <v>15.96716673768742</v>
+      </c>
+      <c r="B199">
+        <v>-0.4427717498297751</v>
+      </c>
+      <c r="C199">
+        <v>19.999615231019362</v>
+      </c>
+      <c r="D199">
+        <v>0.9919933469234886</v>
+      </c>
+      <c r="E199">
+        <v>0.0048571241692269935</v>
+      </c>
+      <c r="F199">
+        <v>0.1261175718389219</v>
+      </c>
+      <c r="G199">
+        <v>-5.449630805881056e-5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200">
+        <v>16.018933973792485</v>
+      </c>
+      <c r="B200">
+        <v>-0.44476977993744393</v>
+      </c>
+      <c r="C200">
+        <v>19.999616013851906</v>
+      </c>
+      <c r="D200">
+        <v>0.9919901991821899</v>
+      </c>
+      <c r="E200">
+        <v>0.00486895425691343</v>
+      </c>
+      <c r="F200">
+        <v>0.12614199218729338</v>
+      </c>
+      <c r="G200">
+        <v>-6.819780412189765e-5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201">
+        <v>16.07070942155592</v>
+      </c>
+      <c r="B201">
+        <v>-0.4467741783723699</v>
+      </c>
+      <c r="C201">
+        <v>19.99961603346785</v>
+      </c>
+      <c r="D201">
+        <v>0.9919875902766006</v>
+      </c>
+      <c r="E201">
+        <v>0.004884445021431872</v>
+      </c>
+      <c r="F201">
+        <v>0.1261619318961773</v>
+      </c>
+      <c r="G201">
+        <v>-7.89226817912598e-5</v>
       </c>
     </row>
   </sheetData>

--- a/src/Quadrotor_States.xlsx
+++ b/src/Quadrotor_States.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -428,2302 +428,4602 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>5.0227251168144385</v>
+        <v>55.063286541334094</v>
       </c>
       <c r="B2">
-        <v>0.055401139812289765</v>
+        <v>49.933343242877655</v>
       </c>
       <c r="C2">
-        <v>19.999999995591764</v>
+        <v>10.51448266353847</v>
       </c>
       <c r="D2">
-        <v>0.9885353763163278</v>
+        <v>0.9874454486548147</v>
       </c>
       <c r="E2">
-        <v>-0.1347441336492411</v>
+        <v>0.11416117436929744</v>
       </c>
       <c r="F2">
-        <v>0.05523753645222567</v>
+        <v>0.10837673271907086</v>
       </c>
       <c r="G2">
-        <v>-0.03928370862593385</v>
+        <v>0.010987971221605214</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>5.078148209292388</v>
+        <v>55.13169612934054</v>
       </c>
       <c r="B3">
-        <v>0.07831307868894244</v>
+        <v>49.912318464807676</v>
       </c>
       <c r="C3">
-        <v>19.99999999559176</v>
+        <v>11.023305393381614</v>
       </c>
       <c r="D3">
-        <v>0.9884913104611887</v>
+        <v>0.9920407188845148</v>
       </c>
       <c r="E3">
-        <v>-0.055690274388545694</v>
+        <v>0.036186858758801205</v>
       </c>
       <c r="F3">
-        <v>0.1347942699448184</v>
+        <v>0.1178068676063394</v>
       </c>
       <c r="G3">
-        <v>0.03957511521379398</v>
+        <v>-0.025398323453862465</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>5.07814834212766</v>
+        <v>55.19862620727053</v>
       </c>
       <c r="B4">
-        <v>0.0783130773605894</v>
+        <v>49.89650747146197</v>
       </c>
       <c r="C4">
-        <v>19.999999995501422</v>
+        <v>11.53146290833101</v>
       </c>
       <c r="D4">
-        <v>0.9999999999835019</v>
+        <v>0.9929375339973474</v>
       </c>
       <c r="E4">
-        <v>3.2497935834005606e-9</v>
+        <v>0.027249057575860155</v>
       </c>
       <c r="F4">
-        <v>3.2497928010609233e-7</v>
+        <v>0.11535885841894765</v>
       </c>
       <c r="G4">
-        <v>1.6263788820054573e-16</v>
+        <v>-0.0034836660217662</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>5.132035602596622</v>
+        <v>55.259048489060696</v>
       </c>
       <c r="B5">
-        <v>0.07884013164118571</v>
+        <v>49.96192746679802</v>
       </c>
       <c r="C5">
-        <v>19.999590232343426</v>
+        <v>12.045070458213996</v>
       </c>
       <c r="D5">
-        <v>0.9913291421537441</v>
+        <v>0.9882469886961831</v>
       </c>
       <c r="E5">
-        <v>-0.0012844435357632067</v>
+        <v>-0.11214242569410479</v>
       </c>
       <c r="F5">
-        <v>0.13130712698415864</v>
+        <v>0.10357052483084324</v>
       </c>
       <c r="G5">
-        <v>-0.0002818637966777713</v>
+        <v>-0.004401577672890607</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>5.185823061396191</v>
+        <v>55.32602794722344</v>
       </c>
       <c r="B6">
-        <v>0.07885553661973879</v>
+        <v>49.9870131533895</v>
       </c>
       <c r="C6">
-        <v>19.999601912766813</v>
+        <v>12.55388665209141</v>
       </c>
       <c r="D6">
-        <v>0.9913658360292069</v>
+        <v>0.9923283797741621</v>
       </c>
       <c r="E6">
-        <v>-3.81792802420178e-5</v>
+        <v>-0.043200882249849304</v>
       </c>
       <c r="F6">
-        <v>0.13102347251270807</v>
+        <v>0.11536733969286071</v>
       </c>
       <c r="G6">
-        <v>-0.00012207706535408106</v>
+        <v>0.009421612651074092</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>5.239747252000943</v>
+        <v>55.37854385794272</v>
       </c>
       <c r="B7">
-        <v>0.07897750776101464</v>
+        <v>50.059517233714246</v>
       </c>
       <c r="C7">
-        <v>19.99957801177122</v>
+        <v>13.067624935329436</v>
       </c>
       <c r="D7">
-        <v>0.9913226913561645</v>
+        <v>0.9876403039320057</v>
       </c>
       <c r="E7">
-        <v>-0.00029694356136543843</v>
+        <v>-0.1242337588199857</v>
       </c>
       <c r="F7">
-        <v>0.13135536157130787</v>
+        <v>0.08995335628156995</v>
       </c>
       <c r="G7">
-        <v>0.00022122708687523414</v>
+        <v>-0.031427511199168735</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>5.228173893115064</v>
+        <v>55.428962136903436</v>
       </c>
       <c r="B8">
-        <v>0.0787288413841997</v>
+        <v>50.136378092500806</v>
       </c>
       <c r="C8">
-        <v>19.999724132240075</v>
+        <v>13.582098914017553</v>
       </c>
       <c r="D8">
-        <v>0.9996194882484803</v>
+        <v>0.987020326654969</v>
       </c>
       <c r="E8">
-        <v>0.0006063471097441042</v>
+        <v>-0.13160085552391967</v>
       </c>
       <c r="F8">
-        <v>-0.028301923972181894</v>
+        <v>0.08629588729886972</v>
       </c>
       <c r="G8">
-        <v>-0.00013403142233244208</v>
+        <v>-0.031089335564021</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>5.283271024879541</v>
+        <v>55.48360270440027</v>
       </c>
       <c r="B9">
-        <v>0.058338517564933925</v>
+        <v>50.21097097993514</v>
       </c>
       <c r="C9">
-        <v>19.99999999999999</v>
+        <v>13.921880257793328</v>
       </c>
       <c r="D9">
-        <v>0.9890873427056047</v>
+        <v>0.983804751463441</v>
       </c>
       <c r="E9">
-        <v>0.049570554112260565</v>
+        <v>-0.1417330217550835</v>
       </c>
       <c r="F9">
-        <v>0.1340253372476285</v>
+        <v>0.10378737013415915</v>
       </c>
       <c r="G9">
-        <v>-0.03526615165535133</v>
+        <v>-0.03431145746035792</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>5.337121466623255</v>
+        <v>55.55399794828309</v>
       </c>
       <c r="B10">
-        <v>0.05841658841053479</v>
+        <v>50.233885924655965</v>
       </c>
       <c r="C10">
-        <v>19.999577759961934</v>
+        <v>14.431320327654838</v>
       </c>
       <c r="D10">
-        <v>0.9913407735016495</v>
+        <v>0.9918070900277993</v>
       </c>
       <c r="E10">
-        <v>-0.0001901312916919868</v>
+        <v>-0.03943878589761377</v>
       </c>
       <c r="F10">
-        <v>0.13121953053955485</v>
+        <v>0.12117529085424893</v>
       </c>
       <c r="G10">
-        <v>0.00014009172128510907</v>
+        <v>0.007580365443808661</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>5.390820986068131</v>
+        <v>55.62790698704327</v>
       </c>
       <c r="B11">
-        <v>0.058685604709692</v>
+        <v>50.24408437039884</v>
       </c>
       <c r="C11">
-        <v>19.999592040439186</v>
+        <v>14.854706053728151</v>
       </c>
       <c r="D11">
-        <v>0.9914046879289813</v>
+        <v>0.9908174292882769</v>
       </c>
       <c r="E11">
-        <v>-0.0006547926666976128</v>
+        <v>-0.018458888254380156</v>
       </c>
       <c r="F11">
-        <v>0.13080723254667054</v>
+        <v>0.1337935734585005</v>
       </c>
       <c r="G11">
-        <v>0.0004862188231483101</v>
+        <v>0.003774712660658067</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>5.444708770989859</v>
+        <v>55.69413900938637</v>
       </c>
       <c r="B12">
-        <v>0.05865782753127158</v>
+        <v>50.18043821284242</v>
       </c>
       <c r="C12">
-        <v>19.999582877241977</v>
+        <v>15.164024361455624</v>
       </c>
       <c r="D12">
-        <v>0.9913358336113729</v>
+        <v>0.9839495140578913</v>
       </c>
       <c r="E12">
-        <v>6.769680333207391e-5</v>
+        <v>0.12334166893461652</v>
       </c>
       <c r="F12">
-        <v>0.13126616341354236</v>
+        <v>0.12836264417256532</v>
       </c>
       <c r="G12">
-        <v>-1.3814135291045667e-5</v>
+        <v>-0.00824647547040715</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>5.498517903375712</v>
+        <v>55.72522631021982</v>
       </c>
       <c r="B13">
-        <v>0.057932514528394374</v>
+        <v>50.10799020688445</v>
       </c>
       <c r="C13">
-        <v>19.999613519253884</v>
+        <v>15.607746303295581</v>
       </c>
       <c r="D13">
-        <v>0.9913604817656209</v>
+        <v>0.9899547900096345</v>
       </c>
       <c r="E13">
-        <v>0.0017670218229108349</v>
+        <v>0.1294966187088227</v>
       </c>
       <c r="F13">
-        <v>0.13107253422260878</v>
+        <v>0.055558175704410726</v>
       </c>
       <c r="G13">
-        <v>-6.770589736605033e-5</v>
+        <v>0.009988938728632001</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>5.552438423741</v>
+        <v>55.77635555832628</v>
       </c>
       <c r="B14">
-        <v>0.05778314295859156</v>
+        <v>50.04277653339249</v>
       </c>
       <c r="C14">
-        <v>19.999578001214847</v>
+        <v>15.966785950061716</v>
       </c>
       <c r="D14">
-        <v>0.9913236709743833</v>
+        <v>0.987750486015246</v>
       </c>
       <c r="E14">
-        <v>0.00036365502713784</v>
+        <v>0.12265667180739621</v>
       </c>
       <c r="F14">
-        <v>0.13134772973076383</v>
+        <v>0.09616327899562324</v>
       </c>
       <c r="G14">
-        <v>-0.00027038967921855147</v>
+        <v>0.0027040981275783795</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>5.6063035860281385</v>
+        <v>55.79306545335234</v>
       </c>
       <c r="B15">
-        <v>0.057157170221514605</v>
+        <v>49.97865810876591</v>
       </c>
       <c r="C15">
-        <v>19.99962432871189</v>
+        <v>16.162793751558084</v>
       </c>
       <c r="D15">
-        <v>0.9913442823103816</v>
+        <v>0.990227739903874</v>
       </c>
       <c r="E15">
-        <v>0.0015253618026282573</v>
+        <v>0.13458714884192888</v>
       </c>
       <c r="F15">
-        <v>0.13120644416169466</v>
+        <v>0.035066632503582336</v>
       </c>
       <c r="G15">
-        <v>0.00011706124993377692</v>
+        <v>0.008683150710192312</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>5.620305465651379</v>
+        <v>55.82377830264642</v>
       </c>
       <c r="B16">
-        <v>0.05740175410548494</v>
+        <v>50.04055670459943</v>
       </c>
       <c r="C16">
-        <v>19.999733884631542</v>
+        <v>16.32689469692398</v>
       </c>
       <c r="D16">
-        <v>0.9994319285559339</v>
+        <v>0.9888062856234636</v>
       </c>
       <c r="E16">
-        <v>-0.0005987409560836377</v>
+        <v>-0.13281477389795854</v>
       </c>
       <c r="F16">
-        <v>0.03427293150816525</v>
+        <v>0.06588618257957445</v>
       </c>
       <c r="G16">
-        <v>-0.0011717802399598626</v>
+        <v>-0.015468869955937225</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>5.675108098006011</v>
+        <v>55.85542959558407</v>
       </c>
       <c r="B17">
-        <v>0.07460240108776718</v>
+        <v>50.10211110601443</v>
       </c>
       <c r="C17">
-        <v>19.999999999999968</v>
+        <v>16.589767830061586</v>
       </c>
       <c r="D17">
-        <v>0.989702496991766</v>
+        <v>0.9903071820463345</v>
       </c>
       <c r="E17">
-        <v>-0.041830573478642254</v>
+        <v>-0.1234083465878061</v>
       </c>
       <c r="F17">
-        <v>0.13335452773914974</v>
+        <v>0.06345475350822359</v>
       </c>
       <c r="G17">
-        <v>0.03030612287216527</v>
+        <v>-0.0021058421844625586</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>5.729883937968966</v>
+        <v>55.90828988591861</v>
       </c>
       <c r="B18">
-        <v>0.07458710516684497</v>
+        <v>50.15497139634898</v>
       </c>
       <c r="C18">
-        <v>19.999605485735582</v>
+        <v>16.65841089124086</v>
       </c>
       <c r="D18">
-        <v>0.9910516248293052</v>
+        <v>0.9850764996093874</v>
       </c>
       <c r="E18">
-        <v>3.6163719137111906e-5</v>
+        <v>-0.12155408579344744</v>
       </c>
       <c r="F18">
-        <v>0.13345199682564496</v>
+        <v>0.12155408579344745</v>
       </c>
       <c r="G18">
-        <v>0.00014199381789789024</v>
+        <v>-3.4787026788568467e-17</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>5.729300235737967</v>
+        <v>55.95233382226433</v>
       </c>
       <c r="B19">
-        <v>0.07461193536430406</v>
+        <v>50.098727781320335</v>
       </c>
       <c r="C19">
-        <v>19.999999999999492</v>
+        <v>16.734071017014866</v>
       </c>
       <c r="D19">
-        <v>0.9999998360821799</v>
+        <v>0.9864226692502781</v>
       </c>
       <c r="E19">
-        <v>-6.0724196015975956e-5</v>
+        <v>0.12872751264887544</v>
       </c>
       <c r="F19">
-        <v>-0.00142777428223358</v>
+        <v>0.10079156512492467</v>
       </c>
       <c r="G19">
-        <v>1.7515622721367262e-7</v>
+        <v>0.013384156938226331</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>5.783239206711582</v>
+        <v>55.99125730730928</v>
       </c>
       <c r="B20">
-        <v>0.07998452502661664</v>
+        <v>50.04286530965647</v>
       </c>
       <c r="C20">
-        <v>19.999685801103084</v>
+        <v>16.8022471983624</v>
       </c>
       <c r="D20">
-        <v>0.9912062425736178</v>
+        <v>0.9875280941349925</v>
       </c>
       <c r="E20">
-        <v>-0.013083241054029682</v>
+        <v>0.12866521536322703</v>
       </c>
       <c r="F20">
-        <v>0.13141437533280437</v>
+        <v>0.0896384680695711</v>
       </c>
       <c r="G20">
-        <v>0.006773495763115208</v>
+        <v>0.012108545834157146</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>5.837163585400241</v>
+        <v>56.03954160137581</v>
       </c>
       <c r="B21">
-        <v>0.07970608127934926</v>
+        <v>50.02072140179224</v>
       </c>
       <c r="C21">
-        <v>19.999577946704754</v>
+        <v>17.05108915651241</v>
       </c>
       <c r="D21">
-        <v>0.9913211574326004</v>
+        <v>0.994175726235796</v>
       </c>
       <c r="E21">
-        <v>0.0006779294414268204</v>
+        <v>0.044904589786391134</v>
       </c>
       <c r="F21">
-        <v>0.13136471038906503</v>
+        <v>0.09791344018584107</v>
       </c>
       <c r="G21">
-        <v>-0.000503394925665559</v>
+        <v>1.1717859125531694e-6</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>5.890741640285429</v>
+        <v>56.09220155168323</v>
       </c>
       <c r="B22">
-        <v>0.07969181021949634</v>
+        <v>50.0538315713477</v>
       </c>
       <c r="C22">
-        <v>19.99959822628417</v>
+        <v>17.072866039661577</v>
       </c>
       <c r="D22">
-        <v>0.9914484719319587</v>
+        <v>0.988840880093332</v>
       </c>
       <c r="E22">
-        <v>3.4738192445207236e-5</v>
+        <v>-0.07914154953739268</v>
       </c>
       <c r="F22">
-        <v>0.13051605979073427</v>
+        <v>0.12588032749175615</v>
       </c>
       <c r="G22">
-        <v>0.0010852391164077224</v>
+        <v>0.006569397864130589</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>5.944443000904707</v>
+        <v>56.101506202034834</v>
       </c>
       <c r="B23">
-        <v>0.08061485365743522</v>
+        <v>49.994882213446225</v>
       </c>
       <c r="C23">
-        <v>19.99964981489624</v>
+        <v>17.2677616071912</v>
       </c>
       <c r="D23">
-        <v>0.9914023449964524</v>
+        <v>0.9920850445731677</v>
       </c>
       <c r="E23">
-        <v>-0.0022455096394173733</v>
+        <v>0.12394854296125389</v>
       </c>
       <c r="F23">
-        <v>0.1308114115507322</v>
+        <v>0.01956367302452932</v>
       </c>
       <c r="G23">
-        <v>0.0011220558346524754</v>
+        <v>0.000716077745937205</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>5.9984488138071805</v>
+        <v>56.108004610016195</v>
       </c>
       <c r="B24">
-        <v>0.08069074182159168</v>
+        <v>49.93904481707369</v>
       </c>
       <c r="C24">
-        <v>19.999577488913882</v>
+        <v>17.32045491075261</v>
       </c>
       <c r="D24">
-        <v>0.9912958362769299</v>
+        <v>0.9913337751359873</v>
       </c>
       <c r="E24">
-        <v>-0.00018476070730584024</v>
+        <v>0.1304126127543477</v>
       </c>
       <c r="F24">
-        <v>0.13155761246680997</v>
+        <v>0.015177433486523334</v>
       </c>
       <c r="G24">
-        <v>0.00013340579229623132</v>
+        <v>0.00011830046504729495</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>6.052329320916084</v>
+        <v>56.11182365430169</v>
       </c>
       <c r="B25">
-        <v>0.08006309862422457</v>
+        <v>49.99672480848987</v>
       </c>
       <c r="C25">
-        <v>19.99962446116887</v>
+        <v>17.45170482071816</v>
       </c>
       <c r="D25">
-        <v>0.9913389936012604</v>
+        <v>0.9918618072313672</v>
       </c>
       <c r="E25">
-        <v>0.001529193279282775</v>
+        <v>-0.1269514164665228</v>
       </c>
       <c r="F25">
-        <v>0.13124341285323723</v>
+        <v>0.008404855742596445</v>
       </c>
       <c r="G25">
-        <v>-0.00023931585305382542</v>
+        <v>-0.0009449408701750103</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>6.106230307091494</v>
+        <v>56.14227271174218</v>
       </c>
       <c r="B26">
-        <v>0.08093439421811868</v>
+        <v>49.9453226506859</v>
       </c>
       <c r="C26">
-        <v>19.99960190440785</v>
+        <v>17.426395833046914</v>
       </c>
       <c r="D26">
-        <v>0.9913294171232492</v>
+        <v>0.9888653075769028</v>
       </c>
       <c r="E26">
-        <v>-0.0021226395017483464</v>
+        <v>0.12769291617588763</v>
       </c>
       <c r="F26">
-        <v>0.13129967703993367</v>
+        <v>0.07563308429447117</v>
       </c>
       <c r="G26">
-        <v>-0.0002412709251380183</v>
+        <v>0.008850443468568153</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>6.16035498227862</v>
+        <v>56.1710970524442</v>
       </c>
       <c r="B27">
-        <v>0.07216671552937061</v>
+        <v>49.99907817591356</v>
       </c>
       <c r="C27">
-        <v>19.999740047083232</v>
+        <v>17.503669501423374</v>
       </c>
       <c r="D27">
-        <v>0.9909295928659614</v>
+        <v>0.9901777054712144</v>
       </c>
       <c r="E27">
-        <v>0.02134009207269772</v>
+        <v>-0.12310951941937745</v>
       </c>
       <c r="F27">
-        <v>0.1318031646934387</v>
+        <v>0.06601129239362973</v>
       </c>
       <c r="G27">
-        <v>-0.014278868003758228</v>
+        <v>-0.0016468520517681046</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>6.2152214987124115</v>
+        <v>56.17713729091581</v>
       </c>
       <c r="B28">
-        <v>0.09001738635235997</v>
+        <v>50.05214569348026</v>
       </c>
       <c r="C28">
-        <v>19.999999999999986</v>
+        <v>17.479912155814297</v>
       </c>
       <c r="D28">
-        <v>0.9895803656489839</v>
+        <v>0.9911490190515622</v>
       </c>
       <c r="E28">
-        <v>-0.0434085186371206</v>
+        <v>-0.13180776625334334</v>
       </c>
       <c r="F28">
-        <v>0.13350144134781894</v>
+        <v>0.015001549052202882</v>
       </c>
       <c r="G28">
-        <v>0.03139198741992653</v>
+        <v>-0.0010157052431434615</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>6.269054007601367</v>
+        <v>56.22298228306528</v>
       </c>
       <c r="B29">
-        <v>0.09018403494763448</v>
+        <v>50.0867853345878</v>
       </c>
       <c r="C29">
-        <v>19.999577761275912</v>
+        <v>17.327160161997718</v>
       </c>
       <c r="D29">
-        <v>0.9913464244960147</v>
+        <v>0.9871124155405159</v>
       </c>
       <c r="E29">
-        <v>-0.0004058538779982775</v>
+        <v>-0.0961732292782985</v>
       </c>
       <c r="F29">
-        <v>0.13117620349429734</v>
+        <v>0.12729725366946282</v>
       </c>
       <c r="G29">
-        <v>0.00029651807481710944</v>
+        <v>0.010000163721615654</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>6.3229180953486</v>
+        <v>56.220656358811326</v>
       </c>
       <c r="B30">
-        <v>0.09095259847531795</v>
+        <v>50.14416279378259</v>
       </c>
       <c r="C30">
-        <v>19.999625042901393</v>
+        <v>17.463202633457676</v>
       </c>
       <c r="D30">
-        <v>0.9913438621370092</v>
+        <v>0.9920252463259284</v>
       </c>
       <c r="E30">
-        <v>-0.001872167217850889</v>
+        <v>-0.12585156703366018</v>
       </c>
       <c r="F30">
-        <v>0.13120348990382524</v>
+        <v>-0.005101355625520747</v>
       </c>
       <c r="G30">
-        <v>-0.00034834998049137523</v>
+        <v>0.0004281953296600135</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <v>6.37742336214703</v>
+        <v>56.24351047446621</v>
       </c>
       <c r="B31">
-        <v>0.10483872314409402</v>
+        <v>50.19322228939532</v>
       </c>
       <c r="C31">
-        <v>19.99999999999998</v>
+        <v>17.34642451792434</v>
       </c>
       <c r="D31">
-        <v>0.9902648437422641</v>
+        <v>0.9892522269989952</v>
       </c>
       <c r="E31">
-        <v>-0.033778736554590474</v>
+        <v>-0.13194560186441448</v>
       </c>
       <c r="F31">
-        <v>0.13266407745431788</v>
+        <v>0.061455219722244846</v>
       </c>
       <c r="G31">
-        <v>0.024536282099871676</v>
+        <v>-0.01245068474487541</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
-        <v>6.43131804641953</v>
+        <v>56.27919367858159</v>
       </c>
       <c r="B32">
-        <v>0.10504398182026693</v>
+        <v>50.18544021474596</v>
       </c>
       <c r="C32">
-        <v>19.999577866335112</v>
+        <v>17.53551688731719</v>
       </c>
       <c r="D32">
-        <v>0.991326415298099</v>
+        <v>0.99701950983803</v>
       </c>
       <c r="E32">
-        <v>-0.0004998743809974099</v>
+        <v>0.01645803732212833</v>
       </c>
       <c r="F32">
-        <v>0.13132638031579538</v>
+        <v>0.07554979559922707</v>
       </c>
       <c r="G32">
-        <v>0.00037146246906219737</v>
+        <v>-3.6401249363902105e-5</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
-        <v>6.485244065082513</v>
+        <v>56.29620754418042</v>
       </c>
       <c r="B33">
-        <v>0.10494420511425673</v>
+        <v>50.2377446237095</v>
       </c>
       <c r="C33">
-        <v>19.999578020132773</v>
+        <v>17.529538185717186</v>
       </c>
       <c r="D33">
-        <v>0.9913224668933218</v>
+        <v>0.9908709225323192</v>
       </c>
       <c r="E33">
-        <v>0.00024290537269950124</v>
+        <v>-0.12800321101757253</v>
       </c>
       <c r="F33">
-        <v>0.13135722315782605</v>
+        <v>0.04163320710436314</v>
       </c>
       <c r="G33">
-        <v>-0.00018118564019454055</v>
+        <v>-0.005384647828344305</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
-        <v>6.5390401468195805</v>
+        <v>56.34032522531458</v>
       </c>
       <c r="B34">
-        <v>0.10647996905227056</v>
+        <v>50.20716939532855</v>
       </c>
       <c r="C34">
-        <v>19.999649708485418</v>
+        <v>17.603547777866527</v>
       </c>
       <c r="D34">
-        <v>0.9913580183693119</v>
+        <v>0.9923507315406043</v>
       </c>
       <c r="E34">
-        <v>-0.0037385112625677756</v>
+        <v>0.07027455645435983</v>
       </c>
       <c r="F34">
-        <v>0.13103236256543932</v>
+        <v>0.10140072986108607</v>
       </c>
       <c r="G34">
-        <v>-0.0010352845151947987</v>
+        <v>-9.74664392991961e-16</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
-        <v>6.593544302780208</v>
+        <v>56.35041984136467</v>
       </c>
       <c r="B35">
-        <v>0.09252421019156154</v>
+        <v>50.152286310376354</v>
       </c>
       <c r="C35">
-        <v>19.999999999999986</v>
+        <v>17.663553995562346</v>
       </c>
       <c r="D35">
-        <v>0.9902567406359225</v>
+        <v>0.9915497687704169</v>
       </c>
       <c r="E35">
-        <v>0.03394848833708035</v>
+        <v>0.1274664856489084</v>
       </c>
       <c r="F35">
-        <v>0.13266256120483486</v>
+        <v>0.023442642921990543</v>
       </c>
       <c r="G35">
-        <v>-0.024635344336380368</v>
+        <v>0.0028476402724959484</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36">
-        <v>6.593278446446801</v>
+        <v>56.391353747755964</v>
       </c>
       <c r="B36">
-        <v>0.09253712741819256</v>
+        <v>50.11108208325939</v>
       </c>
       <c r="C36">
-        <v>19.999999995514433</v>
+        <v>17.66564994556984</v>
       </c>
       <c r="D36">
-        <v>0.9999999145466152</v>
+        <v>0.9899727307928701</v>
       </c>
       <c r="E36">
-        <v>-3.1601684315052674e-5</v>
+        <v>0.10012946517311853</v>
       </c>
       <c r="F36">
-        <v>-0.0006504111262792473</v>
+        <v>0.09947256486019967</v>
       </c>
       <c r="G36">
-        <v>1.3404625231025044e-16</v>
+        <v>5.341484638451115e-17</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37">
-        <v>6.593278446446801</v>
+        <v>56.43634919642726</v>
       </c>
       <c r="B37">
-        <v>0.09253712741819256</v>
+        <v>50.096264490681975</v>
       </c>
       <c r="C37">
-        <v>19.999999995501422</v>
+        <v>17.7036175836064</v>
       </c>
       <c r="D37">
-        <v>0.9999999999835232</v>
+        <v>0.9936947229271924</v>
       </c>
       <c r="E37">
-        <v>-4.8762601754298505e-20</v>
+        <v>0.03505151294935489</v>
       </c>
       <c r="F37">
-        <v>-8.61020531899448e-21</v>
+        <v>0.10643821882196255</v>
       </c>
       <c r="G37">
-        <v>-1.192537383011851e-15</v>
+        <v>1.3936084700002904e-6</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38">
-        <v>6.593278446446801</v>
+        <v>56.47847126362982</v>
       </c>
       <c r="B38">
-        <v>0.09253712741819256</v>
+        <v>50.06446139236891</v>
       </c>
       <c r="C38">
-        <v>19.99999999550142</v>
+        <v>17.459635801971796</v>
       </c>
       <c r="D38">
-        <v>0.9999999999835232</v>
+        <v>0.9870075958175758</v>
       </c>
       <c r="E38">
-        <v>-4.754563032547884e-20</v>
+        <v>0.09649307938514626</v>
       </c>
       <c r="F38">
-        <v>-1.1238840423144848e-19</v>
+        <v>0.1278160174681775</v>
       </c>
       <c r="G38">
-        <v>-6.070988196927729e-15</v>
+        <v>-0.01058442244161588</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39">
-        <v>6.593278446446801</v>
+        <v>56.52449361043179</v>
       </c>
       <c r="B39">
-        <v>0.09253712741819299</v>
+        <v>50.04629897502828</v>
       </c>
       <c r="C39">
-        <v>19.99999999550142</v>
+        <v>17.30268389464724</v>
       </c>
       <c r="D39">
-        <v>0.9999999999835232</v>
+        <v>0.9903744907862122</v>
       </c>
       <c r="E39">
-        <v>-1.0548496912326977e-15</v>
+        <v>0.050705947500764334</v>
       </c>
       <c r="F39">
-        <v>1.258171141399374e-19</v>
+        <v>0.128499664921544</v>
       </c>
       <c r="G39">
-        <v>-1.0827489283341993e-16</v>
+        <v>-0.006657584269348569</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40">
-        <v>6.593278446446801</v>
+        <v>56.52403145321303</v>
       </c>
       <c r="B40">
-        <v>0.09253712741819342</v>
+        <v>49.99024597089491</v>
       </c>
       <c r="C40">
-        <v>19.99999999550142</v>
+        <v>17.36231556793996</v>
       </c>
       <c r="D40">
-        <v>0.9999999999835232</v>
+        <v>0.9914751709633299</v>
       </c>
       <c r="E40">
-        <v>-1.0548496912326977e-15</v>
+        <v>0.13021564938697638</v>
       </c>
       <c r="F40">
-        <v>1.258171141399374e-19</v>
+        <v>-0.0010742676216687996</v>
       </c>
       <c r="G40">
-        <v>-1.0827489283341993e-16</v>
+        <v>-0.0005369218582151696</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41">
-        <v>6.593278446446801</v>
+        <v>56.570747824354996</v>
       </c>
       <c r="B41">
-        <v>0.09253712741819385</v>
+        <v>50.01752421165217</v>
       </c>
       <c r="C41">
-        <v>19.99999999550142</v>
+        <v>17.40211727538318</v>
       </c>
       <c r="D41">
-        <v>0.9999999999835232</v>
+        <v>0.9918064062207529</v>
       </c>
       <c r="E41">
-        <v>-1.0548496912326977e-15</v>
+        <v>-0.06437317433551963</v>
       </c>
       <c r="F41">
-        <v>1.258171141399374e-19</v>
+        <v>0.11024468657663329</v>
       </c>
       <c r="G41">
-        <v>-1.0827489283341993e-16</v>
+        <v>-2.9398838016734782e-8</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42">
-        <v>6.593278446446801</v>
+        <v>56.55989360138275</v>
       </c>
       <c r="B42">
-        <v>0.09253712741819428</v>
+        <v>49.96075850863674</v>
       </c>
       <c r="C42">
-        <v>19.99999999550142</v>
+        <v>17.50377825883179</v>
       </c>
       <c r="D42">
-        <v>0.9999999999835232</v>
+        <v>0.9914951796678342</v>
       </c>
       <c r="E42">
-        <v>-1.0548496912326977e-15</v>
+        <v>0.12769980861516178</v>
       </c>
       <c r="F42">
-        <v>1.258171141399374e-19</v>
+        <v>-0.024415153879628868</v>
       </c>
       <c r="G42">
-        <v>-1.0827489283341993e-16</v>
+        <v>-0.0031580832256425874</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43">
-        <v>6.593278446446801</v>
+        <v>56.57528538613765</v>
       </c>
       <c r="B43">
-        <v>0.09253712741819471</v>
+        <v>49.91118015111757</v>
       </c>
       <c r="C43">
-        <v>19.99999999550142</v>
+        <v>17.398246046672</v>
       </c>
       <c r="D43">
-        <v>0.9999999999835232</v>
+        <v>0.9903531292369756</v>
       </c>
       <c r="E43">
-        <v>-1.0548496912326977e-15</v>
+        <v>0.1320760360162296</v>
       </c>
       <c r="F43">
-        <v>1.258171141399374e-19</v>
+        <v>0.04099655089883602</v>
       </c>
       <c r="G43">
-        <v>-1.0827489283341993e-16</v>
+        <v>0.006840081848362493</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44">
-        <v>6.593278446446801</v>
+        <v>56.59818279184277</v>
       </c>
       <c r="B44">
-        <v>0.09253712741819514</v>
+        <v>49.96462958177121</v>
       </c>
       <c r="C44">
-        <v>19.99999999550142</v>
+        <v>17.444395139496503</v>
       </c>
       <c r="D44">
-        <v>0.9999999999835232</v>
+        <v>0.9906239285872218</v>
       </c>
       <c r="E44">
-        <v>-1.0548496912326977e-15</v>
+        <v>-0.12543118801606573</v>
       </c>
       <c r="F44">
-        <v>1.258171141399374e-19</v>
+        <v>0.05373065243332296</v>
       </c>
       <c r="G44">
-        <v>-1.0827489283341993e-16</v>
+        <v>-0.0038873823104943715</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45">
-        <v>6.593278446446801</v>
+        <v>56.60612655762199</v>
       </c>
       <c r="B45">
-        <v>0.09253712741819557</v>
+        <v>49.9101342011879</v>
       </c>
       <c r="C45">
-        <v>19.99999999550142</v>
+        <v>17.489645974238723</v>
       </c>
       <c r="D45">
-        <v>0.9999999999835232</v>
+        <v>0.9915787773954176</v>
       </c>
       <c r="E45">
-        <v>-1.0548496912326977e-15</v>
+        <v>0.12803657567072216</v>
       </c>
       <c r="F45">
-        <v>1.258171141399374e-19</v>
+        <v>0.018661894550468107</v>
       </c>
       <c r="G45">
-        <v>-1.0827489283341993e-16</v>
+        <v>0.0025254701423592604</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46">
-        <v>6.593278446446801</v>
+        <v>56.626398528510165</v>
       </c>
       <c r="B46">
-        <v>0.092537127418196</v>
+        <v>49.85741677855894</v>
       </c>
       <c r="C46">
-        <v>19.99999999550142</v>
+        <v>17.5310287755727</v>
       </c>
       <c r="D46">
-        <v>0.9999999999835232</v>
+        <v>0.9910907392529372</v>
       </c>
       <c r="E46">
-        <v>-1.0548496912326977e-15</v>
+        <v>0.12420717207863524</v>
       </c>
       <c r="F46">
-        <v>1.258171141399374e-19</v>
+        <v>0.047760945907323514</v>
       </c>
       <c r="G46">
-        <v>-1.0827489283341993e-16</v>
+        <v>0.0020752429050196895</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47">
-        <v>6.593278446446801</v>
+        <v>56.56904453672724</v>
       </c>
       <c r="B47">
-        <v>0.09253712741819643</v>
+        <v>49.91120111031206</v>
       </c>
       <c r="C47">
-        <v>19.99999999550142</v>
+        <v>17.625518815949796</v>
       </c>
       <c r="D47">
-        <v>0.9999999999835232</v>
+        <v>0.9840578010866651</v>
       </c>
       <c r="E47">
-        <v>-1.0548496912326977e-15</v>
+        <v>-0.12118638933377247</v>
       </c>
       <c r="F47">
-        <v>1.258171141399374e-19</v>
+        <v>-0.12924445865109827</v>
       </c>
       <c r="G47">
-        <v>-1.0827489283341993e-16</v>
+        <v>-0.012472635703422816</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48">
-        <v>6.593278446446801</v>
+        <v>56.583210113089415</v>
       </c>
       <c r="B48">
-        <v>0.09253712741819686</v>
+        <v>49.94011950726852</v>
       </c>
       <c r="C48">
-        <v>19.99999999550142</v>
+        <v>17.80236658134972</v>
       </c>
       <c r="D48">
-        <v>0.9999999999835232</v>
+        <v>0.9976426506987153</v>
       </c>
       <c r="E48">
-        <v>-1.0548496912326977e-15</v>
+        <v>-0.061760732990251914</v>
       </c>
       <c r="F48">
-        <v>1.258171141399374e-19</v>
+        <v>0.030257647917217117</v>
       </c>
       <c r="G48">
-        <v>-1.0827489283341993e-16</v>
+        <v>-7.982898108776812e-5</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49">
-        <v>6.593278446446801</v>
+        <v>56.60833272409516</v>
       </c>
       <c r="B49">
-        <v>0.09253712741819729</v>
+        <v>49.89116757188884</v>
       </c>
       <c r="C49">
-        <v>19.99999999550142</v>
+        <v>17.76180879148529</v>
       </c>
       <c r="D49">
-        <v>0.9999999999835232</v>
+        <v>0.9903394259243178</v>
       </c>
       <c r="E49">
-        <v>-1.0548496912326977e-15</v>
+        <v>0.12325951180384563</v>
       </c>
       <c r="F49">
-        <v>1.258171141399374e-19</v>
+        <v>0.06325656150573285</v>
       </c>
       <c r="G49">
-        <v>-1.0827489283341993e-16</v>
+        <v>0.0016146335778433334</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50">
-        <v>6.593278446446801</v>
+        <v>56.610452463190235</v>
       </c>
       <c r="B50">
-        <v>0.09253712741819772</v>
+        <v>49.94578457140577</v>
       </c>
       <c r="C50">
-        <v>19.99999999550142</v>
+        <v>17.85488036039009</v>
       </c>
       <c r="D50">
-        <v>0.9999999999835232</v>
+        <v>0.9922961990886322</v>
       </c>
       <c r="E50">
-        <v>-1.0548496912326977e-15</v>
+        <v>-0.12371540749480814</v>
       </c>
       <c r="F50">
-        <v>1.258171141399374e-19</v>
+        <v>0.004801421173243927</v>
       </c>
       <c r="G50">
-        <v>-1.0827489283341993e-16</v>
+        <v>-0.00012767037105338775</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51">
-        <v>6.593278446446801</v>
+        <v>56.623339171144</v>
       </c>
       <c r="B51">
-        <v>0.09253712741819815</v>
+        <v>49.974610927079404</v>
       </c>
       <c r="C51">
-        <v>19.99999999550142</v>
+        <v>17.993106213647856</v>
       </c>
       <c r="D51">
-        <v>0.9999999999835232</v>
+        <v>0.997603176485819</v>
       </c>
       <c r="E51">
-        <v>-1.0548496912326977e-15</v>
+        <v>-0.06330506239584745</v>
       </c>
       <c r="F51">
-        <v>1.258171141399374e-19</v>
+        <v>0.0283043062125495</v>
       </c>
       <c r="G51">
-        <v>-1.0827489283341993e-16</v>
+        <v>-8.134310584429956e-5</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52">
-        <v>6.593278446446801</v>
+        <v>56.62844521783564</v>
       </c>
       <c r="B52">
-        <v>0.09253712741819858</v>
+        <v>50.021708058441256</v>
       </c>
       <c r="C52">
-        <v>19.99999999550142</v>
+        <v>17.834862335272785</v>
       </c>
       <c r="D52">
-        <v>0.9999999999835232</v>
+        <v>0.9911728804952988</v>
       </c>
       <c r="E52">
-        <v>-1.0548496912326977e-15</v>
+        <v>-0.13171062859494087</v>
       </c>
       <c r="F52">
-        <v>1.258171141399374e-19</v>
+        <v>0.014278602975454125</v>
       </c>
       <c r="G52">
-        <v>-1.0827489283341993e-16</v>
+        <v>-0.0007492514161051562</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53">
-        <v>6.593278446446801</v>
+        <v>56.66526827059594</v>
       </c>
       <c r="B53">
-        <v>0.09253712741819901</v>
+        <v>49.99113084011787</v>
       </c>
       <c r="C53">
-        <v>19.99999999550142</v>
+        <v>17.846169348576975</v>
       </c>
       <c r="D53">
-        <v>0.9999999999835232</v>
+        <v>0.9932839686134622</v>
       </c>
       <c r="E53">
-        <v>-1.0548496912326977e-15</v>
+        <v>0.07387446010645093</v>
       </c>
       <c r="F53">
-        <v>1.258171141399374e-19</v>
+        <v>0.08896436296075504</v>
       </c>
       <c r="G53">
-        <v>-1.0827489283341993e-16</v>
+        <v>1.0696022044674799e-6</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54">
-        <v>6.593278446446801</v>
+        <v>56.71215689540765</v>
       </c>
       <c r="B54">
-        <v>0.09253712741819944</v>
+        <v>49.97300674358575</v>
       </c>
       <c r="C54">
-        <v>19.99999999550142</v>
+        <v>17.75793140356229</v>
       </c>
       <c r="D54">
-        <v>0.9999999999835232</v>
+        <v>0.9912446704835365</v>
       </c>
       <c r="E54">
-        <v>-1.0548496912326977e-15</v>
+        <v>0.047568845550640754</v>
       </c>
       <c r="F54">
-        <v>1.258171141399374e-19</v>
+        <v>0.12306626872897782</v>
       </c>
       <c r="G54">
-        <v>-1.0827489283341993e-16</v>
+        <v>-0.0007055748425014553</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55">
-        <v>6.593278446446801</v>
+        <v>56.751532070129116</v>
       </c>
       <c r="B55">
-        <v>0.09253712741819987</v>
+        <v>49.93133423029384</v>
       </c>
       <c r="C55">
-        <v>19.99999999550142</v>
+        <v>17.55036493031862</v>
       </c>
       <c r="D55">
-        <v>0.9999999999835232</v>
+        <v>0.9858095638515302</v>
       </c>
       <c r="E55">
-        <v>-1.0548496912326977e-15</v>
+        <v>0.12185666176594935</v>
       </c>
       <c r="F55">
-        <v>1.258171141399374e-19</v>
+        <v>0.11513575691265304</v>
       </c>
       <c r="G55">
-        <v>-1.0827489283341993e-16</v>
+        <v>0.002775128086354843</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56">
-        <v>6.593278446446801</v>
+        <v>56.77983400933347</v>
       </c>
       <c r="B56">
-        <v>0.0925371274182003</v>
+        <v>49.97235041941224</v>
       </c>
       <c r="C56">
-        <v>19.99999999550142</v>
+        <v>17.24068454454253</v>
       </c>
       <c r="D56">
-        <v>0.9999999999835232</v>
+        <v>0.9865927347402739</v>
       </c>
       <c r="E56">
-        <v>-1.0548496912326977e-15</v>
+        <v>-0.13335258476478745</v>
       </c>
       <c r="F56">
-        <v>1.258171141399374e-19</v>
+        <v>0.09199778165025486</v>
       </c>
       <c r="G56">
-        <v>-1.0827489283341993e-16</v>
+        <v>-0.018106640659310724</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57">
-        <v>6.593278446446801</v>
+        <v>56.81010076541352</v>
       </c>
       <c r="B57">
-        <v>0.09253712741820073</v>
+        <v>50.02182400445612</v>
       </c>
       <c r="C57">
-        <v>19.99999999550142</v>
+        <v>17.160576654836557</v>
       </c>
       <c r="D57">
-        <v>0.9999999999835232</v>
+        <v>0.9884650964674353</v>
       </c>
       <c r="E57">
-        <v>-1.0548496912326977e-15</v>
+        <v>-0.12875244930883056</v>
       </c>
       <c r="F57">
-        <v>1.258171141399374e-19</v>
+        <v>0.07875762353969064</v>
       </c>
       <c r="G57">
-        <v>-1.0827489283341993e-16</v>
+        <v>-0.010605505328939257</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58">
-        <v>6.593278446446801</v>
+        <v>56.839676671707196</v>
       </c>
       <c r="B58">
-        <v>0.09253712741820116</v>
+        <v>49.976213895747364</v>
       </c>
       <c r="C58">
-        <v>19.99999999550142</v>
+        <v>17.28458187516295</v>
       </c>
       <c r="D58">
-        <v>0.9999999999835232</v>
+        <v>0.9927240999651469</v>
       </c>
       <c r="E58">
-        <v>-1.0548496912326977e-15</v>
+        <v>0.10096827963343734</v>
       </c>
       <c r="F58">
-        <v>1.258171141399374e-19</v>
+        <v>0.06547295022120438</v>
       </c>
       <c r="G58">
-        <v>-1.0827489283341993e-16</v>
+        <v>-4.339764246716009e-16</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59">
-        <v>6.593278446446801</v>
+        <v>56.88210349765647</v>
       </c>
       <c r="B59">
-        <v>0.0925371274182016</v>
+        <v>50.00655800103795</v>
       </c>
       <c r="C59">
-        <v>19.99999999550142</v>
+        <v>17.33761671407606</v>
       </c>
       <c r="D59">
-        <v>0.9999999999835232</v>
+        <v>0.9925373397647212</v>
       </c>
       <c r="E59">
-        <v>-1.0548496912326977e-15</v>
+        <v>-0.07089345792400255</v>
       </c>
       <c r="F59">
-        <v>1.258171141399374e-19</v>
+        <v>0.09912252714261001</v>
       </c>
       <c r="G59">
-        <v>-1.0827489283341993e-16</v>
+        <v>1.0837886000566977e-16</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60">
-        <v>6.593278446446801</v>
+        <v>56.88908005330316</v>
       </c>
       <c r="B60">
-        <v>0.09253712741820203</v>
+        <v>50.061503366813355</v>
       </c>
       <c r="C60">
-        <v>19.99999999550142</v>
+        <v>17.392427280413344</v>
       </c>
       <c r="D60">
-        <v>0.9999999999835232</v>
+        <v>0.9916093161293139</v>
       </c>
       <c r="E60">
-        <v>-1.0548496912326977e-15</v>
+        <v>-0.12813239241177699</v>
       </c>
       <c r="F60">
-        <v>1.258171141399374e-19</v>
+        <v>0.01626758126156441</v>
       </c>
       <c r="G60">
-        <v>-1.0827489283341993e-16</v>
+        <v>-0.0022523669574526103</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61">
-        <v>6.593278446446801</v>
+        <v>56.90772339975408</v>
       </c>
       <c r="B61">
-        <v>0.09253712741820246</v>
+        <v>50.11480262186651</v>
       </c>
       <c r="C61">
-        <v>19.99999999550142</v>
+        <v>17.457336043697378</v>
       </c>
       <c r="D61">
-        <v>0.9999999999835232</v>
+        <v>0.9914177103762719</v>
       </c>
       <c r="E61">
-        <v>-1.0548496912326977e-15</v>
+        <v>-0.12330982486568809</v>
       </c>
       <c r="F61">
-        <v>1.258171141399374e-19</v>
+        <v>0.043131320346400936</v>
       </c>
       <c r="G61">
-        <v>-1.0827489283341993e-16</v>
+        <v>-0.0009415915509386009</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62">
-        <v>6.593278446446801</v>
+        <v>56.89074122397518</v>
       </c>
       <c r="B62">
-        <v>0.09253712741820289</v>
+        <v>50.06275104205081</v>
       </c>
       <c r="C62">
-        <v>19.99999999550142</v>
+        <v>17.36127382497243</v>
       </c>
       <c r="D62">
-        <v>0.9999999999835232</v>
+        <v>0.989363616630499</v>
       </c>
       <c r="E62">
-        <v>-1.0548496912326977e-15</v>
+        <v>0.13743244695132337</v>
       </c>
       <c r="F62">
-        <v>1.258171141399374e-19</v>
+        <v>-0.044825708347204174</v>
       </c>
       <c r="G62">
-        <v>-1.0827489283341993e-16</v>
+        <v>-0.014986716615823983</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63">
-        <v>6.593278446446801</v>
+        <v>56.871349902398016</v>
       </c>
       <c r="B63">
-        <v>0.09253712741820332</v>
+        <v>50.119860460638996</v>
       </c>
       <c r="C63">
-        <v>19.99999999550142</v>
+        <v>17.461864695317278</v>
       </c>
       <c r="D63">
-        <v>0.9999999999835232</v>
+        <v>0.9907104956934727</v>
       </c>
       <c r="E63">
-        <v>-1.0548496912326977e-15</v>
+        <v>-0.12852665998424875</v>
       </c>
       <c r="F63">
-        <v>1.258171141399374e-19</v>
+        <v>-0.043635575576296895</v>
       </c>
       <c r="G63">
-        <v>-1.0827489283341993e-16</v>
+        <v>0.006392969430471407</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64">
-        <v>6.593278446446801</v>
+        <v>56.887137710888695</v>
       </c>
       <c r="B64">
-        <v>0.09253712741820375</v>
+        <v>50.17298610264594</v>
       </c>
       <c r="C64">
-        <v>19.99999999550142</v>
+        <v>17.5114763132271</v>
       </c>
       <c r="D64">
-        <v>0.9999999999835232</v>
+        <v>0.9915313210428853</v>
       </c>
       <c r="E64">
-        <v>-1.0548496912326977e-15</v>
+        <v>-0.12438896696240627</v>
       </c>
       <c r="F64">
-        <v>1.258171141399374e-19</v>
+        <v>0.03696440445689684</v>
       </c>
       <c r="G64">
-        <v>-1.0827489283341993e-16</v>
+        <v>-0.0016970621256737792</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65">
-        <v>6.593278446446801</v>
+        <v>56.91105683863476</v>
       </c>
       <c r="B65">
-        <v>0.09253712741820418</v>
+        <v>50.2202776279625</v>
       </c>
       <c r="C65">
-        <v>19.99999999550142</v>
+        <v>17.559354063805216</v>
       </c>
       <c r="D65">
-        <v>0.9999999999835232</v>
+        <v>0.9922347826978697</v>
       </c>
       <c r="E65">
-        <v>-1.0548496912326977e-15</v>
+        <v>-0.11091839708190439</v>
       </c>
       <c r="F65">
-        <v>1.258171141399374e-19</v>
+        <v>0.05610035393415607</v>
       </c>
       <c r="G65">
-        <v>-1.0827489283341993e-16</v>
+        <v>-2.1485635536090296e-8</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66">
-        <v>6.593278446446801</v>
+        <v>56.93497367479768</v>
       </c>
       <c r="B66">
-        <v>0.0925371274182046</v>
+        <v>50.27000122101657</v>
       </c>
       <c r="C66">
-        <v>19.99999999550142</v>
+        <v>17.53186790041783</v>
       </c>
       <c r="D66">
-        <v>0.9999999999835232</v>
+        <v>0.9904942116267301</v>
       </c>
       <c r="E66">
-        <v>-1.0548496912326977e-15</v>
+        <v>-0.12384701801240923</v>
       </c>
       <c r="F66">
-        <v>1.258171141399374e-19</v>
+        <v>0.05956797841753734</v>
       </c>
       <c r="G66">
-        <v>-1.0827489283341993e-16</v>
+        <v>-0.002201955785989842</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67">
-        <v>6.593278446446801</v>
+        <v>56.93618184848708</v>
       </c>
       <c r="B67">
-        <v>0.09253712741820504</v>
+        <v>50.21484776344714</v>
       </c>
       <c r="C67">
-        <v>19.99999999550142</v>
+        <v>17.586077655352096</v>
       </c>
       <c r="D67">
-        <v>0.9999999999835232</v>
+        <v>0.9916728814551911</v>
       </c>
       <c r="E67">
-        <v>-1.0548496912326977e-15</v>
+        <v>0.12868319267948558</v>
       </c>
       <c r="F67">
-        <v>1.258171141399374e-19</v>
+        <v>0.002817711439899201</v>
       </c>
       <c r="G67">
-        <v>-1.0827489283341993e-16</v>
+        <v>-0.0004054128266929598</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68">
-        <v>6.593278446446801</v>
+        <v>56.93969707045963</v>
       </c>
       <c r="B68">
-        <v>0.09253712741820547</v>
+        <v>50.26346963465319</v>
       </c>
       <c r="C68">
-        <v>19.99999999550142</v>
+        <v>17.459968378777866</v>
       </c>
       <c r="D68">
-        <v>0.9999999999835232</v>
+        <v>0.9911909568273249</v>
       </c>
       <c r="E68">
-        <v>-1.0548496912326977e-15</v>
+        <v>-0.1320043989000806</v>
       </c>
       <c r="F68">
-        <v>1.258171141399374e-19</v>
+        <v>0.009543313002497692</v>
       </c>
       <c r="G68">
-        <v>-1.0827489283341993e-16</v>
+        <v>-0.00021210157861615235</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69">
-        <v>6.593278446446801</v>
+        <v>56.96717586723346</v>
       </c>
       <c r="B69">
-        <v>0.0925371274182059</v>
+        <v>50.212047914169105</v>
       </c>
       <c r="C69">
-        <v>19.99999999550142</v>
+        <v>17.484673391424586</v>
       </c>
       <c r="D69">
-        <v>0.9999999999835232</v>
+        <v>0.990256202211123</v>
       </c>
       <c r="E69">
-        <v>-1.0548496912326977e-15</v>
+        <v>0.12271813733622317</v>
       </c>
       <c r="F69">
-        <v>1.258171141399374e-19</v>
+        <v>0.06557732948481562</v>
       </c>
       <c r="G69">
-        <v>-1.0827489283341993e-16</v>
+        <v>0.0010404097135548122</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70">
-        <v>6.593278446446801</v>
+        <v>56.974270871122364</v>
       </c>
       <c r="B70">
-        <v>0.09253712741820633</v>
+        <v>50.15709958486414</v>
       </c>
       <c r="C70">
-        <v>19.99999999550142</v>
+        <v>17.545065109152624</v>
       </c>
       <c r="D70">
-        <v>0.9999999999835232</v>
+        <v>0.9916767610634979</v>
       </c>
       <c r="E70">
-        <v>-1.0548496912326977e-15</v>
+        <v>0.1275877779210709</v>
       </c>
       <c r="F70">
-        <v>1.258171141399374e-19</v>
+        <v>0.016472739516441758</v>
       </c>
       <c r="G70">
-        <v>-1.0827489283341993e-16</v>
+        <v>0.0020583714465859165</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71">
-        <v>6.593278446446801</v>
+        <v>56.96526132755865</v>
       </c>
       <c r="B71">
-        <v>0.09253712741820676</v>
+        <v>50.21171696427145</v>
       </c>
       <c r="C71">
-        <v>19.99999999550142</v>
+        <v>17.589663000650013</v>
       </c>
       <c r="D71">
-        <v>0.9999999999835232</v>
+        <v>0.9914817640494605</v>
       </c>
       <c r="E71">
-        <v>-1.0548496912326977e-15</v>
+        <v>-0.12838294658086621</v>
       </c>
       <c r="F71">
-        <v>1.258171141399374e-19</v>
+        <v>-0.021175375846520336</v>
       </c>
       <c r="G71">
-        <v>-1.0827489283341993e-16</v>
+        <v>0.0030439507113055623</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72">
-        <v>6.593278446446801</v>
+        <v>56.964912950018366</v>
       </c>
       <c r="B72">
-        <v>0.09253712741820719</v>
+        <v>50.156998678955944</v>
       </c>
       <c r="C72">
-        <v>19.99999999550142</v>
+        <v>17.63629999600752</v>
       </c>
       <c r="D72">
-        <v>0.9999999999835232</v>
+        <v>0.9917096466347176</v>
       </c>
       <c r="E72">
-        <v>-1.0548496912326977e-15</v>
+        <v>0.12842810370630314</v>
       </c>
       <c r="F72">
-        <v>1.258171141399374e-19</v>
+        <v>-0.0008196904888446365</v>
       </c>
       <c r="G72">
-        <v>-1.0827489283341993e-16</v>
+        <v>0.00041132355212162804</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73">
-        <v>6.593278446446801</v>
+        <v>56.98869661416801</v>
       </c>
       <c r="B73">
-        <v>0.09253712741820762</v>
+        <v>50.10825273269034</v>
       </c>
       <c r="C73">
-        <v>19.99999999550142</v>
+        <v>17.545487027550966</v>
       </c>
       <c r="D73">
-        <v>0.9999999999835232</v>
+        <v>0.9897359173526988</v>
       </c>
       <c r="E73">
-        <v>-1.0548496912326977e-15</v>
+        <v>0.1281356982630208</v>
       </c>
       <c r="F73">
-        <v>1.258171141399374e-19</v>
+        <v>0.06251185858124263</v>
       </c>
       <c r="G73">
-        <v>-1.0827489283341993e-16</v>
+        <v>0.007829228253119708</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74">
-        <v>6.593278446446801</v>
+        <v>56.97955271402284</v>
       </c>
       <c r="B74">
-        <v>0.09253712741820805</v>
+        <v>50.0527308416184</v>
       </c>
       <c r="C74">
-        <v>19.99999999550142</v>
+        <v>17.608871250107963</v>
       </c>
       <c r="D74">
-        <v>0.9999999999835232</v>
+        <v>0.9914582826472735</v>
       </c>
       <c r="E74">
-        <v>-1.0548496912326977e-15</v>
+        <v>0.1286021145890045</v>
       </c>
       <c r="F74">
-        <v>1.258171141399374e-19</v>
+        <v>-0.021178413842393058</v>
       </c>
       <c r="G74">
-        <v>-1.0827489283341993e-16</v>
+        <v>-0.0017076953166116511</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75">
-        <v>6.593278446446801</v>
+        <v>56.996303874272726</v>
       </c>
       <c r="B75">
-        <v>0.09253712741820848</v>
+        <v>50.045930552588864</v>
       </c>
       <c r="C75">
-        <v>19.99999999550142</v>
+        <v>17.772252932246076</v>
       </c>
       <c r="D75">
-        <v>0.9999999999835232</v>
+        <v>0.9992400909565337</v>
       </c>
       <c r="E75">
-        <v>-1.0548496912326977e-15</v>
+        <v>0.014736342370418381</v>
       </c>
       <c r="F75">
-        <v>1.258171141399374e-19</v>
+        <v>0.0360954614608403</v>
       </c>
       <c r="G75">
-        <v>-1.0827489283341993e-16</v>
+        <v>0.0015012444446705466</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76">
-        <v>6.593278446446801</v>
+        <v>57.01110758562878</v>
       </c>
       <c r="B76">
-        <v>0.09253712741820891</v>
+        <v>49.99457210236491</v>
       </c>
       <c r="C76">
-        <v>19.99999999550142</v>
+        <v>17.791729785638577</v>
       </c>
       <c r="D76">
-        <v>0.9999999999835232</v>
+        <v>0.991738402154361</v>
       </c>
       <c r="E76">
-        <v>-1.0548496912326977e-15</v>
+        <v>0.12317276248991693</v>
       </c>
       <c r="F76">
-        <v>1.258171141399374e-19</v>
+        <v>0.0355032467715513</v>
       </c>
       <c r="G76">
-        <v>-1.0827489283341993e-16</v>
+        <v>0.0005523678755172103</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77">
-        <v>6.593278446446801</v>
+        <v>56.95096130048371</v>
       </c>
       <c r="B77">
-        <v>0.09253712741820934</v>
+        <v>50.029716136238434</v>
       </c>
       <c r="C77">
-        <v>19.99999999550142</v>
+        <v>17.948699602577275</v>
       </c>
       <c r="D77">
-        <v>0.9999999999835232</v>
+        <v>0.9885531826255112</v>
       </c>
       <c r="E77">
-        <v>-1.0548496912326977e-15</v>
+        <v>-0.07577625370105924</v>
       </c>
       <c r="F77">
-        <v>1.258171141399374e-19</v>
+        <v>-0.12970497700582082</v>
       </c>
       <c r="G77">
-        <v>-1.0827489283341993e-16</v>
+        <v>-0.012386358518976662</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78">
-        <v>6.593278446446801</v>
+        <v>56.94445211548021</v>
       </c>
       <c r="B78">
-        <v>0.09253712741820977</v>
+        <v>49.977119440868506</v>
       </c>
       <c r="C78">
-        <v>19.99999999550142</v>
+        <v>17.952803762263763</v>
       </c>
       <c r="D78">
-        <v>0.9999999999835232</v>
+        <v>0.9916715146315916</v>
       </c>
       <c r="E78">
-        <v>-1.0548496912326977e-15</v>
+        <v>0.12771424821304792</v>
       </c>
       <c r="F78">
-        <v>1.258171141399374e-19</v>
+        <v>-0.015803965626828908</v>
       </c>
       <c r="G78">
-        <v>-1.0827489283341993e-16</v>
+        <v>-0.001977841766542443</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79">
-        <v>6.593278446446801</v>
+        <v>56.94445879190198</v>
       </c>
       <c r="B79">
-        <v>0.0925371274182102</v>
+        <v>49.93538163290216</v>
       </c>
       <c r="C79">
-        <v>19.99999999550142</v>
+        <v>17.653584486016467</v>
       </c>
       <c r="D79">
-        <v>0.9999999999835232</v>
+        <v>0.990909691076435</v>
       </c>
       <c r="E79">
-        <v>-1.0548496912326977e-15</v>
+        <v>0.13444723290235558</v>
       </c>
       <c r="F79">
-        <v>1.258171141399374e-19</v>
+        <v>-1.0953874294953131e-5</v>
       </c>
       <c r="G79">
-        <v>-1.0827489283341993e-16</v>
+        <v>-0.0001988374515968878</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80">
-        <v>6.593278446446801</v>
+        <v>56.96595874513614</v>
       </c>
       <c r="B80">
-        <v>0.09253712741821063</v>
+        <v>49.983830151844025</v>
       </c>
       <c r="C80">
-        <v>19.99999999550142</v>
+        <v>17.552084248956334</v>
       </c>
       <c r="D80">
-        <v>0.9999999999835232</v>
+        <v>0.9900097105370053</v>
       </c>
       <c r="E80">
-        <v>-1.0548496912326977e-15</v>
+        <v>-0.12858139194427123</v>
       </c>
       <c r="F80">
-        <v>1.258171141399374e-19</v>
+        <v>0.05705379891718783</v>
       </c>
       <c r="G80">
-        <v>-1.0827489283341993e-16</v>
+        <v>-0.007698951583880242</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81">
-        <v>6.593278446446801</v>
+        <v>56.96622802664942</v>
       </c>
       <c r="B81">
-        <v>0.09253712741821106</v>
+        <v>50.03824348204736</v>
       </c>
       <c r="C81">
-        <v>19.99999999550142</v>
+        <v>17.59682360961761</v>
       </c>
       <c r="D81">
-        <v>0.9999999999835232</v>
+        <v>0.991774571161135</v>
       </c>
       <c r="E81">
-        <v>-1.0548496912326977e-15</v>
+        <v>-0.12790763636076666</v>
       </c>
       <c r="F81">
-        <v>1.258171141399374e-19</v>
+        <v>0.0006329278978730573</v>
       </c>
       <c r="G81">
-        <v>-1.0827489283341993e-16</v>
+        <v>-8.400503453672574e-5</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82">
-        <v>6.593278446446801</v>
+        <v>57.00012976707716</v>
       </c>
       <c r="B82">
-        <v>0.09253712741821149</v>
+        <v>50.08398726050392</v>
       </c>
       <c r="C82">
-        <v>19.99999999550142</v>
+        <v>17.4831062715749</v>
       </c>
       <c r="D82">
-        <v>0.9999999999835232</v>
+        <v>0.9882573466140382</v>
       </c>
       <c r="E82">
-        <v>-1.0548496912326977e-15</v>
+        <v>-0.12262809011387112</v>
       </c>
       <c r="F82">
-        <v>1.258171141399374e-19</v>
+        <v>0.09088018331995662</v>
       </c>
       <c r="G82">
-        <v>-1.0827489283341993e-16</v>
+        <v>-0.0022233450658649075</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83">
-        <v>6.593278446446801</v>
+        <v>57.017362086835284</v>
       </c>
       <c r="B83">
-        <v>0.09253712741821192</v>
+        <v>50.03083567028501</v>
       </c>
       <c r="C83">
-        <v>19.99999999550142</v>
+        <v>17.535332744142814</v>
       </c>
       <c r="D83">
-        <v>0.9999999999835232</v>
+        <v>0.99142772474721</v>
       </c>
       <c r="E83">
-        <v>-1.0548496912326977e-15</v>
+        <v>0.1241887679835523</v>
       </c>
       <c r="F83">
-        <v>1.258171141399374e-19</v>
+        <v>0.04026199266379953</v>
       </c>
       <c r="G83">
-        <v>-1.0827489283341993e-16</v>
+        <v>0.0016816581292579194</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84">
-        <v>6.593278446446801</v>
+        <v>57.017419698144714</v>
       </c>
       <c r="B84">
-        <v>0.09253712741821235</v>
+        <v>49.97666810184836</v>
       </c>
       <c r="C84">
-        <v>19.99999999550142</v>
+        <v>17.574673082277567</v>
       </c>
       <c r="D84">
-        <v>0.9999999999835232</v>
+        <v>0.9917808228968437</v>
       </c>
       <c r="E84">
-        <v>-1.0548496912326977e-15</v>
+        <v>0.1278734556299569</v>
       </c>
       <c r="F84">
-        <v>1.258171141399374e-19</v>
+        <v>0.00013538493549627314</v>
       </c>
       <c r="G84">
-        <v>-1.0827489283341993e-16</v>
+        <v>-0.00010133381175080645</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85">
-        <v>6.593278446446801</v>
+        <v>57.019666340746305</v>
       </c>
       <c r="B85">
-        <v>0.09253712741821278</v>
+        <v>49.92349300985429</v>
       </c>
       <c r="C85">
-        <v>19.99999999550142</v>
+        <v>17.58554630535646</v>
       </c>
       <c r="D85">
-        <v>0.9999999999835232</v>
+        <v>0.9916970436202569</v>
       </c>
       <c r="E85">
-        <v>-1.0548496912326977e-15</v>
+        <v>0.12841441994480646</v>
       </c>
       <c r="F85">
-        <v>1.258171141399374e-19</v>
+        <v>0.0054226861763397635</v>
       </c>
       <c r="G85">
-        <v>-1.0827489283341993e-16</v>
+        <v>-8.863347977554835e-5</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86">
-        <v>6.593278446446801</v>
+        <v>57.01243663539182</v>
       </c>
       <c r="B86">
-        <v>0.09253712741821321</v>
+        <v>49.869265913964696</v>
       </c>
       <c r="C86">
-        <v>19.99999999550142</v>
+        <v>17.61956965847653</v>
       </c>
       <c r="D86">
-        <v>0.9999999999835232</v>
+        <v>0.9915466002567735</v>
       </c>
       <c r="E86">
-        <v>-1.0548496912326977e-15</v>
+        <v>0.12853783472590982</v>
       </c>
       <c r="F86">
-        <v>1.258171141399374e-19</v>
+        <v>-0.01713673025528966</v>
       </c>
       <c r="G86">
-        <v>-1.0827489283341993e-16</v>
+        <v>-0.000844706821720976</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87">
-        <v>6.593278446446801</v>
+        <v>57.01358125694163</v>
       </c>
       <c r="B87">
-        <v>0.09253712741821364</v>
+        <v>49.924462184047556</v>
       </c>
       <c r="C87">
-        <v>19.99999999550142</v>
+        <v>17.728030445462192</v>
       </c>
       <c r="D87">
-        <v>0.9999999999835232</v>
+        <v>0.992320516181318</v>
       </c>
       <c r="E87">
-        <v>-1.0548496912326977e-15</v>
+        <v>-0.12358747471311005</v>
       </c>
       <c r="F87">
-        <v>1.258171141399374e-19</v>
+        <v>0.002562825605548287</v>
       </c>
       <c r="G87">
-        <v>-1.0827489283341993e-16</v>
+        <v>-6.052751221223207e-5</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88">
-        <v>6.593278446446801</v>
+        <v>57.042456384708444</v>
       </c>
       <c r="B88">
-        <v>0.09253712741821407</v>
+        <v>49.95468165991619</v>
       </c>
       <c r="C88">
-        <v>19.99999999550142</v>
+        <v>17.78767679900398</v>
       </c>
       <c r="D88">
-        <v>0.9999999999835232</v>
+        <v>0.9952536965354024</v>
       </c>
       <c r="E88">
-        <v>-1.0548496912326977e-15</v>
+        <v>-0.0703349884424768</v>
       </c>
       <c r="F88">
-        <v>1.258171141399374e-19</v>
+        <v>0.06720601616321267</v>
       </c>
       <c r="G88">
-        <v>-1.0827489283341993e-16</v>
+        <v>5.359949579550822e-7</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89">
-        <v>6.593278446446801</v>
+        <v>57.042580629505395</v>
       </c>
       <c r="B89">
-        <v>0.0925371274182145</v>
+        <v>49.90303167816629</v>
       </c>
       <c r="C89">
-        <v>19.99999999550142</v>
+        <v>17.769223924922077</v>
       </c>
       <c r="D89">
-        <v>0.9999999999835232</v>
+        <v>0.9917952011528826</v>
       </c>
       <c r="E89">
-        <v>-1.0548496912326977e-15</v>
+        <v>0.12776539128835177</v>
       </c>
       <c r="F89">
-        <v>1.258171141399374e-19</v>
+        <v>0.00030627858700584237</v>
       </c>
       <c r="G89">
-        <v>-1.0827489283341993e-16</v>
+        <v>-0.0005565703112417722</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90">
-        <v>6.593278446446801</v>
+        <v>57.07486361622485</v>
       </c>
       <c r="B90">
-        <v>0.09253712741821493</v>
+        <v>49.876240584002446</v>
       </c>
       <c r="C90">
-        <v>19.99999999550142</v>
+        <v>17.78764786778728</v>
       </c>
       <c r="D90">
-        <v>0.9999999999835232</v>
+        <v>0.9948966061527136</v>
       </c>
       <c r="E90">
-        <v>-1.0548496912326977e-15</v>
+        <v>0.06440909034631737</v>
       </c>
       <c r="F90">
-        <v>1.258171141399374e-19</v>
+        <v>0.07761227020040898</v>
       </c>
       <c r="G90">
-        <v>-1.0827489283341993e-16</v>
+        <v>8.523505167721619e-7</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91">
-        <v>6.593278446446801</v>
+        <v>57.102584582152616</v>
       </c>
       <c r="B91">
-        <v>0.09253712741821536</v>
+        <v>49.83552862611956</v>
       </c>
       <c r="C91">
-        <v>19.99999999550142</v>
+        <v>17.76118340796611</v>
       </c>
       <c r="D91">
-        <v>0.9999999999835232</v>
+        <v>0.9924354141979608</v>
       </c>
       <c r="E91">
-        <v>-1.0548496912326977e-15</v>
+        <v>0.10141338114401799</v>
       </c>
       <c r="F91">
-        <v>1.258171141399374e-19</v>
+        <v>0.06905285398947779</v>
       </c>
       <c r="G91">
-        <v>-1.0827489283341993e-16</v>
+        <v>-2.70460718102389e-16</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92">
-        <v>6.593278446446801</v>
+        <v>57.102962431150665</v>
       </c>
       <c r="B92">
-        <v>0.09253712741821579</v>
+        <v>49.88746762317966</v>
       </c>
       <c r="C92">
-        <v>19.99999999550142</v>
+        <v>17.728088185177633</v>
       </c>
       <c r="D92">
-        <v>0.9999999999835232</v>
+        <v>0.9914985107930472</v>
       </c>
       <c r="E92">
-        <v>-1.0548496912326977e-15</v>
+        <v>-0.13003757992530324</v>
       </c>
       <c r="F92">
-        <v>1.258171141399374e-19</v>
+        <v>0.00094743064007907</v>
       </c>
       <c r="G92">
-        <v>-1.0827489283341993e-16</v>
+        <v>0.0004074019026243336</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93">
-        <v>6.593278446446801</v>
+        <v>57.12624974303396</v>
       </c>
       <c r="B93">
-        <v>0.09253712741821622</v>
+        <v>49.9344559128171</v>
       </c>
       <c r="C93">
-        <v>19.99999999550142</v>
+        <v>17.59950753070573</v>
       </c>
       <c r="D93">
-        <v>0.9999999999835232</v>
+        <v>0.989736597883956</v>
       </c>
       <c r="E93">
-        <v>-1.0548496912326977e-15</v>
+        <v>-0.1277653109890658</v>
       </c>
       <c r="F93">
-        <v>1.258171141399374e-19</v>
+        <v>0.06331376325419746</v>
       </c>
       <c r="G93">
-        <v>-1.0827489283341993e-16</v>
+        <v>-0.007338589843771448</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94">
-        <v>6.593278446446801</v>
+        <v>57.16508175132609</v>
       </c>
       <c r="B94">
-        <v>0.09253712741821665</v>
+        <v>49.9082212530229</v>
       </c>
       <c r="C94">
-        <v>19.99999999550142</v>
+        <v>17.583693390084395</v>
       </c>
       <c r="D94">
-        <v>0.9999999999835232</v>
+        <v>0.9932699372682534</v>
       </c>
       <c r="E94">
-        <v>-1.0548496912326977e-15</v>
+        <v>0.06480256134196909</v>
       </c>
       <c r="F94">
-        <v>1.258171141399374e-19</v>
+        <v>0.0959194120594744</v>
       </c>
       <c r="G94">
-        <v>-1.0827489283341993e-16</v>
+        <v>1.1847367126144892e-6</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95">
-        <v>6.593278446446801</v>
+        <v>57.18017779804434</v>
       </c>
       <c r="B95">
-        <v>0.09253712741821708</v>
+        <v>49.960686171352506</v>
       </c>
       <c r="C95">
-        <v>19.99999999550142</v>
+        <v>17.628975211339007</v>
       </c>
       <c r="D95">
-        <v>0.9999999999835232</v>
+        <v>0.991727172444049</v>
       </c>
       <c r="E95">
-        <v>-1.0548496912326977e-15</v>
+        <v>-0.12327215529917464</v>
       </c>
       <c r="F95">
-        <v>1.258171141399374e-19</v>
+        <v>0.035469323827405315</v>
       </c>
       <c r="G95">
-        <v>-1.0827489283341993e-16</v>
+        <v>-0.0006557209479022101</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96">
-        <v>6.593278446446801</v>
+        <v>57.22424448614059</v>
       </c>
       <c r="B96">
-        <v>0.09253712741821751</v>
+        <v>49.981811195658565</v>
       </c>
       <c r="C96">
-        <v>19.99999999550142</v>
+        <v>17.469252787995135</v>
       </c>
       <c r="D96">
-        <v>0.9999999999835232</v>
+        <v>0.9905808484160621</v>
       </c>
       <c r="E96">
-        <v>-1.0548496912326977e-15</v>
+        <v>-0.05914128599708031</v>
       </c>
       <c r="F96">
-        <v>1.258171141399374e-19</v>
+        <v>0.12337101561839758</v>
       </c>
       <c r="G96">
-        <v>-1.0827489283341993e-16</v>
+        <v>0.0014460451246835582</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97">
-        <v>6.593278446446801</v>
+        <v>57.22434348934384</v>
       </c>
       <c r="B97">
-        <v>0.09253712741821794</v>
+        <v>49.92885520914291</v>
       </c>
       <c r="C97">
-        <v>19.99999999550142</v>
+        <v>17.460182452647075</v>
       </c>
       <c r="D97">
-        <v>0.9999999999835232</v>
+        <v>0.9915078928844511</v>
       </c>
       <c r="E97">
-        <v>-1.0548496912326977e-15</v>
+        <v>0.12996765034447713</v>
       </c>
       <c r="F97">
-        <v>1.258171141399374e-19</v>
+        <v>0.00024207776960605992</v>
       </c>
       <c r="G97">
-        <v>-1.0827489283341993e-16</v>
+        <v>-0.00014074309084437882</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98">
-        <v>6.593278446446801</v>
+        <v>57.24017261933081</v>
       </c>
       <c r="B98">
-        <v>0.09253712741821837</v>
+        <v>49.97739447428599</v>
       </c>
       <c r="C98">
-        <v>19.99999999550142</v>
+        <v>17.336675403378845</v>
       </c>
       <c r="D98">
-        <v>0.9999999999835232</v>
+        <v>0.9903484663361967</v>
       </c>
       <c r="E98">
-        <v>-1.0548496912326977e-15</v>
+        <v>-0.13141467924102054</v>
       </c>
       <c r="F98">
-        <v>1.258171141399374e-19</v>
+        <v>0.04284857624353738</v>
       </c>
       <c r="G98">
-        <v>-1.0827489283341993e-16</v>
+        <v>-0.008548513446639565</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99">
-        <v>6.593278446446801</v>
+        <v>57.24017670943324</v>
       </c>
       <c r="B99">
-        <v>0.0925371274182188</v>
+        <v>50.03251669523026</v>
       </c>
       <c r="C99">
-        <v>19.99999999550142</v>
+        <v>17.396979351434197</v>
       </c>
       <c r="D99">
-        <v>0.9999999999835232</v>
+        <v>0.9917620993529522</v>
       </c>
       <c r="E99">
-        <v>-1.0548496912326977e-15</v>
+        <v>-0.12800563044587157</v>
       </c>
       <c r="F99">
-        <v>1.258171141399374e-19</v>
+        <v>9.497120654685386e-6</v>
       </c>
       <c r="G99">
-        <v>-1.0827489283341993e-16</v>
+        <v>-1.2926934265794715e-6</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100">
-        <v>6.593278446446801</v>
+        <v>57.22726647430736</v>
       </c>
       <c r="B100">
-        <v>0.09253712741821923</v>
+        <v>50.08897623751599</v>
       </c>
       <c r="C100">
-        <v>19.99999999550142</v>
+        <v>17.492747422994185</v>
       </c>
       <c r="D100">
-        <v>0.9999999999835232</v>
+        <v>0.9913814128381235</v>
       </c>
       <c r="E100">
-        <v>-1.0548496912326977e-15</v>
+        <v>-0.12757006008346444</v>
       </c>
       <c r="F100">
-        <v>1.258171141399374e-19</v>
+        <v>-0.02916775075644946</v>
       </c>
       <c r="G100">
-        <v>-1.0827489283341993e-16</v>
+        <v>0.003656626232183671</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101">
-        <v>6.593278446446801</v>
+        <v>57.22695557517333</v>
       </c>
       <c r="B101">
-        <v>0.09253712741821966</v>
+        <v>50.14197120483294</v>
       </c>
       <c r="C101">
-        <v>19.99999999550142</v>
+        <v>17.491884416264014</v>
       </c>
       <c r="D101">
-        <v>0.9999999999835232</v>
+        <v>0.99160944594314</v>
       </c>
       <c r="E101">
-        <v>-1.0548496912326977e-15</v>
+        <v>-0.1291993574698758</v>
       </c>
       <c r="F101">
-        <v>1.258171141399374e-19</v>
+        <v>-0.0007561456078683509</v>
       </c>
       <c r="G101">
-        <v>-1.0827489283341993e-16</v>
+        <v>0.00015205897202019995</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102">
+        <v>57.21373696648001</v>
+      </c>
+      <c r="B102">
+        <v>50.1976334299047</v>
+      </c>
+      <c r="C102">
+        <v>17.575439117445768</v>
+      </c>
+      <c r="D102">
+        <v>0.9914339197071561</v>
+      </c>
+      <c r="E102">
+        <v>-0.12694461071028368</v>
+      </c>
+      <c r="F102">
+        <v>-0.030144098726682965</v>
+      </c>
+      <c r="G102">
+        <v>0.0032924291573537337</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103">
+        <v>57.24828018977616</v>
+      </c>
+      <c r="B103">
+        <v>50.152670422591356</v>
+      </c>
+      <c r="C103">
+        <v>17.443493693545264</v>
+      </c>
+      <c r="D103">
+        <v>0.9879647813886099</v>
+      </c>
+      <c r="E103">
+        <v>0.12252487601189198</v>
+      </c>
+      <c r="F103">
+        <v>0.09412847407339286</v>
+      </c>
+      <c r="G103">
+        <v>0.002272926217662587</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104">
+        <v>57.250596156329685</v>
+      </c>
+      <c r="B104">
+        <v>50.09777306112328</v>
+      </c>
+      <c r="C104">
+        <v>17.50203008923681</v>
+      </c>
+      <c r="D104">
+        <v>0.9917917758754173</v>
+      </c>
+      <c r="E104">
+        <v>0.127660756396048</v>
+      </c>
+      <c r="F104">
+        <v>0.005385134846097402</v>
+      </c>
+      <c r="G104">
+        <v>0.0006845145967418322</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105">
+        <v>57.287903402834395</v>
+      </c>
+      <c r="B105">
+        <v>50.05954895053821</v>
+      </c>
+      <c r="C105">
+        <v>17.201939343460204</v>
+      </c>
+      <c r="D105">
+        <v>0.9850989250503289</v>
+      </c>
+      <c r="E105">
+        <v>0.12289602520655914</v>
+      </c>
+      <c r="F105">
+        <v>0.11994344564239375</v>
+      </c>
+      <c r="G105">
+        <v>0.004111666229357286</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106">
+        <v>57.32763712010238</v>
+      </c>
+      <c r="B106">
+        <v>50.093100901578495</v>
+      </c>
+      <c r="C106">
+        <v>17.20544014293877</v>
+      </c>
+      <c r="D106">
+        <v>0.9919739312376574</v>
+      </c>
+      <c r="E106">
+        <v>-0.08152243364089205</v>
+      </c>
+      <c r="F106">
+        <v>0.09654250286059317</v>
+      </c>
+      <c r="G106">
+        <v>-5.4433990435255515e-17</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107">
+        <v>57.35738776383389</v>
+      </c>
+      <c r="B107">
+        <v>50.12064108826313</v>
+      </c>
+      <c r="C107">
+        <v>17.32977662779005</v>
+      </c>
+      <c r="D107">
+        <v>0.9959517554450436</v>
+      </c>
+      <c r="E107">
+        <v>-0.061050289996213036</v>
+      </c>
+      <c r="F107">
+        <v>0.0659503499178627</v>
+      </c>
+      <c r="G107">
+        <v>2.006978316975493e-6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108">
+        <v>57.35776909039756</v>
+      </c>
+      <c r="B108">
+        <v>50.0653726159431</v>
+      </c>
+      <c r="C108">
+        <v>17.38901492638734</v>
+      </c>
+      <c r="D108">
+        <v>0.9917076678714921</v>
+      </c>
+      <c r="E108">
+        <v>0.12844795428132194</v>
+      </c>
+      <c r="F108">
+        <v>0.0008838726837152652</v>
+      </c>
+      <c r="G108">
+        <v>-2.8114001487339856e-5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109">
+        <v>57.35734501285359</v>
+      </c>
+      <c r="B109">
+        <v>50.01049991435604</v>
+      </c>
+      <c r="C109">
+        <v>17.443193343061385</v>
+      </c>
+      <c r="D109">
+        <v>0.9917605052033135</v>
+      </c>
+      <c r="E109">
+        <v>0.1280351362403893</v>
+      </c>
+      <c r="F109">
+        <v>-0.0009917860296648306</v>
+      </c>
+      <c r="G109">
+        <v>0.00040910295488369116</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110">
+        <v>57.34964956283649</v>
+      </c>
+      <c r="B110">
+        <v>50.05808362846115</v>
+      </c>
+      <c r="C110">
+        <v>17.253028981644295</v>
+      </c>
+      <c r="D110">
+        <v>0.99028038962323</v>
+      </c>
+      <c r="E110">
+        <v>-0.1371111023155248</v>
+      </c>
+      <c r="F110">
+        <v>-0.022168953989623368</v>
+      </c>
+      <c r="G110">
+        <v>0.005199258437728751</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111">
+        <v>57.33532539142166</v>
+      </c>
+      <c r="B111">
+        <v>50.115436607462755</v>
+      </c>
+      <c r="C111">
+        <v>17.36372406191863</v>
+      </c>
+      <c r="D111">
+        <v>0.9912178790411456</v>
+      </c>
+      <c r="E111">
+        <v>-0.1281314978852478</v>
+      </c>
+      <c r="F111">
+        <v>-0.031997902416021295</v>
+      </c>
+      <c r="G111">
+        <v>0.004468735421157336</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112">
+        <v>57.32624294081029</v>
+      </c>
+      <c r="B112">
+        <v>50.17129303436669</v>
+      </c>
+      <c r="C112">
+        <v>17.444775019423</v>
+      </c>
+      <c r="D112">
+        <v>0.9915879323262798</v>
+      </c>
+      <c r="E112">
+        <v>-0.12764114561660547</v>
+      </c>
+      <c r="F112">
+        <v>-0.020752870036523922</v>
+      </c>
+      <c r="G112">
+        <v>0.0026380615928123957</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113">
+        <v>57.34782835233845</v>
+      </c>
+      <c r="B113">
+        <v>50.22075848880909</v>
+      </c>
+      <c r="C113">
+        <v>17.405380931306517</v>
+      </c>
+      <c r="D113">
+        <v>0.9907201756219911</v>
+      </c>
+      <c r="E113">
+        <v>-0.12445432598223287</v>
+      </c>
+      <c r="F113">
+        <v>0.05430633257106898</v>
+      </c>
+      <c r="G113">
+        <v>-0.002633188180274091</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114">
+        <v>57.34160045945018</v>
+      </c>
+      <c r="B114">
+        <v>50.2764160612823</v>
+      </c>
+      <c r="C114">
+        <v>17.52868740894288</v>
+      </c>
+      <c r="D114">
+        <v>0.9922702669918451</v>
+      </c>
+      <c r="E114">
+        <v>-0.12324639256862989</v>
+      </c>
+      <c r="F114">
+        <v>-0.013790689844017224</v>
+      </c>
+      <c r="G114">
+        <v>0.00021707782662509464</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115">
+        <v>57.31803256316374</v>
+      </c>
+      <c r="B115">
+        <v>50.32788995157724</v>
+      </c>
+      <c r="C115">
+        <v>17.439994808699783</v>
+      </c>
+      <c r="D115">
+        <v>0.988759069603739</v>
+      </c>
+      <c r="E115">
+        <v>-0.13498671649865374</v>
+      </c>
+      <c r="F115">
+        <v>-0.06179057736393997</v>
+      </c>
+      <c r="G115">
+        <v>0.016537259210653188</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116">
+        <v>57.313066481354</v>
+      </c>
+      <c r="B116">
+        <v>50.271911652083126</v>
+      </c>
+      <c r="C116">
+        <v>17.49891654014828</v>
+      </c>
+      <c r="D116">
+        <v>0.9914221321596993</v>
+      </c>
+      <c r="E116">
+        <v>0.13011049937097582</v>
+      </c>
+      <c r="F116">
+        <v>-0.011542512641197414</v>
+      </c>
+      <c r="G116">
+        <v>-0.0008845043390475217</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117">
+        <v>57.33369191981747</v>
+      </c>
+      <c r="B117">
+        <v>50.222612761292005</v>
+      </c>
+      <c r="C117">
+        <v>17.559420277835113</v>
+      </c>
+      <c r="D117">
+        <v>0.9922584774704207</v>
+      </c>
+      <c r="E117">
+        <v>0.11449330805627304</v>
+      </c>
+      <c r="F117">
+        <v>0.04790117267123884</v>
+      </c>
+      <c r="G117">
+        <v>-1.2424757871978704e-8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118">
+        <v>57.354398646359975</v>
+      </c>
+      <c r="B118">
+        <v>50.17144018878858</v>
+      </c>
+      <c r="C118">
+        <v>17.575879340357652</v>
+      </c>
+      <c r="D118">
+        <v>0.9911460869083891</v>
+      </c>
+      <c r="E118">
+        <v>0.12298858930212969</v>
+      </c>
+      <c r="F118">
+        <v>0.049766077157536365</v>
+      </c>
+      <c r="G118">
+        <v>0.0007753954948613974</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119">
+        <v>57.317569878362235</v>
+      </c>
+      <c r="B119">
+        <v>50.22640350918364</v>
+      </c>
+      <c r="C119">
+        <v>17.588258944259877</v>
+      </c>
+      <c r="D119">
+        <v>0.9870606482566845</v>
+      </c>
+      <c r="E119">
+        <v>-0.13226503544034088</v>
+      </c>
+      <c r="F119">
+        <v>-0.08860833109537072</v>
+      </c>
+      <c r="G119">
+        <v>0.017593346075708262</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120">
+        <v>57.322790140858665</v>
+      </c>
+      <c r="B120">
+        <v>50.27595552551395</v>
+      </c>
+      <c r="C120">
+        <v>17.507024554403944</v>
+      </c>
+      <c r="D120">
+        <v>0.9915075497200608</v>
+      </c>
+      <c r="E120">
+        <v>-0.1292764323800619</v>
+      </c>
+      <c r="F120">
+        <v>0.01361144024321467</v>
+      </c>
+      <c r="G120">
+        <v>-0.001416263181247413</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121">
+        <v>57.334395513164864</v>
+      </c>
+      <c r="B121">
+        <v>50.22737211769785</v>
+      </c>
+      <c r="C121">
+        <v>17.37442542714517</v>
+      </c>
+      <c r="D121">
+        <v>0.9906321246209854</v>
+      </c>
+      <c r="E121">
+        <v>0.13264706171528023</v>
+      </c>
+      <c r="F121">
+        <v>0.03168049968578166</v>
+      </c>
+      <c r="G121">
+        <v>0.004769659825183281</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122">
+        <v>57.348052207840084</v>
+      </c>
+      <c r="B122">
+        <v>50.27978927272125</v>
+      </c>
+      <c r="C122">
+        <v>17.413905990978186</v>
+      </c>
+      <c r="D122">
+        <v>0.9917807626455577</v>
+      </c>
+      <c r="E122">
+        <v>-0.12372776626270149</v>
+      </c>
+      <c r="F122">
+        <v>0.03223514347484265</v>
+      </c>
+      <c r="G122">
+        <v>-0.0009259055219150354</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123">
+        <v>57.3391455693346</v>
+      </c>
+      <c r="B123">
+        <v>50.33387116901084</v>
+      </c>
+      <c r="C123">
+        <v>17.443277213535456</v>
+      </c>
+      <c r="D123">
+        <v>0.9914509034075905</v>
+      </c>
+      <c r="E123">
+        <v>-0.12866723507440098</v>
+      </c>
+      <c r="F123">
+        <v>-0.02118837434775236</v>
+      </c>
+      <c r="G123">
+        <v>0.001560555568412006</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124">
+        <v>57.3391455693346</v>
+      </c>
+      <c r="B124">
+        <v>50.27795611129626</v>
+      </c>
+      <c r="C124">
+        <v>17.523565007580906</v>
+      </c>
+      <c r="D124">
+        <v>0.9917806886528202</v>
+      </c>
+      <c r="E124">
+        <v>0.12786191764134827</v>
+      </c>
+      <c r="F124">
+        <v>2.0193832663358426e-26</v>
+      </c>
+      <c r="G124">
+        <v>-9.852148647777776e-26</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125">
+        <v>57.304684483668204</v>
+      </c>
+      <c r="B125">
+        <v>50.22767425448303</v>
+      </c>
+      <c r="C125">
+        <v>17.750402211883607</v>
+      </c>
+      <c r="D125">
+        <v>0.9921015657724173</v>
+      </c>
+      <c r="E125">
+        <v>0.10340079445630677</v>
+      </c>
+      <c r="F125">
+        <v>-0.07086658810089516</v>
+      </c>
+      <c r="G125">
+        <v>6.499770896563129e-16</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126">
+        <v>57.29120238922452</v>
+      </c>
+      <c r="B126">
+        <v>50.17251767731215</v>
+      </c>
+      <c r="C126">
+        <v>17.810133595691603</v>
+      </c>
+      <c r="D126">
+        <v>0.9912435733963594</v>
+      </c>
+      <c r="E126">
+        <v>0.1281095885354778</v>
+      </c>
+      <c r="F126">
+        <v>-0.03131085374054462</v>
+      </c>
+      <c r="G126">
+        <v>-0.0042771882655321825</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127">
+        <v>57.27761489248476</v>
+      </c>
+      <c r="B127">
+        <v>50.171868458291016</v>
+      </c>
+      <c r="C127">
+        <v>18.00864785094128</v>
+      </c>
+      <c r="D127">
+        <v>0.9996045705264948</v>
+      </c>
+      <c r="E127">
+        <v>0.001333796630575901</v>
+      </c>
+      <c r="F127">
+        <v>-0.028592198679414902</v>
+      </c>
+      <c r="G127">
+        <v>-0.00016754003665580332</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128">
+        <v>57.272276362684515</v>
+      </c>
+      <c r="B128">
+        <v>50.223475211132104</v>
+      </c>
+      <c r="C128">
+        <v>18.03072136047623</v>
+      </c>
+      <c r="D128">
+        <v>0.9922469442239399</v>
+      </c>
+      <c r="E128">
+        <v>-0.12354220118119728</v>
+      </c>
+      <c r="F128">
+        <v>-0.01277979152168015</v>
+      </c>
+      <c r="G128">
+        <v>0.0002644662774095343</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129">
+        <v>57.2535308174669</v>
+      </c>
+      <c r="B129">
+        <v>50.17411613854991</v>
+      </c>
+      <c r="C129">
+        <v>17.89651120928777</v>
+      </c>
+      <c r="D129">
+        <v>0.9894211944667823</v>
+      </c>
+      <c r="E129">
+        <v>0.1348807359360203</v>
+      </c>
+      <c r="F129">
+        <v>-0.05121307825455534</v>
+      </c>
+      <c r="G129">
+        <v>-0.013877407657305028</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130">
+        <v>57.240292972730956</v>
+      </c>
+      <c r="B130">
+        <v>50.12050208040192</v>
+      </c>
+      <c r="C130">
+        <v>17.911941792801407</v>
+      </c>
+      <c r="D130">
+        <v>0.9911129200351496</v>
+      </c>
+      <c r="E130">
+        <v>0.1289613025888197</v>
+      </c>
+      <c r="F130">
+        <v>-0.03183792714484405</v>
+      </c>
+      <c r="G130">
+        <v>-0.004928081304593771</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131">
+        <v>57.239768643925906</v>
+      </c>
+      <c r="B131">
+        <v>50.165726156096476</v>
+      </c>
+      <c r="C131">
+        <v>17.694881067004864</v>
+      </c>
+      <c r="D131">
+        <v>0.990989198185147</v>
+      </c>
+      <c r="E131">
+        <v>-0.13383176506049374</v>
+      </c>
+      <c r="F131">
+        <v>-0.001551340806249306</v>
+      </c>
+      <c r="G131">
+        <v>0.0003980875790492919</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132">
+        <v>57.24605606057797</v>
+      </c>
+      <c r="B132">
+        <v>50.21725438774878</v>
+      </c>
+      <c r="C132">
+        <v>17.74240156605972</v>
+      </c>
+      <c r="D132">
+        <v>0.9925448038622392</v>
+      </c>
+      <c r="E132">
+        <v>-0.12090792110447171</v>
+      </c>
+      <c r="F132">
+        <v>0.014753045837963233</v>
+      </c>
+      <c r="G132">
+        <v>-2.967426165617643e-6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133">
+        <v>57.24888958409201</v>
+      </c>
+      <c r="B133">
+        <v>50.264393180215144</v>
+      </c>
+      <c r="C133">
+        <v>17.584053529308214</v>
+      </c>
+      <c r="D133">
+        <v>0.9912267542578226</v>
+      </c>
+      <c r="E133">
+        <v>-0.13184382613215392</v>
+      </c>
+      <c r="F133">
+        <v>0.007925149965024818</v>
+      </c>
+      <c r="G133">
+        <v>-2.6452930367921697e-5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134">
+        <v>57.27125035170051</v>
+      </c>
+      <c r="B134">
+        <v>50.216776700835865</v>
+      </c>
+      <c r="C134">
+        <v>17.451064162393198</v>
+      </c>
+      <c r="D134">
+        <v>0.9895684870984109</v>
+      </c>
+      <c r="E134">
+        <v>0.129984474091848</v>
+      </c>
+      <c r="F134">
+        <v>0.06103224639903414</v>
+      </c>
+      <c r="G134">
+        <v>0.009851341044466735</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135">
+        <v>57.262028616004045</v>
+      </c>
+      <c r="B135">
+        <v>50.160410578374325</v>
+      </c>
+      <c r="C135">
+        <v>17.53120785322395</v>
+      </c>
+      <c r="D135">
+        <v>0.99142527875378</v>
+      </c>
+      <c r="E135">
+        <v>0.1288836775765662</v>
+      </c>
+      <c r="F135">
+        <v>-0.021085417903765117</v>
+      </c>
+      <c r="G135">
+        <v>-0.0013161574469701585</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136">
+        <v>57.26295817157887</v>
+      </c>
+      <c r="B136">
+        <v>50.107269812425756</v>
+      </c>
+      <c r="C136">
+        <v>17.52666744806809</v>
+      </c>
+      <c r="D136">
+        <v>0.9915104210449237</v>
+      </c>
+      <c r="E136">
+        <v>0.12993755327709244</v>
+      </c>
+      <c r="F136">
+        <v>0.002269909635750243</v>
+      </c>
+      <c r="G136">
+        <v>0.0010315636750320132</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137">
+        <v>57.274686887855836</v>
+      </c>
+      <c r="B137">
+        <v>50.15972625808688</v>
+      </c>
+      <c r="C137">
+        <v>17.563376415319844</v>
+      </c>
+      <c r="D137">
+        <v>0.9918704152193973</v>
+      </c>
+      <c r="E137">
+        <v>-0.12409780059820733</v>
+      </c>
+      <c r="F137">
+        <v>0.027746189038240044</v>
+      </c>
+      <c r="G137">
+        <v>-0.0010254671276780532</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138">
+        <v>57.262156782578096</v>
+      </c>
+      <c r="B138">
+        <v>50.214248406467426</v>
+      </c>
+      <c r="C138">
+        <v>17.60667575514168</v>
+      </c>
+      <c r="D138">
+        <v>0.9912788412109665</v>
+      </c>
+      <c r="E138">
+        <v>-0.1282773263933994</v>
+      </c>
+      <c r="F138">
+        <v>-0.029477041238105763</v>
+      </c>
+      <c r="G138">
+        <v>0.004129085399608699</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139">
+        <v>57.255591145741086</v>
+      </c>
+      <c r="B139">
+        <v>50.159285972002664</v>
+      </c>
+      <c r="C139">
+        <v>17.653735707750805</v>
+      </c>
+      <c r="D139">
+        <v>0.991522295029719</v>
+      </c>
+      <c r="E139">
+        <v>0.12894549820765844</v>
+      </c>
+      <c r="F139">
+        <v>-0.015403267210787393</v>
+      </c>
+      <c r="G139">
+        <v>-0.0010064586279837718</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140">
+        <v>57.246860023463476</v>
+      </c>
+      <c r="B140">
+        <v>50.10351630708382</v>
+      </c>
+      <c r="C140">
+        <v>17.775545592749136</v>
+      </c>
+      <c r="D140">
+        <v>0.992130023158456</v>
+      </c>
+      <c r="E140">
+        <v>0.12362305695435187</v>
+      </c>
+      <c r="F140">
+        <v>-0.019353653549179377</v>
+      </c>
+      <c r="G140">
+        <v>-0.000505326948903531</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141">
+        <v>57.2615411243384</v>
+      </c>
+      <c r="B141">
+        <v>50.15353222035726</v>
+      </c>
+      <c r="C141">
+        <v>17.757216454637664</v>
+      </c>
+      <c r="D141">
+        <v>0.9916427996721442</v>
+      </c>
+      <c r="E141">
+        <v>-0.12370145578255673</v>
+      </c>
+      <c r="F141">
+        <v>0.03630912482009723</v>
+      </c>
+      <c r="G141">
+        <v>-0.0010009557146697923</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142">
+        <v>57.26165116419179</v>
+      </c>
+      <c r="B142">
+        <v>50.10238017748857</v>
+      </c>
+      <c r="C142">
+        <v>17.857333945324957</v>
+      </c>
+      <c r="D142">
+        <v>0.9933220690540713</v>
+      </c>
+      <c r="E142">
+        <v>0.1153105220345302</v>
+      </c>
+      <c r="F142">
+        <v>0.000248077653649158</v>
+      </c>
+      <c r="G142">
+        <v>2.913869676457027e-7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143">
+        <v>57.26726985401837</v>
+      </c>
+      <c r="B143">
+        <v>50.050466917987634</v>
+      </c>
+      <c r="C143">
+        <v>17.883324859998552</v>
+      </c>
+      <c r="D143">
+        <v>0.9921958598198489</v>
+      </c>
+      <c r="E143">
+        <v>0.12388401649672129</v>
+      </c>
+      <c r="F143">
+        <v>0.013407952016771316</v>
+      </c>
+      <c r="G143">
+        <v>0.00039601817671761845</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144">
+        <v>57.272205570581036</v>
+      </c>
+      <c r="B144">
+        <v>50.099319960128625</v>
+      </c>
+      <c r="C144">
+        <v>17.784525083857112</v>
+      </c>
+      <c r="D144">
+        <v>0.9914899146195046</v>
+      </c>
+      <c r="E144">
+        <v>-0.1294386244464519</v>
+      </c>
+      <c r="F144">
+        <v>0.013077256696056212</v>
+      </c>
+      <c r="G144">
+        <v>-0.0006545995225633796</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145">
+        <v>57.311084469079944</v>
+      </c>
+      <c r="B145">
+        <v>50.086614648137044</v>
+      </c>
+      <c r="C145">
+        <v>17.75115713983539</v>
+      </c>
+      <c r="D145">
+        <v>0.9947186767701816</v>
+      </c>
+      <c r="E145">
+        <v>0.03186849030949297</v>
+      </c>
+      <c r="F145">
+        <v>0.09751917391441761</v>
+      </c>
+      <c r="G145">
+        <v>1.1723065487497756e-6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146">
+        <v>57.33130043762901</v>
+      </c>
+      <c r="B146">
+        <v>50.12761067956675</v>
+      </c>
+      <c r="C146">
+        <v>17.775827695208474</v>
+      </c>
+      <c r="D146">
+        <v>0.994003552201471</v>
+      </c>
+      <c r="E146">
+        <v>-0.09802348628936443</v>
+      </c>
+      <c r="F146">
+        <v>0.048337370811425084</v>
+      </c>
+      <c r="G146">
+        <v>2.0878146624703885e-6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147">
+        <v>57.331017463663926</v>
+      </c>
+      <c r="B147">
+        <v>50.07778942829536</v>
+      </c>
+      <c r="C147">
+        <v>17.67593544867791</v>
+      </c>
+      <c r="D147">
+        <v>0.9912226429317795</v>
+      </c>
+      <c r="E147">
+        <v>0.13211426344616528</v>
+      </c>
+      <c r="F147">
+        <v>-0.0007508078898278539</v>
+      </c>
+      <c r="G147">
+        <v>0.00011201840957410732</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148">
+        <v>57.362213472012584</v>
+      </c>
+      <c r="B148">
+        <v>50.12026672218403</v>
+      </c>
+      <c r="C148">
+        <v>17.57128080097933</v>
+      </c>
+      <c r="D148">
+        <v>0.9900971273274585</v>
+      </c>
+      <c r="E148">
+        <v>-0.11305468126234508</v>
+      </c>
+      <c r="F148">
+        <v>0.08302917770246142</v>
+      </c>
+      <c r="G148">
+        <v>5.023866509558025e-8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149">
+        <v>57.33493587324247</v>
+      </c>
+      <c r="B149">
+        <v>50.063446618337075</v>
+      </c>
+      <c r="C149">
+        <v>17.655907516756105</v>
+      </c>
+      <c r="D149">
+        <v>0.9895840254914559</v>
+      </c>
+      <c r="E149">
+        <v>0.1293605098552242</v>
+      </c>
+      <c r="F149">
+        <v>-0.0620933281603555</v>
+      </c>
+      <c r="G149">
+        <v>-0.009878140792780111</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150">
+        <v>57.34676315813099</v>
+      </c>
+      <c r="B150">
+        <v>50.09447222077955</v>
+      </c>
+      <c r="C150">
+        <v>17.778485052310014</v>
+      </c>
+      <c r="D150">
+        <v>0.9972877246062709</v>
+      </c>
+      <c r="E150">
+        <v>-0.06891388466673223</v>
+      </c>
+      <c r="F150">
+        <v>0.026274511809940355</v>
+      </c>
+      <c r="G150">
+        <v>-9.466062033251693e-5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151">
+        <v>57.33986548618339</v>
+      </c>
+      <c r="B151">
+        <v>50.146679087410945</v>
+      </c>
+      <c r="C151">
+        <v>17.766044155701398</v>
+      </c>
+      <c r="D151">
+        <v>0.9915557299667563</v>
+      </c>
+      <c r="E151">
+        <v>-0.12848872632663128</v>
+      </c>
+      <c r="F151">
+        <v>-0.01697486874786474</v>
+      </c>
+      <c r="G151">
+        <v>0.000827035686268137</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152">
+        <v>57.284893058395845</v>
+      </c>
+      <c r="B152">
+        <v>50.0912391601891</v>
+      </c>
+      <c r="C152">
+        <v>17.85019097389003</v>
+      </c>
+      <c r="D152">
+        <v>0.9841089206336598</v>
+      </c>
+      <c r="E152">
+        <v>0.12591742488779387</v>
+      </c>
+      <c r="F152">
+        <v>-0.12485372611347917</v>
+      </c>
+      <c r="G152">
+        <v>-0.0016393946093734653</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153">
+        <v>57.28571958083205</v>
+      </c>
+      <c r="B153">
+        <v>50.04631754380326</v>
+      </c>
+      <c r="C153">
+        <v>17.617953241985386</v>
+      </c>
+      <c r="D153">
+        <v>0.9908342801267223</v>
+      </c>
+      <c r="E153">
+        <v>0.1349559526144873</v>
+      </c>
+      <c r="F153">
+        <v>0.0024826177204353298</v>
+      </c>
+      <c r="G153">
+        <v>0.0005969179724414771</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154">
+        <v>57.305010116832314</v>
+      </c>
+      <c r="B154">
+        <v>50.01790628815499</v>
+      </c>
+      <c r="C154">
+        <v>17.71990189675995</v>
+      </c>
+      <c r="D154">
+        <v>0.9970080789517861</v>
+      </c>
+      <c r="E154">
+        <v>0.0640648377382633</v>
+      </c>
+      <c r="F154">
+        <v>0.04353039950375205</v>
+      </c>
+      <c r="G154">
+        <v>7.0256771072970955e-6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155">
+        <v>57.30100581868075</v>
+      </c>
+      <c r="B155">
+        <v>50.06199380251139</v>
+      </c>
+      <c r="C155">
+        <v>17.45806190387358</v>
+      </c>
+      <c r="D155">
+        <v>0.9905494789009637</v>
+      </c>
+      <c r="E155">
+        <v>-0.13649660262522423</v>
+      </c>
+      <c r="F155">
+        <v>-0.012396909614641618</v>
+      </c>
+      <c r="G155">
+        <v>0.0008877987833045143</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156">
+        <v>57.28792910211937</v>
+      </c>
+      <c r="B156">
+        <v>50.11848237629497</v>
+      </c>
+      <c r="C156">
+        <v>17.578268224315785</v>
+      </c>
+      <c r="D156">
+        <v>0.9916761440857544</v>
+      </c>
+      <c r="E156">
+        <v>-0.12533747799452777</v>
+      </c>
+      <c r="F156">
+        <v>-0.029013173066283707</v>
+      </c>
+      <c r="G156">
+        <v>0.0020498469639051364</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157">
+        <v>57.30853797692065</v>
+      </c>
+      <c r="B157">
+        <v>50.0715335792832</v>
+      </c>
+      <c r="C157">
+        <v>17.438595869219327</v>
+      </c>
+      <c r="D157">
+        <v>0.9899813249200468</v>
+      </c>
+      <c r="E157">
+        <v>0.1289766172568631</v>
+      </c>
+      <c r="F157">
+        <v>0.05660931569006559</v>
+      </c>
+      <c r="G157">
+        <v>0.00800036758048844</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158">
+        <v>57.30646309361168</v>
+      </c>
+      <c r="B158">
+        <v>50.01887287803909</v>
+      </c>
+      <c r="C158">
+        <v>17.408885399953288</v>
+      </c>
+      <c r="D158">
+        <v>0.9912977900847924</v>
+      </c>
+      <c r="E158">
+        <v>0.13145767126519847</v>
+      </c>
+      <c r="F158">
+        <v>-0.005180290087010198</v>
+      </c>
+      <c r="G158">
+        <v>2.9596989314182882e-5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159">
+        <v>57.29849103525138</v>
+      </c>
+      <c r="B159">
+        <v>49.96401465566354</v>
+      </c>
+      <c r="C159">
+        <v>17.44424372720228</v>
+      </c>
+      <c r="D159">
+        <v>0.9913384039182904</v>
+      </c>
+      <c r="E159">
+        <v>0.12988092658128547</v>
+      </c>
+      <c r="F159">
+        <v>-0.01887171923907168</v>
+      </c>
+      <c r="G159">
+        <v>-0.0012938264120194824</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160">
+        <v>57.327575418635405</v>
+      </c>
+      <c r="B160">
+        <v>49.91997783028194</v>
+      </c>
+      <c r="C160">
+        <v>17.44256741203867</v>
+      </c>
+      <c r="D160">
+        <v>0.9916654370556356</v>
+      </c>
+      <c r="E160">
+        <v>0.10743366941866779</v>
+      </c>
+      <c r="F160">
+        <v>0.0709552063095369</v>
+      </c>
+      <c r="G160">
+        <v>-1.110449288889866e-8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161">
+        <v>57.34385921995506</v>
+      </c>
+      <c r="B161">
+        <v>49.86780064364262</v>
+      </c>
+      <c r="C161">
+        <v>17.485979486596783</v>
+      </c>
+      <c r="D161">
+        <v>0.9916831494170276</v>
+      </c>
+      <c r="E161">
+        <v>0.12277386017864773</v>
+      </c>
+      <c r="F161">
+        <v>0.03831585887292935</v>
+      </c>
+      <c r="G161">
+        <v>0.00027639910740348046</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162">
+        <v>57.322614141580395</v>
+      </c>
+      <c r="B162">
+        <v>49.92479996979255</v>
+      </c>
+      <c r="C162">
+        <v>17.580497589087933</v>
+      </c>
+      <c r="D162">
+        <v>0.9904579645476574</v>
+      </c>
+      <c r="E162">
+        <v>-0.12885255764021727</v>
+      </c>
+      <c r="F162">
+        <v>-0.048020465674379606</v>
+      </c>
+      <c r="G162">
+        <v>0.007334415394420696</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163">
+        <v>57.31117653957007</v>
+      </c>
+      <c r="B163">
+        <v>49.869978265890765</v>
+      </c>
+      <c r="C163">
+        <v>17.63893502098992</v>
+      </c>
+      <c r="D163">
+        <v>0.9914678885610637</v>
+      </c>
+      <c r="E163">
+        <v>0.12747424561136778</v>
+      </c>
+      <c r="F163">
+        <v>-0.026592790721812302</v>
+      </c>
+      <c r="G163">
+        <v>-0.0032275615328439303</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164">
+        <v>57.314724980507116</v>
+      </c>
+      <c r="B164">
+        <v>49.82386926008262</v>
+      </c>
+      <c r="C164">
+        <v>17.751018055372125</v>
+      </c>
+      <c r="D164">
+        <v>0.9946366145054386</v>
+      </c>
+      <c r="E164">
+        <v>0.1030806893411215</v>
+      </c>
+      <c r="F164">
+        <v>0.00793286217255408</v>
+      </c>
+      <c r="G164">
+        <v>3.536846531579649e-7</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165">
+        <v>57.29341575399607</v>
+      </c>
+      <c r="B165">
+        <v>49.879414073468425</v>
+      </c>
+      <c r="C165">
+        <v>17.816058710399673</v>
+      </c>
+      <c r="D165">
+        <v>0.9904543058525848</v>
+      </c>
+      <c r="E165">
+        <v>-0.12843067779944242</v>
+      </c>
+      <c r="F165">
+        <v>-0.04926535288122835</v>
+      </c>
+      <c r="G165">
+        <v>0.006961537301689258</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166">
+        <v>57.32940699531365</v>
+      </c>
+      <c r="B166">
+        <v>49.84528972477022</v>
+      </c>
+      <c r="C166">
+        <v>17.65671273071615</v>
+      </c>
+      <c r="D166">
+        <v>0.9903068614567522</v>
+      </c>
+      <c r="E166">
+        <v>0.09548883542010729</v>
+      </c>
+      <c r="F166">
+        <v>0.10071288829959178</v>
+      </c>
+      <c r="G166">
+        <v>-3.791282762984495e-16</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167">
+        <v>57.31470954019836</v>
+      </c>
+      <c r="B167">
+        <v>49.90076347607056</v>
+      </c>
+      <c r="C167">
+        <v>17.723528321714824</v>
+      </c>
+      <c r="D167">
+        <v>0.9911516549265471</v>
+      </c>
+      <c r="E167">
+        <v>-0.1281345473646714</v>
+      </c>
+      <c r="F167">
+        <v>-0.03394481951207447</v>
+      </c>
+      <c r="G167">
+        <v>0.004657686157471571</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168">
+        <v>57.292833812056784</v>
+      </c>
+      <c r="B168">
+        <v>49.95643929022279</v>
+      </c>
+      <c r="C168">
+        <v>17.802859118155556</v>
+      </c>
+      <c r="D168">
+        <v>0.9905657539222602</v>
+      </c>
+      <c r="E168">
+        <v>-0.12733164071403427</v>
+      </c>
+      <c r="F168">
+        <v>-0.05002531742861555</v>
+      </c>
+      <c r="G168">
+        <v>0.005835173346464696</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169">
+        <v>57.31011733402915</v>
+      </c>
+      <c r="B169">
+        <v>49.99681117212853</v>
+      </c>
+      <c r="C169">
+        <v>17.481580651161508</v>
+      </c>
+      <c r="D169">
+        <v>0.9893663427878503</v>
+      </c>
+      <c r="E169">
+        <v>-0.13312393430098893</v>
+      </c>
+      <c r="F169">
+        <v>0.056980876020332485</v>
+      </c>
+      <c r="G169">
+        <v>-0.012150682608069879</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170">
+        <v>57.31896601331462</v>
+      </c>
+      <c r="B170">
+        <v>50.04816309619897</v>
+      </c>
+      <c r="C170">
+        <v>17.443311913776338</v>
+      </c>
+      <c r="D170">
+        <v>0.9913680419594737</v>
+      </c>
+      <c r="E170">
+        <v>-0.12911892606593323</v>
+      </c>
+      <c r="F170">
+        <v>0.022248528510125286</v>
+      </c>
+      <c r="G170">
+        <v>-0.0008041815733697438</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171">
+        <v>57.333809163209956</v>
+      </c>
+      <c r="B171">
+        <v>50.0111317547322</v>
+      </c>
+      <c r="C171">
+        <v>17.590668880799694</v>
+      </c>
+      <c r="D171">
+        <v>0.9962096494008623</v>
+      </c>
+      <c r="E171">
+        <v>0.08072436832729006</v>
+      </c>
+      <c r="F171">
+        <v>0.032356632014053706</v>
+      </c>
+      <c r="G171">
+        <v>5.644034134005191e-6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172">
+        <v>57.37899065253666</v>
+      </c>
+      <c r="B172">
+        <v>50.00307601620325</v>
+      </c>
+      <c r="C172">
+        <v>17.45570113570283</v>
+      </c>
+      <c r="D172">
+        <v>0.9920620694446457</v>
+      </c>
+      <c r="E172">
+        <v>0.02205752924499884</v>
+      </c>
+      <c r="F172">
+        <v>0.1237141313456645</v>
+      </c>
+      <c r="G172">
+        <v>-0.00048641091076324596</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173">
+        <v>57.41595244558047</v>
+      </c>
+      <c r="B173">
+        <v>49.980564393759856</v>
+      </c>
+      <c r="C173">
+        <v>17.0960975504632</v>
+      </c>
+      <c r="D173">
+        <v>0.9887926340136424</v>
+      </c>
+      <c r="E173">
+        <v>0.07748482097156119</v>
+      </c>
+      <c r="F173">
+        <v>0.1272336837491795</v>
+      </c>
+      <c r="G173">
+        <v>-0.007424003398181322</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174">
+        <v>57.43088756581466</v>
+      </c>
+      <c r="B174">
+        <v>50.03430097442253</v>
+      </c>
+      <c r="C174">
+        <v>17.12890135988114</v>
+      </c>
+      <c r="D174">
+        <v>0.9911865656697798</v>
+      </c>
+      <c r="E174">
+        <v>-0.12747725021987497</v>
+      </c>
+      <c r="F174">
+        <v>0.03542664761804023</v>
+      </c>
+      <c r="G174">
+        <v>-0.00423288741742755</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175">
+        <v>57.40456140014623</v>
+      </c>
+      <c r="B175">
+        <v>49.97652495656457</v>
+      </c>
+      <c r="C175">
+        <v>17.190223831978066</v>
+      </c>
+      <c r="D175">
+        <v>0.9889762867657766</v>
+      </c>
+      <c r="E175">
+        <v>0.13387561978393084</v>
+      </c>
+      <c r="F175">
+        <v>-0.060987927962811106</v>
+      </c>
+      <c r="G175">
+        <v>-0.015583656905125882</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176">
+        <v>57.38120303170913</v>
+      </c>
+      <c r="B176">
+        <v>50.034013903645196</v>
+      </c>
+      <c r="C176">
+        <v>17.25448180739064</v>
+      </c>
+      <c r="D176">
+        <v>0.9895468242249847</v>
+      </c>
+      <c r="E176">
+        <v>-0.13294560022076868</v>
+      </c>
+      <c r="F176">
+        <v>-0.05400605341500346</v>
+      </c>
+      <c r="G176">
+        <v>0.01301175174061276</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177">
+        <v>57.36309591614818</v>
+      </c>
+      <c r="B177">
+        <v>50.09115033754774</v>
+      </c>
+      <c r="C177">
+        <v>17.337796262514928</v>
+      </c>
+      <c r="D177">
+        <v>0.9905730480506794</v>
+      </c>
+      <c r="E177">
+        <v>-0.13027472067355075</v>
+      </c>
+      <c r="F177">
+        <v>-0.041279051408777176</v>
+      </c>
+      <c r="G177">
+        <v>0.007746078091558269</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178">
+        <v>57.36467949578159</v>
+      </c>
+      <c r="B178">
+        <v>50.03615797003278</v>
+      </c>
+      <c r="C178">
+        <v>17.394428213985307</v>
+      </c>
+      <c r="D178">
+        <v>0.9917498620663928</v>
+      </c>
+      <c r="E178">
+        <v>0.12807033222547703</v>
+      </c>
+      <c r="F178">
+        <v>0.0036866742093802384</v>
+      </c>
+      <c r="G178">
+        <v>-0.00041327123054031903</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179">
+        <v>57.38048979163526</v>
+      </c>
+      <c r="B179">
+        <v>50.0883437220075</v>
+      </c>
+      <c r="C179">
+        <v>17.457896989825727</v>
+      </c>
+      <c r="D179">
+        <v>0.9919776478309477</v>
+      </c>
+      <c r="E179">
+        <v>-0.12090220126174442</v>
+      </c>
+      <c r="F179">
+        <v>0.03662875787218819</v>
+      </c>
+      <c r="G179">
+        <v>-7.292380858572274e-6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180">
+        <v>57.37168725060749</v>
+      </c>
+      <c r="B180">
+        <v>50.1322982546345</v>
+      </c>
+      <c r="C180">
+        <v>17.652189866307452</v>
+      </c>
+      <c r="D180">
+        <v>0.9955265077540362</v>
+      </c>
+      <c r="E180">
+        <v>-0.09261901753497981</v>
+      </c>
+      <c r="F180">
+        <v>-0.018547993272364418</v>
+      </c>
+      <c r="G180">
+        <v>1.9483711906298085e-6</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181">
+        <v>57.34500297270939</v>
+      </c>
+      <c r="B181">
+        <v>50.076415976004185</v>
+      </c>
+      <c r="C181">
+        <v>17.715742537016354</v>
+      </c>
+      <c r="D181">
+        <v>0.9896153644891278</v>
+      </c>
+      <c r="E181">
+        <v>0.12930614520640515</v>
+      </c>
+      <c r="F181">
+        <v>-0.06173628245696352</v>
+      </c>
+      <c r="G181">
+        <v>-0.009697997723482954</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182">
+        <v>57.345407525761225</v>
+      </c>
+      <c r="B182">
+        <v>50.02307339648089</v>
+      </c>
+      <c r="C182">
+        <v>17.756784393697682</v>
+      </c>
+      <c r="D182">
+        <v>0.9920479255388447</v>
+      </c>
+      <c r="E182">
+        <v>0.1257737308750947</v>
+      </c>
+      <c r="F182">
+        <v>0.0009538193471443123</v>
+      </c>
+      <c r="G182">
+        <v>7.43169989726607e-5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183">
+        <v>57.330555263757184</v>
+      </c>
+      <c r="B183">
+        <v>50.077365910697004</v>
+      </c>
+      <c r="C183">
+        <v>17.80426458477629</v>
+      </c>
+      <c r="D183">
+        <v>0.9912296591799944</v>
+      </c>
+      <c r="E183">
+        <v>-0.12731476300548775</v>
+      </c>
+      <c r="F183">
+        <v>-0.03482501222856475</v>
+      </c>
+      <c r="G183">
+        <v>0.004050693022036981</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184">
+        <v>57.31629199342796</v>
+      </c>
+      <c r="B184">
+        <v>50.023285610339755</v>
+      </c>
+      <c r="C184">
+        <v>17.83857395944537</v>
+      </c>
+      <c r="D184">
+        <v>0.9911568740118321</v>
+      </c>
+      <c r="E184">
+        <v>0.12813747536571826</v>
+      </c>
+      <c r="F184">
+        <v>-0.03379165056009149</v>
+      </c>
+      <c r="G184">
+        <v>-0.004583116500593009</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185">
+        <v>57.35951261331047</v>
+      </c>
+      <c r="B185">
+        <v>50.012752364917866</v>
+      </c>
+      <c r="C185">
+        <v>17.657571035838604</v>
+      </c>
+      <c r="D185">
+        <v>0.9918708550027184</v>
+      </c>
+      <c r="E185">
+        <v>0.030108655122193028</v>
+      </c>
+      <c r="F185">
+        <v>0.12354534829636059</v>
+      </c>
+      <c r="G185">
+        <v>-0.0005602627766132412</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186">
+        <v>57.33816690150916</v>
+      </c>
+      <c r="B186">
+        <v>49.95743767141848</v>
+      </c>
+      <c r="C186">
+        <v>17.72111906134901</v>
+      </c>
+      <c r="D186">
+        <v>0.9904995193703426</v>
+      </c>
+      <c r="E186">
+        <v>0.1280495084251187</v>
+      </c>
+      <c r="F186">
+        <v>-0.04940829968426286</v>
+      </c>
+      <c r="G186">
+        <v>-0.006546144234652605</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187">
+        <v>57.36335864866661</v>
+      </c>
+      <c r="B187">
+        <v>49.92584382403779</v>
+      </c>
+      <c r="C187">
+        <v>17.76367969144073</v>
+      </c>
+      <c r="D187">
+        <v>0.9954438304853281</v>
+      </c>
+      <c r="E187">
+        <v>0.07453101133030389</v>
+      </c>
+      <c r="F187">
+        <v>0.05942837930493375</v>
+      </c>
+      <c r="G187">
+        <v>6.255148289847377e-6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188">
+        <v>57.334742193942205</v>
+      </c>
+      <c r="B188">
+        <v>49.98168879946378</v>
+      </c>
+      <c r="C188">
+        <v>17.884221784602794</v>
+      </c>
+      <c r="D188">
+        <v>0.9902597969164673</v>
+      </c>
+      <c r="E188">
+        <v>-0.1237911606076068</v>
+      </c>
+      <c r="F188">
+        <v>-0.06343168199556339</v>
+      </c>
+      <c r="G188">
+        <v>0.0025043382457233744</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189">
+        <v>57.33582390379438</v>
+      </c>
+      <c r="B189">
+        <v>50.029631067920114</v>
+      </c>
+      <c r="C189">
+        <v>17.743965834480324</v>
+      </c>
+      <c r="D189">
+        <v>0.9912522922176186</v>
+      </c>
+      <c r="E189">
+        <v>-0.13185882959991815</v>
+      </c>
+      <c r="F189">
+        <v>0.0029752044796521274</v>
+      </c>
+      <c r="G189">
+        <v>-7.087888243556919e-5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190">
+        <v>57.334856859757416</v>
+      </c>
+      <c r="B190">
+        <v>49.97752057266744</v>
+      </c>
+      <c r="C190">
+        <v>17.730426243059224</v>
+      </c>
+      <c r="D190">
+        <v>0.9917135766160649</v>
+      </c>
+      <c r="E190">
+        <v>0.12837644007684787</v>
+      </c>
+      <c r="F190">
+        <v>-0.00238297345736972</v>
+      </c>
+      <c r="G190">
+        <v>-0.00035623722030914183</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191">
+        <v>57.37109382625621</v>
+      </c>
+      <c r="B191">
+        <v>50.01313694470886</v>
+      </c>
+      <c r="C191">
+        <v>17.607730519850143</v>
+      </c>
+      <c r="D191">
+        <v>0.9904908054661328</v>
+      </c>
+      <c r="E191">
+        <v>-0.09636284377883886</v>
+      </c>
+      <c r="F191">
+        <v>0.09804190998681901</v>
+      </c>
+      <c r="G191">
+        <v>4.876918752453618e-16</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192">
+        <v>57.360711422723135</v>
+      </c>
+      <c r="B192">
+        <v>50.06436522423987</v>
+      </c>
+      <c r="C192">
+        <v>17.53224152389843</v>
+      </c>
+      <c r="D192">
+        <v>0.9907365498809276</v>
+      </c>
+      <c r="E192">
+        <v>-0.13293357622552163</v>
+      </c>
+      <c r="F192">
+        <v>-0.026937056290443025</v>
+      </c>
+      <c r="G192">
+        <v>0.004414185288446366</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193">
+        <v>57.35508782369422</v>
+      </c>
+      <c r="B193">
+        <v>50.00939273840443</v>
+      </c>
+      <c r="C193">
+        <v>17.597899753000814</v>
+      </c>
+      <c r="D193">
+        <v>0.9917883649744517</v>
+      </c>
+      <c r="E193">
+        <v>0.1271305856263251</v>
+      </c>
+      <c r="F193">
+        <v>-0.013004138783310956</v>
+      </c>
+      <c r="G193">
+        <v>-0.0014789919529447349</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194">
+        <v>57.35259614599184</v>
+      </c>
+      <c r="B194">
+        <v>50.050104562960236</v>
+      </c>
+      <c r="C194">
+        <v>17.76348679085877</v>
+      </c>
+      <c r="D194">
+        <v>0.9961413402386408</v>
+      </c>
+      <c r="E194">
+        <v>-0.08758233243118582</v>
+      </c>
+      <c r="F194">
+        <v>-0.005360045461635549</v>
+      </c>
+      <c r="G194">
+        <v>1.7402896613478923e-6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195">
+        <v>57.32523449250275</v>
+      </c>
+      <c r="B195">
+        <v>49.99560245913806</v>
+      </c>
+      <c r="C195">
+        <v>17.78727321759385</v>
+      </c>
+      <c r="D195">
+        <v>0.9892654834070386</v>
+      </c>
+      <c r="E195">
+        <v>0.1301017225691194</v>
+      </c>
+      <c r="F195">
+        <v>-0.0653049207615498</v>
+      </c>
+      <c r="G195">
+        <v>-0.011142682103405485</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196">
+        <v>57.31097422350089</v>
+      </c>
+      <c r="B196">
+        <v>49.94186081261802</v>
+      </c>
+      <c r="C196">
+        <v>17.814706255686716</v>
+      </c>
+      <c r="D196">
+        <v>0.9911645096430348</v>
+      </c>
+      <c r="E196">
+        <v>0.1280339859727049</v>
+      </c>
+      <c r="F196">
+        <v>-0.03397005285029238</v>
+      </c>
+      <c r="G196">
+        <v>-0.004509647464023641</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197">
+        <v>57.29126035943305</v>
+      </c>
+      <c r="B197">
+        <v>49.888019680855116</v>
+      </c>
+      <c r="C197">
+        <v>17.8402207632339</v>
+      </c>
+      <c r="D197">
+        <v>0.9905666381269416</v>
+      </c>
+      <c r="E197">
+        <v>0.12842955215440147</v>
+      </c>
+      <c r="F197">
+        <v>-0.04701886524274815</v>
+      </c>
+      <c r="G197">
+        <v>-0.006575549088165659</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198">
+        <v>57.31702409095708</v>
+      </c>
+      <c r="B198">
+        <v>49.9348484860449</v>
+      </c>
+      <c r="C198">
+        <v>17.75501532467073</v>
+      </c>
+      <c r="D198">
+        <v>0.990158524037777</v>
+      </c>
+      <c r="E198">
+        <v>-0.12251598311550417</v>
+      </c>
+      <c r="F198">
+        <v>0.06740373769458485</v>
+      </c>
+      <c r="G198">
+        <v>-0.000769959335657395</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199">
+        <v>57.34581325105613</v>
+      </c>
+      <c r="B199">
+        <v>49.90813763803566</v>
+      </c>
+      <c r="C199">
+        <v>17.7637734918585</v>
+      </c>
+      <c r="D199">
+        <v>0.9954575739417819</v>
+      </c>
+      <c r="E199">
+        <v>0.06473693137231935</v>
+      </c>
+      <c r="F199">
+        <v>0.06977412368995384</v>
+      </c>
+      <c r="G199">
+        <v>5.839637458967025e-6</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200">
+        <v>57.379778742789114</v>
+      </c>
+      <c r="B200">
+        <v>49.9290849131006</v>
+      </c>
+      <c r="C200">
+        <v>17.75538769488193</v>
+      </c>
+      <c r="D200">
+        <v>0.9951768346025865</v>
+      </c>
+      <c r="E200">
+        <v>-0.051475719846784035</v>
+      </c>
+      <c r="F200">
+        <v>0.0834665488597771</v>
+      </c>
+      <c r="G200">
+        <v>4.4118416854674395e-7</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201">
+        <v>57.39318723086551</v>
+      </c>
+      <c r="B201">
+        <v>49.9117061393793</v>
+      </c>
+      <c r="C201">
+        <v>17.877484905389466</v>
+      </c>
+      <c r="D201">
+        <v>0.9988153826346249</v>
+      </c>
+      <c r="E201">
+        <v>0.038646978140513814</v>
+      </c>
+      <c r="F201">
+        <v>0.02980997754651777</v>
+      </c>
+      <c r="G201">
+        <v>-0.00011192162146727907</v>
       </c>
     </row>
   </sheetData>

--- a/src/Quadrotor_States.xlsx
+++ b/src/Quadrotor_States.xlsx
@@ -428,4602 +428,4602 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>55.063286541334094</v>
+        <v>55.06761014940805</v>
       </c>
       <c r="B2">
-        <v>49.933343242877655</v>
+        <v>50.027269123035005</v>
       </c>
       <c r="C2">
-        <v>10.51448266353847</v>
+        <v>10.509155862639522</v>
       </c>
       <c r="D2">
-        <v>0.9874454486548147</v>
+        <v>0.9919910690743933</v>
       </c>
       <c r="E2">
-        <v>0.11416117436929744</v>
+        <v>-0.04694120864398187</v>
       </c>
       <c r="F2">
-        <v>0.10837673271907086</v>
+        <v>0.11641097398168244</v>
       </c>
       <c r="G2">
-        <v>0.010987971221605214</v>
+        <v>0.013308735192913453</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>55.13169612934054</v>
+        <v>55.135115816157565</v>
       </c>
       <c r="B3">
-        <v>49.912318464807676</v>
+        <v>50.05323997566555</v>
       </c>
       <c r="C3">
-        <v>11.023305393381614</v>
+        <v>11.018169729220675</v>
       </c>
       <c r="D3">
-        <v>0.9920407188845148</v>
+        <v>0.992126064557245</v>
       </c>
       <c r="E3">
-        <v>0.036186858758801205</v>
+        <v>-0.04471342268883346</v>
       </c>
       <c r="F3">
-        <v>0.1178068676063394</v>
+        <v>0.11624844714729385</v>
       </c>
       <c r="G3">
-        <v>-0.025398323453862465</v>
+        <v>0.012330335503744119</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>55.19862620727053</v>
+        <v>55.202643332068206</v>
       </c>
       <c r="B4">
-        <v>49.89650747146197</v>
+        <v>50.07893456977364</v>
       </c>
       <c r="C4">
-        <v>11.53146290833101</v>
+        <v>11.52716423600364</v>
       </c>
       <c r="D4">
-        <v>0.9929375339973474</v>
+        <v>0.9921418629828824</v>
       </c>
       <c r="E4">
-        <v>0.027249057575860155</v>
+        <v>-0.04423848189047727</v>
       </c>
       <c r="F4">
-        <v>0.11535885841894765</v>
+        <v>0.11628824585608408</v>
       </c>
       <c r="G4">
-        <v>-0.0034836660217662</v>
+        <v>0.012400026804893048</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>55.259048489060696</v>
+        <v>55.27008577898516</v>
       </c>
       <c r="B5">
-        <v>49.96192746679802</v>
+        <v>50.10300995988406</v>
       </c>
       <c r="C5">
-        <v>12.045070458213996</v>
+        <v>12.036001581448085</v>
       </c>
       <c r="D5">
-        <v>0.9882469886961831</v>
+        <v>0.9922886311941324</v>
       </c>
       <c r="E5">
-        <v>-0.11214242569410479</v>
+        <v>-0.04145771971414148</v>
       </c>
       <c r="F5">
-        <v>0.10357052483084324</v>
+        <v>0.11616076036269316</v>
       </c>
       <c r="G5">
-        <v>-0.004401577672890607</v>
+        <v>0.011456272301501378</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>55.32602794722344</v>
+        <v>55.33742050823173</v>
       </c>
       <c r="B6">
-        <v>49.9870131533895</v>
+        <v>50.12669122854294</v>
       </c>
       <c r="C6">
-        <v>12.55388665209141</v>
+        <v>12.544782057714963</v>
       </c>
       <c r="D6">
-        <v>0.9923283797741621</v>
+        <v>0.9923452939690536</v>
       </c>
       <c r="E6">
-        <v>-0.043200882249849304</v>
+        <v>-0.040781971073242405</v>
       </c>
       <c r="F6">
-        <v>0.11536733969286071</v>
+        <v>0.11598237080584359</v>
       </c>
       <c r="G6">
-        <v>0.009421612651074092</v>
+        <v>0.01077468474364959</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>55.37854385794272</v>
+        <v>55.404649973485725</v>
       </c>
       <c r="B7">
-        <v>50.059517233714246</v>
+        <v>50.149985246273346</v>
       </c>
       <c r="C7">
-        <v>13.067624935329436</v>
+        <v>13.053507328656016</v>
       </c>
       <c r="D7">
-        <v>0.9876403039320057</v>
+        <v>0.9923998357141811</v>
       </c>
       <c r="E7">
-        <v>-0.1242337588199857</v>
+        <v>-0.04011786780893338</v>
       </c>
       <c r="F7">
-        <v>0.08995335628156995</v>
+        <v>0.11580793891851938</v>
       </c>
       <c r="G7">
-        <v>-0.031427511199168735</v>
+        <v>0.01011441822379654</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>55.428962136903436</v>
+        <v>55.471762476549635</v>
       </c>
       <c r="B8">
-        <v>50.136378092500806</v>
+        <v>50.172921376689814</v>
       </c>
       <c r="C8">
-        <v>13.582098914017553</v>
+        <v>13.562177544311849</v>
       </c>
       <c r="D8">
-        <v>0.987020326654969</v>
+        <v>0.9924535716777865</v>
       </c>
       <c r="E8">
-        <v>-0.13160085552391967</v>
+        <v>-0.03950422351443517</v>
       </c>
       <c r="F8">
-        <v>0.08629588729886972</v>
+        <v>0.11561326819437133</v>
       </c>
       <c r="G8">
-        <v>-0.031089335564021</v>
+        <v>0.009478762150436184</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>55.48360270440027</v>
+        <v>55.53937615758055</v>
       </c>
       <c r="B9">
-        <v>50.21097097993514</v>
+        <v>50.19273183404172</v>
       </c>
       <c r="C9">
-        <v>13.921880257793328</v>
+        <v>14.070734465010215</v>
       </c>
       <c r="D9">
-        <v>0.983804751463441</v>
+        <v>0.9925321348953177</v>
       </c>
       <c r="E9">
-        <v>-0.1417330217550835</v>
+        <v>-0.034121852802773904</v>
       </c>
       <c r="F9">
-        <v>0.10378737013415915</v>
+        <v>0.1164882586221124</v>
       </c>
       <c r="G9">
-        <v>-0.03431145746035792</v>
+        <v>0.011288118378179232</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>55.55399794828309</v>
+        <v>55.6068868972016</v>
       </c>
       <c r="B10">
-        <v>50.233885924655965</v>
+        <v>50.212225912084286</v>
       </c>
       <c r="C10">
-        <v>14.431320327654838</v>
+        <v>14.579246431904123</v>
       </c>
       <c r="D10">
-        <v>0.9918070900277993</v>
+        <v>0.9925776092467921</v>
       </c>
       <c r="E10">
-        <v>-0.03943878589761377</v>
+        <v>-0.03357891607453634</v>
       </c>
       <c r="F10">
-        <v>0.12117529085424893</v>
+        <v>0.11631663701817671</v>
       </c>
       <c r="G10">
-        <v>0.007580365443808661</v>
+        <v>0.010682249001935968</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>55.62790698704327</v>
+        <v>55.67427788704446</v>
       </c>
       <c r="B11">
-        <v>50.24408437039884</v>
+        <v>50.23143788403601</v>
       </c>
       <c r="C11">
-        <v>14.854706053728151</v>
+        <v>15.08771218547606</v>
       </c>
       <c r="D11">
-        <v>0.9908174292882769</v>
+        <v>0.9926235992883322</v>
       </c>
       <c r="E11">
-        <v>-0.018458888254380156</v>
+        <v>-0.03309499177040454</v>
       </c>
       <c r="F11">
-        <v>0.1337935734585005</v>
+        <v>0.11611614396048699</v>
       </c>
       <c r="G11">
-        <v>0.003774712660658067</v>
+        <v>0.010095791971980059</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>55.69413900938637</v>
+        <v>55.74154637350913</v>
       </c>
       <c r="B12">
-        <v>50.18043821284242</v>
+        <v>50.25036731507927</v>
       </c>
       <c r="C12">
-        <v>15.164024361455624</v>
+        <v>15.596131372187548</v>
       </c>
       <c r="D12">
-        <v>0.9839495140578913</v>
+        <v>0.9926693504881277</v>
       </c>
       <c r="E12">
-        <v>0.12334166893461652</v>
+        <v>-0.03261025173887153</v>
       </c>
       <c r="F12">
-        <v>0.12836264417256532</v>
+        <v>0.11591088442091116</v>
       </c>
       <c r="G12">
-        <v>-0.00824647547040715</v>
+        <v>0.009529654717587484</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>55.72522631021982</v>
+        <v>55.8087222931969</v>
       </c>
       <c r="B13">
-        <v>50.10799020688445</v>
+        <v>50.2689694886651</v>
       </c>
       <c r="C13">
-        <v>15.607746303295581</v>
+        <v>16.104508336498963</v>
       </c>
       <c r="D13">
-        <v>0.9899547900096345</v>
+        <v>0.9927110409491631</v>
       </c>
       <c r="E13">
-        <v>0.1294966187088227</v>
+        <v>-0.03204825724551255</v>
       </c>
       <c r="F13">
-        <v>0.055558175704410726</v>
+        <v>0.11575665207368636</v>
       </c>
       <c r="G13">
-        <v>0.009988938728632001</v>
+        <v>0.008962813420339437</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>55.77635555832628</v>
+        <v>55.87585303280337</v>
       </c>
       <c r="B14">
-        <v>50.04277653339249</v>
+        <v>50.28718038138771</v>
       </c>
       <c r="C14">
-        <v>15.966785950061716</v>
+        <v>16.612850350739098</v>
       </c>
       <c r="D14">
-        <v>0.987750486015246</v>
+        <v>0.992746200857434</v>
       </c>
       <c r="E14">
-        <v>0.12265667180739621</v>
+        <v>-0.03137564751155858</v>
       </c>
       <c r="F14">
-        <v>0.09616327899562324</v>
+        <v>0.11568318800882813</v>
       </c>
       <c r="G14">
-        <v>0.0027040981275783795</v>
+        <v>0.00838884236712739</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>55.79306545335234</v>
+        <v>55.94590483368938</v>
       </c>
       <c r="B15">
-        <v>49.97865810876591</v>
+        <v>50.30559711085766</v>
       </c>
       <c r="C15">
-        <v>16.162793751558084</v>
+        <v>17.12189046227997</v>
       </c>
       <c r="D15">
-        <v>0.990227739903874</v>
+        <v>0.9921501729681477</v>
       </c>
       <c r="E15">
-        <v>0.13458714884192888</v>
+        <v>-0.031708473100374356</v>
       </c>
       <c r="F15">
-        <v>0.035066632503582336</v>
+        <v>0.12063229767470632</v>
       </c>
       <c r="G15">
-        <v>0.008683150710192312</v>
+        <v>0.007740190084443076</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>55.82377830264642</v>
+        <v>56.019474766285505</v>
       </c>
       <c r="B16">
-        <v>50.04055670459943</v>
+        <v>50.32429273579993</v>
       </c>
       <c r="C16">
-        <v>16.32689469692398</v>
+        <v>17.6318109718939</v>
       </c>
       <c r="D16">
-        <v>0.9888062856234636</v>
+        <v>0.991397554847581</v>
       </c>
       <c r="E16">
-        <v>-0.13281477389795854</v>
+        <v>-0.032160676563926446</v>
       </c>
       <c r="F16">
-        <v>0.06588618257957445</v>
+        <v>0.12657865304076488</v>
       </c>
       <c r="G16">
-        <v>-0.015468869955937225</v>
+        <v>0.007056563365041344</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>55.85542959558407</v>
+        <v>56.093145055032</v>
       </c>
       <c r="B17">
-        <v>50.10211110601443</v>
+        <v>50.342519978794975</v>
       </c>
       <c r="C17">
-        <v>16.589767830061586</v>
+        <v>18.101133818379537</v>
       </c>
       <c r="D17">
-        <v>0.9903071820463345</v>
+        <v>0.9909916990352434</v>
       </c>
       <c r="E17">
-        <v>-0.1234083465878061</v>
+        <v>-0.032099647730090934</v>
       </c>
       <c r="F17">
-        <v>0.06345475350822359</v>
+        <v>0.12975976010173962</v>
       </c>
       <c r="G17">
-        <v>-0.0021058421844625586</v>
+        <v>0.006363554158675776</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>55.90828988591861</v>
+        <v>56.16294763057496</v>
       </c>
       <c r="B18">
-        <v>50.15497139634898</v>
+        <v>50.35951527239741</v>
       </c>
       <c r="C18">
-        <v>16.65841089124086</v>
+        <v>18.488120770106228</v>
       </c>
       <c r="D18">
-        <v>0.9850764996093874</v>
+        <v>0.9910861252713451</v>
       </c>
       <c r="E18">
-        <v>-0.12155408579344744</v>
+        <v>-0.031459600337159874</v>
       </c>
       <c r="F18">
-        <v>0.12155408579344745</v>
+        <v>0.12922840846999947</v>
       </c>
       <c r="G18">
-        <v>-3.4787026788568467e-17</v>
+        <v>0.005675125185542498</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>55.95233382226433</v>
+        <v>56.22970254490501</v>
       </c>
       <c r="B19">
-        <v>50.098727781320335</v>
+        <v>50.37555235086659</v>
       </c>
       <c r="C19">
-        <v>16.734071017014866</v>
+        <v>18.815788003607345</v>
       </c>
       <c r="D19">
-        <v>0.9864226692502781</v>
+        <v>0.9912283194954529</v>
       </c>
       <c r="E19">
-        <v>0.12872751264887544</v>
+        <v>-0.03082163878531096</v>
       </c>
       <c r="F19">
-        <v>0.10079156512492467</v>
+        <v>0.1283131075330355</v>
       </c>
       <c r="G19">
-        <v>0.013384156938226331</v>
+        <v>0.005161206479391884</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>55.99125730730928</v>
+        <v>56.29403917941995</v>
       </c>
       <c r="B20">
-        <v>50.04286530965647</v>
+        <v>50.39083177049389</v>
       </c>
       <c r="C20">
-        <v>16.8022471983624</v>
+        <v>19.098040383698795</v>
       </c>
       <c r="D20">
-        <v>0.9875280941349925</v>
+        <v>0.9913667689619213</v>
       </c>
       <c r="E20">
-        <v>0.12866521536322703</v>
+        <v>-0.030251973647862775</v>
       </c>
       <c r="F20">
-        <v>0.0896384680695711</v>
+        <v>0.1273966826392564</v>
       </c>
       <c r="G20">
-        <v>0.012108545834157146</v>
+        <v>0.004699541491365422</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>56.03954160137581</v>
+        <v>56.357942308746644</v>
       </c>
       <c r="B21">
-        <v>50.02072140179224</v>
+        <v>50.40574115158589</v>
       </c>
       <c r="C21">
-        <v>17.05108915651241</v>
+        <v>19.377626186471584</v>
       </c>
       <c r="D21">
-        <v>0.994175726235796</v>
+        <v>0.9914695582371518</v>
       </c>
       <c r="E21">
-        <v>0.044904589786391134</v>
+        <v>-0.0295733169295316</v>
       </c>
       <c r="F21">
-        <v>0.09791344018584107</v>
+        <v>0.1267688669388753</v>
       </c>
       <c r="G21">
-        <v>1.1717859125531694e-6</v>
+        <v>0.004362472912608543</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>56.09220155168323</v>
+        <v>56.418742067887564</v>
       </c>
       <c r="B22">
-        <v>50.0538315713477</v>
+        <v>50.419713993781876</v>
       </c>
       <c r="C22">
-        <v>17.072866039661577</v>
+        <v>19.581729777825164</v>
       </c>
       <c r="D22">
-        <v>0.988840880093332</v>
+        <v>0.9914567295341498</v>
       </c>
       <c r="E22">
-        <v>-0.07914154953739268</v>
+        <v>-0.029178415071188103</v>
       </c>
       <c r="F22">
-        <v>0.12588032749175615</v>
+        <v>0.12697659562356417</v>
       </c>
       <c r="G22">
-        <v>0.006569397864130589</v>
+        <v>0.0038596034531800864</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>56.101506202034834</v>
+        <v>56.49153599206281</v>
       </c>
       <c r="B23">
-        <v>49.994882213446225</v>
+        <v>50.43639226435452</v>
       </c>
       <c r="C23">
-        <v>17.2677616071912</v>
+        <v>19.825127924971333</v>
       </c>
       <c r="D23">
-        <v>0.9920850445731677</v>
+        <v>0.9875391049601981</v>
       </c>
       <c r="E23">
-        <v>0.12394854296125389</v>
+        <v>-0.0337924369859821</v>
       </c>
       <c r="F23">
-        <v>0.01956367302452932</v>
+        <v>0.14764029421753497</v>
       </c>
       <c r="G23">
-        <v>0.000716077745937205</v>
+        <v>0.042079619647682184</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>56.108004610016195</v>
+        <v>56.54784796039151</v>
       </c>
       <c r="B24">
-        <v>49.93904481707369</v>
+        <v>50.44888796266366</v>
       </c>
       <c r="C24">
-        <v>17.32045491075261</v>
+        <v>19.91427561479903</v>
       </c>
       <c r="D24">
-        <v>0.9913337751359873</v>
+        <v>0.9913677924280248</v>
       </c>
       <c r="E24">
-        <v>0.1304126127543477</v>
+        <v>-0.028373676081593507</v>
       </c>
       <c r="F24">
-        <v>0.015177433486523334</v>
+        <v>0.12787607749010696</v>
       </c>
       <c r="G24">
-        <v>0.00011830046504729495</v>
+        <v>0.0027989005484155153</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>56.11182365430169</v>
+        <v>56.60219808631766</v>
       </c>
       <c r="B25">
-        <v>49.99672480848987</v>
+        <v>50.4608562221935</v>
       </c>
       <c r="C25">
-        <v>17.45170482071816</v>
+        <v>19.96677328672193</v>
       </c>
       <c r="D25">
-        <v>0.9918618072313672</v>
+        <v>0.9914970456458133</v>
       </c>
       <c r="E25">
-        <v>-0.1269514164665228</v>
+        <v>-0.02795674985318572</v>
       </c>
       <c r="F25">
-        <v>0.008404855742596445</v>
+        <v>0.12696658758119933</v>
       </c>
       <c r="G25">
-        <v>-0.0009449408701750103</v>
+        <v>0.002745059297689251</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>56.14227271174218</v>
+        <v>56.65528825691841</v>
       </c>
       <c r="B26">
-        <v>49.9453226506859</v>
+        <v>50.47243068703214</v>
       </c>
       <c r="C26">
-        <v>17.426395833046914</v>
+        <v>19.99700530405641</v>
       </c>
       <c r="D26">
-        <v>0.9888653075769028</v>
+        <v>0.9916045790703137</v>
       </c>
       <c r="E26">
-        <v>0.12769291617588763</v>
+        <v>-0.027517626179119015</v>
       </c>
       <c r="F26">
-        <v>0.07563308429447117</v>
+        <v>0.12622777644232142</v>
       </c>
       <c r="G26">
-        <v>0.008850443468568153</v>
+        <v>0.0025123411295501796</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>56.1710970524442</v>
+        <v>56.708358196586936</v>
       </c>
       <c r="B27">
-        <v>49.99907817591356</v>
+        <v>50.49538978332006</v>
       </c>
       <c r="C27">
-        <v>17.503669501423374</v>
+        <v>19.999999999847187</v>
       </c>
       <c r="D27">
-        <v>0.9901777054712144</v>
+        <v>0.989903820442452</v>
       </c>
       <c r="E27">
-        <v>-0.12310951941937745</v>
+        <v>-0.0557335677901416</v>
       </c>
       <c r="F27">
-        <v>0.06601129239362973</v>
+        <v>0.12886480334719672</v>
       </c>
       <c r="G27">
-        <v>-0.0016468520517681046</v>
+        <v>0.018533498456756795</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>56.17713729091581</v>
+        <v>56.76571137968496</v>
       </c>
       <c r="B28">
-        <v>50.05214569348026</v>
+        <v>50.537584714554605</v>
       </c>
       <c r="C28">
-        <v>17.479912155814297</v>
+        <v>19.99999999553253</v>
       </c>
       <c r="D28">
-        <v>0.9911490190515622</v>
+        <v>0.9833117749479416</v>
       </c>
       <c r="E28">
-        <v>-0.13180776625334334</v>
+        <v>-0.1022869247983802</v>
       </c>
       <c r="F28">
-        <v>0.015001549052202882</v>
+        <v>0.13910843513921642</v>
       </c>
       <c r="G28">
-        <v>-0.0010157052431434615</v>
+        <v>0.056399832194299504</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>56.22298228306528</v>
+        <v>56.82307072607488</v>
       </c>
       <c r="B29">
-        <v>50.0867853345878</v>
+        <v>50.579313004871295</v>
       </c>
       <c r="C29">
-        <v>17.327160161997718</v>
+        <v>19.999999995543806</v>
       </c>
       <c r="D29">
-        <v>0.9871124155405159</v>
+        <v>0.9834085227034022</v>
       </c>
       <c r="E29">
-        <v>-0.0961732292782985</v>
+        <v>-0.1011594054333164</v>
       </c>
       <c r="F29">
-        <v>0.12729725366946282</v>
+        <v>0.1391294081215164</v>
       </c>
       <c r="G29">
-        <v>0.010000163721615654</v>
+        <v>0.05670306443485502</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>56.220656358811326</v>
+        <v>56.88043586579117</v>
       </c>
       <c r="B30">
-        <v>50.14416279378259</v>
+        <v>50.62058311373734</v>
       </c>
       <c r="C30">
-        <v>17.463202633457676</v>
+        <v>19.999999995554905</v>
       </c>
       <c r="D30">
-        <v>0.9920252463259284</v>
+        <v>0.98350230147258</v>
       </c>
       <c r="E30">
-        <v>-0.12585156703366018</v>
+        <v>-0.10005216826836165</v>
       </c>
       <c r="F30">
-        <v>-0.005101355625520747</v>
+        <v>0.13914928356728004</v>
       </c>
       <c r="G30">
-        <v>0.0004281953296600135</v>
+        <v>0.057000194217581755</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <v>56.24351047446621</v>
+        <v>56.9377927938651</v>
       </c>
       <c r="B31">
-        <v>50.19322228939532</v>
+        <v>50.6614210282612</v>
       </c>
       <c r="C31">
-        <v>17.34642451792434</v>
+        <v>19.999999995521986</v>
       </c>
       <c r="D31">
-        <v>0.9892522269989952</v>
+        <v>0.9836000048972852</v>
       </c>
       <c r="E31">
-        <v>-0.13194560186441448</v>
+        <v>-0.09900833026369102</v>
       </c>
       <c r="F31">
-        <v>0.061455219722244846</v>
+        <v>0.13913569229860898</v>
       </c>
       <c r="G31">
-        <v>-0.01245068474487541</v>
+        <v>0.05717922068434041</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
-        <v>56.27919367858159</v>
+        <v>56.99510531292069</v>
       </c>
       <c r="B32">
-        <v>50.18544021474596</v>
+        <v>50.701789868650565</v>
       </c>
       <c r="C32">
-        <v>17.53551688731719</v>
+        <v>19.999999995565254</v>
       </c>
       <c r="D32">
-        <v>0.99701950983803</v>
+        <v>0.983733551361224</v>
       </c>
       <c r="E32">
-        <v>0.01645803732212833</v>
+        <v>-0.09787731363689119</v>
       </c>
       <c r="F32">
-        <v>0.07554979559922707</v>
+        <v>0.13903731461553903</v>
       </c>
       <c r="G32">
-        <v>-3.6401249363902105e-5</v>
+        <v>0.05708190582321622</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
-        <v>56.29620754418042</v>
+        <v>57.05249518811384</v>
       </c>
       <c r="B33">
-        <v>50.2377446237095</v>
+        <v>50.74269153677395</v>
       </c>
       <c r="C33">
-        <v>17.529538185717186</v>
+        <v>19.999999995566387</v>
       </c>
       <c r="D33">
-        <v>0.9908709225323192</v>
+        <v>0.983569920042236</v>
       </c>
       <c r="E33">
-        <v>-0.12800321101757253</v>
+        <v>-0.09916133548348274</v>
       </c>
       <c r="F33">
-        <v>0.04163320710436314</v>
+        <v>0.13921340125374834</v>
       </c>
       <c r="G33">
-        <v>-0.005384647828344305</v>
+        <v>0.05723919153111963</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
-        <v>56.34032522531458</v>
+        <v>57.1099088119127</v>
       </c>
       <c r="B34">
-        <v>50.20716939532855</v>
+        <v>50.7831551169696</v>
       </c>
       <c r="C34">
-        <v>17.603547777866527</v>
+        <v>19.999999995518888</v>
       </c>
       <c r="D34">
-        <v>0.9923507315406043</v>
+        <v>0.9836588987815328</v>
       </c>
       <c r="E34">
-        <v>0.07027455645435983</v>
+        <v>-0.09810275746736892</v>
       </c>
       <c r="F34">
-        <v>0.10140072986108607</v>
+        <v>0.139276755685348</v>
       </c>
       <c r="G34">
-        <v>-9.74664392991961e-16</v>
+        <v>0.05738842371763334</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
-        <v>56.35041984136467</v>
+        <v>57.16732074902609</v>
       </c>
       <c r="B35">
-        <v>50.152286310376354</v>
+        <v>50.823190315647835</v>
       </c>
       <c r="C35">
-        <v>17.663553995562346</v>
+        <v>19.999999995525187</v>
       </c>
       <c r="D35">
-        <v>0.9915497687704169</v>
+        <v>0.9837496048706801</v>
       </c>
       <c r="E35">
-        <v>0.1274664856489084</v>
+        <v>-0.09706759247052192</v>
       </c>
       <c r="F35">
-        <v>0.023442642921990543</v>
+        <v>0.13927843768228595</v>
       </c>
       <c r="G35">
-        <v>0.0028476402724959484</v>
+        <v>0.057597789430335805</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36">
-        <v>56.391353747755964</v>
+        <v>57.224577971693144</v>
       </c>
       <c r="B36">
-        <v>50.11108208325939</v>
+        <v>50.86277921623373</v>
       </c>
       <c r="C36">
-        <v>17.66564994556984</v>
+        <v>19.99999999556494</v>
       </c>
       <c r="D36">
-        <v>0.9899727307928701</v>
+        <v>0.9839649373107452</v>
       </c>
       <c r="E36">
-        <v>0.10012946517311853</v>
+        <v>-0.09599755540293668</v>
       </c>
       <c r="F36">
-        <v>0.09947256486019967</v>
+        <v>0.13891991193238062</v>
       </c>
       <c r="G36">
-        <v>5.341484638451115e-17</v>
+        <v>0.056594294654121656</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37">
-        <v>56.43634919642726</v>
+        <v>57.28162310769123</v>
       </c>
       <c r="B37">
-        <v>50.096264490681975</v>
+        <v>50.901929710985904</v>
       </c>
       <c r="C37">
-        <v>17.7036175836064</v>
+        <v>19.999999995563787</v>
       </c>
       <c r="D37">
-        <v>0.9936947229271924</v>
+        <v>0.9842241768186779</v>
       </c>
       <c r="E37">
-        <v>0.03505151294935489</v>
+        <v>-0.09494957661368686</v>
       </c>
       <c r="F37">
-        <v>0.10643821882196255</v>
+        <v>0.13842603905114137</v>
       </c>
       <c r="G37">
-        <v>1.3936084700002904e-6</v>
+        <v>0.05507427963985969</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38">
-        <v>56.47847126362982</v>
+        <v>57.3384650312027</v>
       </c>
       <c r="B38">
-        <v>50.06446139236891</v>
+        <v>50.940645672805076</v>
       </c>
       <c r="C38">
-        <v>17.459635801971796</v>
+        <v>19.999999995562426</v>
       </c>
       <c r="D38">
-        <v>0.9870075958175758</v>
+        <v>0.9844737506103683</v>
       </c>
       <c r="E38">
-        <v>0.09649307938514626</v>
+        <v>-0.0939100843628438</v>
       </c>
       <c r="F38">
-        <v>0.1278160174681775</v>
+        <v>0.13795271358026073</v>
       </c>
       <c r="G38">
-        <v>-0.01058442244161588</v>
+        <v>0.053592909338443864</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39">
-        <v>56.52449361043179</v>
+        <v>57.39511035842712</v>
       </c>
       <c r="B39">
-        <v>50.04629897502828</v>
+        <v>50.978931102258464</v>
       </c>
       <c r="C39">
-        <v>17.30268389464724</v>
+        <v>19.999999995561993</v>
       </c>
       <c r="D39">
-        <v>0.9903744907862122</v>
+        <v>0.9847152281420127</v>
       </c>
       <c r="E39">
-        <v>0.050705947500764334</v>
+        <v>-0.09287951208016272</v>
       </c>
       <c r="F39">
-        <v>0.128499664921544</v>
+        <v>0.13749460962157253</v>
       </c>
       <c r="G39">
-        <v>-0.006657584269348569</v>
+        <v>0.05213858184965021</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40">
-        <v>56.52403145321303</v>
+        <v>57.451567552638274</v>
       </c>
       <c r="B40">
-        <v>49.99024597089491</v>
+        <v>51.01678981854068</v>
       </c>
       <c r="C40">
-        <v>17.36231556793996</v>
+        <v>19.99999999556086</v>
       </c>
       <c r="D40">
-        <v>0.9914751709633299</v>
+        <v>0.9849470561681745</v>
       </c>
       <c r="E40">
-        <v>0.13021564938697638</v>
+        <v>-0.09185732533907816</v>
       </c>
       <c r="F40">
-        <v>-0.0010742676216687996</v>
+        <v>0.13705608712464754</v>
       </c>
       <c r="G40">
-        <v>-0.0005369218582151696</v>
+        <v>0.05073387256143514</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41">
-        <v>56.570747824354996</v>
+        <v>57.50784156567183</v>
       </c>
       <c r="B41">
-        <v>50.01752421165217</v>
+        <v>51.0542269796706</v>
       </c>
       <c r="C41">
-        <v>17.40211727538318</v>
+        <v>19.99999999555987</v>
       </c>
       <c r="D41">
-        <v>0.9918064062207529</v>
+        <v>0.985172099724615</v>
       </c>
       <c r="E41">
-        <v>-0.06437317433551963</v>
+        <v>-0.09084699960802564</v>
       </c>
       <c r="F41">
-        <v>0.11024468657663329</v>
+        <v>0.1366288978967425</v>
       </c>
       <c r="G41">
-        <v>-2.9398838016734782e-8</v>
+        <v>0.04934392389563036</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42">
-        <v>56.55989360138275</v>
+        <v>57.56394016166072</v>
       </c>
       <c r="B42">
-        <v>49.96075850863674</v>
+        <v>51.09124583686052</v>
       </c>
       <c r="C42">
-        <v>17.50377825883179</v>
+        <v>19.999999995558753</v>
       </c>
       <c r="D42">
-        <v>0.9914951796678342</v>
+        <v>0.9853884277027671</v>
       </c>
       <c r="E42">
-        <v>0.12769980861516178</v>
+        <v>-0.08984377638844247</v>
       </c>
       <c r="F42">
-        <v>-0.024415153879628868</v>
+        <v>0.1362197035071448</v>
       </c>
       <c r="G42">
-        <v>-0.0031580832256425874</v>
+        <v>0.04800056844885112</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43">
-        <v>56.57528538613765</v>
+        <v>57.61986954353759</v>
       </c>
       <c r="B43">
-        <v>49.91118015111757</v>
+        <v>51.12785044133326</v>
       </c>
       <c r="C43">
-        <v>17.398246046672</v>
+        <v>19.99999999555762</v>
       </c>
       <c r="D43">
-        <v>0.9903531292369756</v>
+        <v>0.9855972954421788</v>
       </c>
       <c r="E43">
-        <v>0.1320760360162296</v>
+        <v>-0.08884970462229008</v>
       </c>
       <c r="F43">
-        <v>0.04099655089883602</v>
+        <v>0.13582484145725027</v>
       </c>
       <c r="G43">
-        <v>0.006840081848362493</v>
+        <v>0.04668937899003855</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44">
-        <v>56.59818279184277</v>
+        <v>57.67563559228028</v>
       </c>
       <c r="B44">
-        <v>49.96462958177121</v>
+        <v>51.16404496896058</v>
       </c>
       <c r="C44">
-        <v>17.444395139496503</v>
+        <v>19.9999999955565</v>
       </c>
       <c r="D44">
-        <v>0.9906239285872218</v>
+        <v>0.9857990308546508</v>
       </c>
       <c r="E44">
-        <v>-0.12543118801606573</v>
+        <v>-0.08786512445343586</v>
       </c>
       <c r="F44">
-        <v>0.05373065243332296</v>
+        <v>0.135443571024584</v>
       </c>
       <c r="G44">
-        <v>-0.0038873823104943715</v>
+        <v>0.045408744957201506</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45">
-        <v>56.60612655762199</v>
+        <v>57.728756120070614</v>
       </c>
       <c r="B45">
-        <v>49.9101342011879</v>
+        <v>51.20229450260138</v>
       </c>
       <c r="C45">
-        <v>17.489645974238723</v>
+        <v>19.999999995543586</v>
       </c>
       <c r="D45">
-        <v>0.9915787773954176</v>
+        <v>0.9871319640334693</v>
       </c>
       <c r="E45">
-        <v>0.12803657567072216</v>
+        <v>-0.09296363261827402</v>
       </c>
       <c r="F45">
-        <v>0.018661894550468107</v>
+        <v>0.12912660323717726</v>
       </c>
       <c r="G45">
-        <v>0.0025254701423592604</v>
+        <v>0.0141152006451715</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46">
-        <v>56.626398528510165</v>
+        <v>57.78421140947528</v>
       </c>
       <c r="B46">
-        <v>49.85741677855894</v>
+        <v>51.23765113404063</v>
       </c>
       <c r="C46">
-        <v>17.5310287755727</v>
+        <v>19.999999995554287</v>
       </c>
       <c r="D46">
-        <v>0.9910907392529372</v>
+        <v>0.986189151064921</v>
       </c>
       <c r="E46">
-        <v>0.12420717207863524</v>
+        <v>-0.08585134888345448</v>
       </c>
       <c r="F46">
-        <v>0.047760945907323514</v>
+        <v>0.13471819433121282</v>
       </c>
       <c r="G46">
-        <v>0.0020752429050196895</v>
+        <v>0.04292830084014263</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47">
-        <v>56.56904453672724</v>
+        <v>57.83951916893319</v>
       </c>
       <c r="B47">
-        <v>49.91120111031206</v>
+        <v>51.27261038406593</v>
       </c>
       <c r="C47">
-        <v>17.625518815949796</v>
+        <v>19.999999995553175</v>
       </c>
       <c r="D47">
-        <v>0.9840578010866651</v>
+        <v>0.9863713707984113</v>
       </c>
       <c r="E47">
-        <v>-0.12118638933377247</v>
+        <v>-0.08489584923510597</v>
       </c>
       <c r="F47">
-        <v>-0.12924445865109827</v>
+        <v>0.1343734555212622</v>
       </c>
       <c r="G47">
-        <v>-0.012472635703422816</v>
+        <v>0.04172918713465494</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48">
-        <v>56.583210113089415</v>
+        <v>57.894684246116405</v>
       </c>
       <c r="B48">
-        <v>49.94011950726852</v>
+        <v>51.30717636056415</v>
       </c>
       <c r="C48">
-        <v>17.80236658134972</v>
+        <v>19.999999995552074</v>
       </c>
       <c r="D48">
-        <v>0.9976426506987153</v>
+        <v>0.9865476064768774</v>
       </c>
       <c r="E48">
-        <v>-0.061760732990251914</v>
+        <v>-0.08394980341275726</v>
       </c>
       <c r="F48">
-        <v>0.030257647917217117</v>
+        <v>0.13403993538893186</v>
       </c>
       <c r="G48">
-        <v>-7.982898108776812e-5</v>
+        <v>0.04055609112285244</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49">
-        <v>56.60833272409516</v>
+        <v>57.949710943579625</v>
       </c>
       <c r="B49">
-        <v>49.89116757188884</v>
+        <v>51.34135314122335</v>
       </c>
       <c r="C49">
-        <v>17.76180879148529</v>
+        <v>19.99999999555096</v>
       </c>
       <c r="D49">
-        <v>0.9903394259243178</v>
+        <v>0.9867183613181203</v>
       </c>
       <c r="E49">
-        <v>0.12325951180384563</v>
+        <v>-0.08301318192420476</v>
       </c>
       <c r="F49">
-        <v>0.06325656150573285</v>
+        <v>0.13371635957868044</v>
       </c>
       <c r="G49">
-        <v>0.0016146335778433334</v>
+        <v>0.039404280932048716</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50">
-        <v>56.610452463190235</v>
+        <v>58.004604545048025</v>
       </c>
       <c r="B50">
-        <v>49.94578457140577</v>
+        <v>51.375144681185645</v>
       </c>
       <c r="C50">
-        <v>17.85488036039009</v>
+        <v>19.999999995549878</v>
       </c>
       <c r="D50">
-        <v>0.9922961990886322</v>
+        <v>0.9868829550546415</v>
       </c>
       <c r="E50">
-        <v>-0.12371540749480814</v>
+        <v>-0.08208565220891223</v>
       </c>
       <c r="F50">
-        <v>0.004801421173243927</v>
+        <v>0.13340506240315525</v>
       </c>
       <c r="G50">
-        <v>-0.00012767037105338775</v>
+        <v>0.038286731972394586</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51">
-        <v>56.623339171144</v>
+        <v>58.05936887684299</v>
       </c>
       <c r="B51">
-        <v>49.974610927079404</v>
+        <v>51.40855496055711</v>
       </c>
       <c r="C51">
-        <v>17.993106213647856</v>
+        <v>19.99999999554899</v>
       </c>
       <c r="D51">
-        <v>0.997603176485819</v>
+        <v>0.9870425430556868</v>
       </c>
       <c r="E51">
-        <v>-0.06330506239584745</v>
+        <v>-0.08116735973492539</v>
       </c>
       <c r="F51">
-        <v>0.0283043062125495</v>
+        <v>0.1331026056527153</v>
       </c>
       <c r="G51">
-        <v>-8.134310584429956e-5</v>
+        <v>0.037189150534467905</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52">
-        <v>56.62844521783564</v>
+        <v>58.11400853642307</v>
       </c>
       <c r="B52">
-        <v>50.021708058441256</v>
+        <v>51.44158843893048</v>
       </c>
       <c r="C52">
-        <v>17.834862335272785</v>
+        <v>19.999999995547824</v>
       </c>
       <c r="D52">
-        <v>0.9911728804952988</v>
+        <v>0.9871966464744061</v>
       </c>
       <c r="E52">
-        <v>-0.13171062859494087</v>
+        <v>-0.08025945296676248</v>
       </c>
       <c r="F52">
-        <v>0.014278602975454125</v>
+        <v>0.13281083344702546</v>
       </c>
       <c r="G52">
-        <v>-0.0007492514161051562</v>
+        <v>0.03611806326246115</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53">
-        <v>56.66526827059594</v>
+        <v>58.16852715887813</v>
       </c>
       <c r="B53">
-        <v>49.99113084011787</v>
+        <v>51.47424858775835</v>
       </c>
       <c r="C53">
-        <v>17.846169348576975</v>
+        <v>19.999999995546727</v>
       </c>
       <c r="D53">
-        <v>0.9932839686134622</v>
+        <v>0.987346098552408</v>
       </c>
       <c r="E53">
-        <v>0.07387446010645093</v>
+        <v>-0.07935958551544425</v>
       </c>
       <c r="F53">
-        <v>0.08896436296075504</v>
+        <v>0.13252747645693302</v>
       </c>
       <c r="G53">
-        <v>1.0696022044674799e-6</v>
+        <v>0.03506762593975662</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54">
-        <v>56.71215689540765</v>
+        <v>58.22293178426301</v>
       </c>
       <c r="B54">
-        <v>49.97300674358575</v>
+        <v>51.506545009582105</v>
       </c>
       <c r="C54">
-        <v>17.75793140356229</v>
+        <v>19.999999995546354</v>
       </c>
       <c r="D54">
-        <v>0.9912446704835365</v>
+        <v>0.9874874403539173</v>
       </c>
       <c r="E54">
-        <v>0.047568845550640754</v>
+        <v>-0.07848248193694704</v>
       </c>
       <c r="F54">
-        <v>0.12306626872897782</v>
+        <v>0.13226055772006776</v>
       </c>
       <c r="G54">
-        <v>-0.0007055748425014553</v>
+        <v>0.03407536268988511</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55">
-        <v>56.751532070129116</v>
+        <v>58.27721903052433</v>
       </c>
       <c r="B55">
-        <v>49.93133423029384</v>
+        <v>51.538470444416866</v>
       </c>
       <c r="C55">
-        <v>17.55036493031862</v>
+        <v>19.999999995544556</v>
       </c>
       <c r="D55">
-        <v>0.9858095638515302</v>
+        <v>0.9876312947285382</v>
       </c>
       <c r="E55">
-        <v>0.12185666176594935</v>
+        <v>-0.07758774726322634</v>
       </c>
       <c r="F55">
-        <v>0.11513575691265304</v>
+        <v>0.13198555246528404</v>
       </c>
       <c r="G55">
-        <v>0.002775128086354843</v>
+        <v>0.03302603080448313</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56">
-        <v>56.77983400933347</v>
+        <v>58.33226190592987</v>
       </c>
       <c r="B56">
-        <v>49.97235041941224</v>
+        <v>51.57120956993716</v>
       </c>
       <c r="C56">
-        <v>17.24068454454253</v>
+        <v>19.999999995551136</v>
       </c>
       <c r="D56">
-        <v>0.9865927347402739</v>
+        <v>0.9870394182221207</v>
       </c>
       <c r="E56">
-        <v>-0.13335258476478745</v>
+        <v>-0.07953426604575914</v>
       </c>
       <c r="F56">
-        <v>0.09199778165025486</v>
+        <v>0.133777798570622</v>
       </c>
       <c r="G56">
-        <v>-0.018106640659310724</v>
+        <v>0.038355907776115056</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57">
-        <v>56.81010076541352</v>
+        <v>58.38717327284363</v>
       </c>
       <c r="B57">
-        <v>50.02182400445612</v>
+        <v>51.6035763711974</v>
       </c>
       <c r="C57">
-        <v>17.160576654836557</v>
+        <v>19.9999999955505</v>
       </c>
       <c r="D57">
-        <v>0.9884650964674353</v>
+        <v>0.9871951839270371</v>
       </c>
       <c r="E57">
-        <v>-0.12875244930883056</v>
+        <v>-0.07863721913061307</v>
       </c>
       <c r="F57">
-        <v>0.07875762353969064</v>
+        <v>0.13346965033814248</v>
       </c>
       <c r="G57">
-        <v>-0.010605505328939257</v>
+        <v>0.037275913670895014</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58">
-        <v>56.839676671707196</v>
+        <v>58.441957058331454</v>
       </c>
       <c r="B58">
-        <v>49.976213895747364</v>
+        <v>51.635574491808455</v>
       </c>
       <c r="C58">
-        <v>17.28458187516295</v>
+        <v>19.999999995549835</v>
       </c>
       <c r="D58">
-        <v>0.9927240999651469</v>
+        <v>0.9873460639048528</v>
       </c>
       <c r="E58">
-        <v>0.10096827963343734</v>
+        <v>-0.07774862063288361</v>
       </c>
       <c r="F58">
-        <v>0.06547295022120438</v>
+        <v>0.13317060165634997</v>
       </c>
       <c r="G58">
-        <v>-4.339764246716009e-16</v>
+        <v>0.036218800422168254</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59">
-        <v>56.88210349765647</v>
+        <v>58.49661712899171</v>
       </c>
       <c r="B59">
-        <v>50.00655800103795</v>
+        <v>51.667207207530474</v>
       </c>
       <c r="C59">
-        <v>17.33761671407606</v>
+        <v>19.999999995549064</v>
       </c>
       <c r="D59">
-        <v>0.9925373397647212</v>
+        <v>0.9874922267848523</v>
       </c>
       <c r="E59">
-        <v>-0.07089345792400255</v>
+        <v>-0.076867593403879</v>
       </c>
       <c r="F59">
-        <v>0.09912252714261001</v>
+        <v>0.13288052405854506</v>
       </c>
       <c r="G59">
-        <v>1.0837886000566977e-16</v>
+        <v>0.035185285166430554</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60">
-        <v>56.88908005330316</v>
+        <v>58.55115687581434</v>
       </c>
       <c r="B60">
-        <v>50.061503366813355</v>
+        <v>51.69847932087686</v>
       </c>
       <c r="C60">
-        <v>17.392427280413344</v>
+        <v>19.999999995548468</v>
       </c>
       <c r="D60">
-        <v>0.9916093161293139</v>
+        <v>0.9876338525353705</v>
       </c>
       <c r="E60">
-        <v>-0.12813239241177699</v>
+        <v>-0.07599787566623978</v>
       </c>
       <c r="F60">
-        <v>0.01626758126156441</v>
+        <v>0.13259828715143993</v>
       </c>
       <c r="G60">
-        <v>-0.0022523669574526103</v>
+        <v>0.03416932520507615</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61">
-        <v>56.90772339975408</v>
+        <v>58.60557995295085</v>
       </c>
       <c r="B61">
-        <v>50.11480262186651</v>
+        <v>51.72939430874227</v>
       </c>
       <c r="C61">
-        <v>17.457336043697378</v>
+        <v>19.999999995547785</v>
       </c>
       <c r="D61">
-        <v>0.9914177103762719</v>
+        <v>0.9877710048645234</v>
       </c>
       <c r="E61">
-        <v>-0.12330982486568809</v>
+        <v>-0.07513624985869322</v>
       </c>
       <c r="F61">
-        <v>0.043131320346400936</v>
+        <v>0.132324536056844</v>
       </c>
       <c r="G61">
-        <v>-0.0009415915509386009</v>
+        <v>0.033176520739901794</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62">
-        <v>56.89074122397518</v>
+        <v>58.65989008800235</v>
       </c>
       <c r="B62">
-        <v>50.06275104205081</v>
+        <v>51.7599559592445</v>
       </c>
       <c r="C62">
-        <v>17.36127382497243</v>
+        <v>19.999999995547103</v>
       </c>
       <c r="D62">
-        <v>0.989363616630499</v>
+        <v>0.9879036416473927</v>
       </c>
       <c r="E62">
-        <v>0.13743244695132337</v>
+        <v>-0.07428347884431315</v>
       </c>
       <c r="F62">
-        <v>-0.044825708347204174</v>
+        <v>0.13205945210690062</v>
       </c>
       <c r="G62">
-        <v>-0.014986716615823983</v>
+        <v>0.03220874502501595</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63">
-        <v>56.871349902398016</v>
+        <v>58.71409037737435</v>
       </c>
       <c r="B63">
-        <v>50.119860460638996</v>
+        <v>51.79016818538274</v>
       </c>
       <c r="C63">
-        <v>17.461864695317278</v>
+        <v>19.99999999554644</v>
       </c>
       <c r="D63">
-        <v>0.9907104956934727</v>
+        <v>0.9880322675440197</v>
       </c>
       <c r="E63">
-        <v>-0.12852665998424875</v>
+        <v>-0.07343990484953873</v>
       </c>
       <c r="F63">
-        <v>-0.043635575576296895</v>
+        <v>0.13180154659207788</v>
       </c>
       <c r="G63">
-        <v>0.006392969430471407</v>
+        <v>0.031258962774044594</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64">
-        <v>56.887137710888695</v>
+        <v>58.768099636473906</v>
       </c>
       <c r="B64">
-        <v>50.17298610264594</v>
+        <v>51.820007335769766</v>
       </c>
       <c r="C64">
-        <v>17.5114763132271</v>
+        <v>19.999999995555616</v>
       </c>
       <c r="D64">
-        <v>0.9915313210428853</v>
+        <v>0.9881881842332917</v>
       </c>
       <c r="E64">
-        <v>-0.12438896696240627</v>
+        <v>-0.0725396282452301</v>
       </c>
       <c r="F64">
-        <v>0.03696440445689684</v>
+        <v>0.1313479240836184</v>
       </c>
       <c r="G64">
-        <v>-0.0016970621256737792</v>
+        <v>0.03035114927771518</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65">
-        <v>56.91105683863476</v>
+        <v>58.822088901600694</v>
       </c>
       <c r="B65">
-        <v>50.2202776279625</v>
+        <v>51.8495324578607</v>
       </c>
       <c r="C65">
-        <v>17.559354063805216</v>
+        <v>19.99999999554518</v>
       </c>
       <c r="D65">
-        <v>0.9922347826978697</v>
+        <v>0.9882781503625749</v>
       </c>
       <c r="E65">
-        <v>-0.11091839708190439</v>
+        <v>-0.07178042804002563</v>
       </c>
       <c r="F65">
-        <v>0.05610035393415607</v>
+        <v>0.13130582700967142</v>
       </c>
       <c r="G65">
-        <v>-2.1485635536090296e-8</v>
+        <v>0.02940859243566661</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66">
-        <v>56.93497367479768</v>
+        <v>58.87597766720265</v>
       </c>
       <c r="B66">
-        <v>50.27000122101657</v>
+        <v>51.878719436663275</v>
       </c>
       <c r="C66">
-        <v>17.53186790041783</v>
+        <v>19.99999999554453</v>
       </c>
       <c r="D66">
-        <v>0.9904942116267301</v>
+        <v>0.9883950772379717</v>
       </c>
       <c r="E66">
-        <v>-0.12384701801240923</v>
+        <v>-0.07096338739094123</v>
       </c>
       <c r="F66">
-        <v>0.05956797841753734</v>
+        <v>0.13106964395700163</v>
       </c>
       <c r="G66">
-        <v>-0.002201955785989842</v>
+        <v>0.02852000307612913</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67">
-        <v>56.93618184848708</v>
+        <v>58.929768614976936</v>
       </c>
       <c r="B67">
-        <v>50.21484776344714</v>
+        <v>51.90757204406622</v>
       </c>
       <c r="C67">
-        <v>17.586077655352096</v>
+        <v>19.99999999554391</v>
       </c>
       <c r="D67">
-        <v>0.9916728814551911</v>
+        <v>0.9885085154732461</v>
       </c>
       <c r="E67">
-        <v>0.12868319267948558</v>
+        <v>-0.07015525575128331</v>
       </c>
       <c r="F67">
-        <v>0.002817711439899201</v>
+        <v>0.13083968717408884</v>
       </c>
       <c r="G67">
-        <v>-0.0004054128266929598</v>
+        <v>0.027648058786680037</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68">
-        <v>56.93969707045963</v>
+        <v>58.98346454902421</v>
       </c>
       <c r="B68">
-        <v>50.26346963465319</v>
+        <v>51.93609387776404</v>
       </c>
       <c r="C68">
-        <v>17.459968378777866</v>
+        <v>19.99999999554328</v>
       </c>
       <c r="D68">
-        <v>0.9911909568273249</v>
+        <v>0.988618451569567</v>
       </c>
       <c r="E68">
-        <v>-0.1320043989000806</v>
+        <v>-0.0693556130490296</v>
       </c>
       <c r="F68">
-        <v>0.009543313002497692</v>
+        <v>0.13061625598849733</v>
       </c>
       <c r="G68">
-        <v>-0.00021210157861615235</v>
+        <v>0.02679553542085727</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69">
-        <v>56.96717586723346</v>
+        <v>59.0370125403591</v>
       </c>
       <c r="B69">
-        <v>50.212047914169105</v>
+        <v>51.96427048609009</v>
       </c>
       <c r="C69">
-        <v>17.484673391424586</v>
+        <v>19.99999999555039</v>
       </c>
       <c r="D69">
-        <v>0.990256202211123</v>
+        <v>0.9887449079848679</v>
       </c>
       <c r="E69">
-        <v>0.12271813733622317</v>
+        <v>-0.06852121979069065</v>
       </c>
       <c r="F69">
-        <v>0.06557732948481562</v>
+        <v>0.13026507464716</v>
       </c>
       <c r="G69">
-        <v>0.0010404097135548122</v>
+        <v>0.025993895133422176</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70">
-        <v>56.974270871122364</v>
+        <v>59.090477095702646</v>
       </c>
       <c r="B70">
-        <v>50.15709958486414</v>
+        <v>51.992125712340865</v>
       </c>
       <c r="C70">
-        <v>17.545065109152624</v>
+        <v>19.999999995549384</v>
       </c>
       <c r="D70">
-        <v>0.9916767610634979</v>
+        <v>0.9888454962059761</v>
       </c>
       <c r="E70">
-        <v>0.1275877779210709</v>
+        <v>-0.06774381690875939</v>
       </c>
       <c r="F70">
-        <v>0.016472739516441758</v>
+        <v>0.13006906157441525</v>
       </c>
       <c r="G70">
-        <v>0.0020583714465859165</v>
+        <v>0.02519096202975668</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71">
-        <v>56.96526132755865</v>
+        <v>59.14385985394475</v>
       </c>
       <c r="B71">
-        <v>50.21171696427145</v>
+        <v>52.0196628631646</v>
       </c>
       <c r="C71">
-        <v>17.589663000650013</v>
+        <v>19.99999999554836</v>
       </c>
       <c r="D71">
-        <v>0.9914817640494605</v>
+        <v>0.9889435730769849</v>
       </c>
       <c r="E71">
-        <v>-0.12838294658086621</v>
+        <v>-0.06697426861819088</v>
       </c>
       <c r="F71">
-        <v>-0.021175375846520336</v>
+        <v>0.1298768270476733</v>
       </c>
       <c r="G71">
-        <v>0.0030439507113055623</v>
+        <v>0.02439433540838052</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72">
-        <v>56.964912950018366</v>
+        <v>59.19716314412949</v>
       </c>
       <c r="B72">
-        <v>50.156998678955944</v>
+        <v>52.04688539232566</v>
       </c>
       <c r="C72">
-        <v>17.63629999600752</v>
+        <v>19.99999999554734</v>
       </c>
       <c r="D72">
-        <v>0.9917096466347176</v>
+        <v>0.989038671415252</v>
       </c>
       <c r="E72">
-        <v>0.12842810370630314</v>
+        <v>-0.06621290949939632</v>
       </c>
       <c r="F72">
-        <v>-0.0008196904888446365</v>
+        <v>0.129690016130205</v>
       </c>
       <c r="G72">
-        <v>0.00041132355212162804</v>
+        <v>0.02361505573567103</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73">
-        <v>56.98869661416801</v>
+        <v>59.25046178414233</v>
       </c>
       <c r="B73">
-        <v>50.10825273269034</v>
+        <v>52.07403909227283</v>
       </c>
       <c r="C73">
-        <v>17.545487027550966</v>
+        <v>19.99999999554716</v>
       </c>
       <c r="D73">
-        <v>0.9897359173526988</v>
+        <v>0.9890534445521555</v>
       </c>
       <c r="E73">
-        <v>0.1281356982630208</v>
+        <v>-0.06604604528259385</v>
       </c>
       <c r="F73">
-        <v>0.06251185858124263</v>
+        <v>0.1296796926617877</v>
       </c>
       <c r="G73">
-        <v>0.007829228253119708</v>
+        <v>0.023522640741992725</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74">
-        <v>56.97955271402284</v>
+        <v>59.30368351610443</v>
       </c>
       <c r="B74">
-        <v>50.0527308416184</v>
+        <v>52.100882320338926</v>
       </c>
       <c r="C74">
-        <v>17.608871250107963</v>
+        <v>19.999999995546144</v>
       </c>
       <c r="D74">
-        <v>0.9914582826472735</v>
+        <v>0.9891451964569856</v>
       </c>
       <c r="E74">
-        <v>0.1286021145890045</v>
+        <v>-0.06529454483831458</v>
       </c>
       <c r="F74">
-        <v>-0.021178413842393058</v>
+        <v>0.1294988419414111</v>
       </c>
       <c r="G74">
-        <v>-0.0017076953166116511</v>
+        <v>0.02276279608936387</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75">
-        <v>56.996303874272726</v>
+        <v>59.35710425905655</v>
       </c>
       <c r="B75">
-        <v>50.045930552588864</v>
+        <v>52.12793470208579</v>
       </c>
       <c r="C75">
-        <v>17.772252932246076</v>
+        <v>19.999999995537475</v>
       </c>
       <c r="D75">
-        <v>0.9992400909565337</v>
+        <v>0.9890260132552867</v>
       </c>
       <c r="E75">
-        <v>0.014736342370418381</v>
+        <v>-0.06579837068329608</v>
       </c>
       <c r="F75">
-        <v>0.0360954614608403</v>
+        <v>0.12997482323565357</v>
       </c>
       <c r="G75">
-        <v>0.0015012444446705466</v>
+        <v>0.023735448733907948</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76">
-        <v>57.01110758562878</v>
+        <v>59.410442376644</v>
       </c>
       <c r="B76">
-        <v>49.99457210236491</v>
+        <v>52.15467587141297</v>
       </c>
       <c r="C76">
-        <v>17.791729785638577</v>
+        <v>19.99999999553685</v>
       </c>
       <c r="D76">
-        <v>0.991738402154361</v>
+        <v>0.9891197656568751</v>
       </c>
       <c r="E76">
-        <v>0.12317276248991693</v>
+        <v>-0.06504513896451768</v>
       </c>
       <c r="F76">
-        <v>0.0355032467715513</v>
+        <v>0.12978021806891143</v>
       </c>
       <c r="G76">
-        <v>0.0005523678755172103</v>
+        <v>0.02297383275238211</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77">
-        <v>56.95096130048371</v>
+        <v>59.46362308894032</v>
       </c>
       <c r="B77">
-        <v>50.029716136238434</v>
+        <v>52.181086580917906</v>
       </c>
       <c r="C77">
-        <v>17.948699602577275</v>
+        <v>19.999999995545693</v>
       </c>
       <c r="D77">
-        <v>0.9885531826255112</v>
+        <v>0.9892383305589881</v>
       </c>
       <c r="E77">
-        <v>-0.07577625370105924</v>
+        <v>-0.06424576355558015</v>
       </c>
       <c r="F77">
-        <v>-0.12970497700582082</v>
+        <v>0.1294052217199603</v>
       </c>
       <c r="G77">
-        <v>-0.012386358518976662</v>
+        <v>0.02224232291187131</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78">
-        <v>56.94445211548021</v>
+        <v>59.516730903551924</v>
       </c>
       <c r="B78">
-        <v>49.977119440868506</v>
+        <v>52.20719491081222</v>
       </c>
       <c r="C78">
-        <v>17.952803762263763</v>
+        <v>19.999999995544684</v>
       </c>
       <c r="D78">
-        <v>0.9916715146315916</v>
+        <v>0.9893245007604567</v>
       </c>
       <c r="E78">
-        <v>0.12771424821304792</v>
+        <v>-0.06351355992939409</v>
       </c>
       <c r="F78">
-        <v>-0.015803965626828908</v>
+        <v>0.1292336951976814</v>
       </c>
       <c r="G78">
-        <v>-0.001977841766542443</v>
+        <v>0.021513584789965443</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79">
-        <v>56.94445879190198</v>
+        <v>59.56976781482079</v>
       </c>
       <c r="B79">
-        <v>49.93538163290216</v>
+        <v>52.23300416741186</v>
       </c>
       <c r="C79">
-        <v>17.653584486016467</v>
+        <v>19.999999995543675</v>
       </c>
       <c r="D79">
-        <v>0.990909691076435</v>
+        <v>0.9894081006725187</v>
       </c>
       <c r="E79">
-        <v>0.13444723290235558</v>
+        <v>-0.06278922563332573</v>
       </c>
       <c r="F79">
-        <v>-1.0953874294953131e-5</v>
+        <v>0.12906681703689202</v>
       </c>
       <c r="G79">
-        <v>-0.0001988374515968878</v>
+        <v>0.020800759002681326</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80">
-        <v>56.96595874513614</v>
+        <v>59.622735577034575</v>
       </c>
       <c r="B80">
-        <v>49.983830151844025</v>
+        <v>52.25851755497764</v>
       </c>
       <c r="C80">
-        <v>17.552084248956334</v>
+        <v>19.999999995544062</v>
       </c>
       <c r="D80">
-        <v>0.9900097105370053</v>
+        <v>0.9894893382855433</v>
       </c>
       <c r="E80">
-        <v>-0.12858139194427123</v>
+        <v>-0.0620725270821384</v>
       </c>
       <c r="F80">
-        <v>0.05705379891718783</v>
+        <v>0.12890402031824735</v>
       </c>
       <c r="G80">
-        <v>-0.007698951583880242</v>
+        <v>0.020100717003111154</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81">
-        <v>56.96622802664942</v>
+        <v>59.67563620983687</v>
       </c>
       <c r="B81">
-        <v>50.03824348204736</v>
+        <v>52.283738384291354</v>
       </c>
       <c r="C81">
-        <v>17.59682360961761</v>
+        <v>19.999999995543064</v>
       </c>
       <c r="D81">
-        <v>0.991774571161135</v>
+        <v>0.9895680581957708</v>
       </c>
       <c r="E81">
-        <v>-0.12790763636076666</v>
+        <v>-0.06136371764659037</v>
       </c>
       <c r="F81">
-        <v>0.0006329278978730573</v>
+        <v>0.1287459409954584</v>
       </c>
       <c r="G81">
-        <v>-8.400503453672574e-5</v>
+        <v>0.019418697273208798</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82">
-        <v>57.00012976707716</v>
+        <v>59.72847149763158</v>
       </c>
       <c r="B82">
-        <v>50.08398726050392</v>
+        <v>52.308669864010604</v>
       </c>
       <c r="C82">
-        <v>17.4831062715749</v>
+        <v>19.999999995542073</v>
       </c>
       <c r="D82">
-        <v>0.9882573466140382</v>
+        <v>0.9896444635674766</v>
       </c>
       <c r="E82">
-        <v>-0.12262809011387112</v>
+        <v>-0.06066256294267871</v>
       </c>
       <c r="F82">
-        <v>0.09088018331995662</v>
+        <v>0.1285920232934144</v>
       </c>
       <c r="G82">
-        <v>-0.0022233450658649075</v>
+        <v>0.01875162226613697</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83">
-        <v>57.017362086835284</v>
+        <v>59.781243160275814</v>
       </c>
       <c r="B83">
-        <v>50.03083567028501</v>
+        <v>52.333315170517366</v>
       </c>
       <c r="C83">
-        <v>17.535332744142814</v>
+        <v>19.999999995541085</v>
       </c>
       <c r="D83">
-        <v>0.99142772474721</v>
+        <v>0.989718633295889</v>
       </c>
       <c r="E83">
-        <v>0.1241887679835523</v>
+        <v>-0.059968991397294245</v>
       </c>
       <c r="F83">
-        <v>0.04026199266379953</v>
+        <v>0.12844211745273765</v>
       </c>
       <c r="G83">
-        <v>0.0016816581292579194</v>
+        <v>0.01809918704228569</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84">
-        <v>57.017419698144714</v>
+        <v>59.833952855554394</v>
       </c>
       <c r="B84">
-        <v>49.97666810184836</v>
+        <v>52.3576774480532</v>
       </c>
       <c r="C84">
-        <v>17.574673082277567</v>
+        <v>19.999999995540097</v>
       </c>
       <c r="D84">
-        <v>0.9917808228968437</v>
+        <v>0.9897906433571675</v>
       </c>
       <c r="E84">
-        <v>0.1278734556299569</v>
+        <v>-0.05928293144044041</v>
       </c>
       <c r="F84">
-        <v>0.00013538493549627314</v>
+        <v>0.1282960794042804</v>
       </c>
       <c r="G84">
-        <v>-0.00010133381175080645</v>
+        <v>0.017461094140955907</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85">
-        <v>57.019666340746305</v>
+        <v>59.88657086268273</v>
       </c>
       <c r="B85">
-        <v>49.92349300985429</v>
+        <v>52.38177092536556</v>
       </c>
       <c r="C85">
-        <v>17.58554630535646</v>
+        <v>19.999999995544545</v>
       </c>
       <c r="D85">
-        <v>0.9916970436202569</v>
+        <v>0.989868739822254</v>
       </c>
       <c r="E85">
-        <v>0.12841441994480646</v>
+        <v>-0.05863161137364349</v>
       </c>
       <c r="F85">
-        <v>0.0054226861763397635</v>
+        <v>0.12807806850003792</v>
       </c>
       <c r="G85">
-        <v>-8.863347977554835e-5</v>
+        <v>0.01683918077451019</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86">
-        <v>57.01243663539182</v>
+        <v>59.93914625387836</v>
       </c>
       <c r="B86">
-        <v>49.869265913964696</v>
+        <v>52.40559080507912</v>
       </c>
       <c r="C86">
-        <v>17.61956965847653</v>
+        <v>19.999999995540083</v>
       </c>
       <c r="D86">
-        <v>0.9915466002567735</v>
+        <v>0.9899306325273705</v>
       </c>
       <c r="E86">
-        <v>0.12853783472590982</v>
+        <v>-0.05796803505866225</v>
       </c>
       <c r="F86">
-        <v>-0.01713673025528966</v>
+        <v>0.12797842100100823</v>
       </c>
       <c r="G86">
-        <v>-0.000844706821720976</v>
+        <v>0.016259548052049735</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87">
-        <v>57.01358125694163</v>
+        <v>59.991674730758106</v>
       </c>
       <c r="B87">
-        <v>49.924462184047556</v>
+        <v>52.42912068099846</v>
       </c>
       <c r="C87">
-        <v>17.728030445462192</v>
+        <v>19.999999995538627</v>
       </c>
       <c r="D87">
-        <v>0.992320516181318</v>
+        <v>0.9899963880286214</v>
       </c>
       <c r="E87">
-        <v>-0.12358747471311005</v>
+        <v>-0.05726464729890425</v>
       </c>
       <c r="F87">
-        <v>0.002562825605548287</v>
+        <v>0.1278685552769022</v>
       </c>
       <c r="G87">
-        <v>-6.052751221223207e-5</v>
+        <v>0.015615109450887437</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88">
-        <v>57.042456384708444</v>
+        <v>60.044135227451534</v>
       </c>
       <c r="B88">
-        <v>49.95468165991619</v>
+        <v>52.45238547214426</v>
       </c>
       <c r="C88">
-        <v>17.78767679900398</v>
+        <v>19.99999999553896</v>
       </c>
       <c r="D88">
-        <v>0.9952536965354024</v>
+        <v>0.9900630357141468</v>
       </c>
       <c r="E88">
-        <v>-0.0703349884424768</v>
+        <v>-0.056621808041943326</v>
       </c>
       <c r="F88">
-        <v>0.06720601616321267</v>
+        <v>0.12770743327787132</v>
       </c>
       <c r="G88">
-        <v>5.359949579550822e-7</v>
+        <v>0.015057793227830388</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89">
-        <v>57.042580629505395</v>
+        <v>60.09652682357976</v>
       </c>
       <c r="B89">
-        <v>49.90303167816629</v>
+        <v>52.47538745645724</v>
       </c>
       <c r="C89">
-        <v>17.769223924922077</v>
+        <v>19.999999995539383</v>
       </c>
       <c r="D89">
-        <v>0.9917952011528826</v>
+        <v>0.9901287626297341</v>
       </c>
       <c r="E89">
-        <v>0.12776539128835177</v>
+        <v>-0.05598442870020885</v>
       </c>
       <c r="F89">
-        <v>0.00030627858700584237</v>
+        <v>0.12754399024342775</v>
       </c>
       <c r="G89">
-        <v>-0.0005565703112417722</v>
+        <v>0.014510270407950098</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90">
-        <v>57.07486361622485</v>
+        <v>60.14885060249977</v>
       </c>
       <c r="B90">
-        <v>49.876240584002446</v>
+        <v>52.49812920677449</v>
       </c>
       <c r="C90">
-        <v>17.78764786778728</v>
+        <v>19.9999999955398</v>
       </c>
       <c r="D90">
-        <v>0.9948966061527136</v>
+        <v>0.990192890255324</v>
       </c>
       <c r="E90">
-        <v>0.06440909034631737</v>
+        <v>-0.055353207327651324</v>
       </c>
       <c r="F90">
-        <v>0.07761227020040898</v>
+        <v>0.12738306074547523</v>
       </c>
       <c r="G90">
-        <v>8.523505167721619e-7</v>
+        <v>0.013975459070890867</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91">
-        <v>57.102584582152616</v>
+        <v>60.20110759517623</v>
       </c>
       <c r="B91">
-        <v>49.83552862611956</v>
+        <v>52.52061327676433</v>
       </c>
       <c r="C91">
-        <v>17.76118340796611</v>
+        <v>19.999999995540218</v>
       </c>
       <c r="D91">
-        <v>0.9924354141979608</v>
+        <v>0.9902554750195567</v>
       </c>
       <c r="E91">
-        <v>0.10141338114401799</v>
+        <v>-0.054728101775141196</v>
       </c>
       <c r="F91">
-        <v>0.06905285398947779</v>
+        <v>0.1272245222382985</v>
       </c>
       <c r="G91">
-        <v>-2.70460718102389e-16</v>
+        <v>0.013453058936594387</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92">
-        <v>57.102962431150665</v>
+        <v>60.253298770906106</v>
       </c>
       <c r="B92">
-        <v>49.88746762317966</v>
+        <v>52.5428421956027</v>
       </c>
       <c r="C92">
-        <v>17.728088185177633</v>
+        <v>19.99999999554063</v>
       </c>
       <c r="D92">
-        <v>0.9914985107930472</v>
+        <v>0.9903165784229216</v>
       </c>
       <c r="E92">
-        <v>-0.13003757992530324</v>
+        <v>-0.05410905713559362</v>
       </c>
       <c r="F92">
-        <v>0.00094743064007907</v>
+        <v>0.12706822986301217</v>
       </c>
       <c r="G92">
-        <v>0.0004074019026243336</v>
+        <v>0.012942544271931386</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93">
-        <v>57.12624974303396</v>
+        <v>60.30543175871814</v>
       </c>
       <c r="B93">
-        <v>49.9344559128171</v>
+        <v>52.56481898906577</v>
       </c>
       <c r="C93">
-        <v>17.59950753070573</v>
+        <v>19.999999995534033</v>
       </c>
       <c r="D93">
-        <v>0.989736597883956</v>
+        <v>0.9903730879316386</v>
       </c>
       <c r="E93">
-        <v>-0.1277653109890658</v>
+        <v>-0.053497127154086506</v>
       </c>
       <c r="F93">
-        <v>0.06331376325419746</v>
+        <v>0.1269301888964</v>
       </c>
       <c r="G93">
-        <v>-0.007338589843771448</v>
+        <v>0.012525093246125166</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94">
-        <v>57.16508175132609</v>
+        <v>60.35750119355089</v>
       </c>
       <c r="B94">
-        <v>49.9082212530229</v>
+        <v>52.58654559730283</v>
       </c>
       <c r="C94">
-        <v>17.583693390084395</v>
+        <v>19.999999995533262</v>
       </c>
       <c r="D94">
-        <v>0.9932699372682534</v>
+        <v>0.9904312388972776</v>
       </c>
       <c r="E94">
-        <v>0.06480256134196909</v>
+        <v>-0.05288998591439295</v>
       </c>
       <c r="F94">
-        <v>0.0959194120594744</v>
+        <v>0.12677918675418842</v>
       </c>
       <c r="G94">
-        <v>1.1847367126144892e-6</v>
+        <v>0.012041283830892409</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95">
-        <v>57.18017779804434</v>
+        <v>60.409507881345775</v>
       </c>
       <c r="B95">
-        <v>49.960686171352506</v>
+        <v>52.608024534364056</v>
       </c>
       <c r="C95">
-        <v>17.628975211339007</v>
+        <v>19.999999995532495</v>
       </c>
       <c r="D95">
-        <v>0.991727172444049</v>
+        <v>0.9904880624757271</v>
       </c>
       <c r="E95">
-        <v>-0.12327215529917464</v>
+        <v>-0.052288880679795494</v>
       </c>
       <c r="F95">
-        <v>0.035469323827405315</v>
+        <v>0.12663004642002126</v>
       </c>
       <c r="G95">
-        <v>-0.0006557209479022101</v>
+        <v>0.011568567638543529</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96">
-        <v>57.22424448614059</v>
+        <v>60.46145259330247</v>
       </c>
       <c r="B96">
-        <v>49.981811195658565</v>
+        <v>52.629258299813536</v>
       </c>
       <c r="C96">
-        <v>17.469252787995135</v>
+        <v>19.99999999553173</v>
       </c>
       <c r="D96">
-        <v>0.9905808484160621</v>
+        <v>0.9905436006376839</v>
       </c>
       <c r="E96">
-        <v>-0.05914128599708031</v>
+        <v>-0.051693779538634035</v>
       </c>
       <c r="F96">
-        <v>0.12337101561839758</v>
+        <v>0.12648268696145334</v>
       </c>
       <c r="G96">
-        <v>0.0014460451246835582</v>
+        <v>0.011106787117376725</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97">
-        <v>57.22434348934384</v>
+        <v>60.513336060216176</v>
       </c>
       <c r="B97">
-        <v>49.92885520914291</v>
+        <v>52.65024937068058</v>
       </c>
       <c r="C97">
-        <v>17.460182452647075</v>
+        <v>19.99999999553097</v>
       </c>
       <c r="D97">
-        <v>0.9915078928844511</v>
+        <v>0.9905978987521075</v>
       </c>
       <c r="E97">
-        <v>0.12996765034447713</v>
+        <v>-0.05110463109529678</v>
       </c>
       <c r="F97">
-        <v>0.00024207776960605992</v>
+        <v>0.12633701382962698</v>
       </c>
       <c r="G97">
-        <v>-0.00014074309084437882</v>
+        <v>0.010655638926337195</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98">
-        <v>57.24017261933081</v>
+        <v>60.5651589772464</v>
       </c>
       <c r="B98">
-        <v>49.97739447428599</v>
+        <v>52.67100020446433</v>
       </c>
       <c r="C98">
-        <v>17.336675403378845</v>
+        <v>19.999999995530207</v>
       </c>
       <c r="D98">
-        <v>0.9903484663361967</v>
+        <v>0.9906509984291318</v>
       </c>
       <c r="E98">
-        <v>-0.13141467924102054</v>
+        <v>-0.0505213910049231</v>
       </c>
       <c r="F98">
-        <v>0.04284857624353738</v>
+        <v>0.1261929437802414</v>
       </c>
       <c r="G98">
-        <v>-0.008548513446639565</v>
+        <v>0.010214890194987815</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99">
-        <v>57.24017670943324</v>
+        <v>60.616922005558166</v>
       </c>
       <c r="B99">
-        <v>50.03251669523026</v>
+        <v>52.691513239092764</v>
       </c>
       <c r="C99">
-        <v>17.396979351434197</v>
+        <v>19.999999995529446</v>
       </c>
       <c r="D99">
-        <v>0.9917620993529522</v>
+        <v>0.9907029396834246</v>
       </c>
       <c r="E99">
-        <v>-0.12800563044587157</v>
+        <v>-0.04994401467713864</v>
       </c>
       <c r="F99">
-        <v>9.497120654685386e-6</v>
+        <v>0.12605039740824794</v>
       </c>
       <c r="G99">
-        <v>-1.2926934265794715e-6</v>
+        <v>0.00978431610944677</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100">
-        <v>57.22726647430736</v>
+        <v>60.668625773875114</v>
       </c>
       <c r="B100">
-        <v>50.08897623751599</v>
+        <v>52.711790892899614</v>
       </c>
       <c r="C100">
-        <v>17.492747422994185</v>
+        <v>19.99999999552869</v>
       </c>
       <c r="D100">
-        <v>0.9913814128381235</v>
+        <v>0.9907537610115744</v>
       </c>
       <c r="E100">
-        <v>-0.12757006008346444</v>
+        <v>-0.04937245732744664</v>
       </c>
       <c r="F100">
-        <v>-0.02916775075644946</v>
+        <v>0.125909298941866</v>
       </c>
       <c r="G100">
-        <v>0.003656626232183671</v>
+        <v>0.00936369939538341</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101">
-        <v>57.22695557517333</v>
+        <v>60.72027088003365</v>
       </c>
       <c r="B101">
-        <v>50.14197120483294</v>
+        <v>52.731835564065925</v>
       </c>
       <c r="C101">
-        <v>17.491884416264014</v>
+        <v>19.999999995528352</v>
       </c>
       <c r="D101">
-        <v>0.99160944594314</v>
+        <v>0.9908034994819979</v>
       </c>
       <c r="E101">
-        <v>-0.1291993574698758</v>
+        <v>-0.048806672678133156</v>
       </c>
       <c r="F101">
-        <v>-0.0007561456078683509</v>
+        <v>0.12576957625198576</v>
       </c>
       <c r="G101">
-        <v>0.00015205897202019995</v>
+        <v>0.008952832377172459</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102">
-        <v>57.21373696648001</v>
+        <v>60.77185789212589</v>
       </c>
       <c r="B102">
-        <v>50.1976334299047</v>
+        <v>52.75164963229806</v>
       </c>
       <c r="C102">
-        <v>17.575439117445768</v>
+        <v>19.999999995527606</v>
       </c>
       <c r="D102">
-        <v>0.9914339197071561</v>
+        <v>0.9908521907305777</v>
       </c>
       <c r="E102">
-        <v>-0.12694461071028368</v>
+        <v>-0.04824661842071571</v>
       </c>
       <c r="F102">
-        <v>-0.030144098726682965</v>
+        <v>0.12563115986308668</v>
       </c>
       <c r="G102">
-        <v>0.0032924291573537337</v>
+        <v>0.008551506394742048</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103">
-        <v>57.24828018977616</v>
+        <v>60.823387350073546</v>
       </c>
       <c r="B103">
-        <v>50.152670422591356</v>
+        <v>52.77123545716101</v>
       </c>
       <c r="C103">
-        <v>17.443493693545264</v>
+        <v>19.999999995526867</v>
       </c>
       <c r="D103">
-        <v>0.9879647813886099</v>
+        <v>0.9908998691349229</v>
       </c>
       <c r="E103">
-        <v>0.12252487601189198</v>
+        <v>-0.04769224806304139</v>
       </c>
       <c r="F103">
-        <v>0.09412847407339286</v>
+        <v>0.12549398400257397</v>
       </c>
       <c r="G103">
-        <v>0.002272926217662587</v>
+        <v>0.008159526481316643</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104">
-        <v>57.250596156329685</v>
+        <v>60.87485976679876</v>
       </c>
       <c r="B104">
-        <v>50.09777306112328</v>
+        <v>52.79059537868777</v>
       </c>
       <c r="C104">
-        <v>17.50203008923681</v>
+        <v>19.99999999552613</v>
       </c>
       <c r="D104">
-        <v>0.9917917758754173</v>
+        <v>0.990946567796683</v>
       </c>
       <c r="E104">
-        <v>0.127660756396048</v>
+        <v>-0.04714351648735573</v>
       </c>
       <c r="F104">
-        <v>0.005385134846097402</v>
+        <v>0.12535798563015838</v>
       </c>
       <c r="G104">
-        <v>0.0006845145967418322</v>
+        <v>0.007776700947222583</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105">
-        <v>57.287903402834395</v>
+        <v>60.93234952343756</v>
       </c>
       <c r="B105">
-        <v>50.05954895053821</v>
+        <v>52.82894675833125</v>
       </c>
       <c r="C105">
-        <v>17.201939343460204</v>
+        <v>20.000000000119613</v>
       </c>
       <c r="D105">
-        <v>0.9850989250503289</v>
+        <v>0.9840689359271276</v>
       </c>
       <c r="E105">
-        <v>0.12289602520655914</v>
+        <v>-0.09299619634919794</v>
       </c>
       <c r="F105">
-        <v>0.11994344564239375</v>
+        <v>0.13948729915361113</v>
       </c>
       <c r="G105">
-        <v>0.004111666229357286</v>
+        <v>0.058378941185925626</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106">
-        <v>57.32763712010238</v>
+        <v>60.98965993754275</v>
       </c>
       <c r="B106">
-        <v>50.093100901578495</v>
+        <v>52.866782543287286</v>
       </c>
       <c r="C106">
-        <v>17.20544014293877</v>
+        <v>19.999999995570818</v>
       </c>
       <c r="D106">
-        <v>0.9919739312376574</v>
+        <v>0.9843031231842913</v>
       </c>
       <c r="E106">
-        <v>-0.08152243364089205</v>
+        <v>-0.09175820264576558</v>
       </c>
       <c r="F106">
-        <v>0.09654250286059317</v>
+        <v>0.13907026511562623</v>
       </c>
       <c r="G106">
-        <v>-5.4433990435255515e-17</v>
+        <v>0.05740158091354835</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107">
-        <v>57.35738776383389</v>
+        <v>61.04675764481942</v>
       </c>
       <c r="B107">
-        <v>50.12064108826313</v>
+        <v>52.90420050182751</v>
       </c>
       <c r="C107">
-        <v>17.32977662779005</v>
+        <v>19.99999999556962</v>
       </c>
       <c r="D107">
-        <v>0.9959517554450436</v>
+        <v>0.9845562806044454</v>
       </c>
       <c r="E107">
-        <v>-0.061050289996213036</v>
+        <v>-0.09075917100352257</v>
       </c>
       <c r="F107">
-        <v>0.0659503499178627</v>
+        <v>0.13857451605685167</v>
       </c>
       <c r="G107">
-        <v>2.006978316975493e-6</v>
+        <v>0.05585505243480117</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108">
-        <v>57.35776909039756</v>
+        <v>61.10365020521926</v>
       </c>
       <c r="B108">
-        <v>50.0653726159431</v>
+        <v>52.94120463949346</v>
       </c>
       <c r="C108">
-        <v>17.38901492638734</v>
+        <v>19.999999995568427</v>
       </c>
       <c r="D108">
-        <v>0.9917076678714921</v>
+        <v>0.984800372370327</v>
       </c>
       <c r="E108">
-        <v>0.12844795428132194</v>
+        <v>-0.08976902432828712</v>
       </c>
       <c r="F108">
-        <v>0.0008838726837152652</v>
+        <v>0.1380961727129829</v>
       </c>
       <c r="G108">
-        <v>-2.8114001487339856e-5</v>
+        <v>0.05434421099877094</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109">
-        <v>57.35734501285359</v>
+        <v>61.16034485251741</v>
       </c>
       <c r="B109">
-        <v>50.01049991435604</v>
+        <v>52.97779896561694</v>
       </c>
       <c r="C109">
-        <v>17.443193343061385</v>
+        <v>19.99999999556725</v>
       </c>
       <c r="D109">
-        <v>0.9917605052033135</v>
+        <v>0.985035780893482</v>
       </c>
       <c r="E109">
-        <v>0.1280351362403893</v>
+        <v>-0.08878781520761708</v>
       </c>
       <c r="F109">
-        <v>-0.0009917860296648306</v>
+        <v>0.13763449494076957</v>
       </c>
       <c r="G109">
-        <v>0.00040910295488369116</v>
+        <v>0.052868031193684946</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110">
-        <v>57.34964956283649</v>
+        <v>61.21679414844067</v>
       </c>
       <c r="B110">
-        <v>50.05808362846115</v>
+        <v>53.0140306082362</v>
       </c>
       <c r="C110">
-        <v>17.253028981644295</v>
+        <v>19.999999995552518</v>
       </c>
       <c r="D110">
-        <v>0.99028038962323</v>
+        <v>0.9852977805538556</v>
       </c>
       <c r="E110">
-        <v>-0.1371111023155248</v>
+        <v>-0.08792279453021333</v>
       </c>
       <c r="F110">
-        <v>-0.022168953989623368</v>
+        <v>0.1370600556800151</v>
       </c>
       <c r="G110">
-        <v>0.005199258437728751</v>
+        <v>0.05091916097303857</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111">
-        <v>57.33532539142166</v>
+        <v>61.270706240527005</v>
       </c>
       <c r="B111">
-        <v>50.115436607462755</v>
+        <v>53.05214641646331</v>
       </c>
       <c r="C111">
-        <v>17.36372406191863</v>
+        <v>19.99999999554875</v>
       </c>
       <c r="D111">
-        <v>0.9912178790411456</v>
+        <v>0.9868010822495669</v>
       </c>
       <c r="E111">
-        <v>-0.1281314978852478</v>
+        <v>-0.09261602478851673</v>
       </c>
       <c r="F111">
-        <v>-0.031997902416021295</v>
+        <v>0.13102770413339568</v>
       </c>
       <c r="G111">
-        <v>0.004468735421157336</v>
+        <v>0.020464020764428905</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112">
-        <v>57.32624294081029</v>
+        <v>61.32685708006623</v>
       </c>
       <c r="B112">
-        <v>50.17129303436669</v>
+        <v>53.08750001766205</v>
       </c>
       <c r="C112">
-        <v>17.444775019423</v>
+        <v>19.99999999556382</v>
       </c>
       <c r="D112">
-        <v>0.9915879323262798</v>
+        <v>0.9856953535647321</v>
       </c>
       <c r="E112">
-        <v>-0.12764114561660547</v>
+        <v>-0.08581237082044146</v>
       </c>
       <c r="F112">
-        <v>-0.020752870036523922</v>
+        <v>0.1363658227501074</v>
       </c>
       <c r="G112">
-        <v>0.0026380615928123957</v>
+        <v>0.048685541467981534</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113">
-        <v>57.34782835233845</v>
+        <v>61.38284316234009</v>
       </c>
       <c r="B113">
-        <v>50.22075848880909</v>
+        <v>53.122456166127506</v>
       </c>
       <c r="C113">
-        <v>17.405380931306517</v>
+        <v>19.99999999556268</v>
       </c>
       <c r="D113">
-        <v>0.9907201756219911</v>
+        <v>0.985895609171502</v>
       </c>
       <c r="E113">
-        <v>-0.12445432598223287</v>
+        <v>-0.08485810779700677</v>
       </c>
       <c r="F113">
-        <v>0.05430633257106898</v>
+        <v>0.13598118607188808</v>
       </c>
       <c r="G113">
-        <v>-0.002633188180274091</v>
+        <v>0.04738578012365483</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114">
-        <v>57.34160045945018</v>
+        <v>61.438669710224325</v>
       </c>
       <c r="B114">
-        <v>50.2764160612823</v>
+        <v>53.15701916755412</v>
       </c>
       <c r="C114">
-        <v>17.52868740894288</v>
+        <v>19.999999995561577</v>
       </c>
       <c r="D114">
-        <v>0.9922702669918451</v>
+        <v>0.9860892953631863</v>
       </c>
       <c r="E114">
-        <v>-0.12324639256862989</v>
+        <v>-0.08391372103192729</v>
       </c>
       <c r="F114">
-        <v>-0.013790689844017224</v>
+        <v>0.13560859597379069</v>
       </c>
       <c r="G114">
-        <v>0.00021707782662509464</v>
+        <v>0.04611142147723155</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115">
-        <v>57.31803256316374</v>
+        <v>61.49434302786435</v>
       </c>
       <c r="B115">
-        <v>50.32788995157724</v>
+        <v>53.191192380933586</v>
       </c>
       <c r="C115">
-        <v>17.439994808699783</v>
+        <v>19.999999995560376</v>
       </c>
       <c r="D115">
-        <v>0.988759069603739</v>
+        <v>0.9862757356175728</v>
       </c>
       <c r="E115">
-        <v>-0.13498671649865374</v>
+        <v>-0.08297687430745838</v>
       </c>
       <c r="F115">
-        <v>-0.06179057736393997</v>
+        <v>0.13525062616065475</v>
       </c>
       <c r="G115">
-        <v>0.016537259210653188</v>
+        <v>0.04487700236698661</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116">
-        <v>57.313066481354</v>
+        <v>61.54986648857402</v>
       </c>
       <c r="B116">
-        <v>50.271911652083126</v>
+        <v>53.224980736027874</v>
       </c>
       <c r="C116">
-        <v>17.49891654014828</v>
+        <v>19.999999995559303</v>
       </c>
       <c r="D116">
-        <v>0.9914221321596993</v>
+        <v>0.9864571884370664</v>
       </c>
       <c r="E116">
-        <v>0.13011049937097582</v>
+        <v>-0.08205155038674744</v>
       </c>
       <c r="F116">
-        <v>-0.011542512641197414</v>
+        <v>0.13490036850960332</v>
       </c>
       <c r="G116">
-        <v>-0.0008845043390475217</v>
+        <v>0.04365006696347486</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117">
-        <v>57.33369191981747</v>
+        <v>61.60524615928131</v>
       </c>
       <c r="B117">
-        <v>50.222612761292005</v>
+        <v>53.25838942991976</v>
       </c>
       <c r="C117">
-        <v>17.559420277835113</v>
+        <v>19.99999999555892</v>
       </c>
       <c r="D117">
-        <v>0.9922584774704207</v>
+        <v>0.9866314136733506</v>
       </c>
       <c r="E117">
-        <v>0.11449330805627304</v>
+        <v>-0.08113826637435431</v>
       </c>
       <c r="F117">
-        <v>0.04790117267123884</v>
+        <v>0.13456418307793688</v>
       </c>
       <c r="G117">
-        <v>-1.2424757871978704e-8</v>
+        <v>0.04246288861470063</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118">
-        <v>57.354398646359975</v>
+        <v>61.6604861170579</v>
       </c>
       <c r="B118">
-        <v>50.17144018878858</v>
+        <v>53.29141927928168</v>
       </c>
       <c r="C118">
-        <v>17.575879340357652</v>
+        <v>19.99999999555707</v>
       </c>
       <c r="D118">
-        <v>0.9911460869083891</v>
+        <v>0.9868009172326127</v>
       </c>
       <c r="E118">
-        <v>0.12298858930212969</v>
+        <v>-0.08022652958927622</v>
       </c>
       <c r="F118">
-        <v>0.049766077157536365</v>
+        <v>0.13423744017071362</v>
       </c>
       <c r="G118">
-        <v>0.0007753954948613974</v>
+        <v>0.041296067836695406</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119">
-        <v>57.317569878362235</v>
+        <v>61.71559141887014</v>
       </c>
       <c r="B119">
-        <v>50.22640350918364</v>
+        <v>53.324075738634775</v>
       </c>
       <c r="C119">
-        <v>17.588258944259877</v>
+        <v>19.99999999555595</v>
       </c>
       <c r="D119">
-        <v>0.9870606482566845</v>
+        <v>0.9869641242650318</v>
       </c>
       <c r="E119">
-        <v>-0.13226503544034088</v>
+        <v>-0.07932754061653209</v>
       </c>
       <c r="F119">
-        <v>-0.08860833109537072</v>
+        <v>0.13392241309749162</v>
       </c>
       <c r="G119">
-        <v>0.017593346075708262</v>
+        <v>0.04016060065130672</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120">
-        <v>57.322790140858665</v>
+        <v>61.770566212741436</v>
       </c>
       <c r="B120">
-        <v>50.27595552551395</v>
+        <v>53.35636279498651</v>
       </c>
       <c r="C120">
-        <v>17.507024554403944</v>
+        <v>19.99999999555484</v>
       </c>
       <c r="D120">
-        <v>0.9915075497200608</v>
+        <v>0.9871221052165278</v>
       </c>
       <c r="E120">
-        <v>-0.1292764323800619</v>
+        <v>-0.07843780468172121</v>
       </c>
       <c r="F120">
-        <v>0.01361144024321467</v>
+        <v>0.13361698516963424</v>
       </c>
       <c r="G120">
-        <v>-0.001416263181247413</v>
+        <v>0.03904785508956389</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121">
-        <v>57.334395513164864</v>
+        <v>61.82541409056342</v>
       </c>
       <c r="B121">
-        <v>50.22737211769785</v>
+        <v>53.38828444322945</v>
       </c>
       <c r="C121">
-        <v>17.37442542714517</v>
+        <v>19.99999999555373</v>
       </c>
       <c r="D121">
-        <v>0.9906321246209854</v>
+        <v>0.9872753609010093</v>
       </c>
       <c r="E121">
-        <v>0.13264706171528023</v>
+        <v>-0.07755738150790684</v>
       </c>
       <c r="F121">
-        <v>0.03168049968578166</v>
+        <v>0.1333198529387078</v>
       </c>
       <c r="G121">
-        <v>0.004769659825183281</v>
+        <v>0.037952312657135265</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122">
-        <v>57.348052207840084</v>
+        <v>61.8801401454878</v>
       </c>
       <c r="B122">
-        <v>50.27978927272125</v>
+        <v>53.41984415985588</v>
       </c>
       <c r="C122">
-        <v>17.413905990978186</v>
+        <v>19.999999995552585</v>
       </c>
       <c r="D122">
-        <v>0.9917807626455577</v>
+        <v>0.9874228390414507</v>
       </c>
       <c r="E122">
-        <v>-0.12372776626270149</v>
+        <v>-0.0766849511420028</v>
       </c>
       <c r="F122">
-        <v>0.03223514347484265</v>
+        <v>0.1330345814677664</v>
       </c>
       <c r="G122">
-        <v>-0.0009259055219150354</v>
+        <v>0.03689434095098992</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123">
-        <v>57.3391455693346</v>
+        <v>61.93474804828995</v>
       </c>
       <c r="B123">
-        <v>50.33387116901084</v>
+        <v>53.45104650249131</v>
       </c>
       <c r="C123">
-        <v>17.443277213535456</v>
+        <v>19.999999995551594</v>
       </c>
       <c r="D123">
-        <v>0.9914509034075905</v>
+        <v>0.9875655592613954</v>
       </c>
       <c r="E123">
-        <v>-0.12866723507440098</v>
+        <v>-0.0758232192495747</v>
       </c>
       <c r="F123">
-        <v>-0.02118837434775236</v>
+        <v>0.13275780891385866</v>
       </c>
       <c r="G123">
-        <v>0.001560555568412006</v>
+        <v>0.035857056626508094</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124">
-        <v>57.3391455693346</v>
+        <v>61.98924091615473</v>
       </c>
       <c r="B124">
-        <v>50.27795611129626</v>
+        <v>53.48190626485473</v>
       </c>
       <c r="C124">
-        <v>17.523565007580906</v>
+        <v>19.999999995549945</v>
       </c>
       <c r="D124">
-        <v>0.9917806886528202</v>
+        <v>0.9877024195413839</v>
       </c>
       <c r="E124">
-        <v>0.12786191764134827</v>
+        <v>-0.07499706179202263</v>
       </c>
       <c r="F124">
-        <v>2.0193832663358426e-26</v>
+        <v>0.1324881404221389</v>
       </c>
       <c r="G124">
-        <v>-9.852148647777776e-26</v>
+        <v>0.034826301616237454</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125">
-        <v>57.304684483668204</v>
+        <v>62.04362235579751</v>
       </c>
       <c r="B125">
-        <v>50.22767425448303</v>
+        <v>53.5124044734361</v>
       </c>
       <c r="C125">
-        <v>17.750402211883607</v>
+        <v>19.999999995549423</v>
       </c>
       <c r="D125">
-        <v>0.9921015657724173</v>
+        <v>0.9878383391496471</v>
       </c>
       <c r="E125">
-        <v>0.10340079445630677</v>
+        <v>-0.07412453026838711</v>
       </c>
       <c r="F125">
-        <v>-0.07086658810089516</v>
+        <v>0.1322270547650046</v>
       </c>
       <c r="G125">
-        <v>6.499770896563129e-16</v>
+        <v>0.03383630591717033</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126">
-        <v>57.29120238922452</v>
+        <v>62.098109830231536</v>
       </c>
       <c r="B126">
-        <v>50.17251767731215</v>
+        <v>53.543373420129484</v>
       </c>
       <c r="C126">
-        <v>17.810133595691603</v>
+        <v>19.999999995549448</v>
       </c>
       <c r="D126">
-        <v>0.9912435733963594</v>
+        <v>0.9876903211654379</v>
       </c>
       <c r="E126">
-        <v>0.1281095885354778</v>
+        <v>-0.07526230716601166</v>
       </c>
       <c r="F126">
-        <v>-0.03131085374054462</v>
+        <v>0.132474430224775</v>
       </c>
       <c r="G126">
-        <v>-0.0042771882655321825</v>
+        <v>0.03464792730412036</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127">
-        <v>57.27761489248476</v>
+        <v>62.1524860153985</v>
       </c>
       <c r="B127">
-        <v>50.171868458291016</v>
+        <v>53.57399115138964</v>
       </c>
       <c r="C127">
-        <v>18.00864785094128</v>
+        <v>19.999999995548443</v>
       </c>
       <c r="D127">
-        <v>0.9996045705264948</v>
+        <v>0.9878246087108983</v>
       </c>
       <c r="E127">
-        <v>0.001333796630575901</v>
+        <v>-0.07441488125724835</v>
       </c>
       <c r="F127">
-        <v>-0.028592198679414902</v>
+        <v>0.13221357728794472</v>
       </c>
       <c r="G127">
-        <v>-0.00016754003665580332</v>
+        <v>0.033650811167357506</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128">
-        <v>57.272276362684515</v>
+        <v>62.2067543719344</v>
       </c>
       <c r="B128">
-        <v>50.223475211132104</v>
+        <v>53.60426103413854</v>
       </c>
       <c r="C128">
-        <v>18.03072136047623</v>
+        <v>19.99999999554733</v>
       </c>
       <c r="D128">
-        <v>0.9922469442239399</v>
+        <v>0.9879546476517868</v>
       </c>
       <c r="E128">
-        <v>-0.12354220118119728</v>
+        <v>-0.07357530560591218</v>
       </c>
       <c r="F128">
-        <v>-0.01277979152168015</v>
+        <v>0.1319607646080497</v>
       </c>
       <c r="G128">
-        <v>0.0002644662774095343</v>
+        <v>0.032676076235888474</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129">
-        <v>57.2535308174669</v>
+        <v>62.26091750614493</v>
       </c>
       <c r="B129">
-        <v>50.17411613854991</v>
+        <v>53.63418713599543</v>
       </c>
       <c r="C129">
-        <v>17.89651120928777</v>
+        <v>19.99999999554625</v>
       </c>
       <c r="D129">
-        <v>0.9894211944667823</v>
+        <v>0.988081023481523</v>
       </c>
       <c r="E129">
-        <v>0.1348807359360203</v>
+        <v>-0.07274532964892293</v>
       </c>
       <c r="F129">
-        <v>-0.05121307825455534</v>
+        <v>0.1317139689457542</v>
       </c>
       <c r="G129">
-        <v>-0.013877407657305028</v>
+        <v>0.031712934943222554</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130">
-        <v>57.240292972730956</v>
+        <v>62.31497897753544</v>
       </c>
       <c r="B130">
-        <v>50.12050208040192</v>
+        <v>53.66377298797559</v>
       </c>
       <c r="C130">
-        <v>17.911941792801407</v>
+        <v>19.999999995545174</v>
       </c>
       <c r="D130">
-        <v>0.9911129200351496</v>
+        <v>0.9882031485613607</v>
       </c>
       <c r="E130">
-        <v>0.1289613025888197</v>
+        <v>-0.07192361637401319</v>
       </c>
       <c r="F130">
-        <v>-0.03183792714484405</v>
+        <v>0.13147546245199268</v>
       </c>
       <c r="G130">
-        <v>-0.004928081304593771</v>
+        <v>0.03077564123135866</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131">
-        <v>57.239768643925906</v>
+        <v>62.36894233380758</v>
       </c>
       <c r="B131">
-        <v>50.165726156096476</v>
+        <v>53.69302182128628</v>
       </c>
       <c r="C131">
-        <v>17.694881067004864</v>
+        <v>19.999999995544066</v>
       </c>
       <c r="D131">
-        <v>0.990989198185147</v>
+        <v>0.9883211365809912</v>
       </c>
       <c r="E131">
-        <v>-0.13383176506049374</v>
+        <v>-0.0711094483255621</v>
       </c>
       <c r="F131">
-        <v>-0.001551340806249306</v>
+        <v>0.13124522911785433</v>
       </c>
       <c r="G131">
-        <v>0.0003980875790492919</v>
+        <v>0.029865617904879987</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132">
-        <v>57.24605606057797</v>
+        <v>62.4228104231047</v>
       </c>
       <c r="B132">
-        <v>50.21725438774878</v>
+        <v>53.721937535720656</v>
       </c>
       <c r="C132">
-        <v>17.74240156605972</v>
+        <v>19.999999995542993</v>
       </c>
       <c r="D132">
-        <v>0.9925448038622392</v>
+        <v>0.988435450376957</v>
       </c>
       <c r="E132">
-        <v>-0.12090792110447171</v>
+        <v>-0.07030448828553458</v>
       </c>
       <c r="F132">
-        <v>0.014753045837963233</v>
+        <v>0.13102161071943796</v>
       </c>
       <c r="G132">
-        <v>-2.967426165617643e-6</v>
+        <v>0.028974107530323708</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133">
-        <v>57.24888958409201</v>
+        <v>62.476586036735995</v>
       </c>
       <c r="B133">
-        <v>50.264393180215144</v>
+        <v>53.75052362136028</v>
       </c>
       <c r="C133">
-        <v>17.584053529308214</v>
+        <v>19.999999995541906</v>
       </c>
       <c r="D133">
-        <v>0.9912267542578226</v>
+        <v>0.9885462433756785</v>
       </c>
       <c r="E133">
-        <v>-0.13184382613215392</v>
+        <v>-0.0695077525547263</v>
       </c>
       <c r="F133">
-        <v>0.007925149965024818</v>
+        <v>0.13080448334028724</v>
       </c>
       <c r="G133">
-        <v>-2.6452930367921697e-5</v>
+        <v>0.028101522503158848</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134">
-        <v>57.27125035170051</v>
+        <v>62.53027183922683</v>
       </c>
       <c r="B134">
-        <v>50.216776700835865</v>
+        <v>53.778783849144915</v>
       </c>
       <c r="C134">
-        <v>17.451064162393198</v>
+        <v>19.999999995540854</v>
       </c>
       <c r="D134">
-        <v>0.9895684870984109</v>
+        <v>0.988653607381044</v>
       </c>
       <c r="E134">
-        <v>0.129984474091848</v>
+        <v>-0.06871993607904156</v>
       </c>
       <c r="F134">
-        <v>0.06103224639903414</v>
+        <v>0.13059354974923712</v>
       </c>
       <c r="G134">
-        <v>0.009851341044466735</v>
+        <v>0.02724697955008576</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135">
-        <v>57.262028616004045</v>
+        <v>62.58387020613982</v>
       </c>
       <c r="B135">
-        <v>50.160410578374325</v>
+        <v>53.80672175069469</v>
       </c>
       <c r="C135">
-        <v>17.53120785322395</v>
+        <v>19.999999995539806</v>
       </c>
       <c r="D135">
-        <v>0.99142527875378</v>
+        <v>0.9887578310030769</v>
       </c>
       <c r="E135">
-        <v>0.1288836775765662</v>
+        <v>-0.06794047773338521</v>
       </c>
       <c r="F135">
-        <v>-0.021085417903765117</v>
+        <v>0.1303881320026916</v>
       </c>
       <c r="G135">
-        <v>-0.0013161574469701585</v>
+        <v>0.02640727536163017</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136">
-        <v>57.26295817157887</v>
+        <v>62.63723321047431</v>
       </c>
       <c r="B136">
-        <v>50.107269812425756</v>
+        <v>53.834370115379</v>
       </c>
       <c r="C136">
-        <v>17.52666744806809</v>
+        <v>19.999999995475687</v>
       </c>
       <c r="D136">
-        <v>0.9915104210449237</v>
+        <v>0.9889320247475741</v>
       </c>
       <c r="E136">
-        <v>0.12993755327709244</v>
+        <v>-0.0672444691623194</v>
       </c>
       <c r="F136">
-        <v>0.002269909635750243</v>
+        <v>0.12982808333172086</v>
       </c>
       <c r="G136">
-        <v>0.0010315636750320132</v>
+        <v>0.024377104059858178</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137">
-        <v>57.274686887855836</v>
+        <v>62.690520490907865</v>
       </c>
       <c r="B137">
-        <v>50.15972625808688</v>
+        <v>53.86170246821642</v>
       </c>
       <c r="C137">
-        <v>17.563376415319844</v>
+        <v>19.99999999547414</v>
       </c>
       <c r="D137">
-        <v>0.9918704152193973</v>
+        <v>0.9890261549238047</v>
       </c>
       <c r="E137">
-        <v>-0.12409780059820733</v>
+        <v>-0.06647970352659019</v>
       </c>
       <c r="F137">
-        <v>0.027746189038240044</v>
+        <v>0.12965031103579933</v>
       </c>
       <c r="G137">
-        <v>-0.0010254671276780532</v>
+        <v>0.02360599373731286</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138">
-        <v>57.262156782578096</v>
+        <v>62.7437184610834</v>
       </c>
       <c r="B138">
-        <v>50.214248406467426</v>
+        <v>53.888713700295554</v>
       </c>
       <c r="C138">
-        <v>17.60667575514168</v>
+        <v>19.99999999550045</v>
       </c>
       <c r="D138">
-        <v>0.9912788412109665</v>
+        <v>0.9891205404372312</v>
       </c>
       <c r="E138">
-        <v>-0.1282773263933994</v>
+        <v>-0.0657022484314036</v>
       </c>
       <c r="F138">
-        <v>-0.029477041238105763</v>
+        <v>0.129439378403353</v>
       </c>
       <c r="G138">
-        <v>0.004129085399608699</v>
+        <v>0.022993702223724547</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139">
-        <v>57.255591145741086</v>
+        <v>62.79684690577511</v>
       </c>
       <c r="B139">
-        <v>50.159285972002664</v>
+        <v>53.91541688930309</v>
       </c>
       <c r="C139">
-        <v>17.653735707750805</v>
+        <v>19.999999995497635</v>
       </c>
       <c r="D139">
-        <v>0.991522295029719</v>
+        <v>0.9892085163697607</v>
       </c>
       <c r="E139">
-        <v>0.12894549820765844</v>
+        <v>-0.06495646387245006</v>
       </c>
       <c r="F139">
-        <v>-0.015403267210787393</v>
+        <v>0.1292762065849696</v>
       </c>
       <c r="G139">
-        <v>-0.0010064586279837718</v>
+        <v>0.022249631080208523</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140">
-        <v>57.246860023463476</v>
+        <v>62.84990817847661</v>
       </c>
       <c r="B140">
-        <v>50.10351630708382</v>
+        <v>53.94181517274343</v>
       </c>
       <c r="C140">
-        <v>17.775545592749136</v>
+        <v>19.999999995494647</v>
       </c>
       <c r="D140">
-        <v>0.992130023158456</v>
+        <v>0.9892936413740561</v>
       </c>
       <c r="E140">
-        <v>0.12362305695435187</v>
+        <v>-0.06421811599016927</v>
       </c>
       <c r="F140">
-        <v>-0.019353653549179377</v>
+        <v>0.12911853508273963</v>
       </c>
       <c r="G140">
-        <v>-0.000505326948903531</v>
+        <v>0.021527527041991183</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141">
-        <v>57.2615411243384</v>
+        <v>62.90290419427263</v>
       </c>
       <c r="B141">
-        <v>50.15353222035726</v>
+        <v>53.96791184198428</v>
       </c>
       <c r="C141">
-        <v>17.757216454637664</v>
+        <v>19.99999999549145</v>
       </c>
       <c r="D141">
-        <v>0.9916427996721442</v>
+        <v>0.9893762254661963</v>
       </c>
       <c r="E141">
-        <v>-0.12370145578255673</v>
+        <v>-0.06348760141861551</v>
       </c>
       <c r="F141">
-        <v>0.03630912482009723</v>
+        <v>0.12896532303999847</v>
       </c>
       <c r="G141">
-        <v>-0.0010009557146697923</v>
+        <v>0.020821222631283828</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142">
-        <v>57.26165116419179</v>
+        <v>62.95583682903004</v>
       </c>
       <c r="B142">
-        <v>50.10238017748857</v>
+        <v>53.99371015664506</v>
       </c>
       <c r="C142">
-        <v>17.857333945324957</v>
+        <v>19.999999995488835</v>
       </c>
       <c r="D142">
-        <v>0.9933220690540713</v>
+        <v>0.9894563403155271</v>
       </c>
       <c r="E142">
-        <v>0.1153105220345302</v>
+        <v>-0.06276485013812882</v>
       </c>
       <c r="F142">
-        <v>0.000248077653649158</v>
+        <v>0.1288164820426845</v>
       </c>
       <c r="G142">
-        <v>2.913869676457027e-7</v>
+        <v>0.020130657198447772</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143">
-        <v>57.26726985401837</v>
+        <v>63.00869853051054</v>
       </c>
       <c r="B143">
-        <v>50.050466917987634</v>
+        <v>54.01920077207436</v>
       </c>
       <c r="C143">
-        <v>17.883324859998552</v>
+        <v>19.999999995531503</v>
       </c>
       <c r="D143">
-        <v>0.9921958598198489</v>
+        <v>0.9895332445080393</v>
       </c>
       <c r="E143">
-        <v>0.12388401649672129</v>
+        <v>-0.06201886619191985</v>
       </c>
       <c r="F143">
-        <v>0.013407952016771316</v>
+        <v>0.128648901279013</v>
       </c>
       <c r="G143">
-        <v>0.00039601817671761845</v>
+        <v>0.019744798614265098</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144">
-        <v>57.272205570581036</v>
+        <v>63.06150452313749</v>
       </c>
       <c r="B144">
-        <v>50.099319960128625</v>
+        <v>54.044401127058606</v>
       </c>
       <c r="C144">
-        <v>17.784525083857112</v>
+        <v>19.99999999552461</v>
       </c>
       <c r="D144">
-        <v>0.9914899146195046</v>
+        <v>0.9896073007227366</v>
       </c>
       <c r="E144">
-        <v>-0.1294386244464519</v>
+        <v>-0.06131545807598594</v>
       </c>
       <c r="F144">
-        <v>0.013077256696056212</v>
+        <v>0.1285182845899112</v>
       </c>
       <c r="G144">
-        <v>-0.0006545995225633796</v>
+        <v>0.01908434622323442</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145">
-        <v>57.311084469079944</v>
+        <v>63.11425639673422</v>
       </c>
       <c r="B145">
-        <v>50.086614648137044</v>
+        <v>54.06931430907935</v>
       </c>
       <c r="C145">
-        <v>17.75115713983539</v>
+        <v>19.999999995518934</v>
       </c>
       <c r="D145">
-        <v>0.9947186767701816</v>
+        <v>0.9896791706298325</v>
       </c>
       <c r="E145">
-        <v>0.03186849030949297</v>
+        <v>-0.06061941843637001</v>
       </c>
       <c r="F145">
-        <v>0.09751917391441761</v>
+        <v>0.1283913686628343</v>
       </c>
       <c r="G145">
-        <v>1.1723065487497756e-6</v>
+        <v>0.018438923685664636</v>
       </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146">
-        <v>57.33130043762901</v>
+        <v>63.16723874649021</v>
       </c>
       <c r="B146">
-        <v>50.12761067956675</v>
+        <v>54.094253122180504</v>
       </c>
       <c r="C146">
-        <v>17.775827695208474</v>
+        <v>19.999999995531965</v>
       </c>
       <c r="D146">
-        <v>0.994003552201471</v>
+        <v>0.9895757929424479</v>
       </c>
       <c r="E146">
-        <v>-0.09802348628936443</v>
+        <v>-0.060677149323244424</v>
       </c>
       <c r="F146">
-        <v>0.048337370811425084</v>
+        <v>0.12894506854929272</v>
       </c>
       <c r="G146">
-        <v>2.0878146624703885e-6</v>
+        <v>0.01985613880777206</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147">
-        <v>57.331017463663926</v>
+        <v>63.22015535785765</v>
       </c>
       <c r="B147">
-        <v>50.07778942829536</v>
+        <v>54.118905752160856</v>
       </c>
       <c r="C147">
-        <v>17.67593544867791</v>
+        <v>19.99999999553094</v>
       </c>
       <c r="D147">
-        <v>0.9912226429317795</v>
+        <v>0.9896517530773831</v>
       </c>
       <c r="E147">
-        <v>0.13211426344616528</v>
+        <v>-0.05998366663384511</v>
       </c>
       <c r="F147">
-        <v>-0.0007508078898278539</v>
+        <v>0.12879018621748187</v>
       </c>
       <c r="G147">
-        <v>0.00011201840957410732</v>
+        <v>0.01918616362802764</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148">
-        <v>57.362213472012584</v>
+        <v>63.27300795673614</v>
       </c>
       <c r="B148">
-        <v>50.12026672218403</v>
+        <v>54.14327535068402</v>
       </c>
       <c r="C148">
-        <v>17.57128080097933</v>
+        <v>19.99999999552992</v>
       </c>
       <c r="D148">
-        <v>0.9900971273274585</v>
+        <v>0.9897254838789632</v>
       </c>
       <c r="E148">
-        <v>-0.11305468126234508</v>
+        <v>-0.05929770864396185</v>
       </c>
       <c r="F148">
-        <v>0.08302917770246142</v>
+        <v>0.12863933012646628</v>
       </c>
       <c r="G148">
-        <v>5.023866509558025e-8</v>
+        <v>0.018530827004332083</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149">
-        <v>57.33493587324247</v>
+        <v>63.32579820693274</v>
       </c>
       <c r="B149">
-        <v>50.063446618337075</v>
+        <v>54.167365037114166</v>
       </c>
       <c r="C149">
-        <v>17.655907516756105</v>
+        <v>19.9999999955289</v>
       </c>
       <c r="D149">
-        <v>0.9895840254914559</v>
+        <v>0.9897970613409618</v>
       </c>
       <c r="E149">
-        <v>0.1293605098552242</v>
+        <v>-0.05861920333206442</v>
       </c>
       <c r="F149">
-        <v>-0.0620933281603555</v>
+        <v>0.12849235618452676</v>
       </c>
       <c r="G149">
-        <v>-0.009878140792780111</v>
+        <v>0.017889829478764507</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150">
-        <v>57.34676315813099</v>
+        <v>63.37852771252931</v>
       </c>
       <c r="B150">
-        <v>50.09447222077955</v>
+        <v>54.191177898678646</v>
       </c>
       <c r="C150">
-        <v>17.778485052310014</v>
+        <v>19.99999999552788</v>
       </c>
       <c r="D150">
-        <v>0.9972877246062709</v>
+        <v>0.9898665586497671</v>
       </c>
       <c r="E150">
-        <v>-0.06891388466673223</v>
+        <v>-0.057948078764576874</v>
       </c>
       <c r="F150">
-        <v>0.026274511809940355</v>
+        <v>0.12834912574393445</v>
       </c>
       <c r="G150">
-        <v>-9.466062033251693e-5</v>
+        <v>0.017262878715288858</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151">
-        <v>57.33986548618339</v>
+        <v>63.431198020151065</v>
       </c>
       <c r="B151">
-        <v>50.146679087410945</v>
+        <v>54.214716990641676</v>
       </c>
       <c r="C151">
-        <v>17.766044155701398</v>
+        <v>19.99999999552687</v>
       </c>
       <c r="D151">
-        <v>0.9915557299667563</v>
+        <v>0.9899340462991961</v>
       </c>
       <c r="E151">
-        <v>-0.12848872632663128</v>
+        <v>-0.05728426313808051</v>
       </c>
       <c r="F151">
-        <v>-0.01697486874786474</v>
+        <v>0.12820950537779657</v>
       </c>
       <c r="G151">
-        <v>0.000827035686268137</v>
+        <v>0.01664968926024706</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152">
-        <v>57.284893058395845</v>
+        <v>63.48381062114279</v>
       </c>
       <c r="B152">
-        <v>50.0912391601891</v>
+        <v>54.23798533648733</v>
       </c>
       <c r="C152">
-        <v>17.85019097389003</v>
+        <v>19.99999999552586</v>
       </c>
       <c r="D152">
-        <v>0.9841089206336598</v>
+        <v>0.9899995921992322</v>
       </c>
       <c r="E152">
-        <v>0.12591742488779387</v>
+        <v>-0.05662768481638152</v>
       </c>
       <c r="F152">
-        <v>-0.12485372611347917</v>
+        <v>0.12807336667045227</v>
       </c>
       <c r="G152">
-        <v>-0.0016393946093734653</v>
+        <v>0.016049982334710132</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153">
-        <v>57.28571958083205</v>
+        <v>63.5363669536558</v>
       </c>
       <c r="B153">
-        <v>50.04631754380326</v>
+        <v>54.26098592811219</v>
       </c>
       <c r="C153">
-        <v>17.617953241985386</v>
+        <v>19.999999995524856</v>
       </c>
       <c r="D153">
-        <v>0.9908342801267223</v>
+        <v>0.9900632617803733</v>
       </c>
       <c r="E153">
-        <v>0.1349559526144873</v>
+        <v>-0.05597827236731437</v>
       </c>
       <c r="F153">
-        <v>0.0024826177204353298</v>
+        <v>0.12794058601448896</v>
       </c>
       <c r="G153">
-        <v>0.0005969179724414771</v>
+        <v>0.015463485611137799</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154">
-        <v>57.305010116832314</v>
+        <v>63.58886342780072</v>
       </c>
       <c r="B154">
-        <v>50.01790628815499</v>
+        <v>54.28372362624137</v>
       </c>
       <c r="C154">
-        <v>17.71990189675995</v>
+        <v>19.999999995525588</v>
       </c>
       <c r="D154">
-        <v>0.9970080789517861</v>
+        <v>0.9901257475337425</v>
       </c>
       <c r="E154">
-        <v>0.0640648377382633</v>
+        <v>-0.05534055585951677</v>
       </c>
       <c r="F154">
-        <v>0.04353039950375205</v>
+        <v>0.12779895946386693</v>
       </c>
       <c r="G154">
-        <v>7.0256771072970955e-6</v>
+        <v>0.01493467319743866</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155">
-        <v>57.30100581868075</v>
+        <v>63.64129459592911</v>
       </c>
       <c r="B155">
-        <v>50.06199380251139</v>
+        <v>54.30620503674611</v>
       </c>
       <c r="C155">
-        <v>17.45806190387358</v>
+        <v>19.99999999552572</v>
       </c>
       <c r="D155">
-        <v>0.9905494789009637</v>
+        <v>0.9901885215615532</v>
       </c>
       <c r="E155">
-        <v>-0.13649660262522423</v>
+        <v>-0.05471889486576122</v>
       </c>
       <c r="F155">
-        <v>-0.012396909614641618</v>
+        <v>0.12764407680117404</v>
       </c>
       <c r="G155">
-        <v>0.0008877987833045143</v>
+        <v>0.014393169343609766</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156">
-        <v>57.28792910211937</v>
+        <v>63.69366141567879</v>
       </c>
       <c r="B156">
-        <v>50.11848237629497</v>
+        <v>54.328432649649514</v>
       </c>
       <c r="C156">
-        <v>17.578268224315785</v>
+        <v>19.999999995525858</v>
       </c>
       <c r="D156">
-        <v>0.9916761440857544</v>
+        <v>0.9902497852430028</v>
       </c>
       <c r="E156">
-        <v>-0.12533747799452777</v>
+        <v>-0.05410319712343461</v>
       </c>
       <c r="F156">
-        <v>-0.029013173066283707</v>
+        <v>0.12749140851061042</v>
       </c>
       <c r="G156">
-        <v>0.0020498469639051364</v>
+        <v>0.013864337842625092</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157">
-        <v>57.30853797692065</v>
+        <v>63.745964793892114</v>
       </c>
       <c r="B157">
-        <v>50.0715335792832</v>
+        <v>54.35040893687442</v>
       </c>
       <c r="C157">
-        <v>17.438595869219327</v>
+        <v>19.999999995526004</v>
       </c>
       <c r="D157">
-        <v>0.9899813249200468</v>
+        <v>0.9903095931088962</v>
       </c>
       <c r="E157">
-        <v>0.1289766172568631</v>
+        <v>-0.05349342280639059</v>
       </c>
       <c r="F157">
-        <v>0.05660931569006559</v>
+        <v>0.12734083571616758</v>
       </c>
       <c r="G157">
-        <v>0.00800036758048844</v>
+        <v>0.013347880637905723</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158">
-        <v>57.30646309361168</v>
+        <v>63.79820559459205</v>
       </c>
       <c r="B158">
-        <v>50.01887287803909</v>
+        <v>54.372136358063166</v>
       </c>
       <c r="C158">
-        <v>17.408885399953288</v>
+        <v>19.999999995526142</v>
       </c>
       <c r="D158">
-        <v>0.9912977900847924</v>
+        <v>0.9903679934986547</v>
       </c>
       <c r="E158">
-        <v>0.13145767126519847</v>
+        <v>-0.05288954584759264</v>
       </c>
       <c r="F158">
-        <v>-0.005180290087010198</v>
+        <v>0.1271922584617791</v>
       </c>
       <c r="G158">
-        <v>2.9596989314182882e-5</v>
+        <v>0.012843622151457432</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159">
-        <v>57.29849103525138</v>
+        <v>63.850384619034195</v>
       </c>
       <c r="B159">
-        <v>49.96401465566354</v>
+        <v>54.393617336529125</v>
       </c>
       <c r="C159">
-        <v>17.44424372720228</v>
+        <v>19.999999995526323</v>
       </c>
       <c r="D159">
-        <v>0.9913384039182904</v>
+        <v>0.9904250484197312</v>
       </c>
       <c r="E159">
-        <v>0.12988092658128547</v>
+        <v>-0.05229148227041834</v>
       </c>
       <c r="F159">
-        <v>-0.01887171923907168</v>
+        <v>0.12704552908468889</v>
       </c>
       <c r="G159">
-        <v>-0.0012938264120194824</v>
+        <v>0.012350944463674353</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160">
-        <v>57.327575418635405</v>
+        <v>63.90245024482268</v>
       </c>
       <c r="B160">
-        <v>49.91997783028194</v>
+        <v>54.41484306113436</v>
       </c>
       <c r="C160">
-        <v>17.44256741203867</v>
+        <v>19.999999995534306</v>
       </c>
       <c r="D160">
-        <v>0.9916654370556356</v>
+        <v>0.9904977693020272</v>
       </c>
       <c r="E160">
-        <v>0.10743366941866779</v>
+        <v>-0.051672274391822384</v>
       </c>
       <c r="F160">
-        <v>0.0709552063095369</v>
+        <v>0.12677408028444126</v>
       </c>
       <c r="G160">
-        <v>-1.110449288889866e-8</v>
+        <v>0.011926831048765428</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161">
-        <v>57.34385921995506</v>
+        <v>63.95445406642202</v>
       </c>
       <c r="B161">
-        <v>49.86780064364262</v>
+        <v>54.43582690501872</v>
       </c>
       <c r="C161">
-        <v>17.485979486596783</v>
+        <v>19.99999999553354</v>
       </c>
       <c r="D161">
-        <v>0.9916831494170276</v>
+        <v>0.990552692406737</v>
       </c>
       <c r="E161">
-        <v>0.12277386017864773</v>
+        <v>-0.05108515546748106</v>
       </c>
       <c r="F161">
-        <v>0.03831585887292935</v>
+        <v>0.12662711058567852</v>
       </c>
       <c r="G161">
-        <v>0.00027639910740348046</v>
+        <v>0.011462407419007952</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162">
-        <v>57.322614141580395</v>
+        <v>64.0063968114418</v>
       </c>
       <c r="B162">
-        <v>49.92479996979255</v>
+        <v>54.45657130866761</v>
       </c>
       <c r="C162">
-        <v>17.580497589087933</v>
+        <v>19.999999995532775</v>
       </c>
       <c r="D162">
-        <v>0.9904579645476574</v>
+        <v>0.990606387411827</v>
       </c>
       <c r="E162">
-        <v>-0.12885255764021727</v>
+        <v>-0.05050390164387275</v>
       </c>
       <c r="F162">
-        <v>-0.048020465674379606</v>
+        <v>0.1264818199438854</v>
       </c>
       <c r="G162">
-        <v>0.007334415394420696</v>
+        <v>0.011008644627632543</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163">
-        <v>57.31117653957007</v>
+        <v>64.0582791749043</v>
       </c>
       <c r="B163">
-        <v>49.869978265890765</v>
+        <v>54.47707869723114</v>
       </c>
       <c r="C163">
-        <v>17.63893502098992</v>
+        <v>19.99999999553201</v>
       </c>
       <c r="D163">
-        <v>0.9914678885610637</v>
+        <v>0.990658893663799</v>
       </c>
       <c r="E163">
-        <v>0.12747424561136778</v>
+        <v>-0.049928478628738636</v>
       </c>
       <c r="F163">
-        <v>-0.026592790721812302</v>
+        <v>0.12633813239651878</v>
       </c>
       <c r="G163">
-        <v>-0.0032275615328439303</v>
+        <v>0.010565375810220308</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164">
-        <v>57.314724980507116</v>
+        <v>64.11010181524736</v>
       </c>
       <c r="B164">
-        <v>49.82386926008262</v>
+        <v>54.497351474027326</v>
       </c>
       <c r="C164">
-        <v>17.751018055372125</v>
+        <v>19.999999995531248</v>
       </c>
       <c r="D164">
-        <v>0.9946366145054386</v>
+        <v>0.9907102528044456</v>
       </c>
       <c r="E164">
-        <v>0.1030806893411215</v>
+        <v>-0.04935883637288616</v>
       </c>
       <c r="F164">
-        <v>0.00793286217255408</v>
+        <v>0.12619596235012523</v>
       </c>
       <c r="G164">
-        <v>3.536846531579649e-7</v>
+        <v>0.010132320282432642</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165">
-        <v>57.29341575399607</v>
+        <v>64.16186535826004</v>
       </c>
       <c r="B165">
-        <v>49.879414073468425</v>
+        <v>54.51739202302603</v>
       </c>
       <c r="C165">
-        <v>17.816058710399673</v>
+        <v>19.999999995530487</v>
       </c>
       <c r="D165">
-        <v>0.9904543058525848</v>
+        <v>0.9907605033183184</v>
       </c>
       <c r="E165">
-        <v>-0.12843067779944242</v>
+        <v>-0.04879493065197556</v>
       </c>
       <c r="F165">
-        <v>-0.04926535288122835</v>
+        <v>0.126055233535093</v>
       </c>
       <c r="G165">
-        <v>0.006961537301689258</v>
+        <v>0.009709255268099903</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166">
-        <v>57.32940699531365</v>
+        <v>64.21754873082432</v>
       </c>
       <c r="B166">
-        <v>49.84528972477022</v>
+        <v>54.543303445432635</v>
       </c>
       <c r="C166">
-        <v>17.65671273071615</v>
+        <v>19.99999999558978</v>
       </c>
       <c r="D166">
-        <v>0.9903068614567522</v>
+        <v>0.9878226438460329</v>
       </c>
       <c r="E166">
-        <v>0.09548883542010729</v>
+        <v>-0.06295873274232364</v>
       </c>
       <c r="F166">
-        <v>0.10071288829959178</v>
+        <v>0.13537862543172643</v>
       </c>
       <c r="G166">
-        <v>-3.791282762984495e-16</v>
+        <v>0.04314172570435942</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167">
-        <v>57.31470954019836</v>
+        <v>64.27310104832281</v>
       </c>
       <c r="B167">
-        <v>49.90076347607056</v>
+        <v>54.56891626725176</v>
       </c>
       <c r="C167">
-        <v>17.723528321714824</v>
+        <v>19.999999995589057</v>
       </c>
       <c r="D167">
-        <v>0.9911516549265471</v>
+        <v>0.9879589599724563</v>
       </c>
       <c r="E167">
-        <v>-0.1281345473646714</v>
+        <v>-0.06223869767332575</v>
       </c>
       <c r="F167">
-        <v>-0.03394481951207447</v>
+        <v>0.13507061045109295</v>
       </c>
       <c r="G167">
-        <v>0.004657686157471571</v>
+        <v>0.0420321924736224</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168">
-        <v>57.292833812056784</v>
+        <v>64.3285249077981</v>
       </c>
       <c r="B168">
-        <v>49.95643929022279</v>
+        <v>54.594234798654064</v>
       </c>
       <c r="C168">
-        <v>17.802859118155556</v>
+        <v>19.99999999558804</v>
       </c>
       <c r="D168">
-        <v>0.9905657539222602</v>
+        <v>0.9880910111159342</v>
       </c>
       <c r="E168">
-        <v>-0.12733164071403427</v>
+        <v>-0.06152884320112589</v>
       </c>
       <c r="F168">
-        <v>-0.05002531742861555</v>
+        <v>0.134768500662941</v>
       </c>
       <c r="G168">
-        <v>0.005835173346464696</v>
+        <v>0.04094460362740007</v>
       </c>
     </row>
     <row r="169" spans="1:7">
       <c r="A169">
-        <v>57.31011733402915</v>
+        <v>64.3838252235261</v>
       </c>
       <c r="B169">
-        <v>49.99681117212853</v>
+        <v>54.61926128904383</v>
       </c>
       <c r="C169">
-        <v>17.481580651161508</v>
+        <v>19.9999999955874</v>
       </c>
       <c r="D169">
-        <v>0.9893663427878503</v>
+        <v>0.9882182183264724</v>
       </c>
       <c r="E169">
-        <v>-0.13312393430098893</v>
+        <v>-0.06082414146547291</v>
       </c>
       <c r="F169">
-        <v>0.056980876020332485</v>
+        <v>0.13447789008162114</v>
       </c>
       <c r="G169">
-        <v>-0.012150682608069879</v>
+        <v>0.03988457665377331</v>
       </c>
     </row>
     <row r="170" spans="1:7">
       <c r="A170">
-        <v>57.31896601331462</v>
+        <v>64.43900540666543</v>
       </c>
       <c r="B170">
-        <v>50.04816309619897</v>
+        <v>54.643999074166615</v>
       </c>
       <c r="C170">
-        <v>17.443311913776338</v>
+        <v>19.99999999558676</v>
       </c>
       <c r="D170">
-        <v>0.9913680419594737</v>
+        <v>0.9883411893358172</v>
       </c>
       <c r="E170">
-        <v>-0.12911892606593323</v>
+        <v>-0.060127267700545814</v>
       </c>
       <c r="F170">
-        <v>0.022248528510125286</v>
+        <v>0.1341951789214261</v>
       </c>
       <c r="G170">
-        <v>-0.0008041815733697438</v>
+        <v>0.03884788679970347</v>
       </c>
     </row>
     <row r="171" spans="1:7">
       <c r="A171">
-        <v>57.333809163209956</v>
+        <v>64.49407994129288</v>
       </c>
       <c r="B171">
-        <v>50.0111317547322</v>
+        <v>54.668450939108276</v>
       </c>
       <c r="C171">
-        <v>17.590668880799694</v>
+        <v>19.99999999558649</v>
       </c>
       <c r="D171">
-        <v>0.9962096494008623</v>
+        <v>0.9884506067481067</v>
       </c>
       <c r="E171">
-        <v>0.08072436832729006</v>
+        <v>-0.059436402711623676</v>
       </c>
       <c r="F171">
-        <v>0.032356632014053706</v>
+        <v>0.13394649890648072</v>
       </c>
       <c r="G171">
-        <v>5.644034134005191e-6</v>
+        <v>0.03798923170913642</v>
       </c>
     </row>
     <row r="172" spans="1:7">
       <c r="A172">
-        <v>57.37899065253666</v>
+        <v>64.54903389439909</v>
       </c>
       <c r="B172">
-        <v>50.00307601620325</v>
+        <v>54.69261905419773</v>
       </c>
       <c r="C172">
-        <v>17.45570113570283</v>
+        <v>19.99999999568459</v>
       </c>
       <c r="D172">
-        <v>0.9920620694446457</v>
+        <v>0.9885680924001028</v>
       </c>
       <c r="E172">
-        <v>0.02205752924499884</v>
+        <v>-0.05875112775224719</v>
       </c>
       <c r="F172">
-        <v>0.1237141313456645</v>
+        <v>0.13366212438798947</v>
       </c>
       <c r="G172">
-        <v>-0.00048641091076324596</v>
+        <v>0.03700147887738999</v>
       </c>
     </row>
     <row r="173" spans="1:7">
       <c r="A173">
-        <v>57.41595244558047</v>
+        <v>64.60387011762445</v>
       </c>
       <c r="B173">
-        <v>49.980564393759856</v>
+        <v>54.71654046811537</v>
       </c>
       <c r="C173">
-        <v>17.0960975504632</v>
+        <v>19.99999999555794</v>
       </c>
       <c r="D173">
-        <v>0.9887926340136424</v>
+        <v>0.9886840560700688</v>
       </c>
       <c r="E173">
-        <v>0.07748482097156119</v>
+        <v>-0.058156041299853765</v>
       </c>
       <c r="F173">
-        <v>0.1272336837491795</v>
+        <v>0.13338472152585848</v>
       </c>
       <c r="G173">
-        <v>-0.007424003398181322</v>
+        <v>0.03584103794483517</v>
       </c>
     </row>
     <row r="174" spans="1:7">
       <c r="A174">
-        <v>57.43088756581466</v>
+        <v>64.65861115219883</v>
       </c>
       <c r="B174">
-        <v>50.03430097442253</v>
+        <v>54.7402143991132</v>
       </c>
       <c r="C174">
-        <v>17.12890135988114</v>
+        <v>19.999999995563485</v>
       </c>
       <c r="D174">
-        <v>0.9911865656697798</v>
+        <v>0.9887792897052264</v>
       </c>
       <c r="E174">
-        <v>-0.12747725021987497</v>
+        <v>-0.05755791463152079</v>
       </c>
       <c r="F174">
-        <v>0.03542664761804023</v>
+        <v>0.13316032451528526</v>
       </c>
       <c r="G174">
-        <v>-0.00423288741742755</v>
+        <v>0.03501654459614892</v>
       </c>
     </row>
     <row r="175" spans="1:7">
       <c r="A175">
-        <v>57.40456140014623</v>
+        <v>64.71325470982177</v>
       </c>
       <c r="B175">
-        <v>49.97652495656457</v>
+        <v>54.76361707752002</v>
       </c>
       <c r="C175">
-        <v>17.190223831978066</v>
+        <v>19.999999995562522</v>
       </c>
       <c r="D175">
-        <v>0.9889762867657766</v>
+        <v>0.9888807781636297</v>
       </c>
       <c r="E175">
-        <v>0.13387561978393084</v>
+        <v>-0.05690219063642041</v>
       </c>
       <c r="F175">
-        <v>-0.060987927962811106</v>
+        <v>0.13293081621510627</v>
       </c>
       <c r="G175">
-        <v>-0.015583656905125882</v>
+        <v>0.03409547480540901</v>
       </c>
     </row>
     <row r="176" spans="1:7">
       <c r="A176">
-        <v>57.38120303170913</v>
+        <v>64.76780339858404</v>
       </c>
       <c r="B176">
-        <v>50.034013903645196</v>
+        <v>54.78675111590928</v>
       </c>
       <c r="C176">
-        <v>17.25448180739064</v>
+        <v>19.999999995562227</v>
       </c>
       <c r="D176">
-        <v>0.9895468242249847</v>
+        <v>0.988979117037391</v>
       </c>
       <c r="E176">
-        <v>-0.13294560022076868</v>
+        <v>-0.05625261997660158</v>
       </c>
       <c r="F176">
-        <v>-0.05400605341500346</v>
+        <v>0.13270737002601696</v>
       </c>
       <c r="G176">
-        <v>0.01301175174061276</v>
+        <v>0.033192584578133205</v>
       </c>
     </row>
     <row r="177" spans="1:7">
       <c r="A177">
-        <v>57.36309591614818</v>
+        <v>64.82225977107974</v>
       </c>
       <c r="B177">
-        <v>50.09115033754774</v>
+        <v>54.8096193338927</v>
       </c>
       <c r="C177">
-        <v>17.337796262514928</v>
+        <v>19.999999995561858</v>
       </c>
       <c r="D177">
-        <v>0.9905730480506794</v>
+        <v>0.9890743463111011</v>
       </c>
       <c r="E177">
-        <v>-0.13027472067355075</v>
+        <v>-0.05560971249188404</v>
       </c>
       <c r="F177">
-        <v>-0.041279051408777176</v>
+        <v>0.13248985751559478</v>
       </c>
       <c r="G177">
-        <v>0.007746078091558269</v>
+        <v>0.03230836862365244</v>
       </c>
     </row>
     <row r="178" spans="1:7">
       <c r="A178">
-        <v>57.36467949578159</v>
+        <v>64.87662754850062</v>
       </c>
       <c r="B178">
-        <v>50.03615797003278</v>
+        <v>54.832167351522614</v>
       </c>
       <c r="C178">
-        <v>17.394428213985307</v>
+        <v>19.999999995565847</v>
       </c>
       <c r="D178">
-        <v>0.9917498620663928</v>
+        <v>0.9891771952937675</v>
       </c>
       <c r="E178">
-        <v>0.12807033222547703</v>
+        <v>-0.054834731270654316</v>
       </c>
       <c r="F178">
-        <v>0.0036866742093802384</v>
+        <v>0.1322819099042006</v>
       </c>
       <c r="G178">
-        <v>-0.00041327123054031903</v>
+        <v>0.03133574681355205</v>
       </c>
     </row>
     <row r="179" spans="1:7">
       <c r="A179">
-        <v>57.38048979163526</v>
+        <v>64.93089486175225</v>
       </c>
       <c r="B179">
-        <v>50.0883437220075</v>
+        <v>54.85450608862369</v>
       </c>
       <c r="C179">
-        <v>17.457896989825727</v>
+        <v>19.999999995559868</v>
       </c>
       <c r="D179">
-        <v>0.9919776478309477</v>
+        <v>0.9892675660169873</v>
       </c>
       <c r="E179">
-        <v>-0.12090220126174442</v>
+        <v>-0.054329190846612176</v>
       </c>
       <c r="F179">
-        <v>0.03662875787218819</v>
+        <v>0.13204424546535848</v>
       </c>
       <c r="G179">
-        <v>-7.292380858572274e-6</v>
+        <v>0.030363589554287432</v>
       </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180">
-        <v>57.37168725060749</v>
+        <v>64.98508161925325</v>
       </c>
       <c r="B180">
-        <v>50.1322982546345</v>
+        <v>54.87658488394384</v>
       </c>
       <c r="C180">
-        <v>17.652189866307452</v>
+        <v>19.99999999555883</v>
       </c>
       <c r="D180">
-        <v>0.9955265077540362</v>
+        <v>0.9893517735249968</v>
       </c>
       <c r="E180">
-        <v>-0.09261901753497981</v>
+        <v>-0.053699937059974244</v>
       </c>
       <c r="F180">
-        <v>-0.018547993272364418</v>
+        <v>0.131854392961177</v>
       </c>
       <c r="G180">
-        <v>1.9483711906298085e-6</v>
+        <v>0.029565799768879616</v>
       </c>
     </row>
     <row r="181" spans="1:7">
       <c r="A181">
-        <v>57.34500297270939</v>
+        <v>65.03920434100928</v>
       </c>
       <c r="B181">
-        <v>50.076415976004185</v>
+        <v>54.898358412747676</v>
       </c>
       <c r="C181">
-        <v>17.715742537016354</v>
+        <v>19.999999995562415</v>
       </c>
       <c r="D181">
-        <v>0.9896153644891278</v>
+        <v>0.9894319472011944</v>
       </c>
       <c r="E181">
-        <v>0.12930614520640515</v>
+        <v>-0.052960070627634456</v>
       </c>
       <c r="F181">
-        <v>-0.06173628245696352</v>
+        <v>0.1317043178802835</v>
       </c>
       <c r="G181">
-        <v>-0.009697997723482954</v>
+        <v>0.028889919118712717</v>
       </c>
     </row>
     <row r="182" spans="1:7">
       <c r="A182">
-        <v>57.345407525761225</v>
+        <v>65.09324925519424</v>
       </c>
       <c r="B182">
-        <v>50.02307339648089</v>
+        <v>54.91991485341884</v>
       </c>
       <c r="C182">
-        <v>17.756784393697682</v>
+        <v>19.99999999555714</v>
       </c>
       <c r="D182">
-        <v>0.9920479255388447</v>
+        <v>0.9895019686871462</v>
       </c>
       <c r="E182">
-        <v>0.1257737308750947</v>
+        <v>-0.052434354687461264</v>
       </c>
       <c r="F182">
-        <v>0.0009538193471443123</v>
+        <v>0.13152000547793016</v>
       </c>
       <c r="G182">
-        <v>7.43169989726607e-5</v>
+        <v>0.028294209438540958</v>
       </c>
     </row>
     <row r="183" spans="1:7">
       <c r="A183">
-        <v>57.330555263757184</v>
+        <v>65.14721925614478</v>
       </c>
       <c r="B183">
-        <v>50.077365910697004</v>
+        <v>54.94122117126134</v>
       </c>
       <c r="C183">
-        <v>17.80426458477629</v>
+        <v>19.999999995555847</v>
       </c>
       <c r="D183">
-        <v>0.9912296591799944</v>
+        <v>0.9895788950128062</v>
       </c>
       <c r="E183">
-        <v>-0.12731476300548775</v>
+        <v>-0.05182855552062254</v>
       </c>
       <c r="F183">
-        <v>-0.03482501222856475</v>
+        <v>0.13134326973410182</v>
       </c>
       <c r="G183">
-        <v>0.004050693022036981</v>
+        <v>0.027542352120156523</v>
       </c>
     </row>
     <row r="184" spans="1:7">
       <c r="A184">
-        <v>57.31629199342796</v>
+        <v>65.20112370844934</v>
       </c>
       <c r="B184">
-        <v>50.023285610339755</v>
+        <v>54.962252078023894</v>
       </c>
       <c r="C184">
-        <v>17.83857395944537</v>
+        <v>19.999999995561673</v>
       </c>
       <c r="D184">
-        <v>0.9911568740118321</v>
+        <v>0.9896561321462484</v>
       </c>
       <c r="E184">
-        <v>0.12813747536571826</v>
+        <v>-0.05116120466495024</v>
       </c>
       <c r="F184">
-        <v>-0.03379165056009149</v>
+        <v>0.13118933037846645</v>
       </c>
       <c r="G184">
-        <v>-0.004583116500593009</v>
+        <v>0.02674878051270105</v>
       </c>
     </row>
     <row r="185" spans="1:7">
       <c r="A185">
-        <v>57.35951261331047</v>
+        <v>65.25495674745302</v>
       </c>
       <c r="B185">
-        <v>50.012752364917866</v>
+        <v>54.98303936040394</v>
       </c>
       <c r="C185">
-        <v>17.657571035838604</v>
+        <v>19.999999995560433</v>
       </c>
       <c r="D185">
-        <v>0.9918708550027184</v>
+        <v>0.9897283680489294</v>
       </c>
       <c r="E185">
-        <v>0.030108655122193028</v>
+        <v>-0.050570944208574845</v>
       </c>
       <c r="F185">
-        <v>0.12354534829636059</v>
+        <v>0.13102071885524144</v>
       </c>
       <c r="G185">
-        <v>-0.0005602627766132412</v>
+        <v>0.026026254713123156</v>
       </c>
     </row>
     <row r="186" spans="1:7">
       <c r="A186">
-        <v>57.33816690150916</v>
+        <v>65.30872012314728</v>
       </c>
       <c r="B186">
-        <v>49.95743767141848</v>
+        <v>55.00358584849666</v>
       </c>
       <c r="C186">
-        <v>17.72111906134901</v>
+        <v>19.9999999955592</v>
       </c>
       <c r="D186">
-        <v>0.9904995193703426</v>
+        <v>0.9897984054646367</v>
       </c>
       <c r="E186">
-        <v>0.1280495084251187</v>
+        <v>-0.04998744413338902</v>
       </c>
       <c r="F186">
-        <v>-0.04940829968426286</v>
+        <v>0.13085618240778657</v>
       </c>
       <c r="G186">
-        <v>-0.006546144234652605</v>
+        <v>0.02531909634661158</v>
       </c>
     </row>
     <row r="187" spans="1:7">
       <c r="A187">
-        <v>57.36335864866661</v>
+        <v>65.36241552283528</v>
       </c>
       <c r="B187">
-        <v>49.92584382403779</v>
+        <v>55.02389433873646</v>
       </c>
       <c r="C187">
-        <v>17.76367969144073</v>
+        <v>19.999999995557978</v>
       </c>
       <c r="D187">
-        <v>0.9954438304853281</v>
+        <v>0.9898663235169637</v>
       </c>
       <c r="E187">
-        <v>0.07453101133030389</v>
+        <v>-0.04941062842696647</v>
       </c>
       <c r="F187">
-        <v>0.05942837930493375</v>
+        <v>0.13069557614027608</v>
       </c>
       <c r="G187">
-        <v>6.255148289847377e-6</v>
+        <v>0.024626974247043347</v>
       </c>
     </row>
     <row r="188" spans="1:7">
       <c r="A188">
-        <v>57.334742193942205</v>
+        <v>65.4160445743422</v>
       </c>
       <c r="B188">
-        <v>49.98168879946378</v>
+        <v>55.04396759385827</v>
       </c>
       <c r="C188">
-        <v>17.884221784602794</v>
+        <v>19.999999995556756</v>
       </c>
       <c r="D188">
-        <v>0.9902597969164673</v>
+        <v>0.9899321976507287</v>
       </c>
       <c r="E188">
-        <v>-0.1237911606076068</v>
+        <v>-0.04884042066482155</v>
       </c>
       <c r="F188">
-        <v>-0.06343168199556339</v>
+        <v>0.1305387625659542</v>
       </c>
       <c r="G188">
-        <v>0.0025043382457233744</v>
+        <v>0.023949581054329396</v>
       </c>
     </row>
     <row r="189" spans="1:7">
       <c r="A189">
-        <v>57.33582390379438</v>
+        <v>65.4696088462861</v>
       </c>
       <c r="B189">
-        <v>50.029631067920114</v>
+        <v>55.06380834424927</v>
       </c>
       <c r="C189">
-        <v>17.743965834480324</v>
+        <v>19.999999995555548</v>
       </c>
       <c r="D189">
-        <v>0.9912522922176186</v>
+        <v>0.9899961019079023</v>
       </c>
       <c r="E189">
-        <v>-0.13185882959991815</v>
+        <v>-0.04827674752423014</v>
       </c>
       <c r="F189">
-        <v>0.0029752044796521274</v>
+        <v>0.13038560464897322</v>
       </c>
       <c r="G189">
-        <v>-7.087888243556919e-5</v>
+        <v>0.023286574935446145</v>
       </c>
     </row>
     <row r="190" spans="1:7">
       <c r="A190">
-        <v>57.334856859757416</v>
+        <v>65.52310992064206</v>
       </c>
       <c r="B190">
-        <v>49.97752057266744</v>
+        <v>55.0834193229667</v>
       </c>
       <c r="C190">
-        <v>17.730426243059224</v>
+        <v>19.999999995554703</v>
       </c>
       <c r="D190">
-        <v>0.9917135766160649</v>
+        <v>0.9900580491942608</v>
       </c>
       <c r="E190">
-        <v>0.12837644007684787</v>
+        <v>-0.047719617801186553</v>
       </c>
       <c r="F190">
-        <v>-0.00238297345736972</v>
+        <v>0.13023613703649065</v>
       </c>
       <c r="G190">
-        <v>-0.00035623722030914183</v>
+        <v>0.022639026126923905</v>
       </c>
     </row>
     <row r="191" spans="1:7">
       <c r="A191">
-        <v>57.37109382625621</v>
+        <v>65.57654918783956</v>
       </c>
       <c r="B191">
-        <v>50.01313694470886</v>
+        <v>55.10280315809138</v>
       </c>
       <c r="C191">
-        <v>17.607730519850143</v>
+        <v>19.99999999555351</v>
       </c>
       <c r="D191">
-        <v>0.9904908054661328</v>
+        <v>0.9901182221765454</v>
       </c>
       <c r="E191">
-        <v>-0.09636284377883886</v>
+        <v>-0.047168786464612686</v>
       </c>
       <c r="F191">
-        <v>0.09804190998681901</v>
+        <v>0.1300899090038593</v>
       </c>
       <c r="G191">
-        <v>4.876918752453618e-16</v>
+        <v>0.02200390354399895</v>
       </c>
     </row>
     <row r="192" spans="1:7">
       <c r="A192">
-        <v>57.360711422723135</v>
+        <v>65.62992805729256</v>
       </c>
       <c r="B192">
-        <v>50.06436522423987</v>
+        <v>55.121962482740166</v>
       </c>
       <c r="C192">
-        <v>17.53224152389843</v>
+        <v>19.999999995552326</v>
       </c>
       <c r="D192">
-        <v>0.9907365498809276</v>
+        <v>0.9901766267747756</v>
       </c>
       <c r="E192">
-        <v>-0.13293357622552163</v>
+        <v>-0.04662426751308745</v>
       </c>
       <c r="F192">
-        <v>-0.026937056290443025</v>
+        <v>0.12994696815363552</v>
       </c>
       <c r="G192">
-        <v>0.004414185288446366</v>
+        <v>0.02138229606204893</v>
       </c>
     </row>
     <row r="193" spans="1:7">
       <c r="A193">
-        <v>57.35508782369422</v>
+        <v>65.68324788913093</v>
       </c>
       <c r="B193">
-        <v>50.00939273840443</v>
+        <v>55.14089989840422</v>
       </c>
       <c r="C193">
-        <v>17.597899753000814</v>
+        <v>19.99999999555115</v>
       </c>
       <c r="D193">
-        <v>0.9917883649744517</v>
+        <v>0.9902333252431913</v>
       </c>
       <c r="E193">
-        <v>0.1271305856263251</v>
+        <v>-0.04608598836382652</v>
       </c>
       <c r="F193">
-        <v>-0.013004138783310956</v>
+        <v>0.12980720032322948</v>
       </c>
       <c r="G193">
-        <v>-0.0014789919529447349</v>
+        <v>0.020773922522864554</v>
       </c>
     </row>
     <row r="194" spans="1:7">
       <c r="A194">
-        <v>57.35259614599184</v>
+        <v>65.73650518056594</v>
       </c>
       <c r="B194">
-        <v>50.050104562960236</v>
+        <v>55.15963658835438</v>
       </c>
       <c r="C194">
-        <v>17.76348679085877</v>
+        <v>19.99999999554626</v>
       </c>
       <c r="D194">
-        <v>0.9961413402386408</v>
+        <v>0.9902866101864172</v>
       </c>
       <c r="E194">
-        <v>-0.08758233243118582</v>
+        <v>-0.04559909147038523</v>
       </c>
       <c r="F194">
-        <v>-0.005360045461635549</v>
+        <v>0.12965863341800313</v>
       </c>
       <c r="G194">
-        <v>1.7402896613478923e-6</v>
+        <v>0.020238832284623476</v>
       </c>
     </row>
     <row r="195" spans="1:7">
       <c r="A195">
-        <v>57.32523449250275</v>
+        <v>65.78970626885058</v>
       </c>
       <c r="B195">
-        <v>49.99560245913806</v>
+        <v>55.178156490888604</v>
       </c>
       <c r="C195">
-        <v>17.78727321759385</v>
+        <v>19.99999999554511</v>
       </c>
       <c r="D195">
-        <v>0.9892654834070386</v>
+        <v>0.9903399091601546</v>
       </c>
       <c r="E195">
-        <v>0.1301017225691194</v>
+        <v>-0.045073097745371785</v>
       </c>
       <c r="F195">
-        <v>-0.0653049207615498</v>
+        <v>0.12952549287621398</v>
       </c>
       <c r="G195">
-        <v>-0.011142682103405485</v>
+        <v>0.019663241020855676</v>
       </c>
     </row>
     <row r="196" spans="1:7">
       <c r="A196">
-        <v>57.31097422350089</v>
+        <v>65.8428521736006</v>
       </c>
       <c r="B196">
-        <v>49.94186081261802</v>
+        <v>55.19646146796974</v>
       </c>
       <c r="C196">
-        <v>17.814706255686716</v>
+        <v>19.999999995544044</v>
       </c>
       <c r="D196">
-        <v>0.9911645096430348</v>
+        <v>0.9903919762890387</v>
       </c>
       <c r="E196">
-        <v>0.1280339859727049</v>
+        <v>-0.04455157038098244</v>
       </c>
       <c r="F196">
-        <v>-0.03397005285029238</v>
+        <v>0.12939473576277927</v>
       </c>
       <c r="G196">
-        <v>-0.004509647464023641</v>
+        <v>0.019091739238806343</v>
       </c>
     </row>
     <row r="197" spans="1:7">
       <c r="A197">
-        <v>57.29126035943305</v>
+        <v>65.89594414652719</v>
       </c>
       <c r="B197">
-        <v>49.888019680855116</v>
+        <v>55.21455395081613</v>
       </c>
       <c r="C197">
-        <v>17.8402207632339</v>
+        <v>19.99999999554393</v>
       </c>
       <c r="D197">
-        <v>0.9905666381269416</v>
+        <v>0.9904425218976345</v>
       </c>
       <c r="E197">
-        <v>0.12842955215440147</v>
+        <v>-0.04403588169475721</v>
       </c>
       <c r="F197">
-        <v>-0.04701886524274815</v>
+        <v>0.12926690520515943</v>
       </c>
       <c r="G197">
-        <v>-0.006575549088165659</v>
+        <v>0.0185335117528722</v>
       </c>
     </row>
     <row r="198" spans="1:7">
       <c r="A198">
-        <v>57.31702409095708</v>
+        <v>65.94913613682829</v>
       </c>
       <c r="B198">
-        <v>49.9348484860449</v>
+        <v>55.23239660786686</v>
       </c>
       <c r="C198">
-        <v>17.75501532467073</v>
+        <v>19.999999995546005</v>
       </c>
       <c r="D198">
-        <v>0.990158524037777</v>
+        <v>0.9904250904123064</v>
       </c>
       <c r="E198">
-        <v>-0.12251598311550417</v>
+        <v>-0.04342659113166094</v>
       </c>
       <c r="F198">
-        <v>0.06740373769458485</v>
+        <v>0.1295089207859446</v>
       </c>
       <c r="G198">
-        <v>-0.000769959335657395</v>
+        <v>0.01919676681014556</v>
       </c>
     </row>
     <row r="199" spans="1:7">
       <c r="A199">
-        <v>57.34581325105613</v>
+        <v>66.00423455913297</v>
       </c>
       <c r="B199">
-        <v>49.90813763803566</v>
+        <v>55.25260202618168</v>
       </c>
       <c r="C199">
-        <v>17.7637734918585</v>
+        <v>19.999999995592134</v>
       </c>
       <c r="D199">
-        <v>0.9954575739417819</v>
+        <v>0.9891077505029037</v>
       </c>
       <c r="E199">
-        <v>0.06473693137231935</v>
+        <v>-0.04912869769812546</v>
       </c>
       <c r="F199">
-        <v>0.06977412368995384</v>
+        <v>0.13404996465966468</v>
       </c>
       <c r="G199">
-        <v>5.839637458967025e-6</v>
+        <v>0.035221014577676006</v>
       </c>
     </row>
     <row r="200" spans="1:7">
       <c r="A200">
-        <v>57.379778742789114</v>
+        <v>66.0592338875169</v>
       </c>
       <c r="B200">
-        <v>49.9290849131006</v>
+        <v>55.27257120502084</v>
       </c>
       <c r="C200">
-        <v>17.75538769488193</v>
+        <v>19.99999999559139</v>
       </c>
       <c r="D200">
-        <v>0.9951768346025865</v>
+        <v>0.9891991893355481</v>
       </c>
       <c r="E200">
-        <v>-0.051475719846784035</v>
+        <v>-0.04855727678709604</v>
       </c>
       <c r="F200">
-        <v>0.0834665488597771</v>
+        <v>0.13381587872701262</v>
       </c>
       <c r="G200">
-        <v>4.4118416854674395e-7</v>
+        <v>0.03433615830786538</v>
       </c>
     </row>
     <row r="201" spans="1:7">
       <c r="A201">
-        <v>57.39318723086551</v>
+        <v>66.11413651288363</v>
       </c>
       <c r="B201">
-        <v>49.9117061393793</v>
+        <v>55.29230698321954</v>
       </c>
       <c r="C201">
-        <v>17.877484905389466</v>
+        <v>19.999999995590656</v>
       </c>
       <c r="D201">
-        <v>0.9988153826346249</v>
+        <v>0.9892876869478016</v>
       </c>
       <c r="E201">
-        <v>0.038646978140513814</v>
+        <v>-0.04799259691206147</v>
       </c>
       <c r="F201">
-        <v>0.02980997754651777</v>
+        <v>0.13358734172939513</v>
       </c>
       <c r="G201">
-        <v>-0.00011192162146727907</v>
+        <v>0.03347086586931417</v>
       </c>
     </row>
   </sheetData>

--- a/src/Quadrotor_States.xlsx
+++ b/src/Quadrotor_States.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:G135"/>
+  <dimension ref="A1:G335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -428,3084 +428,7684 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>220.01225679121816</v>
+        <v>220.00161247196363</v>
       </c>
       <c r="B2">
-        <v>249.99642264952413</v>
+        <v>250.00304572773982</v>
       </c>
       <c r="C2">
-        <v>10.865211288767476</v>
+        <v>10.864932859867057</v>
       </c>
       <c r="D2">
-        <v>0.9998384276180519</v>
+        <v>0.9999949711868145</v>
       </c>
       <c r="E2">
-        <v>0.005133563884578983</v>
+        <v>-0.004369348578583107</v>
       </c>
       <c r="F2">
-        <v>0.017571173071518956</v>
+        <v>0.0023132245259711005</v>
       </c>
       <c r="G2">
-        <v>6.715159996869313e-5</v>
+        <v>1.5590943710959817e-9</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>220.02300577860214</v>
+        <v>219.99998396037807</v>
       </c>
       <c r="B3">
-        <v>249.9976171183165</v>
+        <v>249.98479486683777</v>
       </c>
       <c r="C3">
-        <v>11.650836204737</v>
+        <v>11.65085674889424</v>
       </c>
       <c r="D3">
-        <v>0.9998756603234488</v>
+        <v>0.999637612243637</v>
       </c>
       <c r="E3">
-        <v>-0.001779873859285494</v>
+        <v>0.027218655244469217</v>
       </c>
       <c r="F3">
-        <v>0.0160226390723078</v>
+        <v>-0.002425452565253762</v>
       </c>
       <c r="G3">
-        <v>-1.9116018417397383e-6</v>
+        <v>0.0002598737153061081</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>220.03430518676683</v>
+        <v>219.9315174052738</v>
       </c>
       <c r="B4">
-        <v>249.99888689491212</v>
+        <v>249.96371063599284</v>
       </c>
       <c r="C4">
-        <v>12.364284359682086</v>
+        <v>12.404905536454201</v>
       </c>
       <c r="D4">
-        <v>0.9998510495931294</v>
+        <v>0.994124773549282</v>
       </c>
       <c r="E4">
-        <v>-0.0019623151990254164</v>
+        <v>0.03184518088240073</v>
       </c>
       <c r="F4">
-        <v>0.01746818197339166</v>
+        <v>-0.10341508448916645</v>
       </c>
       <c r="G4">
-        <v>-1.80190379895812e-5</v>
+        <v>7.620145357545057e-5</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>220.0466060109103</v>
+        <v>219.86057401157285</v>
       </c>
       <c r="B5">
-        <v>250.0002678845103</v>
+        <v>249.9418647951909</v>
       </c>
       <c r="C5">
-        <v>13.012454818608475</v>
+        <v>13.09485463514368</v>
       </c>
       <c r="D5">
-        <v>0.9998103090345747</v>
+        <v>0.993265117994317</v>
       </c>
       <c r="E5">
-        <v>-0.0022103592744790483</v>
+        <v>0.03408450432434549</v>
       </c>
       <c r="F5">
-        <v>0.019675863244046396</v>
+        <v>-0.11069297970929574</v>
       </c>
       <c r="G5">
-        <v>-2.926602411813024e-6</v>
+        <v>8.577249466408566e-5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>220.05936282017356</v>
+        <v>219.78709409428978</v>
       </c>
       <c r="B6">
-        <v>250.00170006444105</v>
+        <v>249.91923903293434</v>
       </c>
       <c r="C6">
-        <v>13.60106613383217</v>
+        <v>13.727059626747039</v>
       </c>
       <c r="D6">
-        <v>0.9997820000079324</v>
+        <v>0.9923217452316513</v>
       </c>
       <c r="E6">
-        <v>-0.0023675084180262225</v>
+        <v>0.036380913664053494</v>
       </c>
       <c r="F6">
-        <v>0.02107268932042595</v>
+        <v>-0.11815699653084477</v>
       </c>
       <c r="G6">
-        <v>-4.025594541445244e-6</v>
+        <v>9.559662635508384e-5</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>220.07261371855864</v>
+        <v>219.71102217839018</v>
       </c>
       <c r="B7">
-        <v>250.00318767285484</v>
+        <v>249.8958164641297</v>
       </c>
       <c r="C7">
-        <v>14.135602555926026</v>
+        <v>14.307293251024392</v>
       </c>
       <c r="D7">
-        <v>0.9997496974673475</v>
+        <v>0.9912936900948011</v>
       </c>
       <c r="E7">
-        <v>-0.0025347173998615633</v>
+        <v>0.038725544016615356</v>
       </c>
       <c r="F7">
-        <v>0.02255850592080052</v>
+        <v>-0.12577906314720025</v>
       </c>
       <c r="G7">
-        <v>-5.145836903281547e-6</v>
+        <v>0.00010682655531169217</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>220.08637351909576</v>
+        <v>219.6323082837821</v>
       </c>
       <c r="B8">
-        <v>250.0047323591234</v>
+        <v>249.8715824050836</v>
       </c>
       <c r="C8">
-        <v>14.621031655784664</v>
+        <v>14.840811807927965</v>
       </c>
       <c r="D8">
-        <v>0.9997140116455226</v>
+        <v>0.9901814205672107</v>
       </c>
       <c r="E8">
-        <v>-0.0027075566676357005</v>
+        <v>0.04110769481571728</v>
       </c>
       <c r="F8">
-        <v>0.024093896780239415</v>
+        <v>-0.13352731187306413</v>
       </c>
       <c r="G8">
-        <v>-6.493831613120667e-6</v>
+        <v>0.00012333475189659537</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>220.10065353427896</v>
+        <v>219.55090876898836</v>
       </c>
       <c r="B9">
-        <v>250.006335378454</v>
+        <v>249.8465255431747</v>
       </c>
       <c r="C9">
-        <v>15.061863809981476</v>
+        <v>15.332377897083443</v>
       </c>
       <c r="D9">
-        <v>0.999674937840284</v>
+        <v>0.9889865319946416</v>
       </c>
       <c r="E9">
-        <v>-0.002885062803442497</v>
+        <v>0.04351498599700289</v>
       </c>
       <c r="F9">
-        <v>0.02567023217504442</v>
+        <v>-0.1413698369863821</v>
       </c>
       <c r="G9">
-        <v>-8.094465762037232e-6</v>
+        <v>0.000154930607481574</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>220.11543467394614</v>
+        <v>219.46678841622423</v>
       </c>
       <c r="B10">
-        <v>250.00799463731667</v>
+        <v>249.82064028375154</v>
       </c>
       <c r="C10">
-        <v>15.462167791342372</v>
+        <v>15.786302724523667</v>
       </c>
       <c r="D10">
-        <v>0.9996339342464682</v>
+        <v>0.9877124247689654</v>
       </c>
       <c r="E10">
-        <v>-0.0030606291576822063</v>
+        <v>0.04593081996011317</v>
       </c>
       <c r="F10">
-        <v>0.027229080302460244</v>
+        <v>-0.14927156797857566</v>
       </c>
       <c r="G10">
-        <v>-1.0311003301002516e-5</v>
+        <v>0.0002216435791297445</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>220.13074469880462</v>
+        <v>219.38038772964362</v>
       </c>
       <c r="B11">
-        <v>250.00971318042994</v>
+        <v>249.79410073389155</v>
       </c>
       <c r="C11">
-        <v>15.825686748027417</v>
+        <v>16.206431506171484</v>
       </c>
       <c r="D11">
-        <v>0.9995886340166648</v>
+        <v>0.9865141412111145</v>
       </c>
       <c r="E11">
-        <v>-0.003243438152036992</v>
+        <v>0.048020344448926854</v>
       </c>
       <c r="F11">
-        <v>0.028851443151706083</v>
+        <v>-0.15636229548923256</v>
       </c>
       <c r="G11">
-        <v>-1.2538722114179216e-5</v>
+        <v>0.0005236478989573354</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>220.1469439434719</v>
+        <v>219.29125168833914</v>
       </c>
       <c r="B12">
-        <v>250.01152298954383</v>
+        <v>249.7667815158285</v>
       </c>
       <c r="C12">
-        <v>16.156182710089137</v>
+        <v>16.59630588304179</v>
       </c>
       <c r="D12">
-        <v>0.9995073236232028</v>
+        <v>0.9851200236309169</v>
       </c>
       <c r="E12">
-        <v>-0.003471788813982689</v>
+        <v>0.050318418520016714</v>
       </c>
       <c r="F12">
-        <v>0.031207304246575925</v>
+        <v>-0.16421320381822435</v>
       </c>
       <c r="G12">
-        <v>0.0006996499127591318</v>
+        <v>0.0009121981052541448</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>220.1607225515799</v>
+        <v>219.19890162527733</v>
       </c>
       <c r="B13">
-        <v>249.89813334805405</v>
+        <v>249.73841536851643</v>
       </c>
       <c r="C13">
-        <v>16.591336851379452</v>
+        <v>16.959036849172833</v>
       </c>
       <c r="D13">
-        <v>0.9788715115191704</v>
+        <v>0.9834809857417132</v>
       </c>
       <c r="E13">
-        <v>0.20260059982756817</v>
+        <v>0.05310480395396608</v>
       </c>
       <c r="F13">
-        <v>0.024587632685571334</v>
+        <v>-0.17290374257887767</v>
       </c>
       <c r="G13">
-        <v>0.0017129212107868253</v>
+        <v>0.0005948250077465706</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>220.17533133348343</v>
+        <v>219.10397287147595</v>
       </c>
       <c r="B14">
-        <v>249.78142109280262</v>
+        <v>249.70908113464617</v>
       </c>
       <c r="C14">
-        <v>16.995839951480697</v>
+        <v>17.297096028992947</v>
       </c>
       <c r="D14">
-        <v>0.9767801350949286</v>
+        <v>0.9819850523558972</v>
       </c>
       <c r="E14">
-        <v>0.21222035971990427</v>
+        <v>0.055744283564998304</v>
       </c>
       <c r="F14">
-        <v>0.0265551985208</v>
+        <v>-0.18039722703600117</v>
       </c>
       <c r="G14">
-        <v>-0.0008170069905421471</v>
+        <v>-0.0003567090596625765</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>220.1906153473178</v>
+        <v>219.00655944733944</v>
       </c>
       <c r="B15">
-        <v>249.6617051097915</v>
+        <v>249.67888381424896</v>
       </c>
       <c r="C15">
-        <v>17.374941196171388</v>
+        <v>17.6131018337062</v>
       </c>
       <c r="D15">
-        <v>0.9747814133177344</v>
+        <v>0.9804905289469334</v>
       </c>
       <c r="E15">
-        <v>0.22090625245682607</v>
+        <v>0.05815939272157968</v>
       </c>
       <c r="F15">
-        <v>0.02820380503754211</v>
+        <v>-0.18761533564215313</v>
       </c>
       <c r="G15">
-        <v>-0.0014301790864490347</v>
+        <v>-0.000824429044377538</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>220.13858588723727</v>
+        <v>218.9041731421982</v>
       </c>
       <c r="B16">
-        <v>249.54336399183026</v>
+        <v>249.6473075768995</v>
       </c>
       <c r="C16">
-        <v>17.744721003903145</v>
+        <v>17.912584127371503</v>
       </c>
       <c r="D16">
-        <v>0.9707623802436113</v>
+        <v>0.9779970116385155</v>
       </c>
       <c r="E16">
-        <v>0.21919968657675146</v>
+        <v>0.06140615091206831</v>
       </c>
       <c r="F16">
-        <v>-0.0963740396841539</v>
+        <v>-0.1990884185644568</v>
       </c>
       <c r="G16">
-        <v>0.002201453295917663</v>
+        <v>-0.0001088437389030782</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>220.08429408297405</v>
+        <v>218.79765604401493</v>
       </c>
       <c r="B17">
-        <v>249.4243116825398</v>
+        <v>249.6144568263408</v>
       </c>
       <c r="C17">
-        <v>18.09161484514524</v>
+        <v>18.197678593700786</v>
       </c>
       <c r="D17">
-        <v>0.9691585006840486</v>
+        <v>0.9757298463840063</v>
       </c>
       <c r="E17">
-        <v>0.22354146747633713</v>
+        <v>0.06440452553828784</v>
       </c>
       <c r="F17">
-        <v>-0.10194706654591815</v>
+        <v>-0.208875596921385</v>
       </c>
       <c r="G17">
-        <v>0.007582527516787518</v>
+        <v>-0.00016959822140886135</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>220.0276763906138</v>
+        <v>218.6861932720617</v>
       </c>
       <c r="B18">
-        <v>249.30450383965302</v>
+        <v>249.57986588218458</v>
       </c>
       <c r="C18">
-        <v>18.41807276603629</v>
+        <v>18.472006721110013</v>
       </c>
       <c r="D18">
-        <v>0.9674891616990248</v>
+        <v>0.9730239429499012</v>
       </c>
       <c r="E18">
-        <v>0.22772407120964835</v>
+        <v>0.06822572044442315</v>
       </c>
       <c r="F18">
-        <v>-0.10762315314188357</v>
+        <v>-0.21984283697285614</v>
       </c>
       <c r="G18">
-        <v>0.013347235642623143</v>
+        <v>-0.0007576632126038762</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>219.9685640891508</v>
+        <v>218.57328558522596</v>
       </c>
       <c r="B19">
-        <v>249.18385126425025</v>
+        <v>249.543295245865</v>
       </c>
       <c r="C19">
-        <v>18.726511041828886</v>
+        <v>18.7317548484049</v>
       </c>
       <c r="D19">
-        <v>0.9657028462634782</v>
+        <v>0.9715537847260378</v>
       </c>
       <c r="E19">
-        <v>0.2318051578108925</v>
+        <v>0.07278581796760396</v>
       </c>
       <c r="F19">
-        <v>-0.1135791751571041</v>
+        <v>-0.2247091582600605</v>
       </c>
       <c r="G19">
-        <v>0.019946129535508766</v>
+        <v>-0.005203293171305134</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>219.88151257313305</v>
+        <v>218.45872129807785</v>
       </c>
       <c r="B20">
-        <v>249.0690662375377</v>
+        <v>249.50437342875819</v>
       </c>
       <c r="C20">
-        <v>19.03866465240307</v>
+        <v>18.979507672682583</v>
       </c>
       <c r="D20">
-        <v>0.9610471250235828</v>
+        <v>0.9699218160398106</v>
       </c>
       <c r="E20">
-        <v>0.2194980989222009</v>
+        <v>0.07803289601874865</v>
       </c>
       <c r="F20">
-        <v>-0.16646533198270244</v>
+        <v>-0.22966736793423678</v>
       </c>
       <c r="G20">
-        <v>0.0024676181208597124</v>
+        <v>-0.01098050385716717</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>219.79323080319963</v>
+        <v>218.34219903877698</v>
       </c>
       <c r="B21">
-        <v>248.95436737359609</v>
+        <v>249.46245950242385</v>
       </c>
       <c r="C21">
-        <v>19.3329514223405</v>
+        <v>19.2179688493092</v>
       </c>
       <c r="D21">
-        <v>0.9597564726046723</v>
+        <v>0.9679913091083173</v>
       </c>
       <c r="E21">
-        <v>0.2217651689406523</v>
+        <v>0.0844827917742969</v>
       </c>
       <c r="F21">
-        <v>-0.17069028139420722</v>
+        <v>-0.23483761798741704</v>
       </c>
       <c r="G21">
-        <v>0.005407025258503587</v>
+        <v>-0.019229853876055032</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>219.70367359919345</v>
+        <v>218.22358144223955</v>
       </c>
       <c r="B22">
-        <v>248.83969166500728</v>
+        <v>249.41760545143188</v>
       </c>
       <c r="C22">
-        <v>19.61109330803554</v>
+        <v>19.44926854716462</v>
       </c>
       <c r="D22">
-        <v>0.9584487914965601</v>
+        <v>0.9659461373935423</v>
       </c>
       <c r="E22">
-        <v>0.22394997865623456</v>
+        <v>0.0907557846393539</v>
       </c>
       <c r="F22">
-        <v>-0.1748975573351231</v>
+        <v>-0.23997385146215217</v>
       </c>
       <c r="G22">
-        <v>0.008569101513254943</v>
+        <v>-0.027210052054869874</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>219.6157967787856</v>
+        <v>218.102727519281</v>
       </c>
       <c r="B23">
-        <v>248.7275227809181</v>
+        <v>249.3697498034633</v>
       </c>
       <c r="C23">
-        <v>19.850817537924563</v>
+        <v>19.675539747034854</v>
       </c>
       <c r="D23">
-        <v>0.9580296782192427</v>
+        <v>0.9637489092481973</v>
       </c>
       <c r="E23">
-        <v>0.224746692521825</v>
+        <v>0.09704888516873775</v>
       </c>
       <c r="F23">
-        <v>-0.1760749173335999</v>
+        <v>-0.24505328369339133</v>
       </c>
       <c r="G23">
-        <v>0.009696884936176141</v>
+        <v>-0.03578193879914565</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>219.5364528340246</v>
+        <v>217.98580302919558</v>
       </c>
       <c r="B24">
-        <v>248.62457720896657</v>
+        <v>249.34458414316876</v>
       </c>
       <c r="C24">
-        <v>19.987758538950683</v>
+        <v>19.851455810828874</v>
       </c>
       <c r="D24">
-        <v>0.9596191213185702</v>
+        <v>0.9663139399422772</v>
       </c>
       <c r="E24">
-        <v>0.22199877107518207</v>
+        <v>0.05294187936144857</v>
       </c>
       <c r="F24">
-        <v>-0.17110422314491594</v>
+        <v>-0.24587187795581825</v>
       </c>
       <c r="G24">
-        <v>0.006567682016065179</v>
+        <v>-0.05091321446282433</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>219.47198302024165</v>
+        <v>217.87474875100276</v>
       </c>
       <c r="B25">
-        <v>248.5378737295715</v>
+        <v>249.31794177008294</v>
       </c>
       <c r="C25">
-        <v>19.999962359701183</v>
+        <v>19.959070911928464</v>
       </c>
       <c r="D25">
-        <v>0.966143303235273</v>
+        <v>0.9654497776597875</v>
       </c>
       <c r="E25">
-        <v>0.2064887393016538</v>
+        <v>0.05888299401550622</v>
       </c>
       <c r="F25">
-        <v>-0.15353340262889087</v>
+        <v>-0.24533382018123792</v>
       </c>
       <c r="G25">
-        <v>9.6196876213902e-5</v>
+        <v>-0.061910239967764916</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>219.40835206887635</v>
+        <v>217.77270784594972</v>
       </c>
       <c r="B26">
-        <v>248.4522986052302</v>
+        <v>249.2845528517568</v>
       </c>
       <c r="C26">
-        <v>19.999961579963813</v>
+        <v>19.99999999923846</v>
       </c>
       <c r="D26">
-        <v>0.9663563251783777</v>
+        <v>0.9675256517585373</v>
       </c>
       <c r="E26">
-        <v>0.20585209635529375</v>
+        <v>0.07777120031360847</v>
       </c>
       <c r="F26">
-        <v>-0.15306064105148048</v>
+        <v>-0.2376301631129942</v>
       </c>
       <c r="G26">
-        <v>9.964222138222857e-5</v>
+        <v>-0.03203217548818002</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>219.34472179532392</v>
+        <v>217.67468136301088</v>
       </c>
       <c r="B27">
-        <v>248.36672291358263</v>
+        <v>249.25406811475452</v>
       </c>
       <c r="C27">
-        <v>19.999961575690282</v>
+        <v>19.99999999950926</v>
       </c>
       <c r="D27">
-        <v>0.9663563341014944</v>
+        <v>0.9684363995894271</v>
       </c>
       <c r="E27">
-        <v>0.2058533364974183</v>
+        <v>0.07341288647238221</v>
       </c>
       <c r="F27">
-        <v>-0.1530589181539093</v>
+        <v>-0.23602087730023324</v>
       </c>
       <c r="G27">
-        <v>9.963305876439522e-5</v>
+        <v>-0.026558842056756547</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>219.28109227859355</v>
+        <v>217.57662387660537</v>
       </c>
       <c r="B28">
-        <v>248.28114670638686</v>
+        <v>249.22648776760198</v>
       </c>
       <c r="C28">
-        <v>19.99996157486726</v>
+        <v>19.99999999951721</v>
       </c>
       <c r="D28">
-        <v>0.9663563584519366</v>
+        <v>0.9688603773851537</v>
       </c>
       <c r="E28">
-        <v>0.2058545777794346</v>
+        <v>0.06643442963689401</v>
       </c>
       <c r="F28">
-        <v>-0.15305709814742793</v>
+        <v>-0.23614245904537812</v>
       </c>
       <c r="G28">
-        <v>9.962410450547972e-5</v>
+        <v>-0.02846780835086507</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>219.21746354908123</v>
+        <v>217.47856530167235</v>
       </c>
       <c r="B29">
-        <v>248.19556996535937</v>
+        <v>249.19902633503727</v>
       </c>
       <c r="C29">
-        <v>19.99996157773971</v>
+        <v>19.999999999510308</v>
       </c>
       <c r="D29">
-        <v>0.9663563842148155</v>
+        <v>0.9688775256555021</v>
       </c>
       <c r="E29">
-        <v>0.20585586532127234</v>
+        <v>0.06614864454596125</v>
       </c>
       <c r="F29">
-        <v>-0.15305520686686594</v>
+        <v>-0.23614703222248135</v>
       </c>
       <c r="G29">
-        <v>9.961468879611041e-5</v>
+        <v>-0.02851745969567128</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>219.15383563913446</v>
+        <v>217.38050563031962</v>
       </c>
       <c r="B30">
-        <v>248.10999267022393</v>
+        <v>249.17168642578065</v>
       </c>
       <c r="C30">
-        <v>19.999961573119048</v>
+        <v>19.999999999553044</v>
       </c>
       <c r="D30">
-        <v>0.9663564120037893</v>
+        <v>0.9688950271114888</v>
       </c>
       <c r="E30">
-        <v>0.20585720155147413</v>
+        <v>0.0658565843721564</v>
       </c>
       <c r="F30">
-        <v>-0.15305323761285233</v>
+        <v>-0.2361516684972032</v>
       </c>
       <c r="G30">
-        <v>9.960495321229557e-5</v>
+        <v>-0.02856624918706379</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <v>219.09020858311177</v>
+        <v>217.2824448553929</v>
       </c>
       <c r="B31">
-        <v>248.02441479807348</v>
+        <v>249.14447074601168</v>
       </c>
       <c r="C31">
-        <v>19.999961577415625</v>
+        <v>19.999999999497145</v>
       </c>
       <c r="D31">
-        <v>0.9663564418539684</v>
+        <v>0.9689128947727195</v>
       </c>
       <c r="E31">
-        <v>0.20585859094879388</v>
+        <v>0.0655580145361585</v>
       </c>
       <c r="F31">
-        <v>-0.153051184156156</v>
+        <v>-0.2361563678619109</v>
       </c>
       <c r="G31">
-        <v>9.959486178158668e-5</v>
+        <v>-0.028614090113145616</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
-        <v>219.02658242027076</v>
+        <v>217.18438297053018</v>
       </c>
       <c r="B32">
-        <v>247.93883632637787</v>
+        <v>249.11738210452526</v>
       </c>
       <c r="C32">
-        <v>19.999961571771404</v>
+        <v>19.999999999468784</v>
       </c>
       <c r="D32">
-        <v>0.966356473713303</v>
+        <v>0.968931142332412</v>
       </c>
       <c r="E32">
-        <v>0.2058600385618267</v>
+        <v>0.0652526880189777</v>
       </c>
       <c r="F32">
-        <v>-0.15304903949169682</v>
+        <v>-0.23616113019673948</v>
       </c>
       <c r="G32">
-        <v>9.958415649947045e-5</v>
+        <v>-0.028660888848360495</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
-        <v>218.96295719133485</v>
+        <v>217.08631997034806</v>
       </c>
       <c r="B33">
-        <v>247.85325722794357</v>
+        <v>249.09042341830371</v>
       </c>
       <c r="C33">
-        <v>19.999961579428373</v>
+        <v>19.99999999954404</v>
       </c>
       <c r="D33">
-        <v>0.966356508361446</v>
+        <v>0.9689497842229423</v>
       </c>
       <c r="E33">
-        <v>0.205861548294878</v>
+        <v>0.06494034442622361</v>
       </c>
       <c r="F33">
-        <v>-0.15304679420052825</v>
+        <v>-0.23616595520173872</v>
       </c>
       <c r="G33">
-        <v>9.957309087288747e-5</v>
+        <v>-0.028706544145952098</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
-        <v>218.89933294318897</v>
+        <v>216.98825585048138</v>
       </c>
       <c r="B34">
-        <v>247.7676774758569</v>
+        <v>249.06359771840962</v>
       </c>
       <c r="C34">
-        <v>19.9999615777928</v>
+        <v>19.999999999450647</v>
       </c>
       <c r="D34">
-        <v>0.9663565459227299</v>
+        <v>0.9689688356401384</v>
       </c>
       <c r="E34">
-        <v>0.20586312625699343</v>
+        <v>0.06462070912882739</v>
       </c>
       <c r="F34">
-        <v>-0.15304443881251137</v>
+        <v>-0.23617084244610426</v>
       </c>
       <c r="G34">
-        <v>9.956141819531702e-5</v>
+        <v>-0.02875094654222214</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
-        <v>218.8357097257974</v>
+        <v>216.8901906077128</v>
       </c>
       <c r="B35">
-        <v>247.68209703836962</v>
+        <v>249.03690815632342</v>
       </c>
       <c r="C35">
-        <v>19.99996157837611</v>
+        <v>19.99999999955476</v>
       </c>
       <c r="D35">
-        <v>0.9663565867255675</v>
+        <v>0.9689883126058436</v>
       </c>
       <c r="E35">
-        <v>0.20586477929561395</v>
+        <v>0.06429349223304394</v>
       </c>
       <c r="F35">
-        <v>-0.15304196224334887</v>
+        <v>-0.2361757913105515</v>
       </c>
       <c r="G35">
-        <v>9.954914709053134e-5</v>
+        <v>-0.02879397760912591</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36">
-        <v>218.7720875953109</v>
+        <v>216.79212424017655</v>
       </c>
       <c r="B36">
-        <v>247.59651588159917</v>
+        <v>249.0103580107856</v>
       </c>
       <c r="C36">
-        <v>19.999961576172005</v>
+        <v>19.999999999587224</v>
       </c>
       <c r="D36">
-        <v>0.9663566314923321</v>
+        <v>0.9690082320382762</v>
       </c>
       <c r="E36">
-        <v>0.20586651423347077</v>
+        <v>0.06395838739852512</v>
       </c>
       <c r="F36">
-        <v>-0.15303935084763506</v>
+        <v>-0.23618080094403304</v>
       </c>
       <c r="G36">
-        <v>9.953624450557603e-5</v>
+        <v>-0.028835509011112804</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37">
-        <v>218.70846661429619</v>
+        <v>216.6940567474162</v>
       </c>
       <c r="B37">
-        <v>247.51093396799348</v>
+        <v>248.9839506950495</v>
       </c>
       <c r="C37">
-        <v>19.99996157347484</v>
+        <v>19.999999999496442</v>
       </c>
       <c r="D37">
-        <v>0.9663566805097055</v>
+        <v>0.9690286117844813</v>
       </c>
       <c r="E37">
-        <v>0.20586834056395528</v>
+        <v>0.0636150707602395</v>
       </c>
       <c r="F37">
-        <v>-0.15303658982639914</v>
+        <v>-0.23618587029966961</v>
       </c>
       <c r="G37">
-        <v>9.952252383859349e-5</v>
+        <v>-0.028875401762962275</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38">
-        <v>218.64484685253612</v>
+        <v>216.5959881306408</v>
       </c>
       <c r="B38">
-        <v>247.42535125545774</v>
+        <v>248.9576897647667</v>
       </c>
       <c r="C38">
-        <v>19.9999615757709</v>
+        <v>19.99999999957917</v>
       </c>
       <c r="D38">
-        <v>0.966356735074952</v>
+        <v>0.9690494707169863</v>
       </c>
       <c r="E38">
-        <v>0.20587026696291522</v>
+        <v>0.06326319950160224</v>
       </c>
       <c r="F38">
-        <v>-0.15303365986909231</v>
+        <v>-0.23619099803125018</v>
       </c>
       <c r="G38">
-        <v>9.950809772133989e-5</v>
+        <v>-0.028913505074223644</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39">
-        <v>218.5812283897644</v>
+        <v>216.4979183928831</v>
       </c>
       <c r="B39">
-        <v>247.3397676980352</v>
+        <v>248.93157892642844</v>
       </c>
       <c r="C39">
-        <v>19.999961571724782</v>
+        <v>19.999999999518078</v>
       </c>
       <c r="D39">
-        <v>0.9663567957247496</v>
+        <v>0.9690708287899082</v>
       </c>
       <c r="E39">
-        <v>0.20587230626425365</v>
+        <v>0.06290241045336833</v>
       </c>
       <c r="F39">
-        <v>-0.1530305399264371</v>
+        <v>-0.2361961825127028</v>
       </c>
       <c r="G39">
-        <v>9.949267539329098e-5</v>
+        <v>-0.028949655249033687</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40">
-        <v>218.51761131584234</v>
+        <v>216.39984753918625</v>
       </c>
       <c r="B40">
-        <v>247.25418324288393</v>
+        <v>248.905622046438</v>
       </c>
       <c r="C40">
-        <v>19.999961577881187</v>
+        <v>19.99999999955866</v>
       </c>
       <c r="D40">
-        <v>0.9663568637467467</v>
+        <v>0.9690927071135282</v>
       </c>
       <c r="E40">
-        <v>0.20587447230399744</v>
+        <v>0.06253231857379438</v>
       </c>
       <c r="F40">
-        <v>-0.15302720350985347</v>
+        <v>-0.23620142179096387</v>
       </c>
       <c r="G40">
-        <v>9.947619891358491e-5</v>
+        <v>-0.028983674527354796</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41">
-        <v>218.4539957352032</v>
+        <v>216.3017755768503</v>
       </c>
       <c r="B41">
-        <v>247.16859783171802</v>
+        <v>248.87982316093874</v>
       </c>
       <c r="C41">
-        <v>19.999961578153993</v>
+        <v>19.99999999958504</v>
       </c>
       <c r="D41">
-        <v>0.9663569406358888</v>
+        <v>0.9691151280499002</v>
       </c>
       <c r="E41">
-        <v>0.20587678194186979</v>
+        <v>0.062152515149528485</v>
       </c>
       <c r="F41">
-        <v>-0.1530236184573407</v>
+        <v>-0.23620671353702788</v>
       </c>
       <c r="G41">
-        <v>9.945845311577314e-5</v>
+        <v>-0.029015369568644207</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42">
-        <v>218.39038176765436</v>
+        <v>216.2037025157025</v>
       </c>
       <c r="B42">
-        <v>247.08301139622355</v>
+        <v>248.85418648640103</v>
       </c>
       <c r="C42">
-        <v>19.99996157901011</v>
+        <v>19.999999999463256</v>
       </c>
       <c r="D42">
-        <v>0.9663570286738653</v>
+        <v>0.9691381152998515</v>
       </c>
       <c r="E42">
-        <v>0.20587925490438072</v>
+        <v>0.0617625659627126</v>
       </c>
       <c r="F42">
-        <v>-0.1530197443012298</v>
+        <v>-0.23621205499345138</v>
       </c>
       <c r="G42">
-        <v>9.943938442863202e-5</v>
+        <v>-0.029044529996317944</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43">
-        <v>218.32676955494708</v>
+        <v>216.1056283683589</v>
       </c>
       <c r="B43">
-        <v>246.9974238588593</v>
+        <v>248.8287164310626</v>
       </c>
       <c r="C43">
-        <v>19.999961580487668</v>
+        <v>19.99999999952888</v>
       </c>
       <c r="D43">
-        <v>0.966357130071178</v>
+        <v>0.9691616939988114</v>
       </c>
       <c r="E43">
-        <v>0.20588191740400089</v>
+        <v>0.06136200921410418</v>
       </c>
       <c r="F43">
-        <v>-0.1530155315250471</v>
+        <v>-0.2362174429414217</v>
       </c>
       <c r="G43">
-        <v>9.94185572325767e-5</v>
+        <v>-0.02907092665176323</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44">
-        <v>218.26315926526541</v>
+        <v>216.00755315056068</v>
       </c>
       <c r="B44">
-        <v>246.91183512859337</v>
+        <v>248.80341760734117</v>
       </c>
       <c r="C44">
-        <v>19.99996157667735</v>
+        <v>19.999999999503924</v>
       </c>
       <c r="D44">
-        <v>0.9663572490795227</v>
+        <v>0.9691858908330162</v>
       </c>
       <c r="E44">
-        <v>0.20588479913341484</v>
+        <v>0.06095035320206988</v>
       </c>
       <c r="F44">
-        <v>-0.1530109141498394</v>
+        <v>-0.23622287362772904</v>
       </c>
       <c r="G44">
-        <v>9.93958947241281e-5</v>
+        <v>-0.029094309604638824</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45">
-        <v>218.19955110279963</v>
+        <v>215.91627808067923</v>
       </c>
       <c r="B45">
-        <v>246.82624509848364</v>
+        <v>248.7464102650502</v>
       </c>
       <c r="C45">
-        <v>19.999961575262212</v>
+        <v>19.99995650698475</v>
       </c>
       <c r="D45">
-        <v>0.9663573902546756</v>
+        <v>0.9657345938193689</v>
       </c>
       <c r="E45">
-        <v>0.2058879411313577</v>
+        <v>0.13709196400613333</v>
       </c>
       <c r="F45">
-        <v>-0.15300580795452826</v>
+        <v>-0.21949951854150984</v>
       </c>
       <c r="G45">
-        <v>9.93707585820045e-5</v>
+        <v>0.00012887314992096813</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46">
-        <v>218.13594531966743</v>
+        <v>215.82499875696124</v>
       </c>
       <c r="B46">
-        <v>246.7406536403958</v>
+        <v>248.68939950477827</v>
       </c>
       <c r="C46">
-        <v>19.999961576950245</v>
+        <v>19.999956509101303</v>
       </c>
       <c r="D46">
-        <v>0.9663575614627995</v>
+        <v>0.965733585657421</v>
       </c>
       <c r="E46">
-        <v>0.20589139359126502</v>
+        <v>0.13709525097054867</v>
       </c>
       <c r="F46">
-        <v>-0.15300009674906245</v>
+        <v>-0.21950185056931182</v>
       </c>
       <c r="G46">
-        <v>9.934280744612931e-5</v>
+        <v>0.00012881335333886674</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47">
-        <v>218.0723422356118</v>
+        <v>215.73371978324417</v>
       </c>
       <c r="B47">
-        <v>246.65506059861082</v>
+        <v>248.63238820561554</v>
       </c>
       <c r="C47">
-        <v>19.99996158003544</v>
+        <v>19.99995650909811</v>
       </c>
       <c r="D47">
-        <v>0.9663577735299662</v>
+        <v>0.9657335927056847</v>
       </c>
       <c r="E47">
-        <v>0.20589522544563219</v>
+        <v>0.13709654757741743</v>
       </c>
       <c r="F47">
-        <v>-0.15299361991122748</v>
+        <v>-0.21950101007529862</v>
       </c>
       <c r="G47">
-        <v>9.931119704316882e-5</v>
+        <v>0.0001288222552175211</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48">
-        <v>218.00874226862032</v>
+        <v>215.64244116718916</v>
       </c>
       <c r="B48">
-        <v>246.56946577942279</v>
+        <v>248.5753763557199</v>
       </c>
       <c r="C48">
-        <v>19.999961582846677</v>
+        <v>19.999956509095547</v>
       </c>
       <c r="D48">
-        <v>0.9663580437772359</v>
+        <v>0.9657336000099696</v>
       </c>
       <c r="E48">
-        <v>0.2058995304377369</v>
+        <v>0.13709787244201502</v>
       </c>
       <c r="F48">
-        <v>-0.1529861429352244</v>
+        <v>-0.21950015080721977</v>
       </c>
       <c r="G48">
-        <v>9.927477886027288e-5</v>
+        <v>0.00012883134639529161</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49">
-        <v>217.94514598716592</v>
+        <v>215.55116291704346</v>
       </c>
       <c r="B49">
-        <v>246.4838689348137</v>
+        <v>248.51836394287125</v>
       </c>
       <c r="C49">
-        <v>19.99996158288075</v>
+        <v>19.99995650909357</v>
       </c>
       <c r="D49">
-        <v>0.96635840169469</v>
+        <v>0.9657336076398817</v>
       </c>
       <c r="E49">
-        <v>0.2059044403667851</v>
+        <v>0.13709922671501718</v>
       </c>
       <c r="F49">
-        <v>-0.15297730448099925</v>
+        <v>-0.21949927174287354</v>
       </c>
       <c r="G49">
-        <v>9.923200763089967e-5</v>
+        <v>0.00012884063872689515</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50">
-        <v>217.88167400542292</v>
+        <v>215.45988504144233</v>
       </c>
       <c r="B50">
-        <v>246.39818305550287</v>
+        <v>248.46135095429574</v>
       </c>
       <c r="C50">
-        <v>19.999961584810592</v>
+        <v>19.999956509092225</v>
       </c>
       <c r="D50">
-        <v>0.9663600250245878</v>
+        <v>0.9657336156177425</v>
       </c>
       <c r="E50">
-        <v>0.20611881196514154</v>
+        <v>0.1371006117296756</v>
       </c>
       <c r="F50">
-        <v>-0.15267841070675273</v>
+        <v>-0.21949837195162694</v>
       </c>
       <c r="G50">
-        <v>9.762043995185476e-5</v>
+        <v>0.00012885014129745083</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51">
-        <v>217.81820771442696</v>
+        <v>215.36860754943712</v>
       </c>
       <c r="B51">
-        <v>246.31249445181714</v>
+        <v>248.40433737662724</v>
       </c>
       <c r="C51">
-        <v>19.99996158837219</v>
+        <v>19.99995650909158</v>
       </c>
       <c r="D51">
-        <v>0.9663607734087875</v>
+        <v>0.9657336239679642</v>
       </c>
       <c r="E51">
-        <v>0.20612544483217113</v>
+        <v>0.1371020289119755</v>
       </c>
       <c r="F51">
-        <v>-0.15266477925944322</v>
+        <v>-0.2194974504357591</v>
       </c>
       <c r="G51">
-        <v>9.754995474401624e-5</v>
+        <v>0.00012885986382689643</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52">
-        <v>217.7547493205667</v>
+        <v>215.27733045052588</v>
       </c>
       <c r="B52">
-        <v>246.22680249419244</v>
+        <v>248.34732319586513</v>
       </c>
       <c r="C52">
-        <v>19.999961592236147</v>
+        <v>19.999956509091696</v>
       </c>
       <c r="D52">
-        <v>0.9663620260664282</v>
+        <v>0.9657336327173002</v>
       </c>
       <c r="E52">
-        <v>0.20613364334922074</v>
+        <v>0.13710347978942775</v>
       </c>
       <c r="F52">
-        <v>-0.15264587780323782</v>
+        <v>-0.21949650612387964</v>
       </c>
       <c r="G52">
-        <v>9.74540128562382e-5</v>
+        <v>0.00012886981671896697</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53">
-        <v>217.6913036299698</v>
+        <v>215.1860537546873</v>
       </c>
       <c r="B53">
-        <v>246.14110622002732</v>
+        <v>248.29030839732812</v>
       </c>
       <c r="C53">
-        <v>19.999961600805808</v>
+        <v>19.999956509092655</v>
       </c>
       <c r="D53">
-        <v>0.9663645805127755</v>
+        <v>0.9657336418951306</v>
       </c>
       <c r="E53">
-        <v>0.20614429347193028</v>
+        <v>0.13710496600095165</v>
       </c>
       <c r="F53">
-        <v>-0.1526155154689362</v>
+        <v>-0.2194955378634993</v>
       </c>
       <c r="G53">
-        <v>9.730413874218361e-5</v>
+        <v>0.00012888001113335154</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54">
-        <v>217.62788780516294</v>
+        <v>215.094777472418</v>
       </c>
       <c r="B54">
-        <v>246.05540434542868</v>
+        <v>248.23329296560337</v>
       </c>
       <c r="C54">
-        <v>19.999961626466824</v>
+        <v>19.999956509094538</v>
       </c>
       <c r="D54">
-        <v>0.9663728618537937</v>
+        <v>0.965733651533793</v>
       </c>
       <c r="E54">
-        <v>0.20615862749535377</v>
+        <v>0.13710648930797506</v>
       </c>
       <c r="F54">
-        <v>-0.15254430816744688</v>
+        <v>-0.21949454441265281</v>
       </c>
       <c r="G54">
-        <v>9.697113932119703e-5</v>
+        <v>0.00012889045906325659</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55">
-        <v>217.69133921624717</v>
+        <v>215.00350161477394</v>
       </c>
       <c r="B55">
-        <v>246.14083964282065</v>
+        <v>248.17627688449042</v>
       </c>
       <c r="C55">
-        <v>19.99996205995691</v>
+        <v>19.999956509097448</v>
       </c>
       <c r="D55">
-        <v>0.966493369422864</v>
+        <v>0.9657336616689653</v>
       </c>
       <c r="E55">
-        <v>-0.20552819695078087</v>
+        <v>0.13710805160695202</v>
       </c>
       <c r="F55">
-        <v>0.15263890190061083</v>
+        <v>-0.21949352443040157</v>
       </c>
       <c r="G55">
-        <v>9.534656904512176e-5</v>
+        <v>0.0001289011734188016</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56">
-        <v>217.6277490089155</v>
+        <v>214.91222619341607</v>
       </c>
       <c r="B56">
-        <v>246.0552636334739</v>
+        <v>248.1192601369393</v>
       </c>
       <c r="C56">
-        <v>19.99996162836123</v>
+        <v>19.999956509101484</v>
       </c>
       <c r="D56">
-        <v>0.9663710694683257</v>
+        <v>0.9657336723401087</v>
       </c>
       <c r="E56">
-        <v>0.20585570288481744</v>
+        <v>0.13710965494352548</v>
       </c>
       <c r="F56">
-        <v>-0.1529637273512294</v>
+        <v>-0.21949247646605138</v>
       </c>
       <c r="G56">
-        <v>9.927017208575175e-5</v>
+        <v>0.0001289121681168072</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57">
-        <v>217.69137198002176</v>
+        <v>214.82095122066147</v>
       </c>
       <c r="B57">
-        <v>246.1405659213459</v>
+        <v>248.06224270498183</v>
       </c>
       <c r="C57">
-        <v>19.99996205453061</v>
+        <v>19.99995650910676</v>
       </c>
       <c r="D57">
-        <v>0.9664960776015088</v>
+        <v>0.9657336835909807</v>
       </c>
       <c r="E57">
-        <v>-0.20520849665481597</v>
+        <v>0.13711130152859746</v>
       </c>
       <c r="F57">
-        <v>0.1530519005905229</v>
+        <v>-0.21949139894686287</v>
       </c>
       <c r="G57">
-        <v>9.710231590609204e-5</v>
+        <v>0.00012892345819575765</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58">
-        <v>217.62760538195977</v>
+        <v>214.72967670954003</v>
       </c>
       <c r="B58">
-        <v>246.0551183673639</v>
+        <v>248.00522456965555</v>
       </c>
       <c r="C58">
-        <v>19.999961627780078</v>
+        <v>19.999956509113417</v>
       </c>
       <c r="D58">
-        <v>0.9663695762970206</v>
+        <v>0.9657336954702374</v>
       </c>
       <c r="E58">
-        <v>0.20554650271949207</v>
+        <v>0.13711299375662014</v>
       </c>
       <c r="F58">
-        <v>-0.15338794702618266</v>
+        <v>-0.21949029016399546</v>
       </c>
       <c r="G58">
-        <v>0.00010129632231801165</v>
+        <v>0.0001289350599379094</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59">
-        <v>217.6914014833098</v>
+        <v>214.63840267385808</v>
       </c>
       <c r="B59">
-        <v>246.14028546353035</v>
+        <v>247.9482057109188</v>
       </c>
       <c r="C59">
-        <v>19.999962049864568</v>
+        <v>19.999956509121603</v>
       </c>
       <c r="D59">
-        <v>0.9664990156606436</v>
+        <v>0.9657337080321413</v>
       </c>
       <c r="E59">
-        <v>-0.20488357129922732</v>
+        <v>0.1371147342264843</v>
       </c>
       <c r="F59">
-        <v>0.15346870063528098</v>
+        <v>-0.21948914825635957</v>
       </c>
       <c r="G59">
-        <v>9.857149436482213e-5</v>
+        <v>0.00012894699100548328</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60">
-        <v>217.62745705363378</v>
+        <v>214.5471291282697</v>
       </c>
       <c r="B60">
-        <v>246.05496866385735</v>
+        <v>247.891186107556</v>
       </c>
       <c r="C60">
-        <v>19.999961627237717</v>
+        <v>19.999956509131486</v>
       </c>
       <c r="D60">
-        <v>0.9663684154477981</v>
+        <v>0.9657337213373894</v>
       </c>
       <c r="E60">
-        <v>0.20523180836215427</v>
+        <v>0.1371165257654823</v>
       </c>
       <c r="F60">
-        <v>-0.15381566248795303</v>
+        <v>-0.21948797119202723</v>
       </c>
       <c r="G60">
-        <v>0.0001029956482832583</v>
+        <v>0.00012895927061041453</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61">
-        <v>217.6914274288628</v>
+        <v>214.45585608835708</v>
       </c>
       <c r="B61">
-        <v>246.13999896790153</v>
+        <v>247.83416573707126</v>
       </c>
       <c r="C61">
-        <v>19.999962047315027</v>
+        <v>19.999956509143264</v>
       </c>
       <c r="D61">
-        <v>0.9665020411265396</v>
+        <v>0.9657337354540988</v>
       </c>
       <c r="E61">
-        <v>-0.20455480718881716</v>
+        <v>0.13711837145687367</v>
       </c>
       <c r="F61">
-        <v>0.15388826604691133</v>
+        <v>-0.21948675674669815</v>
       </c>
       <c r="G61">
-        <v>9.971095753232703e-5</v>
+        <v>0.0001289719196929695</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62">
-        <v>217.62730455794235</v>
+        <v>214.36458357072135</v>
       </c>
       <c r="B62">
-        <v>246.05481515078193</v>
+        <v>247.77714457556908</v>
       </c>
       <c r="C62">
-        <v>19.999961623135025</v>
+        <v>19.99995650915715</v>
       </c>
       <c r="D62">
-        <v>0.9663678578827337</v>
+        <v>0.9657337504589736</v>
       </c>
       <c r="E62">
-        <v>0.20491181873291173</v>
+        <v>0.137120274671746</v>
       </c>
       <c r="F62">
-        <v>-0.15424489600769034</v>
+        <v>-0.2194855024786919</v>
       </c>
       <c r="G62">
-        <v>0.00010431182528362516</v>
+        <v>0.00012898496113505315</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63">
-        <v>217.69148523938554</v>
+        <v>214.27331159308554</v>
       </c>
       <c r="B63">
-        <v>246.13977438324923</v>
+        <v>247.72012259761956</v>
       </c>
       <c r="C63">
-        <v>19.99996204085097</v>
+        <v>19.9999565091734</v>
       </c>
       <c r="D63">
-        <v>0.9664581949677253</v>
+        <v>0.965733766438706</v>
       </c>
       <c r="E63">
-        <v>-0.204379893439366</v>
+        <v>0.13712223910598056</v>
       </c>
       <c r="F63">
-        <v>0.15439008418624564</v>
+        <v>-0.2194842056997316</v>
       </c>
       <c r="G63">
-        <v>5.284072176135361e-5</v>
+        <v>0.0001289984200165688</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64">
-        <v>217.62721710464368</v>
+        <v>214.18204017441187</v>
       </c>
       <c r="B64">
-        <v>246.05472292059474</v>
+        <v>247.6630997761057</v>
       </c>
       <c r="C64">
-        <v>19.999961621410357</v>
+        <v>19.999956509192305</v>
       </c>
       <c r="D64">
-        <v>0.9663795649107433</v>
+        <v>0.9657337834916553</v>
       </c>
       <c r="E64">
-        <v>0.20459539940172147</v>
+        <v>0.13712426882337397</v>
       </c>
       <c r="F64">
-        <v>-0.15459517682734858</v>
+        <v>-0.21948286344066126</v>
       </c>
       <c r="G64">
-        <v>5.252455636183211e-5</v>
+        <v>0.00012901232389972067</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65">
-        <v>217.6914830112853</v>
+        <v>214.0907693350361</v>
       </c>
       <c r="B65">
-        <v>246.1396193012556</v>
+        <v>247.60607608204975</v>
       </c>
       <c r="C65">
-        <v>19.99996203711885</v>
+        <v>19.99995650921419</v>
       </c>
       <c r="D65">
-        <v>0.9664574005482993</v>
+        <v>0.965733801729878</v>
       </c>
       <c r="E65">
-        <v>-0.20422861097901146</v>
+        <v>0.1371263683061421</v>
       </c>
       <c r="F65">
-        <v>0.15459504478493052</v>
+        <v>-0.21948147241101967</v>
       </c>
       <c r="G65">
-        <v>5.3511731539954694e-5</v>
+        <v>0.00012902670316426636</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66">
-        <v>217.6271303659128</v>
+        <v>213.9994990968218</v>
       </c>
       <c r="B66">
-        <v>246.05463220516003</v>
+        <v>247.54905148441506</v>
       </c>
       <c r="C66">
-        <v>19.99996162583456</v>
+        <v>19.99995650923944</v>
       </c>
       <c r="D66">
-        <v>0.966379788165874</v>
+        <v>0.9657338212816005</v>
       </c>
       <c r="E66">
-        <v>0.20444058263466156</v>
+        <v>0.13712854251440212</v>
       </c>
       <c r="F66">
-        <v>-0.15479848699456433</v>
+        <v>-0.21948002895106902</v>
       </c>
       <c r="G66">
-        <v>5.324213443949807e-5</v>
+        <v>0.00012904159141242195</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67">
-        <v>217.69148198369845</v>
+        <v>213.93883204838284</v>
       </c>
       <c r="B67">
-        <v>246.13946516948334</v>
+        <v>247.46135637268043</v>
       </c>
       <c r="C67">
-        <v>19.999962034613162</v>
+        <v>19.999961590730063</v>
       </c>
       <c r="D67">
-        <v>0.9664566375457975</v>
+        <v>0.9663599207679651</v>
       </c>
       <c r="E67">
-        <v>-0.204075972774449</v>
+        <v>0.2109517408024987</v>
       </c>
       <c r="F67">
-        <v>0.15480117719121053</v>
+        <v>-0.14593052682595598</v>
       </c>
       <c r="G67">
-        <v>5.4282909683912324e-5</v>
+        <v>4.069952390026446e-5</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68">
-        <v>217.6367644470988</v>
+        <v>213.8781655469391</v>
       </c>
       <c r="B68">
-        <v>246.23088248061669</v>
+        <v>247.37366162554048</v>
       </c>
       <c r="C68">
-        <v>19.99996212840972</v>
+        <v>19.99996158493807</v>
       </c>
       <c r="D68">
-        <v>0.9664161337061514</v>
+        <v>0.9663600370355351</v>
       </c>
       <c r="E68">
-        <v>-0.21990721185608839</v>
+        <v>0.2109517189182579</v>
       </c>
       <c r="F68">
-        <v>-0.13162764278842365</v>
+        <v>-0.14592980055696386</v>
       </c>
       <c r="G68">
-        <v>0.00015115471949348895</v>
+        <v>4.0699436189553116e-5</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69">
-        <v>217.58203886173487</v>
+        <v>213.8174992574294</v>
       </c>
       <c r="B69">
-        <v>246.32229152012894</v>
+        <v>247.2859667450526</v>
       </c>
       <c r="C69">
-        <v>19.99996212962734</v>
+        <v>19.99996158896401</v>
       </c>
       <c r="D69">
-        <v>0.9664179805951104</v>
+        <v>0.9663600438525001</v>
       </c>
       <c r="E69">
-        <v>-0.21988759742981367</v>
+        <v>0.21095204019448863</v>
       </c>
       <c r="F69">
-        <v>-0.13164718827940153</v>
+        <v>-0.14592929118571302</v>
       </c>
       <c r="G69">
-        <v>0.00015571878944084123</v>
+        <v>4.0694720472472006e-5</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70">
-        <v>217.5272915663804</v>
+        <v>213.753758881189</v>
       </c>
       <c r="B70">
-        <v>246.41369597989197</v>
+        <v>247.20047096921957</v>
       </c>
       <c r="C70">
-        <v>19.999962133107545</v>
+        <v>19.999961574885912</v>
       </c>
       <c r="D70">
-        <v>0.9664134206229886</v>
+        <v>0.9663552755477066</v>
       </c>
       <c r="E70">
-        <v>-0.21987616495595003</v>
+        <v>0.20566096373431242</v>
       </c>
       <c r="F70">
-        <v>-0.13169915633285503</v>
+        <v>-0.15332370450966407</v>
       </c>
       <c r="G70">
-        <v>0.00014282037287430635</v>
+        <v>0.00010090288907850837</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71">
-        <v>217.47250880698428</v>
+        <v>213.69001907453506</v>
       </c>
       <c r="B71">
-        <v>246.50510091730928</v>
+        <v>247.11497479530175</v>
       </c>
       <c r="C71">
-        <v>19.99996214928658</v>
+        <v>19.999961573050992</v>
       </c>
       <c r="D71">
-        <v>0.966401665558775</v>
+        <v>0.9663552897894734</v>
       </c>
       <c r="E71">
-        <v>-0.21987614238119765</v>
+        <v>0.20566192042137793</v>
       </c>
       <c r="F71">
-        <v>-0.1317837066360094</v>
+        <v>-0.15332233349499474</v>
       </c>
       <c r="G71">
-        <v>0.00013226339619970773</v>
+        <v>0.00010089671497543804</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72">
-        <v>217.4175031646009</v>
+        <v>213.62627985498426</v>
       </c>
       <c r="B72">
-        <v>246.59668712951012</v>
+        <v>247.02947821362343</v>
       </c>
       <c r="C72">
-        <v>19.9999612691328</v>
+        <v>19.9999615719165</v>
       </c>
       <c r="D72">
-        <v>0.966231292630003</v>
+        <v>0.9663553049080165</v>
       </c>
       <c r="E72">
-        <v>-0.2202934421867767</v>
+        <v>0.20566290294444722</v>
       </c>
       <c r="F72">
-        <v>-0.13230882458579837</v>
+        <v>-0.15332092229984784</v>
       </c>
       <c r="G72">
-        <v>4.9906596130170244e-5</v>
+        <v>0.00010089033005054448</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73">
-        <v>217.47283648389018</v>
+        <v>213.5625412400553</v>
       </c>
       <c r="B73">
-        <v>246.50445763747555</v>
+        <v>246.94398121260434</v>
       </c>
       <c r="C73">
-        <v>19.99995696010205</v>
+        <v>19.99996157549924</v>
       </c>
       <c r="D73">
-        <v>0.9657745533444955</v>
+        <v>0.9663553208377308</v>
       </c>
       <c r="E73">
-        <v>0.22179210576085884</v>
+        <v>0.20566391323442704</v>
       </c>
       <c r="F73">
-        <v>0.1330646929126549</v>
+        <v>-0.15331946885808198</v>
       </c>
       <c r="G73">
-        <v>0.00010037580659012591</v>
+        <v>0.00010088377404790969</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74">
-        <v>217.41808487130987</v>
+        <v>213.49880324861587</v>
       </c>
       <c r="B74">
-        <v>246.59583258629573</v>
+        <v>246.85848378034353</v>
       </c>
       <c r="C74">
-        <v>19.999962199902146</v>
+        <v>19.999961576613423</v>
       </c>
       <c r="D74">
-        <v>0.9664280658369931</v>
+        <v>0.9663553377016724</v>
       </c>
       <c r="E74">
-        <v>-0.21980590201662725</v>
+        <v>0.20566495275668842</v>
       </c>
       <c r="F74">
-        <v>-0.13170995467313173</v>
+        <v>-0.1533179704469216</v>
       </c>
       <c r="G74">
-        <v>0.00014862348708167004</v>
+        <v>0.00010087703374606137</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75">
-        <v>217.47326127118657</v>
+        <v>213.43506590042276</v>
       </c>
       <c r="B75">
-        <v>246.5035096416498</v>
+        <v>246.7729859037733</v>
       </c>
       <c r="C75">
-        <v>19.99995696964899</v>
+        <v>19.999961580015096</v>
       </c>
       <c r="D75">
-        <v>0.9657747783298488</v>
+        <v>0.9663553553773222</v>
       </c>
       <c r="E75">
-        <v>0.22201703063027556</v>
+        <v>0.2056660238072706</v>
       </c>
       <c r="F75">
-        <v>0.13268745107832355</v>
+        <v>-0.15331642461696204</v>
       </c>
       <c r="G75">
-        <v>9.788232423846618e-5</v>
+        <v>0.00010087004898658532</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76">
-        <v>217.4185165940856</v>
+        <v>213.37132921675132</v>
       </c>
       <c r="B76">
-        <v>246.59506508193118</v>
+        <v>246.68748756932797</v>
       </c>
       <c r="C76">
-        <v>19.99996164904957</v>
+        <v>19.999961573325823</v>
       </c>
       <c r="D76">
-        <v>0.9663326400205119</v>
+        <v>0.9663553740512281</v>
       </c>
       <c r="E76">
-        <v>-0.2202286032038917</v>
+        <v>0.20566712805739326</v>
       </c>
       <c r="F76">
-        <v>-0.1316871237121555</v>
+        <v>-0.15331482803660113</v>
       </c>
       <c r="G76">
-        <v>-0.0001512647615314094</v>
+        <v>0.0001008628314456964</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77">
-        <v>217.47375529285722</v>
+        <v>213.30759321939342</v>
       </c>
       <c r="B77">
-        <v>246.50278250975185</v>
+        <v>246.6019887613491</v>
       </c>
       <c r="C77">
-        <v>19.999956970852345</v>
+        <v>19.999961576819484</v>
       </c>
       <c r="D77">
-        <v>0.9657764883886776</v>
+        <v>0.9663553936686831</v>
       </c>
       <c r="E77">
-        <v>0.22192003533994367</v>
+        <v>0.20566826810883718</v>
       </c>
       <c r="F77">
-        <v>0.13283732117322591</v>
+        <v>-0.15331317760255855</v>
       </c>
       <c r="G77">
-        <v>9.887699763669365e-5</v>
+        <v>0.00010085538410613054</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78">
-        <v>217.4189776893063</v>
+        <v>213.2438579332078</v>
       </c>
       <c r="B78">
-        <v>246.5943747843496</v>
+        <v>246.51648946517182</v>
       </c>
       <c r="C78">
-        <v>19.999961056204768</v>
+        <v>19.999961575691298</v>
       </c>
       <c r="D78">
-        <v>0.9663021036848772</v>
+        <v>0.9663554146320109</v>
       </c>
       <c r="E78">
-        <v>-0.22031412615412943</v>
+        <v>0.20566944538140716</v>
       </c>
       <c r="F78">
-        <v>-0.13176450515158283</v>
+        <v>-0.15331146883335084</v>
       </c>
       <c r="G78">
-        <v>0.00013262551066978124</v>
+        <v>0.00010084767015070022</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79">
-        <v>217.47410054182524</v>
+        <v>213.1801233837698</v>
       </c>
       <c r="B79">
-        <v>246.50202616727816</v>
+        <v>246.43098966366665</v>
       </c>
       <c r="C79">
-        <v>19.99995698245883</v>
+        <v>19.99996157195722</v>
       </c>
       <c r="D79">
-        <v>0.9657782507089032</v>
+        <v>0.9663554367816258</v>
       </c>
       <c r="E79">
-        <v>0.22207894698776362</v>
+        <v>0.20567066331614842</v>
       </c>
       <c r="F79">
-        <v>0.1325587887031818</v>
+        <v>-0.15330969813428488</v>
       </c>
       <c r="G79">
-        <v>9.704201457427352e-5</v>
+        <v>0.00010083966394868425</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80">
-        <v>217.41909011537135</v>
+        <v>213.11638959869057</v>
       </c>
       <c r="B80">
-        <v>246.59452188621736</v>
+        <v>246.34548933864247</v>
       </c>
       <c r="C80">
-        <v>19.999957146444988</v>
+        <v>19.999961575901338</v>
       </c>
       <c r="D80">
-        <v>0.965734972743193</v>
+        <v>0.9663554603597136</v>
       </c>
       <c r="E80">
-        <v>-0.22242716558855558</v>
+        <v>0.20567192448165114</v>
       </c>
       <c r="F80">
-        <v>-0.13228488779692496</v>
+        <v>-0.153307860590391</v>
       </c>
       <c r="G80">
-        <v>0.0006322360842194776</v>
+        <v>0.00010083137008564207</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81">
-        <v>217.3212088521726</v>
+        <v>213.0526566085489</v>
       </c>
       <c r="B81">
-        <v>246.59350470096462</v>
+        <v>246.25998847162086</v>
       </c>
       <c r="C81">
-        <v>19.999959766512127</v>
+        <v>19.999961571071704</v>
       </c>
       <c r="D81">
-        <v>0.9715957201078896</v>
+        <v>0.9663554856327571</v>
       </c>
       <c r="E81">
-        <v>0.002454123868865058</v>
+        <v>0.20567323169542664</v>
       </c>
       <c r="F81">
-        <v>-0.23607391593124646</v>
+        <v>-0.15330595068766636</v>
       </c>
       <c r="G81">
-        <v>-0.0016158360362939614</v>
+        <v>0.00010082274215990363</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82">
-        <v>217.2233338942481</v>
+        <v>212.9889244453462</v>
       </c>
       <c r="B82">
-        <v>246.59253048384872</v>
+        <v>246.17448704125314</v>
       </c>
       <c r="C82">
-        <v>19.999960376609724</v>
+        <v>19.999961572065914</v>
       </c>
       <c r="D82">
-        <v>0.9716009856273633</v>
+        <v>0.9663555124608509</v>
       </c>
       <c r="E82">
-        <v>0.0023503866941581284</v>
+        <v>0.2056745894490042</v>
       </c>
       <c r="F82">
-        <v>-0.2360598555349138</v>
+        <v>-0.15330396323671913</v>
       </c>
       <c r="G82">
-        <v>-0.001463013153673308</v>
+        <v>0.0001008137248198282</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83">
-        <v>217.12549519464594</v>
+        <v>212.9396071344735</v>
       </c>
       <c r="B83">
-        <v>246.59141988118043</v>
+        <v>246.07989452320123</v>
       </c>
       <c r="C83">
-        <v>19.999962340126146</v>
+        <v>19.999966546398245</v>
       </c>
       <c r="D83">
-        <v>0.9716317024613096</v>
+        <v>0.9663078482756453</v>
       </c>
       <c r="E83">
-        <v>0.0026789276669181104</v>
+        <v>0.22753254872796083</v>
       </c>
       <c r="F83">
-        <v>-0.23597534890628982</v>
+        <v>-0.11863092301269018</v>
       </c>
       <c r="G83">
-        <v>-0.0022181709399998403</v>
+        <v>0.0059446410126127724</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84">
-        <v>217.0662777243951</v>
+        <v>212.89032983463483</v>
       </c>
       <c r="B84">
-        <v>246.502715246435</v>
+        <v>245.98528740591212</v>
       </c>
       <c r="C84">
-        <v>19.999961566543025</v>
+        <v>19.99996654659049</v>
       </c>
       <c r="D84">
-        <v>0.966346781473948</v>
+        <v>0.9663107411351236</v>
       </c>
       <c r="E84">
-        <v>0.21337987619832774</v>
+        <v>0.22756880567681098</v>
       </c>
       <c r="F84">
-        <v>-0.1424434599219097</v>
+        <v>-0.11853529437723681</v>
       </c>
       <c r="G84">
-        <v>1.3811856569983736e-5</v>
+        <v>0.0059972765237154705</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85">
-        <v>217.0070602353696</v>
+        <v>212.84109399848165</v>
       </c>
       <c r="B85">
-        <v>246.41401050983316</v>
+        <v>245.89066471159362</v>
       </c>
       <c r="C85">
-        <v>19.999961571985114</v>
+        <v>19.99996654747825</v>
       </c>
       <c r="D85">
-        <v>0.9663467623774796</v>
+        <v>0.9663137300647486</v>
       </c>
       <c r="E85">
-        <v>0.2133799895446539</v>
+        <v>0.2276065851375865</v>
       </c>
       <c r="F85">
-        <v>-0.14244341752260498</v>
+        <v>-0.11843573994897401</v>
       </c>
       <c r="G85">
-        <v>1.3809324097780825e-5</v>
+        <v>0.006052142384665331</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86">
-        <v>216.95328145375436</v>
+        <v>212.79190153785308</v>
       </c>
       <c r="B86">
-        <v>246.32098600910578</v>
+        <v>245.79602581829914</v>
       </c>
       <c r="C86">
-        <v>19.99995678528529</v>
+        <v>19.999966548271455</v>
       </c>
       <c r="D86">
-        <v>0.9658391378079239</v>
+        <v>0.9663168985377207</v>
       </c>
       <c r="E86">
-        <v>0.22371099486218704</v>
+        <v>0.2276458801626427</v>
       </c>
       <c r="F86">
-        <v>-0.12933106803928748</v>
+        <v>-0.11833159764122843</v>
       </c>
       <c r="G86">
-        <v>0.0012182991502085404</v>
+        <v>0.006108997980763163</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87">
-        <v>216.89950523644453</v>
+        <v>212.7427545124118</v>
       </c>
       <c r="B87">
-        <v>246.227959899451</v>
+        <v>245.70137005338677</v>
       </c>
       <c r="C87">
-        <v>19.999956785684763</v>
+        <v>19.999966548987608</v>
       </c>
       <c r="D87">
-        <v>0.9658393273880077</v>
+        <v>0.9663202580131343</v>
       </c>
       <c r="E87">
-        <v>0.22371401096565893</v>
+        <v>0.2276868138152744</v>
       </c>
       <c r="F87">
-        <v>-0.1293244100855032</v>
+        <v>-0.11822251247152704</v>
       </c>
       <c r="G87">
-        <v>0.0012226067319936237</v>
+        <v>0.006168006286164454</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88">
-        <v>216.8457320137689</v>
+        <v>212.84074321120184</v>
       </c>
       <c r="B88">
-        <v>246.1349326065565</v>
+        <v>245.6662777290367</v>
       </c>
       <c r="C88">
-        <v>19.99995678591496</v>
+        <v>19.99999999966404</v>
       </c>
       <c r="D88">
-        <v>0.9658396206582381</v>
+        <v>0.9676991800208622</v>
       </c>
       <c r="E88">
-        <v>0.22371688852038227</v>
+        <v>0.08447391823160617</v>
       </c>
       <c r="F88">
-        <v>-0.12931722882827776</v>
+        <v>0.23584731278789578</v>
       </c>
       <c r="G88">
-        <v>0.0012265812528897179</v>
+        <v>0.021325794957882973</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89">
-        <v>216.79196183165965</v>
+        <v>212.93873024623755</v>
       </c>
       <c r="B89">
-        <v>246.0419041123844</v>
+        <v>245.6312372708023</v>
       </c>
       <c r="C89">
-        <v>19.999956786148733</v>
+        <v>19.99999999950749</v>
       </c>
       <c r="D89">
-        <v>0.9658399184191913</v>
+        <v>0.9677082559671369</v>
       </c>
       <c r="E89">
-        <v>0.22371980991203788</v>
+        <v>0.08435084296674403</v>
       </c>
       <c r="F89">
-        <v>-0.12930993740198113</v>
+        <v>0.23584811566779063</v>
       </c>
       <c r="G89">
-        <v>0.0012306162019832506</v>
+        <v>0.02139605065842063</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90">
-        <v>216.73819473733965</v>
+        <v>213.0367175319394</v>
       </c>
       <c r="B90">
-        <v>245.94887439841474</v>
+        <v>245.59624788573274</v>
       </c>
       <c r="C90">
-        <v>19.99995678638618</v>
+        <v>19.999999999576964</v>
       </c>
       <c r="D90">
-        <v>0.9658402207993343</v>
+        <v>0.967716990597237</v>
       </c>
       <c r="E90">
-        <v>0.2237227763456214</v>
+        <v>0.08422828582112074</v>
       </c>
       <c r="F90">
-        <v>-0.12930253272974004</v>
+        <v>0.23584964094303856</v>
       </c>
       <c r="G90">
-        <v>0.0012347132344953551</v>
+        <v>0.021470581998860462</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91">
-        <v>216.68443077936107</v>
+        <v>213.13470507937376</v>
       </c>
       <c r="B91">
-        <v>245.85584344560883</v>
+        <v>245.5613104230476</v>
       </c>
       <c r="C91">
-        <v>19.999956786627408</v>
+        <v>19.999999999533138</v>
       </c>
       <c r="D91">
-        <v>0.9658405279286071</v>
+        <v>0.9677258536396481</v>
       </c>
       <c r="E91">
-        <v>0.22372578908277793</v>
+        <v>0.08410368909585132</v>
       </c>
       <c r="F91">
-        <v>-0.12929501162359794</v>
+        <v>0.23585120651473263</v>
       </c>
       <c r="G91">
-        <v>0.0012388740808539013</v>
+        <v>0.021545960958997638</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92">
-        <v>216.63067000765906</v>
+        <v>213.23269290002742</v>
       </c>
       <c r="B92">
-        <v>245.76281123438864</v>
+        <v>245.52642575590022</v>
       </c>
       <c r="C92">
-        <v>19.999956786872524</v>
+        <v>19.999999999492797</v>
       </c>
       <c r="D92">
-        <v>0.9658408399423254</v>
+        <v>0.9677348484719148</v>
       </c>
       <c r="E92">
-        <v>0.22372884943521087</v>
+        <v>0.08397699524565168</v>
       </c>
       <c r="F92">
-        <v>-0.12928737076697708</v>
+        <v>0.23585281366816332</v>
       </c>
       <c r="G92">
-        <v>0.0012431005496862902</v>
+        <v>0.021622202977111288</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93">
-        <v>216.57691247360967</v>
+        <v>213.33068100575287</v>
       </c>
       <c r="B93">
-        <v>245.66977774461424</v>
+        <v>245.49159478182082</v>
       </c>
       <c r="C93">
-        <v>19.999956787121643</v>
+        <v>19.99999999955823</v>
       </c>
       <c r="D93">
-        <v>0.9658411569814088</v>
+        <v>0.9677439784447002</v>
       </c>
       <c r="E93">
-        <v>0.22373195876962568</v>
+        <v>0.0838481457123038</v>
       </c>
       <c r="F93">
-        <v>-0.12927960670440108</v>
+        <v>0.23585446371026544</v>
       </c>
       <c r="G93">
-        <v>0.0012473945211437796</v>
+        <v>0.021699326064604223</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94">
-        <v>216.5231582300905</v>
+        <v>213.42866940878056</v>
       </c>
       <c r="B94">
-        <v>245.57674295556026</v>
+        <v>245.45681842541546</v>
       </c>
       <c r="C94">
-        <v>19.999956787374888</v>
+        <v>19.999999999523837</v>
       </c>
       <c r="D94">
-        <v>0.9658414791927091</v>
+        <v>0.9677532475598852</v>
       </c>
       <c r="E94">
-        <v>0.22373511851004343</v>
+        <v>0.08371707544355322</v>
       </c>
       <c r="F94">
-        <v>-0.12927171583488586</v>
+        <v>0.2358561580002846</v>
       </c>
       <c r="G94">
-        <v>0.0012517579543157293</v>
+        <v>0.021777341664890457</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95">
-        <v>216.4694073315447</v>
+        <v>213.52665812181112</v>
       </c>
       <c r="B95">
-        <v>245.48370684589108</v>
+        <v>245.42209763769475</v>
       </c>
       <c r="C95">
-        <v>19.99995678763237</v>
+        <v>19.999999999495063</v>
       </c>
       <c r="D95">
-        <v>0.9658418067293872</v>
+        <v>0.9677626594363016</v>
       </c>
       <c r="E95">
-        <v>0.2237383301406549</v>
+        <v>0.08358372095484055</v>
       </c>
       <c r="F95">
-        <v>-0.12926369440403554</v>
+        <v>0.23585789798207357</v>
       </c>
       <c r="G95">
-        <v>0.0012561928939029867</v>
+        <v>0.021856268525997747</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96">
-        <v>216.41565983404877</v>
+        <v>213.6246471474765</v>
       </c>
       <c r="B96">
-        <v>245.39066939363428</v>
+        <v>245.38743385128222</v>
       </c>
       <c r="C96">
-        <v>19.999956787894234</v>
+        <v>19.999999999484732</v>
       </c>
       <c r="D96">
-        <v>0.965842139751146</v>
+        <v>0.9677723578143858</v>
       </c>
       <c r="E96">
-        <v>0.22374159521024775</v>
+        <v>0.08344692925588072</v>
       </c>
       <c r="F96">
-        <v>-0.12925553849458107</v>
+        <v>0.2358596796998954</v>
       </c>
       <c r="G96">
-        <v>0.0012607014659265234</v>
+        <v>0.021934224378968133</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97">
-        <v>216.36191579538357</v>
+        <v>213.72263650933292</v>
       </c>
       <c r="B97">
-        <v>245.2976305761536</v>
+        <v>245.35282762817863</v>
       </c>
       <c r="C97">
-        <v>19.9999567881606</v>
+        <v>19.99999999950166</v>
       </c>
       <c r="D97">
-        <v>0.9658424784247897</v>
+        <v>0.9677820700739235</v>
       </c>
       <c r="E97">
-        <v>0.22374491533358631</v>
+        <v>0.08330878393244918</v>
       </c>
       <c r="F97">
-        <v>-0.1292472440195004</v>
+        <v>0.23586151486108214</v>
       </c>
       <c r="G97">
-        <v>0.0012652859000612303</v>
+        <v>0.022014972432129108</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98">
-        <v>216.30817527511124</v>
+        <v>213.82062622141356</v>
       </c>
       <c r="B98">
-        <v>245.20459037011855</v>
+        <v>245.31828000762033</v>
       </c>
       <c r="C98">
-        <v>19.999956788431614</v>
+        <v>19.999999999505718</v>
       </c>
       <c r="D98">
-        <v>0.9658428229244667</v>
+        <v>0.9677919375512344</v>
       </c>
       <c r="E98">
-        <v>0.22374829219919293</v>
+        <v>0.08316814237900111</v>
       </c>
       <c r="F98">
-        <v>-0.1292388067067932</v>
+        <v>0.23586340029979458</v>
       </c>
       <c r="G98">
-        <v>0.0012699485117344455</v>
+        <v>0.022096681089092997</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99">
-        <v>216.2544383346542</v>
+        <v>213.91861629820306</v>
       </c>
       <c r="B99">
-        <v>245.11154875147403</v>
+        <v>245.28379206074172</v>
       </c>
       <c r="C99">
-        <v>19.99995678870743</v>
+        <v>19.999999999553015</v>
       </c>
       <c r="D99">
-        <v>0.9658431734321925</v>
+        <v>0.9678019647180666</v>
       </c>
       <c r="E99">
-        <v>0.2237517275693314</v>
+        <v>0.08302492796517326</v>
       </c>
       <c r="F99">
-        <v>-0.12923022209521454</v>
+        <v>0.2358653376676456</v>
       </c>
       <c r="G99">
-        <v>0.001274691729897659</v>
+        <v>0.02217936804132573</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100">
-        <v>216.20070503738089</v>
+        <v>214.01660675471803</v>
       </c>
       <c r="B100">
-        <v>245.0185056954071</v>
+        <v>245.2493648919403</v>
       </c>
       <c r="C100">
-        <v>19.999956788988193</v>
+        <v>19.999999999506034</v>
       </c>
       <c r="D100">
-        <v>0.9658435301382902</v>
+        <v>0.9678121562260017</v>
       </c>
       <c r="E100">
-        <v>0.22375522328751507</v>
+        <v>0.08287906073691566</v>
       </c>
       <c r="F100">
-        <v>-0.12922148551794502</v>
+        <v>0.23586732871288785</v>
       </c>
       <c r="G100">
-        <v>0.0012795180878824987</v>
+        <v>0.02226305133913687</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101">
-        <v>216.14697545296823</v>
+        <v>214.1100413493133</v>
       </c>
       <c r="B101">
-        <v>244.92546117462214</v>
+        <v>245.19680544902758</v>
       </c>
       <c r="C101">
-        <v>19.999956789274382</v>
+        <v>19.99996090859113</v>
       </c>
       <c r="D101">
-        <v>0.9658438936578214</v>
+        <v>0.9659912137620689</v>
       </c>
       <c r="E101">
-        <v>0.22375878539106211</v>
+        <v>0.12641282406773036</v>
       </c>
       <c r="F101">
-        <v>-0.1292125818463105</v>
+        <v>0.22472037494415525</v>
       </c>
       <c r="G101">
-        <v>0.0012844359153525303</v>
+        <v>0.0023087758913883922</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102">
-        <v>216.09324964469542</v>
+        <v>214.2034819925503</v>
       </c>
       <c r="B102">
-        <v>244.8324151643675</v>
+        <v>245.14424911827868</v>
       </c>
       <c r="C102">
-        <v>19.999956789565548</v>
+        <v>19.999960910767577</v>
       </c>
       <c r="D102">
-        <v>0.9658442633690358</v>
+        <v>0.9659908974924676</v>
       </c>
       <c r="E102">
-        <v>0.2237624076946418</v>
+        <v>0.12640144157283612</v>
       </c>
       <c r="F102">
-        <v>-0.12920352642277566</v>
+        <v>0.2247279890822902</v>
       </c>
       <c r="G102">
-        <v>0.001289436655567468</v>
+        <v>0.0023208260603381557</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103">
-        <v>216.0395276823305</v>
+        <v>214.29692519994288</v>
       </c>
       <c r="B103">
-        <v>244.73936763733897</v>
+        <v>245.09169906493213</v>
       </c>
       <c r="C103">
-        <v>19.999956789862157</v>
+        <v>19.999960910957732</v>
       </c>
       <c r="D103">
-        <v>0.9658446399047553</v>
+        <v>0.9659914040726248</v>
       </c>
       <c r="E103">
-        <v>0.22376609640542966</v>
+        <v>0.12638637651069196</v>
       </c>
       <c r="F103">
-        <v>-0.12919430368608162</v>
+        <v>0.22473421139824262</v>
       </c>
       <c r="G103">
-        <v>0.0012945288783052145</v>
+        <v>0.0023296138012688463</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104">
-        <v>215.98580963798383</v>
+        <v>214.39037101263492</v>
       </c>
       <c r="B104">
-        <v>244.64631856532068</v>
+        <v>245.03915539367733</v>
       </c>
       <c r="C104">
-        <v>19.99995679016442</v>
+        <v>19.999960911559956</v>
       </c>
       <c r="D104">
-        <v>0.965845023493976</v>
+        <v>0.9659919197271031</v>
       </c>
       <c r="E104">
-        <v>0.22376985374110503</v>
+        <v>0.12637106010840624</v>
       </c>
       <c r="F104">
-        <v>-0.12918490801894397</v>
+        <v>0.22474053337832584</v>
       </c>
       <c r="G104">
-        <v>0.0012997156208471793</v>
+        <v>0.0023385460536877248</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105">
-        <v>215.9320955862207</v>
+        <v>214.48381947280458</v>
       </c>
       <c r="B105">
-        <v>244.55326791914192</v>
+        <v>244.9866182125516</v>
       </c>
       <c r="C105">
-        <v>19.999956790472513</v>
+        <v>19.99996091192545</v>
       </c>
       <c r="D105">
-        <v>0.9658454143769774</v>
+        <v>0.9659924447746241</v>
       </c>
       <c r="E105">
-        <v>0.22377368202409054</v>
+        <v>0.12635548455559534</v>
       </c>
       <c r="F105">
-        <v>-0.12917533353414534</v>
+        <v>0.22474695793742067</v>
       </c>
       <c r="G105">
-        <v>0.0013050000871654068</v>
+        <v>0.00234762686385944</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106">
-        <v>215.87838560418535</v>
+        <v>214.57727062406184</v>
       </c>
       <c r="B106">
-        <v>244.46021566862865</v>
+        <v>244.93408763279209</v>
       </c>
       <c r="C106">
-        <v>19.99995679078666</v>
+        <v>19.99996091262416</v>
       </c>
       <c r="D106">
-        <v>0.9658458128059977</v>
+        <v>0.965992979469534</v>
       </c>
       <c r="E106">
-        <v>0.22377758369471645</v>
+        <v>0.12633964201637965</v>
       </c>
       <c r="F106">
-        <v>-0.12916557404669332</v>
+        <v>0.22475348826878805</v>
       </c>
       <c r="G106">
-        <v>0.0013103856260303828</v>
+        <v>0.0023568607552165964</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107">
-        <v>215.82467977173005</v>
+        <v>214.6707245111886</v>
       </c>
       <c r="B107">
-        <v>244.36716178255395</v>
+        <v>244.88156376922697</v>
       </c>
       <c r="C107">
-        <v>19.999956791107056</v>
+        <v>19.999960912650884</v>
       </c>
       <c r="D107">
-        <v>0.9658462190460422</v>
+        <v>0.9659935241443885</v>
       </c>
       <c r="E107">
-        <v>0.22378156131393837</v>
+        <v>0.1263235240645615</v>
       </c>
       <c r="F107">
-        <v>-0.12915562306248665</v>
+        <v>0.2247601275613815</v>
       </c>
       <c r="G107">
-        <v>0.0013158757670659344</v>
+        <v>0.0023662522518670247</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108">
-        <v>215.7709781715555</v>
+        <v>214.7641811805804</v>
       </c>
       <c r="B108">
-        <v>244.27410622858338</v>
+        <v>244.82904674013756</v>
       </c>
       <c r="C108">
-        <v>19.99995679143394</v>
+        <v>19.999960913252895</v>
       </c>
       <c r="D108">
-        <v>0.9658466333757758</v>
+        <v>0.9659940790667203</v>
       </c>
       <c r="E108">
-        <v>0.22378561757559656</v>
+        <v>0.12630712218394824</v>
       </c>
       <c r="F108">
-        <v>-0.12914547375026586</v>
+        <v>0.2247668793196554</v>
       </c>
       <c r="G108">
-        <v>0.0013214742099253891</v>
+        <v>0.0023758063210134184</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109">
-        <v>215.71728088935927</v>
+        <v>214.8576406799699</v>
       </c>
       <c r="B109">
-        <v>244.18104897321763</v>
+        <v>244.77653666769967</v>
       </c>
       <c r="C109">
-        <v>19.99995679176755</v>
+        <v>19.999960913441956</v>
       </c>
       <c r="D109">
-        <v>0.9658470560883966</v>
+        <v>0.9659946445915581</v>
       </c>
       <c r="E109">
-        <v>0.22378975531306375</v>
+        <v>0.12629042717637812</v>
       </c>
       <c r="F109">
-        <v>-0.12913511892303978</v>
+        <v>0.22477374705540148</v>
       </c>
       <c r="G109">
-        <v>0.001327184849368164</v>
+        <v>0.002385527885518648</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110">
-        <v>215.66358801399454</v>
+        <v>214.95110305862818</v>
       </c>
       <c r="B110">
-        <v>244.0879899817312</v>
+        <v>244.72403367803167</v>
       </c>
       <c r="C110">
-        <v>19.999956792108133</v>
+        <v>19.999960914145</v>
       </c>
       <c r="D110">
-        <v>0.9658474874926932</v>
+        <v>0.9659952210564426</v>
       </c>
       <c r="E110">
-        <v>0.22379397750881783</v>
+        <v>0.12627342957660384</v>
       </c>
       <c r="F110">
-        <v>-0.12912455101317086</v>
+        <v>0.22478073449542432</v>
       </c>
       <c r="G110">
-        <v>0.0013330117884072512</v>
+        <v>0.0023954222756581768</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111">
-        <v>215.60997461570582</v>
+        <v>215.0445683674162</v>
       </c>
       <c r="B111">
-        <v>243.9949051363317</v>
+        <v>244.67153790142368</v>
       </c>
       <c r="C111">
-        <v>19.999956964811652</v>
+        <v>19.99996091471097</v>
       </c>
       <c r="D111">
-        <v>0.9658582985764945</v>
+        <v>0.9659958088252236</v>
       </c>
       <c r="E111">
-        <v>0.22385733864723853</v>
+        <v>0.12625611939574452</v>
       </c>
       <c r="F111">
-        <v>-0.12893414324482172</v>
+        <v>0.22478784553987058</v>
       </c>
       <c r="G111">
-        <v>0.0013974265354463361</v>
+        <v>0.0024054949505318965</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112">
-        <v>215.55636557944175</v>
+        <v>215.1380366589179</v>
       </c>
       <c r="B112">
-        <v>243.9018181928045</v>
+        <v>244.61904947247422</v>
       </c>
       <c r="C112">
-        <v>19.999956965188154</v>
+        <v>19.999960914909657</v>
       </c>
       <c r="D112">
-        <v>0.9658585011127716</v>
+        <v>0.9659964082636332</v>
       </c>
       <c r="E112">
-        <v>0.22386243661930746</v>
+        <v>0.12623848625086737</v>
       </c>
       <c r="F112">
-        <v>-0.12892368335184465</v>
+        <v>0.2247950842928374</v>
       </c>
       <c r="G112">
-        <v>0.0014054910914987825</v>
+        <v>0.0024157517274736905</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113">
-        <v>215.50276122298402</v>
+        <v>215.23150798753272</v>
       </c>
       <c r="B113">
-        <v>243.80872920277946</v>
+        <v>244.56656853029767</v>
       </c>
       <c r="C113">
-        <v>19.999956965564706</v>
+        <v>19.999960915642262</v>
       </c>
       <c r="D113">
-        <v>0.9658588429059769</v>
+        <v>0.9659970197547212</v>
       </c>
       <c r="E113">
-        <v>0.223867394660047</v>
+        <v>0.1262205192492311</v>
       </c>
       <c r="F113">
-        <v>-0.1289124512361</v>
+        <v>0.22480245506027108</v>
       </c>
       <c r="G113">
-        <v>0.001412876443909232</v>
+        <v>0.002426198693233435</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114">
-        <v>215.44916175927068</v>
+        <v>215.32498240936062</v>
       </c>
       <c r="B114">
-        <v>243.71563817554775</v>
+        <v>244.5140952189094</v>
       </c>
       <c r="C114">
-        <v>19.999956965924305</v>
+        <v>19.99996091607275</v>
       </c>
       <c r="D114">
-        <v>0.9658592571714014</v>
+        <v>0.9659976437436752</v>
       </c>
       <c r="E114">
-        <v>0.22387233852295932</v>
+        <v>0.12620220679581365</v>
       </c>
       <c r="F114">
-        <v>-0.12890071247920698</v>
+        <v>0.2248099622708646</v>
       </c>
       <c r="G114">
-        <v>0.0014200251738656973</v>
+        <v>0.002436842072941507</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115">
-        <v>215.39561014573735</v>
+        <v>215.41845998261394</v>
       </c>
       <c r="B115">
-        <v>243.6225603344441</v>
+        <v>244.46162968721333</v>
       </c>
       <c r="C115">
-        <v>19.99995713124545</v>
+        <v>19.99996091679676</v>
       </c>
       <c r="D115">
-        <v>0.9658818754223764</v>
+        <v>0.9659982806300093</v>
       </c>
       <c r="E115">
-        <v>0.22384316163421916</v>
+        <v>0.12618353697151177</v>
       </c>
       <c r="F115">
-        <v>-0.12878717288234096</v>
+        <v>0.22481761071367276</v>
       </c>
       <c r="G115">
-        <v>0.0012654688913802514</v>
+        <v>0.0024476886236626124</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116">
-        <v>215.34204906369524</v>
+        <v>215.51194076743735</v>
       </c>
       <c r="B116">
-        <v>243.52947531793367</v>
+        <v>244.4091720894733</v>
       </c>
       <c r="C116">
-        <v>19.99995713154091</v>
+        <v>19.999960917314617</v>
       </c>
       <c r="D116">
-        <v>0.9658748234747734</v>
+        <v>0.9659989308931334</v>
       </c>
       <c r="E116">
-        <v>0.22385965595754767</v>
+        <v>0.12616449703142765</v>
       </c>
       <c r="F116">
-        <v>-0.1288094865411148</v>
+        <v>0.22482540529306666</v>
       </c>
       <c r="G116">
-        <v>0.0013264227983515342</v>
+        <v>0.002458745253953683</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117">
-        <v>215.28848419391213</v>
+        <v>215.6054248261438</v>
       </c>
       <c r="B117">
-        <v>243.43638495754158</v>
+        <v>244.35672258547868</v>
       </c>
       <c r="C117">
-        <v>19.999957131943262</v>
+        <v>19.99996091798562</v>
       </c>
       <c r="D117">
-        <v>0.9658706188302102</v>
+        <v>0.9659995950081711</v>
       </c>
       <c r="E117">
-        <v>0.2238720340466746</v>
+        <v>0.12614507368766023</v>
       </c>
       <c r="F117">
-        <v>-0.1288183097927774</v>
+        <v>0.2248333512213214</v>
       </c>
       <c r="G117">
-        <v>0.0013670109007790608</v>
+        <v>0.0024700193222970627</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118">
-        <v>215.23491931208437</v>
+        <v>215.69891222324796</v>
       </c>
       <c r="B118">
-        <v>243.3432904818504</v>
+        <v>244.30428134090133</v>
       </c>
       <c r="C118">
-        <v>19.999957132405935</v>
+        <v>19.99996091837515</v>
       </c>
       <c r="D118">
-        <v>0.9658683060490266</v>
+        <v>0.9660002734932562</v>
       </c>
       <c r="E118">
-        <v>0.22388166913571675</v>
+        <v>0.1261252528815621</v>
       </c>
       <c r="F118">
-        <v>-0.12881817899235432</v>
+        <v>0.22484145394827965</v>
       </c>
       <c r="G118">
-        <v>0.0013942889572127143</v>
+        <v>0.0024815184978420816</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119">
-        <v>215.1813567930901</v>
+        <v>215.79240302573638</v>
       </c>
       <c r="B119">
-        <v>243.25019264419907</v>
+        <v>244.2518485274909</v>
       </c>
       <c r="C119">
-        <v>19.999957132830318</v>
+        <v>19.99996091895909</v>
       </c>
       <c r="D119">
-        <v>0.9658671717803048</v>
+        <v>0.9660009668630511</v>
       </c>
       <c r="E119">
-        <v>0.22388962448625072</v>
+        <v>0.1261050199182096</v>
       </c>
       <c r="F119">
-        <v>-0.12881241616929867</v>
+        <v>0.22484971927798228</v>
       </c>
       <c r="G119">
-        <v>0.001413449887018278</v>
+        <v>0.002493250936953019</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120">
-        <v>215.12779810141487</v>
+        <v>215.8861134456997</v>
       </c>
       <c r="B120">
-        <v>243.15709187495565</v>
+        <v>244.19996974723497</v>
       </c>
       <c r="C120">
-        <v>19.999957133242173</v>
+        <v>19.99996095429001</v>
       </c>
       <c r="D120">
-        <v>0.9658667446894388</v>
+        <v>0.966047523521314</v>
       </c>
       <c r="E120">
-        <v>0.22389662402658198</v>
+        <v>0.12477553286379661</v>
       </c>
       <c r="F120">
-        <v>-0.1288031795385052</v>
+        <v>0.2253829352111868</v>
       </c>
       <c r="G120">
-        <v>0.0014278873904392628</v>
+        <v>0.003248937943492293</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121">
-        <v>215.0360473249491</v>
+        <v>215.97982821175697</v>
       </c>
       <c r="B121">
-        <v>243.1008424978869</v>
+        <v>244.14810215450052</v>
       </c>
       <c r="C121">
-        <v>19.999956551156593</v>
+        <v>19.999960954984566</v>
       </c>
       <c r="D121">
-        <v>0.9657333920564599</v>
+        <v>0.9660484847248118</v>
       </c>
       <c r="E121">
-        <v>0.13526438783536995</v>
+        <v>0.12474869141124749</v>
       </c>
       <c r="F121">
-        <v>-0.22063564620581075</v>
+        <v>0.22539349762569225</v>
       </c>
       <c r="G121">
-        <v>0.0001163144397152693</v>
+        <v>0.003263812452578971</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122">
-        <v>214.94429665838229</v>
+        <v>216.0735474176175</v>
       </c>
       <c r="B122">
-        <v>243.04459280397487</v>
+        <v>244.09624598738012</v>
       </c>
       <c r="C122">
-        <v>19.999956551171138</v>
+        <v>19.999960955793963</v>
       </c>
       <c r="D122">
-        <v>0.9657333789469125</v>
+        <v>0.9660494665282815</v>
       </c>
       <c r="E122">
-        <v>0.13526508465057993</v>
+        <v>0.1247212752457901</v>
       </c>
       <c r="F122">
-        <v>-0.22063527573396022</v>
+        <v>0.22540428149108202</v>
       </c>
       <c r="G122">
-        <v>0.00011631802824512811</v>
+        <v>0.0032789948567843556</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123">
-        <v>214.8525461681357</v>
+        <v>216.16727115733227</v>
       </c>
       <c r="B123">
-        <v>242.98834282948934</v>
+        <v>244.04440149599418</v>
       </c>
       <c r="C123">
-        <v>19.999956551164296</v>
+        <v>19.999960956482635</v>
       </c>
       <c r="D123">
-        <v>0.9657333812575012</v>
+        <v>0.9660504704459888</v>
       </c>
       <c r="E123">
-        <v>0.13526575951164885</v>
+        <v>0.12469325897203672</v>
       </c>
       <c r="F123">
-        <v>-0.22063485199430052</v>
+        <v>0.22541529400737548</v>
       </c>
       <c r="G123">
-        <v>0.00011632258668619689</v>
+        <v>0.0032944937318960844</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124">
-        <v>214.76079585643515</v>
+        <v>216.26099952869637</v>
       </c>
       <c r="B124">
-        <v>242.93209257096925</v>
+        <v>243.9925689403083</v>
       </c>
       <c r="C124">
-        <v>19.999956551157485</v>
+        <v>19.9999609574515</v>
       </c>
       <c r="D124">
-        <v>0.9657333836243867</v>
+        <v>0.9660514973463098</v>
       </c>
       <c r="E124">
-        <v>0.13526644269718302</v>
+        <v>0.12466461887322934</v>
       </c>
       <c r="F124">
-        <v>-0.22063442290457413</v>
+        <v>0.22542654410546467</v>
       </c>
       <c r="G124">
-        <v>0.00011632720122999156</v>
+        <v>0.003310321246655125</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125">
-        <v>214.66904572556575</v>
+        <v>216.3547326332654</v>
       </c>
       <c r="B125">
-        <v>242.8758420248687</v>
+        <v>243.9407485908471</v>
       </c>
       <c r="C125">
-        <v>19.999956551150703</v>
+        <v>19.99996095830316</v>
       </c>
       <c r="D125">
-        <v>0.9657333860502662</v>
+        <v>0.966052548185999</v>
       </c>
       <c r="E125">
-        <v>0.13526713441364077</v>
+        <v>0.12463532972935308</v>
       </c>
       <c r="F125">
-        <v>-0.22063398832642292</v>
+        <v>0.22543804114041804</v>
       </c>
       <c r="G125">
-        <v>0.00011633187330428787</v>
+        <v>0.0033264901655873386</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126">
-        <v>214.57729577787168</v>
+        <v>216.4484705767418</v>
       </c>
       <c r="B126">
-        <v>242.81959118755222</v>
+        <v>243.88894072919126</v>
       </c>
       <c r="C126">
-        <v>19.999956551143953</v>
+        <v>19.99996095889579</v>
       </c>
       <c r="D126">
-        <v>0.9657333885373819</v>
+        <v>0.9660536239456762</v>
       </c>
       <c r="E126">
-        <v>0.1352678348764363</v>
+        <v>0.12460536495136393</v>
       </c>
       <c r="F126">
-        <v>-0.22063354811796435</v>
+        <v>0.22544979508330387</v>
       </c>
       <c r="G126">
-        <v>0.00011633660436177751</v>
+        <v>0.0033430140871969875</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127">
-        <v>214.48554601575856</v>
+        <v>216.54221346919408</v>
       </c>
       <c r="B127">
-        <v>242.7633400552915</v>
+        <v>243.83714564866398</v>
       </c>
       <c r="C127">
-        <v>19.999956551137238</v>
+        <v>19.999960959689567</v>
       </c>
       <c r="D127">
-        <v>0.96573339108809</v>
+        <v>0.9660547256708638</v>
       </c>
       <c r="E127">
-        <v>0.13526854430924784</v>
+        <v>0.12457469632887443</v>
       </c>
       <c r="F127">
-        <v>-0.22063310213174922</v>
+        <v>0.22546181648532845</v>
       </c>
       <c r="G127">
-        <v>0.00011634139590475168</v>
+        <v>0.0033599073888997723</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128">
-        <v>214.39379644169588</v>
+        <v>216.62038650987043</v>
       </c>
       <c r="B128">
-        <v>242.70708862426162</v>
+        <v>243.76368118950487</v>
       </c>
       <c r="C128">
-        <v>19.999956551130566</v>
+        <v>19.999965443976116</v>
       </c>
       <c r="D128">
-        <v>0.9657333937048711</v>
+        <v>0.9659522206160406</v>
       </c>
       <c r="E128">
-        <v>0.13526926294443756</v>
+        <v>0.17668252367935777</v>
       </c>
       <c r="F128">
-        <v>-0.22063265021446102</v>
+        <v>0.18800982283316275</v>
       </c>
       <c r="G128">
-        <v>0.00011634624950038717</v>
+        <v>0.0004221994808634035</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129">
-        <v>214.30204705821959</v>
+        <v>216.68006651152584</v>
       </c>
       <c r="B129">
-        <v>242.65083689053728</v>
+        <v>243.67527467196302</v>
       </c>
       <c r="C129">
-        <v>19.999956551123944</v>
+        <v>19.999961862008508</v>
       </c>
       <c r="D129">
-        <v>0.9657333963903347</v>
+        <v>0.9663379228641168</v>
       </c>
       <c r="E129">
-        <v>0.13526999102351175</v>
+        <v>0.2126586961443156</v>
       </c>
       <c r="F129">
-        <v>-0.22063219220661234</v>
+        <v>0.14356287207061158</v>
       </c>
       <c r="G129">
-        <v>0.00011635116677026159</v>
+        <v>2.2698186758498652e-5</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130">
-        <v>214.21029786793474</v>
+        <v>216.7397468107395</v>
       </c>
       <c r="B130">
-        <v>242.59458485008886</v>
+        <v>243.58686789857072</v>
       </c>
       <c r="C130">
-        <v>19.999956551117364</v>
+        <v>19.999961866633363</v>
       </c>
       <c r="D130">
-        <v>0.9657333991472309</v>
+        <v>0.9663378738635864</v>
       </c>
       <c r="E130">
-        <v>0.13527072879760468</v>
+        <v>0.2126587105592188</v>
       </c>
       <c r="F130">
-        <v>-0.22063172794219962</v>
+        <v>0.14356318069096677</v>
       </c>
       <c r="G130">
-        <v>0.00011635614940760655</v>
+        <v>2.2731661290752907e-5</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131">
-        <v>214.11854887351848</v>
+        <v>216.79353391758266</v>
       </c>
       <c r="B131">
-        <v>242.53833249877817</v>
+        <v>243.49384677317568</v>
       </c>
       <c r="C131">
-        <v>19.999956551110845</v>
+        <v>19.99995678477271</v>
       </c>
       <c r="D131">
-        <v>0.9657334019784577</v>
+        <v>0.9658383525863106</v>
       </c>
       <c r="E131">
-        <v>0.135271476528003</v>
+        <v>0.22370284597221757</v>
       </c>
       <c r="F131">
-        <v>-0.22063125724834629</v>
+        <v>0.1293510654267603</v>
       </c>
       <c r="G131">
-        <v>0.0001163611991707372</v>
+        <v>-0.0012070430656136708</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132">
-        <v>214.02680007772295</v>
+        <v>216.83757015430777</v>
       </c>
       <c r="B132">
-        <v>242.48207983235397</v>
+        <v>243.39756102861188</v>
       </c>
       <c r="C132">
-        <v>19.99995655110439</v>
+        <v>19.999973437116477</v>
       </c>
       <c r="D132">
-        <v>0.9657334048870742</v>
+        <v>0.966761498698825</v>
       </c>
       <c r="E132">
-        <v>0.13527223448668765</v>
+        <v>0.23165299363720082</v>
       </c>
       <c r="F132">
-        <v>-0.22063077994491728</v>
+        <v>0.10595185262301547</v>
       </c>
       <c r="G132">
-        <v>0.00011636631788669886</v>
+        <v>-0.011085249682572773</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133">
-        <v>213.93505148337857</v>
+        <v>216.8518766170535</v>
       </c>
       <c r="B133">
-        <v>242.42582684644734</v>
+        <v>243.2995267178423</v>
       </c>
       <c r="C133">
-        <v>19.999956551098002</v>
+        <v>19.9999999996794</v>
       </c>
       <c r="D133">
-        <v>0.9657334078763071</v>
+        <v>0.9706418158413673</v>
       </c>
       <c r="E133">
-        <v>0.1352730029569368</v>
+        <v>0.23630703220965993</v>
       </c>
       <c r="F133">
-        <v>-0.22063029584411556</v>
+        <v>0.03449848738822242</v>
       </c>
       <c r="G133">
-        <v>0.00011637150746419359</v>
+        <v>-0.02319374263519788</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134">
-        <v>213.8433030933974</v>
+        <v>216.86606368606738</v>
       </c>
       <c r="B134">
-        <v>242.36957353656666</v>
+        <v>243.20149537890822</v>
       </c>
       <c r="C134">
-        <v>19.999956551091685</v>
+        <v>19.999999999542432</v>
       </c>
       <c r="D134">
-        <v>0.9657334109495673</v>
+        <v>0.9706559401088931</v>
       </c>
       <c r="E134">
-        <v>0.13527378223395936</v>
+        <v>0.23630484404572605</v>
       </c>
       <c r="F134">
-        <v>-0.22062980475002683</v>
+        <v>0.03421134229619248</v>
       </c>
       <c r="G134">
-        <v>0.00011637676988716075</v>
+        <v>-0.023056605853503512</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135">
-        <v>213.75155491077666</v>
+        <v>216.8786157130919</v>
       </c>
       <c r="B135">
-        <v>242.31331989809246</v>
+        <v>243.1034876944444</v>
       </c>
       <c r="C135">
-        <v>19.999956551085443</v>
+        <v>19.999999999448594</v>
       </c>
       <c r="D135">
-        <v>0.9657334141104599</v>
+        <v>0.9708451347669015</v>
       </c>
       <c r="E135">
-        <v>0.13527457262556766</v>
+        <v>0.23627389985812025</v>
       </c>
       <c r="F135">
-        <v>-0.22062930645815979</v>
+        <v>0.03027224980326281</v>
       </c>
       <c r="G135">
-        <v>0.00011638210722413822</v>
+        <v>-0.020908293185692917</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136">
+        <v>216.8903501532507</v>
+      </c>
+      <c r="B136">
+        <v>243.0054907944986</v>
+      </c>
+      <c r="C136">
+        <v>19.999999999521226</v>
+      </c>
+      <c r="D136">
+        <v>0.9709312648939215</v>
+      </c>
+      <c r="E136">
+        <v>0.2362597827297476</v>
+      </c>
+      <c r="F136">
+        <v>0.02830207700851344</v>
+      </c>
+      <c r="G136">
+        <v>-0.01984707915288664</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137">
+        <v>216.90196498196022</v>
+      </c>
+      <c r="B137">
+        <v>242.90749628673026</v>
+      </c>
+      <c r="C137">
+        <v>19.99999999956321</v>
+      </c>
+      <c r="D137">
+        <v>0.970945138395945</v>
+      </c>
+      <c r="E137">
+        <v>0.2362559851777293</v>
+      </c>
+      <c r="F137">
+        <v>0.02801381892503898</v>
+      </c>
+      <c r="G137">
+        <v>-0.019629416300213115</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138">
+        <v>216.9134804183111</v>
+      </c>
+      <c r="B138">
+        <v>242.80950310845654</v>
+      </c>
+      <c r="C138">
+        <v>19.999999999583135</v>
+      </c>
+      <c r="D138">
+        <v>0.9709552781475079</v>
+      </c>
+      <c r="E138">
+        <v>0.23625418425437208</v>
+      </c>
+      <c r="F138">
+        <v>0.027774283541378203</v>
+      </c>
+      <c r="G138">
+        <v>-0.019495248445485412</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139">
+        <v>216.9248956644091</v>
+      </c>
+      <c r="B139">
+        <v>242.71151127141945</v>
+      </c>
+      <c r="C139">
+        <v>19.999999999565556</v>
+      </c>
+      <c r="D139">
+        <v>0.9709654374188341</v>
+      </c>
+      <c r="E139">
+        <v>0.2362523585406413</v>
+      </c>
+      <c r="F139">
+        <v>0.027532820927795063</v>
+      </c>
+      <c r="G139">
+        <v>-0.019359259474193716</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140">
+        <v>216.9362099050371</v>
+      </c>
+      <c r="B140">
+        <v>242.61352078770716</v>
+      </c>
+      <c r="C140">
+        <v>19.999999999494214</v>
+      </c>
+      <c r="D140">
+        <v>0.970975616561393</v>
+      </c>
+      <c r="E140">
+        <v>0.23625050731390004</v>
+      </c>
+      <c r="F140">
+        <v>0.02728938925074757</v>
+      </c>
+      <c r="G140">
+        <v>-0.019221388890679193</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141">
+        <v>216.94742232108806</v>
+      </c>
+      <c r="B141">
+        <v>242.51553166900413</v>
+      </c>
+      <c r="C141">
+        <v>19.999999999530793</v>
+      </c>
+      <c r="D141">
+        <v>0.9709858134954394</v>
+      </c>
+      <c r="E141">
+        <v>0.23624863117896414</v>
+      </c>
+      <c r="F141">
+        <v>0.02704397903748777</v>
+      </c>
+      <c r="G141">
+        <v>-0.019081630997482852</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142">
+        <v>216.95853208487</v>
+      </c>
+      <c r="B142">
+        <v>242.4175439268888</v>
+      </c>
+      <c r="C142">
+        <v>19.99999999958226</v>
+      </c>
+      <c r="D142">
+        <v>0.9709960269062593</v>
+      </c>
+      <c r="E142">
+        <v>0.2362467302907506</v>
+      </c>
+      <c r="F142">
+        <v>0.026796569516343842</v>
+      </c>
+      <c r="G142">
+        <v>-0.018939961143635792</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143">
+        <v>216.96953836005545</v>
+      </c>
+      <c r="B143">
+        <v>242.31955757276248</v>
+      </c>
+      <c r="C143">
+        <v>19.999999999498137</v>
+      </c>
+      <c r="D143">
+        <v>0.9710062554151085</v>
+      </c>
+      <c r="E143">
+        <v>0.23624480485042085</v>
+      </c>
+      <c r="F143">
+        <v>0.02654713977911185</v>
+      </c>
+      <c r="G143">
+        <v>-0.018796354512668006</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144">
+        <v>216.9804403016164</v>
+      </c>
+      <c r="B144">
+        <v>242.2215726178442</v>
+      </c>
+      <c r="C144">
+        <v>19.999999999547438</v>
+      </c>
+      <c r="D144">
+        <v>0.9710164975858336</v>
+      </c>
+      <c r="E144">
+        <v>0.23624285507753096</v>
+      </c>
+      <c r="F144">
+        <v>0.02629566876210926</v>
+      </c>
+      <c r="G144">
+        <v>-0.018650786097453104</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145">
+        <v>216.9910637598908</v>
+      </c>
+      <c r="B145">
+        <v>242.12360804741917</v>
+      </c>
+      <c r="C145">
+        <v>19.99997832770683</v>
+      </c>
+      <c r="D145">
+        <v>0.9710632689862264</v>
+      </c>
+      <c r="E145">
+        <v>0.23620479691612176</v>
+      </c>
+      <c r="F145">
+        <v>0.02562484061437566</v>
+      </c>
+      <c r="G145">
+        <v>-0.017647359527389463</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146">
+        <v>216.99969930177022</v>
+      </c>
+      <c r="B146">
+        <v>242.02566991610806</v>
+      </c>
+      <c r="C146">
+        <v>19.999973840359615</v>
+      </c>
+      <c r="D146">
+        <v>0.9712453241861272</v>
+      </c>
+      <c r="E146">
+        <v>0.23616401326294223</v>
+      </c>
+      <c r="F146">
+        <v>0.020831691905685096</v>
+      </c>
+      <c r="G146">
+        <v>-0.014287657495349021</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147">
+        <v>217.00833597187378</v>
+      </c>
+      <c r="B147">
+        <v>241.92772956490725</v>
+      </c>
+      <c r="C147">
+        <v>19.999973795756706</v>
+      </c>
+      <c r="D147">
+        <v>0.9712414608984049</v>
+      </c>
+      <c r="E147">
+        <v>0.2361679923762808</v>
+      </c>
+      <c r="F147">
+        <v>0.02083440110548466</v>
+      </c>
+      <c r="G147">
+        <v>-0.014475727909363688</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148">
+        <v>217.0168994410272</v>
+      </c>
+      <c r="B148">
+        <v>241.8297899700457</v>
+      </c>
+      <c r="C148">
+        <v>19.999973794203743</v>
+      </c>
+      <c r="D148">
+        <v>0.9712471662539216</v>
+      </c>
+      <c r="E148">
+        <v>0.23616695873140597</v>
+      </c>
+      <c r="F148">
+        <v>0.020657894141400814</v>
+      </c>
+      <c r="G148">
+        <v>-0.014366648499503617</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149">
+        <v>217.02538944993066</v>
+      </c>
+      <c r="B149">
+        <v>241.73185114491295</v>
+      </c>
+      <c r="C149">
+        <v>19.99997379267109</v>
+      </c>
+      <c r="D149">
+        <v>0.9712528516393673</v>
+      </c>
+      <c r="E149">
+        <v>0.23616589686978015</v>
+      </c>
+      <c r="F149">
+        <v>0.020480760870271585</v>
+      </c>
+      <c r="G149">
+        <v>-0.01425725935722522</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150">
+        <v>217.03380558258098</v>
+      </c>
+      <c r="B150">
+        <v>241.63391309149267</v>
+      </c>
+      <c r="C150">
+        <v>19.999973791098327</v>
+      </c>
+      <c r="D150">
+        <v>0.9712585285831568</v>
+      </c>
+      <c r="E150">
+        <v>0.23616482922230558</v>
+      </c>
+      <c r="F150">
+        <v>0.02030262259436929</v>
+      </c>
+      <c r="G150">
+        <v>-0.014146918124053578</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151">
+        <v>217.0421474194167</v>
+      </c>
+      <c r="B151">
+        <v>241.5359758117611</v>
+      </c>
+      <c r="C151">
+        <v>19.999973789642386</v>
+      </c>
+      <c r="D151">
+        <v>0.9712641965009228</v>
+      </c>
+      <c r="E151">
+        <v>0.23616375585790894</v>
+      </c>
+      <c r="F151">
+        <v>0.020123470723236038</v>
+      </c>
+      <c r="G151">
+        <v>-0.0140356153185477</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152">
+        <v>217.05041453733207</v>
+      </c>
+      <c r="B152">
+        <v>241.43803930758483</v>
+      </c>
+      <c r="C152">
+        <v>19.99997378816261</v>
+      </c>
+      <c r="D152">
+        <v>0.9712698547775231</v>
+      </c>
+      <c r="E152">
+        <v>0.2361626768962691</v>
+      </c>
+      <c r="F152">
+        <v>0.019943296683573655</v>
+      </c>
+      <c r="G152">
+        <v>-0.013923341539428685</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153">
+        <v>217.05860650948566</v>
+      </c>
+      <c r="B153">
+        <v>241.3401035807679</v>
+      </c>
+      <c r="C153">
+        <v>19.999973786643153</v>
+      </c>
+      <c r="D153">
+        <v>0.9712755028072567</v>
+      </c>
+      <c r="E153">
+        <v>0.23616159242948462</v>
+      </c>
+      <c r="F153">
+        <v>0.01976209144728759</v>
+      </c>
+      <c r="G153">
+        <v>-0.01381008667894135</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154">
+        <v>217.06672290536193</v>
+      </c>
+      <c r="B154">
+        <v>241.24216863299748</v>
+      </c>
+      <c r="C154">
+        <v>19.999973785142075</v>
+      </c>
+      <c r="D154">
+        <v>0.9712811399517377</v>
+      </c>
+      <c r="E154">
+        <v>0.23616050258157675</v>
+      </c>
+      <c r="F154">
+        <v>0.019579846127191904</v>
+      </c>
+      <c r="G154">
+        <v>-0.013695840922743487</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155">
+        <v>217.07476329067762</v>
+      </c>
+      <c r="B155">
+        <v>241.14423446590442</v>
+      </c>
+      <c r="C155">
+        <v>19.999973783794193</v>
+      </c>
+      <c r="D155">
+        <v>0.9712867655699348</v>
+      </c>
+      <c r="E155">
+        <v>0.23615940745020755</v>
+      </c>
+      <c r="F155">
+        <v>0.019396551619946748</v>
+      </c>
+      <c r="G155">
+        <v>-0.013580594157681465</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156">
+        <v>217.08272722732485</v>
+      </c>
+      <c r="B156">
+        <v>241.04630108104328</v>
+      </c>
+      <c r="C156">
+        <v>19.999973782333196</v>
+      </c>
+      <c r="D156">
+        <v>0.9712923790053081</v>
+      </c>
+      <c r="E156">
+        <v>0.23615830714379302</v>
+      </c>
+      <c r="F156">
+        <v>0.019212198682092715</v>
+      </c>
+      <c r="G156">
+        <v>-0.013464336093671432</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157">
+        <v>217.09061425608152</v>
+      </c>
+      <c r="B157">
+        <v>240.9483684804428</v>
+      </c>
+      <c r="C157">
+        <v>19.999973780814404</v>
+      </c>
+      <c r="D157">
+        <v>0.9712979816627111</v>
+      </c>
+      <c r="E157">
+        <v>0.23615720068776797</v>
+      </c>
+      <c r="F157">
+        <v>0.019026736355747614</v>
+      </c>
+      <c r="G157">
+        <v>-0.01334698556348434</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158">
+        <v>217.09842429253425</v>
+      </c>
+      <c r="B158">
+        <v>240.85043665329488</v>
+      </c>
+      <c r="C158">
+        <v>19.999973779200264</v>
+      </c>
+      <c r="D158">
+        <v>0.9713035275571857</v>
+      </c>
+      <c r="E158">
+        <v>0.23615611212574605</v>
+      </c>
+      <c r="F158">
+        <v>0.01884106881039408</v>
+      </c>
+      <c r="G158">
+        <v>-0.013230084855986727</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159">
+        <v>217.10615654728377</v>
+      </c>
+      <c r="B159">
+        <v>240.75250561219366</v>
+      </c>
+      <c r="C159">
+        <v>19.999973777711997</v>
+      </c>
+      <c r="D159">
+        <v>0.9713090997991155</v>
+      </c>
+      <c r="E159">
+        <v>0.23615499750770005</v>
+      </c>
+      <c r="F159">
+        <v>0.018653495336066774</v>
+      </c>
+      <c r="G159">
+        <v>-0.013110767864340797</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160">
+        <v>217.11381056655227</v>
+      </c>
+      <c r="B160">
+        <v>240.6545753583419</v>
+      </c>
+      <c r="C160">
+        <v>19.999973776246218</v>
+      </c>
+      <c r="D160">
+        <v>0.9713146570676583</v>
+      </c>
+      <c r="E160">
+        <v>0.23615387819142514</v>
+      </c>
+      <c r="F160">
+        <v>0.018464825557427726</v>
+      </c>
+      <c r="G160">
+        <v>-0.012990398316344963</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161">
+        <v>217.12111336327436</v>
+      </c>
+      <c r="B161">
+        <v>240.55666766997336</v>
+      </c>
+      <c r="C161">
+        <v>19.999978296321675</v>
+      </c>
+      <c r="D161">
+        <v>0.9713631715714528</v>
+      </c>
+      <c r="E161">
+        <v>0.23610754558764172</v>
+      </c>
+      <c r="F161">
+        <v>0.017618559186234596</v>
+      </c>
+      <c r="G161">
+        <v>-0.011489427374252282</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162">
+        <v>217.12834327127644</v>
+      </c>
+      <c r="B162">
+        <v>240.45876094277867</v>
+      </c>
+      <c r="C162">
+        <v>19.999978295059154</v>
+      </c>
+      <c r="D162">
+        <v>0.9713679564352252</v>
+      </c>
+      <c r="E162">
+        <v>0.23610658748816687</v>
+      </c>
+      <c r="F162">
+        <v>0.01744281442385257</v>
+      </c>
+      <c r="G162">
+        <v>-0.01137669544316851</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163">
+        <v>217.1355000002409</v>
+      </c>
+      <c r="B163">
+        <v>240.36085483484362</v>
+      </c>
+      <c r="C163">
+        <v>19.99997829398617</v>
+      </c>
+      <c r="D163">
+        <v>0.9713726870220992</v>
+      </c>
+      <c r="E163">
+        <v>0.23610574879147875</v>
+      </c>
+      <c r="F163">
+        <v>0.01726631537340044</v>
+      </c>
+      <c r="G163">
+        <v>-0.011263405157069924</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164">
+        <v>217.14258310523707</v>
+      </c>
+      <c r="B164">
+        <v>240.26294934843477</v>
+      </c>
+      <c r="C164">
+        <v>19.999978292943766</v>
+      </c>
+      <c r="D164">
+        <v>0.9713774054100636</v>
+      </c>
+      <c r="E164">
+        <v>0.23610490327972294</v>
+      </c>
+      <c r="F164">
+        <v>0.01708874173539776</v>
+      </c>
+      <c r="G164">
+        <v>-0.011149045012947036</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165">
+        <v>217.1495921365026</v>
+      </c>
+      <c r="B165">
+        <v>240.16504448573951</v>
+      </c>
+      <c r="C165">
+        <v>19.99997829182968</v>
+      </c>
+      <c r="D165">
+        <v>0.9713821110122844</v>
+      </c>
+      <c r="E165">
+        <v>0.23610405101611437</v>
+      </c>
+      <c r="F165">
+        <v>0.016910081839647855</v>
+      </c>
+      <c r="G165">
+        <v>-0.01103359949251842</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166">
+        <v>217.15655880885018</v>
+      </c>
+      <c r="B166">
+        <v>240.06713817023802</v>
+      </c>
+      <c r="C166">
+        <v>19.999976184609192</v>
+      </c>
+      <c r="D166">
+        <v>0.9713824319010089</v>
+      </c>
+      <c r="E166">
+        <v>0.23610794361683426</v>
+      </c>
+      <c r="F166">
+        <v>0.01680797666629407</v>
+      </c>
+      <c r="G166">
+        <v>-0.011074246479807592</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167">
+        <v>217.1634520910328</v>
+      </c>
+      <c r="B167">
+        <v>239.969232168197</v>
+      </c>
+      <c r="C167">
+        <v>19.999976137035265</v>
+      </c>
+      <c r="D167">
+        <v>0.9713868538357269</v>
+      </c>
+      <c r="E167">
+        <v>0.2361074803874923</v>
+      </c>
+      <c r="F167">
+        <v>0.016630955945581248</v>
+      </c>
+      <c r="G167">
+        <v>-0.010967249149123195</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168">
+        <v>217.17026901565376</v>
+      </c>
+      <c r="B168">
+        <v>239.8713268224204</v>
+      </c>
+      <c r="C168">
+        <v>19.999976135832206</v>
+      </c>
+      <c r="D168">
+        <v>0.9713916216340217</v>
+      </c>
+      <c r="E168">
+        <v>0.23610655100585856</v>
+      </c>
+      <c r="F168">
+        <v>0.01644678306989831</v>
+      </c>
+      <c r="G168">
+        <v>-0.01084688389470009</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169">
+        <v>217.1770091066542</v>
+      </c>
+      <c r="B169">
+        <v>239.77342213892783</v>
+      </c>
+      <c r="C169">
+        <v>19.99997613469348</v>
+      </c>
+      <c r="D169">
+        <v>0.97139637422657</v>
+      </c>
+      <c r="E169">
+        <v>0.23610561265955252</v>
+      </c>
+      <c r="F169">
+        <v>0.01626146091834996</v>
+      </c>
+      <c r="G169">
+        <v>-0.0107253492097225</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170">
+        <v>217.18367188401842</v>
+      </c>
+      <c r="B170">
+        <v>239.67551812014707</v>
+      </c>
+      <c r="C170">
+        <v>19.99997613353816</v>
+      </c>
+      <c r="D170">
+        <v>0.9714011105535033</v>
+      </c>
+      <c r="E170">
+        <v>0.2361046665647183</v>
+      </c>
+      <c r="F170">
+        <v>0.016074979414219898</v>
+      </c>
+      <c r="G170">
+        <v>-0.010602631545031585</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171">
+        <v>217.19025446304934</v>
+      </c>
+      <c r="B171">
+        <v>239.57761494811982</v>
+      </c>
+      <c r="C171">
+        <v>19.99997617884771</v>
+      </c>
+      <c r="D171">
+        <v>0.9714061577976018</v>
+      </c>
+      <c r="E171">
+        <v>0.23610331120654288</v>
+      </c>
+      <c r="F171">
+        <v>0.015881521399449875</v>
+      </c>
+      <c r="G171">
+        <v>-0.010466673714835588</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172">
+        <v>217.19675640717475</v>
+      </c>
+      <c r="B172">
+        <v>239.4797126282138</v>
+      </c>
+      <c r="C172">
+        <v>19.99997622406022</v>
+      </c>
+      <c r="D172">
+        <v>0.9714111795643269</v>
+      </c>
+      <c r="E172">
+        <v>0.2361019470387473</v>
+      </c>
+      <c r="F172">
+        <v>0.01568700913168052</v>
+      </c>
+      <c r="G172">
+        <v>-0.010329550303571033</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173">
+        <v>217.20315097383315</v>
+      </c>
+      <c r="B173">
+        <v>239.38181143481495</v>
+      </c>
+      <c r="C173">
+        <v>19.999976091844896</v>
+      </c>
+      <c r="D173">
+        <v>0.9714183134934221</v>
+      </c>
+      <c r="E173">
+        <v>0.2361003057616915</v>
+      </c>
+      <c r="F173">
+        <v>0.015428016358910022</v>
+      </c>
+      <c r="G173">
+        <v>-0.010091750491518614</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174">
+        <v>217.20946443698645</v>
+      </c>
+      <c r="B174">
+        <v>239.28391107993653</v>
+      </c>
+      <c r="C174">
+        <v>19.999976137192583</v>
+      </c>
+      <c r="D174">
+        <v>0.9714232383744233</v>
+      </c>
+      <c r="E174">
+        <v>0.23609893344188318</v>
+      </c>
+      <c r="F174">
+        <v>0.015232367523470952</v>
+      </c>
+      <c r="G174">
+        <v>-0.00995203251319244</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175">
+        <v>217.2156987938931</v>
+      </c>
+      <c r="B175">
+        <v>239.18601139792278</v>
+      </c>
+      <c r="C175">
+        <v>19.999976136032405</v>
+      </c>
+      <c r="D175">
+        <v>0.9714278170291154</v>
+      </c>
+      <c r="E175">
+        <v>0.2360979549039273</v>
+      </c>
+      <c r="F175">
+        <v>0.015041553622942974</v>
+      </c>
+      <c r="G175">
+        <v>-0.009823318867654115</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176">
+        <v>217.22185630429385</v>
+      </c>
+      <c r="B176">
+        <v>239.08811219680064</v>
+      </c>
+      <c r="C176">
+        <v>19.999976088261317</v>
+      </c>
+      <c r="D176">
+        <v>0.9714320279375667</v>
+      </c>
+      <c r="E176">
+        <v>0.23609739489601814</v>
+      </c>
+      <c r="F176">
+        <v>0.014856206099754138</v>
+      </c>
+      <c r="G176">
+        <v>-0.009706879760730322</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177">
+        <v>217.2279336432627</v>
+      </c>
+      <c r="B177">
+        <v>238.99021366549147</v>
+      </c>
+      <c r="C177">
+        <v>19.999976087078895</v>
+      </c>
+      <c r="D177">
+        <v>0.9714365689147246</v>
+      </c>
+      <c r="E177">
+        <v>0.23609640445502764</v>
+      </c>
+      <c r="F177">
+        <v>0.014662818923484072</v>
+      </c>
+      <c r="G177">
+        <v>-0.009575544779809517</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178">
+        <v>217.23380667744527</v>
+      </c>
+      <c r="B178">
+        <v>238.89232283685908</v>
+      </c>
+      <c r="C178">
+        <v>19.999973761992816</v>
+      </c>
+      <c r="D178">
+        <v>0.9714558883129593</v>
+      </c>
+      <c r="E178">
+        <v>0.23607903564680596</v>
+      </c>
+      <c r="F178">
+        <v>0.014167227988521873</v>
+      </c>
+      <c r="G178">
+        <v>-0.008811879228441542</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179">
+        <v>217.23960136177678</v>
+      </c>
+      <c r="B179">
+        <v>238.79443245271537</v>
+      </c>
+      <c r="C179">
+        <v>19.999973760891347</v>
+      </c>
+      <c r="D179">
+        <v>0.971460094041324</v>
+      </c>
+      <c r="E179">
+        <v>0.23607816632534656</v>
+      </c>
+      <c r="F179">
+        <v>0.013978188414136674</v>
+      </c>
+      <c r="G179">
+        <v>-0.008679161667421411</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180">
+        <v>217.24531708984676</v>
+      </c>
+      <c r="B180">
+        <v>238.69654269709457</v>
+      </c>
+      <c r="C180">
+        <v>19.999973759745135</v>
+      </c>
+      <c r="D180">
+        <v>0.9714642991951697</v>
+      </c>
+      <c r="E180">
+        <v>0.2360772304443507</v>
+      </c>
+      <c r="F180">
+        <v>0.013787706123776503</v>
+      </c>
+      <c r="G180">
+        <v>-0.008544603076818806</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181">
+        <v>217.2510035264736</v>
+      </c>
+      <c r="B181">
+        <v>238.59865153523967</v>
+      </c>
+      <c r="C181">
+        <v>19.999972684089002</v>
+      </c>
+      <c r="D181">
+        <v>0.9714631114292805</v>
+      </c>
+      <c r="E181">
+        <v>0.23608131746818906</v>
+      </c>
+      <c r="F181">
+        <v>0.013718000595014844</v>
+      </c>
+      <c r="G181">
+        <v>-0.008660720728569148</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182">
+        <v>217.25660875820103</v>
+      </c>
+      <c r="B182">
+        <v>238.5007609623948</v>
+      </c>
+      <c r="C182">
+        <v>19.99997268293398</v>
+      </c>
+      <c r="D182">
+        <v>0.9714673856256647</v>
+      </c>
+      <c r="E182">
+        <v>0.23608031409478236</v>
+      </c>
+      <c r="F182">
+        <v>0.013522090177111841</v>
+      </c>
+      <c r="G182">
+        <v>-0.008522534116778486</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183">
+        <v>217.2621321993556</v>
+      </c>
+      <c r="B183">
+        <v>238.4028710658339</v>
+      </c>
+      <c r="C183">
+        <v>19.999972681749917</v>
+      </c>
+      <c r="D183">
+        <v>0.9714716448417835</v>
+      </c>
+      <c r="E183">
+        <v>0.23607927488505934</v>
+      </c>
+      <c r="F183">
+        <v>0.01332477482968649</v>
+      </c>
+      <c r="G183">
+        <v>-0.008382613087196955</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184">
+        <v>217.2675732571814</v>
+      </c>
+      <c r="B184">
+        <v>238.30498184752244</v>
+      </c>
+      <c r="C184">
+        <v>19.99997268062461</v>
+      </c>
+      <c r="D184">
+        <v>0.9714758816747386</v>
+      </c>
+      <c r="E184">
+        <v>0.23607822775719825</v>
+      </c>
+      <c r="F184">
+        <v>0.01312602693532291</v>
+      </c>
+      <c r="G184">
+        <v>-0.008240894495645901</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185">
+        <v>217.27292029449072</v>
+      </c>
+      <c r="B185">
+        <v>238.20709183322384</v>
+      </c>
+      <c r="C185">
+        <v>19.999971892223897</v>
+      </c>
+      <c r="D185">
+        <v>0.9714786226000037</v>
+      </c>
+      <c r="E185">
+        <v>0.23608059060065115</v>
+      </c>
+      <c r="F185">
+        <v>0.01289939461331634</v>
+      </c>
+      <c r="G185">
+        <v>-0.008193272612071366</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186">
+        <v>217.2782184757471</v>
+      </c>
+      <c r="B186">
+        <v>238.10920027502505</v>
+      </c>
+      <c r="C186">
+        <v>19.99997114954884</v>
+      </c>
+      <c r="D186">
+        <v>0.9714789744043897</v>
+      </c>
+      <c r="E186">
+        <v>0.2360843622331415</v>
+      </c>
+      <c r="F186">
+        <v>0.012781718088585187</v>
+      </c>
+      <c r="G186">
+        <v>-0.008219978954369383</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187">
+        <v>217.28342679342327</v>
+      </c>
+      <c r="B187">
+        <v>238.01130970872438</v>
+      </c>
+      <c r="C187">
+        <v>19.999971260845804</v>
+      </c>
+      <c r="D187">
+        <v>0.9714837855045324</v>
+      </c>
+      <c r="E187">
+        <v>0.23608249181284888</v>
+      </c>
+      <c r="F187">
+        <v>0.01256488217980017</v>
+      </c>
+      <c r="G187">
+        <v>-0.008047316819909178</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188">
+        <v>217.28855568505608</v>
+      </c>
+      <c r="B188">
+        <v>237.9134195111801</v>
+      </c>
+      <c r="C188">
+        <v>19.999971147389832</v>
+      </c>
+      <c r="D188">
+        <v>0.9714873707781772</v>
+      </c>
+      <c r="E188">
+        <v>0.23608213882669107</v>
+      </c>
+      <c r="F188">
+        <v>0.012373294414011174</v>
+      </c>
+      <c r="G188">
+        <v>-0.007926953310499685</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189">
+        <v>217.29360142688958</v>
+      </c>
+      <c r="B189">
+        <v>237.81552984673004</v>
+      </c>
+      <c r="C189">
+        <v>19.99997108999733</v>
+      </c>
+      <c r="D189">
+        <v>0.9714912567662144</v>
+      </c>
+      <c r="E189">
+        <v>0.23608138304451487</v>
+      </c>
+      <c r="F189">
+        <v>0.01217270270498073</v>
+      </c>
+      <c r="G189">
+        <v>-0.007790138032059278</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190">
+        <v>217.29855793502753</v>
+      </c>
+      <c r="B190">
+        <v>237.717641071211</v>
+      </c>
+      <c r="C190">
+        <v>19.999971145102847</v>
+      </c>
+      <c r="D190">
+        <v>0.9714957006425332</v>
+      </c>
+      <c r="E190">
+        <v>0.2360798340938974</v>
+      </c>
+      <c r="F190">
+        <v>0.011957399588620412</v>
+      </c>
+      <c r="G190">
+        <v>-0.007624496327499995</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191">
+        <v>217.30342462256078</v>
+      </c>
+      <c r="B191">
+        <v>237.6197531974974</v>
+      </c>
+      <c r="C191">
+        <v>19.999971200140546</v>
+      </c>
+      <c r="D191">
+        <v>0.9715001089756902</v>
+      </c>
+      <c r="E191">
+        <v>0.23607826748839442</v>
+      </c>
+      <c r="F191">
+        <v>0.011740678152866314</v>
+      </c>
+      <c r="G191">
+        <v>-0.007456732098502316</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192">
+        <v>217.28647226638537</v>
+      </c>
+      <c r="B192">
+        <v>237.5216898096086</v>
+      </c>
+      <c r="C192">
+        <v>19.99999999963634</v>
+      </c>
+      <c r="D192">
+        <v>0.970316877075342</v>
+      </c>
+      <c r="E192">
+        <v>0.23633316136931828</v>
+      </c>
+      <c r="F192">
+        <v>-0.04087004845975436</v>
+      </c>
+      <c r="G192">
+        <v>0.025863808423971995</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193">
+        <v>217.26973423136764</v>
+      </c>
+      <c r="B193">
+        <v>237.42362994136477</v>
+      </c>
+      <c r="C193">
+        <v>19.99999999953965</v>
+      </c>
+      <c r="D193">
+        <v>0.9703441627481999</v>
+      </c>
+      <c r="E193">
+        <v>0.23633161509530015</v>
+      </c>
+      <c r="F193">
+        <v>-0.040354624838668904</v>
+      </c>
+      <c r="G193">
+        <v>0.02567439719967591</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194">
+        <v>217.25321428498503</v>
+      </c>
+      <c r="B194">
+        <v>237.32557213858016</v>
+      </c>
+      <c r="C194">
+        <v>19.999999999520025</v>
+      </c>
+      <c r="D194">
+        <v>0.9703716285174423</v>
+      </c>
+      <c r="E194">
+        <v>0.23633029195720368</v>
+      </c>
+      <c r="F194">
+        <v>-0.03982953455363565</v>
+      </c>
+      <c r="G194">
+        <v>0.025479392521577084</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195">
+        <v>217.23692732448714</v>
+      </c>
+      <c r="B195">
+        <v>237.2275171455826</v>
+      </c>
+      <c r="C195">
+        <v>19.999999999447986</v>
+      </c>
+      <c r="D195">
+        <v>0.970401887173099</v>
+      </c>
+      <c r="E195">
+        <v>0.23632759572757756</v>
+      </c>
+      <c r="F195">
+        <v>-0.03926856622828599</v>
+      </c>
+      <c r="G195">
+        <v>0.025234673758583796</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196">
+        <v>217.21609802619153</v>
+      </c>
+      <c r="B196">
+        <v>237.12943294450272</v>
+      </c>
+      <c r="C196">
+        <v>19.999999999512703</v>
+      </c>
+      <c r="D196">
+        <v>0.9698059316244717</v>
+      </c>
+      <c r="E196">
+        <v>0.23632038292472005</v>
+      </c>
+      <c r="F196">
+        <v>-0.05020124167501912</v>
+      </c>
+      <c r="G196">
+        <v>0.028382286216958524</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197">
+        <v>217.19549382988242</v>
+      </c>
+      <c r="B197">
+        <v>237.0313492943802</v>
+      </c>
+      <c r="C197">
+        <v>19.99999999949585</v>
+      </c>
+      <c r="D197">
+        <v>0.969836442190011</v>
+      </c>
+      <c r="E197">
+        <v>0.2363229213845276</v>
+      </c>
+      <c r="F197">
+        <v>-0.049659665364449206</v>
+      </c>
+      <c r="G197">
+        <v>0.02828245053283589</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198">
+        <v>217.1751213878706</v>
+      </c>
+      <c r="B198">
+        <v>236.93326631401914</v>
+      </c>
+      <c r="C198">
+        <v>19.99999999953216</v>
+      </c>
+      <c r="D198">
+        <v>0.9698677691508601</v>
+      </c>
+      <c r="E198">
+        <v>0.23632528949192239</v>
+      </c>
+      <c r="F198">
+        <v>-0.04910206221794508</v>
+      </c>
+      <c r="G198">
+        <v>0.028173414428942802</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199">
+        <v>217.1157702172479</v>
+      </c>
+      <c r="B199">
+        <v>236.8446624441578</v>
+      </c>
+      <c r="C199">
+        <v>19.999961570508816</v>
+      </c>
+      <c r="D199">
+        <v>0.9663507684753575</v>
+      </c>
+      <c r="E199">
+        <v>0.21314418919610553</v>
+      </c>
+      <c r="F199">
+        <v>-0.1427695257422887</v>
+      </c>
+      <c r="G199">
+        <v>1.9193919625753984e-5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200">
+        <v>217.08173552337837</v>
+      </c>
+      <c r="B200">
+        <v>236.74666714000097</v>
+      </c>
+      <c r="C200">
+        <v>19.999999999999996</v>
+      </c>
+      <c r="D200">
+        <v>0.9678772309980451</v>
+      </c>
+      <c r="E200">
+        <v>0.23588145612380715</v>
+      </c>
+      <c r="F200">
+        <v>-0.08193552518504192</v>
+      </c>
+      <c r="G200">
+        <v>0.02279697215759605</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201">
+        <v>217.04863165189744</v>
+      </c>
+      <c r="B201">
+        <v>236.6486666272906</v>
+      </c>
+      <c r="C201">
+        <v>19.99999999954244</v>
+      </c>
+      <c r="D201">
+        <v>0.968029137492851</v>
+      </c>
+      <c r="E201">
+        <v>0.23591453164406004</v>
+      </c>
+      <c r="F201">
+        <v>-0.07970260344721329</v>
+      </c>
+      <c r="G201">
+        <v>0.023952183203327468</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202">
+        <v>217.01558898249203</v>
+      </c>
+      <c r="B202">
+        <v>236.55066557920608</v>
+      </c>
+      <c r="C202">
+        <v>19.99999999952848</v>
+      </c>
+      <c r="D202">
+        <v>0.9680389629745315</v>
+      </c>
+      <c r="E202">
+        <v>0.2359168657235087</v>
+      </c>
+      <c r="F202">
+        <v>-0.07955566920793457</v>
+      </c>
+      <c r="G202">
+        <v>0.02402419683206354</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203">
+        <v>216.9826085309028</v>
+      </c>
+      <c r="B203">
+        <v>236.45266398161786</v>
+      </c>
+      <c r="C203">
+        <v>19.999999999504325</v>
+      </c>
+      <c r="D203">
+        <v>0.9680489340441262</v>
+      </c>
+      <c r="E203">
+        <v>0.2359192497974687</v>
+      </c>
+      <c r="F203">
+        <v>-0.07940629430608008</v>
+      </c>
+      <c r="G203">
+        <v>0.02409685518622105</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204">
+        <v>216.94969134148818</v>
+      </c>
+      <c r="B204">
+        <v>236.3546618200195</v>
+      </c>
+      <c r="C204">
+        <v>19.99999999949939</v>
+      </c>
+      <c r="D204">
+        <v>0.9680590546062081</v>
+      </c>
+      <c r="E204">
+        <v>0.23592168521325638</v>
+      </c>
+      <c r="F204">
+        <v>-0.07925440994068168</v>
+      </c>
+      <c r="G204">
+        <v>0.024170164614231375</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205">
+        <v>216.91683848836718</v>
+      </c>
+      <c r="B205">
+        <v>236.25665907948368</v>
+      </c>
+      <c r="C205">
+        <v>19.999999999544134</v>
+      </c>
+      <c r="D205">
+        <v>0.9680693287167496</v>
+      </c>
+      <c r="E205">
+        <v>0.23592417337934293</v>
+      </c>
+      <c r="F205">
+        <v>-0.07909994454120303</v>
+      </c>
+      <c r="G205">
+        <v>0.024244131294683575</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206">
+        <v>216.86677808891514</v>
+      </c>
+      <c r="B206">
+        <v>236.16235168063216</v>
+      </c>
+      <c r="C206">
+        <v>19.99996563476848</v>
+      </c>
+      <c r="D206">
+        <v>0.9662532320618563</v>
+      </c>
+      <c r="E206">
+        <v>0.22684763261858784</v>
+      </c>
+      <c r="F206">
+        <v>-0.12041852315542646</v>
+      </c>
+      <c r="G206">
+        <v>0.004927908424341591</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207">
+        <v>216.81672349564175</v>
+      </c>
+      <c r="B207">
+        <v>236.06803590829549</v>
+      </c>
+      <c r="C207">
+        <v>19.99996563643646</v>
+      </c>
+      <c r="D207">
+        <v>0.9662518587977947</v>
+      </c>
+      <c r="E207">
+        <v>0.22686176259927418</v>
+      </c>
+      <c r="F207">
+        <v>-0.12040136455462983</v>
+      </c>
+      <c r="G207">
+        <v>0.004954814547391356</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208">
+        <v>216.76667881103734</v>
+      </c>
+      <c r="B208">
+        <v>235.97371493876818</v>
+      </c>
+      <c r="C208">
+        <v>19.999965636711888</v>
+      </c>
+      <c r="D208">
+        <v>0.9662517610637136</v>
+      </c>
+      <c r="E208">
+        <v>0.22687424002470397</v>
+      </c>
+      <c r="F208">
+        <v>-0.12037751826922878</v>
+      </c>
+      <c r="G208">
+        <v>0.004976512652454272</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209">
+        <v>216.71664464085487</v>
+      </c>
+      <c r="B209">
+        <v>235.87938877995637</v>
+      </c>
+      <c r="C209">
+        <v>19.999965637000575</v>
+      </c>
+      <c r="D209">
+        <v>0.9662518495927108</v>
+      </c>
+      <c r="E209">
+        <v>0.22688671985383044</v>
+      </c>
+      <c r="F209">
+        <v>-0.12035222767592692</v>
+      </c>
+      <c r="G209">
+        <v>0.004997832462585309</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210">
+        <v>216.66662147678417</v>
+      </c>
+      <c r="B210">
+        <v>235.7850574109399</v>
+      </c>
+      <c r="C210">
+        <v>19.999965637875984</v>
+      </c>
+      <c r="D210">
+        <v>0.9662520728057141</v>
+      </c>
+      <c r="E210">
+        <v>0.22689926544891562</v>
+      </c>
+      <c r="F210">
+        <v>-0.12032576364323717</v>
+      </c>
+      <c r="G210">
+        <v>0.00501895261538889</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211">
+        <v>216.6166097464815</v>
+      </c>
+      <c r="B211">
+        <v>235.69072079200964</v>
+      </c>
+      <c r="C211">
+        <v>19.99996563836454</v>
+      </c>
+      <c r="D211">
+        <v>0.9662524001119546</v>
+      </c>
+      <c r="E211">
+        <v>0.22691191879258318</v>
+      </c>
+      <c r="F211">
+        <v>-0.12029827825856759</v>
+      </c>
+      <c r="G211">
+        <v>0.005039983885922403</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212">
+        <v>216.5666098404677</v>
+      </c>
+      <c r="B212">
+        <v>235.59637887024013</v>
+      </c>
+      <c r="C212">
+        <v>19.99996563893526</v>
+      </c>
+      <c r="D212">
+        <v>0.9662528125904085</v>
+      </c>
+      <c r="E212">
+        <v>0.22692470902522888</v>
+      </c>
+      <c r="F212">
+        <v>-0.12026985927092705</v>
+      </c>
+      <c r="G212">
+        <v>0.005060999931333627</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213">
+        <v>216.51662212754678</v>
+      </c>
+      <c r="B213">
+        <v>235.50203158354645</v>
+      </c>
+      <c r="C213">
+        <v>19.99996563946403</v>
+      </c>
+      <c r="D213">
+        <v>0.9662532981245227</v>
+      </c>
+      <c r="E213">
+        <v>0.22693765705921518</v>
+      </c>
+      <c r="F213">
+        <v>-0.12024055819928685</v>
+      </c>
+      <c r="G213">
+        <v>0.005082053143397679</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214">
+        <v>216.470604508436</v>
+      </c>
+      <c r="B214">
+        <v>235.40633531272618</v>
+      </c>
+      <c r="C214">
+        <v>19.9999696526505</v>
+      </c>
+      <c r="D214">
+        <v>0.9665867364397187</v>
+      </c>
+      <c r="E214">
+        <v>0.2302179048225823</v>
+      </c>
+      <c r="F214">
+        <v>-0.11071012022689955</v>
+      </c>
+      <c r="G214">
+        <v>0.009442312448613334</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215">
+        <v>216.42461176663338</v>
+      </c>
+      <c r="B215">
+        <v>235.31063161800606</v>
+      </c>
+      <c r="C215">
+        <v>19.999969653153997</v>
+      </c>
+      <c r="D215">
+        <v>0.9665888622024182</v>
+      </c>
+      <c r="E215">
+        <v>0.23023665664889345</v>
+      </c>
+      <c r="F215">
+        <v>-0.11065071285739983</v>
+      </c>
+      <c r="G215">
+        <v>0.009466005139226906</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216">
+        <v>216.37866835022524</v>
+      </c>
+      <c r="B216">
+        <v>235.21492431575368</v>
+      </c>
+      <c r="C216">
+        <v>19.999970903718392</v>
+      </c>
+      <c r="D216">
+        <v>0.9666009604738035</v>
+      </c>
+      <c r="E216">
+        <v>0.23024661715156353</v>
+      </c>
+      <c r="F216">
+        <v>-0.11053282807096317</v>
+      </c>
+      <c r="G216">
+        <v>0.009385871014921198</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217">
+        <v>216.33274895676536</v>
+      </c>
+      <c r="B217">
+        <v>235.11920891606232</v>
+      </c>
+      <c r="C217">
+        <v>19.99997084761155</v>
+      </c>
+      <c r="D217">
+        <v>0.9666025417026083</v>
+      </c>
+      <c r="E217">
+        <v>0.23026646940329565</v>
+      </c>
+      <c r="F217">
+        <v>-0.11047522560642198</v>
+      </c>
+      <c r="G217">
+        <v>0.009415441218157733</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218">
+        <v>216.28556604767854</v>
+      </c>
+      <c r="B218">
+        <v>235.02387312696868</v>
+      </c>
+      <c r="C218">
+        <v>19.99996771160257</v>
+      </c>
+      <c r="D218">
+        <v>0.9664792812634844</v>
+      </c>
+      <c r="E218">
+        <v>0.22934013502529496</v>
+      </c>
+      <c r="F218">
+        <v>-0.11350769765328764</v>
+      </c>
+      <c r="G218">
+        <v>0.008412404723326699</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219">
+        <v>216.2388010747636</v>
+      </c>
+      <c r="B219">
+        <v>234.92840101814653</v>
+      </c>
+      <c r="C219">
+        <v>19.999967717855757</v>
+      </c>
+      <c r="D219">
+        <v>0.9665144974929636</v>
+      </c>
+      <c r="E219">
+        <v>0.22967130346843717</v>
+      </c>
+      <c r="F219">
+        <v>-0.11250409930400082</v>
+      </c>
+      <c r="G219">
+        <v>0.00884279288969047</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220">
+        <v>216.19205922627893</v>
+      </c>
+      <c r="B220">
+        <v>234.832920898766</v>
+      </c>
+      <c r="C220">
+        <v>19.999967655135304</v>
+      </c>
+      <c r="D220">
+        <v>0.9665160886662105</v>
+      </c>
+      <c r="E220">
+        <v>0.22969074621918117</v>
+      </c>
+      <c r="F220">
+        <v>-0.11244856635644838</v>
+      </c>
+      <c r="G220">
+        <v>0.008871712565260216</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221">
+        <v>216.14534291603718</v>
+      </c>
+      <c r="B221">
+        <v>234.73743309612306</v>
+      </c>
+      <c r="C221">
+        <v>19.99996771885222</v>
+      </c>
+      <c r="D221">
+        <v>0.9665186047643113</v>
+      </c>
+      <c r="E221">
+        <v>0.22970948701615498</v>
+      </c>
+      <c r="F221">
+        <v>-0.1123872684720973</v>
+      </c>
+      <c r="G221">
+        <v>0.0088920726138946</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222">
+        <v>216.09865253876507</v>
+      </c>
+      <c r="B222">
+        <v>234.64193750556083</v>
+      </c>
+      <c r="C222">
+        <v>19.999967781716503</v>
+      </c>
+      <c r="D222">
+        <v>0.9665211567046343</v>
+      </c>
+      <c r="E222">
+        <v>0.22972850451120885</v>
+      </c>
+      <c r="F222">
+        <v>-0.1123250332091485</v>
+      </c>
+      <c r="G222">
+        <v>0.008912756879814432</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223">
+        <v>216.05198544564846</v>
+      </c>
+      <c r="B223">
+        <v>234.54643333225064</v>
+      </c>
+      <c r="C223">
+        <v>19.999967656433807</v>
+      </c>
+      <c r="D223">
+        <v>0.9665224031749418</v>
+      </c>
+      <c r="E223">
+        <v>0.22974929746871628</v>
+      </c>
+      <c r="F223">
+        <v>-0.11226910336707452</v>
+      </c>
+      <c r="G223">
+        <v>0.008947172936512836</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224">
+        <v>216.00534408284454</v>
+      </c>
+      <c r="B224">
+        <v>234.4509208796024</v>
+      </c>
+      <c r="C224">
+        <v>19.999967656715686</v>
+      </c>
+      <c r="D224">
+        <v>0.9665245745522638</v>
+      </c>
+      <c r="E224">
+        <v>0.22976942579786694</v>
+      </c>
+      <c r="F224">
+        <v>-0.1122073208801431</v>
+      </c>
+      <c r="G224">
+        <v>0.008973083923021511</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225">
+        <v>215.9587288859995</v>
+      </c>
+      <c r="B225">
+        <v>234.35540002935156</v>
+      </c>
+      <c r="C225">
+        <v>19.99996765723833</v>
+      </c>
+      <c r="D225">
+        <v>0.9665267842982767</v>
+      </c>
+      <c r="E225">
+        <v>0.2297898638673248</v>
+      </c>
+      <c r="F225">
+        <v>-0.11214450275663831</v>
+      </c>
+      <c r="G225">
+        <v>0.008999368818192265</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226">
+        <v>215.91214130035442</v>
+      </c>
+      <c r="B226">
+        <v>234.25987087057706</v>
+      </c>
+      <c r="C226">
+        <v>19.99996772028711</v>
+      </c>
+      <c r="D226">
+        <v>0.9665294725208953</v>
+      </c>
+      <c r="E226">
+        <v>0.22981013792344948</v>
+      </c>
+      <c r="F226">
+        <v>-0.11207823244350493</v>
+      </c>
+      <c r="G226">
+        <v>0.00902162631513194</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227">
+        <v>215.86557976440048</v>
+      </c>
+      <c r="B227">
+        <v>234.16433283121467</v>
+      </c>
+      <c r="C227">
+        <v>19.999967658029814</v>
+      </c>
+      <c r="D227">
+        <v>0.966531316615051</v>
+      </c>
+      <c r="E227">
+        <v>0.22983171040026384</v>
+      </c>
+      <c r="F227">
+        <v>-0.11201568070999698</v>
+      </c>
+      <c r="G227">
+        <v>0.009053123383299208</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228">
+        <v>215.81904575094012</v>
+      </c>
+      <c r="B228">
+        <v>234.068785978974</v>
+      </c>
+      <c r="C228">
+        <v>19.999967658428986</v>
+      </c>
+      <c r="D228">
+        <v>0.9665336398813847</v>
+      </c>
+      <c r="E228">
+        <v>0.22985314930043166</v>
+      </c>
+      <c r="F228">
+        <v>-0.11194960026431097</v>
+      </c>
+      <c r="G228">
+        <v>0.00908063573269492</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229">
+        <v>215.77254072052395</v>
+      </c>
+      <c r="B229">
+        <v>233.97323039017647</v>
+      </c>
+      <c r="C229">
+        <v>19.9999677217514</v>
+      </c>
+      <c r="D229">
+        <v>0.9665364335167215</v>
+      </c>
+      <c r="E229">
+        <v>0.22987446416386845</v>
+      </c>
+      <c r="F229">
+        <v>-0.11188003531303868</v>
+      </c>
+      <c r="G229">
+        <v>0.00910426213060133</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230">
+        <v>215.7077738365314</v>
+      </c>
+      <c r="B230">
+        <v>233.88853118843602</v>
+      </c>
+      <c r="C230">
+        <v>19.999961566136516</v>
+      </c>
+      <c r="D230">
+        <v>0.9663659497974537</v>
+      </c>
+      <c r="E230">
+        <v>0.203747524998494</v>
+      </c>
+      <c r="F230">
+        <v>-0.1557945614747766</v>
+      </c>
+      <c r="G230">
+        <v>5.715807081435358e-5</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231">
+        <v>215.64300662957572</v>
+      </c>
+      <c r="B231">
+        <v>233.8038312735434</v>
+      </c>
+      <c r="C231">
+        <v>19.999961573312532</v>
+      </c>
+      <c r="D231">
+        <v>0.9663657948801985</v>
+      </c>
+      <c r="E231">
+        <v>0.2037482384298831</v>
+      </c>
+      <c r="F231">
+        <v>-0.1557945746776215</v>
+      </c>
+      <c r="G231">
+        <v>5.7155078969148404e-5</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232">
+        <v>215.578239566646</v>
+      </c>
+      <c r="B232">
+        <v>233.71913125360578</v>
+      </c>
+      <c r="C232">
+        <v>19.99996156794158</v>
+      </c>
+      <c r="D232">
+        <v>0.9663657969316546</v>
+      </c>
+      <c r="E232">
+        <v>0.2037484927243298</v>
+      </c>
+      <c r="F232">
+        <v>-0.15579422947180274</v>
+      </c>
+      <c r="G232">
+        <v>5.715369624825706e-5</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233">
+        <v>215.51347264871023</v>
+      </c>
+      <c r="B233">
+        <v>233.63443112600362</v>
+      </c>
+      <c r="C233">
+        <v>19.99996156876339</v>
+      </c>
+      <c r="D233">
+        <v>0.966365798735161</v>
+      </c>
+      <c r="E233">
+        <v>0.20374875120690172</v>
+      </c>
+      <c r="F233">
+        <v>-0.15579388031399827</v>
+      </c>
+      <c r="G233">
+        <v>5.715229509826421e-5</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234">
+        <v>215.44870587824065</v>
+      </c>
+      <c r="B234">
+        <v>233.5497308899789</v>
+      </c>
+      <c r="C234">
+        <v>19.99996157380542</v>
+      </c>
+      <c r="D234">
+        <v>0.9663658007590626</v>
+      </c>
+      <c r="E234">
+        <v>0.20374901257263034</v>
+      </c>
+      <c r="F234">
+        <v>-0.15579352602406613</v>
+      </c>
+      <c r="G234">
+        <v>5.7150877748746645e-5</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235">
+        <v>215.38955314125937</v>
+      </c>
+      <c r="B235">
+        <v>233.45982578135127</v>
+      </c>
+      <c r="C235">
+        <v>19.999956389118466</v>
+      </c>
+      <c r="D235">
+        <v>0.9657337818284507</v>
+      </c>
+      <c r="E235">
+        <v>0.2161981835544126</v>
+      </c>
+      <c r="F235">
+        <v>-0.14224672342846365</v>
+      </c>
+      <c r="G235">
+        <v>-0.00016516898885192305</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236">
+        <v>215.33039963092864</v>
+      </c>
+      <c r="B236">
+        <v>233.36992038321335</v>
+      </c>
+      <c r="C236">
+        <v>19.99995638929848</v>
+      </c>
+      <c r="D236">
+        <v>0.9657336484331915</v>
+      </c>
+      <c r="E236">
+        <v>0.2161979510533246</v>
+      </c>
+      <c r="F236">
+        <v>-0.1422479720926178</v>
+      </c>
+      <c r="G236">
+        <v>-0.00016516885128502133</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237">
+        <v>215.27124571230365</v>
+      </c>
+      <c r="B237">
+        <v>233.28001525857908</v>
+      </c>
+      <c r="C237">
+        <v>19.99995638928557</v>
+      </c>
+      <c r="D237">
+        <v>0.9657336509794876</v>
+      </c>
+      <c r="E237">
+        <v>0.21619729366551022</v>
+      </c>
+      <c r="F237">
+        <v>-0.14224895413168162</v>
+      </c>
+      <c r="G237">
+        <v>-0.00016517593056974327</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238">
+        <v>215.2120913800961</v>
+      </c>
+      <c r="B238">
+        <v>233.19011041102505</v>
+      </c>
+      <c r="C238">
+        <v>19.999956389272633</v>
+      </c>
+      <c r="D238">
+        <v>0.965733653586074</v>
+      </c>
+      <c r="E238">
+        <v>0.2161966276494777</v>
+      </c>
+      <c r="F238">
+        <v>-0.14224994886966447</v>
+      </c>
+      <c r="G238">
+        <v>-0.00016518310091410393</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239">
+        <v>215.15293662889354</v>
+      </c>
+      <c r="B239">
+        <v>233.10020584424439</v>
+      </c>
+      <c r="C239">
+        <v>19.999956389259655</v>
+      </c>
+      <c r="D239">
+        <v>0.9657336562605595</v>
+      </c>
+      <c r="E239">
+        <v>0.2161959527599616</v>
+      </c>
+      <c r="F239">
+        <v>-0.14225095662787</v>
+      </c>
+      <c r="G239">
+        <v>-0.00016519036496358318</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240">
+        <v>215.09378145314025</v>
+      </c>
+      <c r="B240">
+        <v>233.01030156202975</v>
+      </c>
+      <c r="C240">
+        <v>19.999956389246645</v>
+      </c>
+      <c r="D240">
+        <v>0.965733659005645</v>
+      </c>
+      <c r="E240">
+        <v>0.21619526875787795</v>
+      </c>
+      <c r="F240">
+        <v>-0.14225197775112666</v>
+      </c>
+      <c r="G240">
+        <v>-0.00016519772519569086</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="A241">
+        <v>215.03462584713142</v>
+      </c>
+      <c r="B241">
+        <v>232.9203975682774</v>
+      </c>
+      <c r="C241">
+        <v>19.9999563892336</v>
+      </c>
+      <c r="D241">
+        <v>0.9657336618241769</v>
+      </c>
+      <c r="E241">
+        <v>0.21619457539435696</v>
+      </c>
+      <c r="F241">
+        <v>-0.14225301259813844</v>
+      </c>
+      <c r="G241">
+        <v>-0.00016520518418815374</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="A242">
+        <v>214.97546980500707</v>
+      </c>
+      <c r="B242">
+        <v>232.83049386699153</v>
+      </c>
+      <c r="C242">
+        <v>19.999956389220525</v>
+      </c>
+      <c r="D242">
+        <v>0.9657336647191563</v>
+      </c>
+      <c r="E242">
+        <v>0.21619387241020263</v>
+      </c>
+      <c r="F242">
+        <v>-0.14225406154224385</v>
+      </c>
+      <c r="G242">
+        <v>-0.0001652127446200457</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="A243">
+        <v>214.90179206773362</v>
+      </c>
+      <c r="B243">
+        <v>232.7541940129087</v>
+      </c>
+      <c r="C243">
+        <v>19.999963743158297</v>
+      </c>
+      <c r="D243">
+        <v>0.9667165903623661</v>
+      </c>
+      <c r="E243">
+        <v>0.18357665935785172</v>
+      </c>
+      <c r="F243">
+        <v>-0.1772618460109549</v>
+      </c>
+      <c r="G243">
+        <v>-0.0003367063513740189</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244">
+        <v>214.82811452224175</v>
+      </c>
+      <c r="B244">
+        <v>232.67789520854413</v>
+      </c>
+      <c r="C244">
+        <v>19.999963741589653</v>
+      </c>
+      <c r="D244">
+        <v>0.9667167696565596</v>
+      </c>
+      <c r="E244">
+        <v>0.18357519038087605</v>
+      </c>
+      <c r="F244">
+        <v>-0.17726240231824766</v>
+      </c>
+      <c r="G244">
+        <v>-0.00033669790684352503</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245">
+        <v>214.75443655267998</v>
+      </c>
+      <c r="B245">
+        <v>232.60159682367737</v>
+      </c>
+      <c r="C245">
+        <v>19.999963740926994</v>
+      </c>
+      <c r="D245">
+        <v>0.9667167746198373</v>
+      </c>
+      <c r="E245">
+        <v>0.18357418022020938</v>
+      </c>
+      <c r="F245">
+        <v>-0.17726342187177346</v>
+      </c>
+      <c r="G245">
+        <v>-0.00033670062660079843</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246">
+        <v>214.68075815467412</v>
+      </c>
+      <c r="B246">
+        <v>232.52529886424782</v>
+      </c>
+      <c r="C246">
+        <v>19.99996374372968</v>
+      </c>
+      <c r="D246">
+        <v>0.9667167798221943</v>
+      </c>
+      <c r="E246">
+        <v>0.18357315729093976</v>
+      </c>
+      <c r="F246">
+        <v>-0.1772644534044464</v>
+      </c>
+      <c r="G246">
+        <v>-0.0003367033415384414</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
+      <c r="A247">
+        <v>214.607079323064</v>
+      </c>
+      <c r="B247">
+        <v>232.44900133566853</v>
+      </c>
+      <c r="C247">
+        <v>19.99996374187996</v>
+      </c>
+      <c r="D247">
+        <v>0.9667167852048859</v>
+      </c>
+      <c r="E247">
+        <v>0.18357212144823934</v>
+      </c>
+      <c r="F247">
+        <v>-0.17726549739795538</v>
+      </c>
+      <c r="G247">
+        <v>-0.0003367059732033302</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
+      <c r="A248">
+        <v>214.5334000522906</v>
+      </c>
+      <c r="B248">
+        <v>232.37270424313098</v>
+      </c>
+      <c r="C248">
+        <v>19.999963742806997</v>
+      </c>
+      <c r="D248">
+        <v>0.9667167905756857</v>
+      </c>
+      <c r="E248">
+        <v>0.18357107285519844</v>
+      </c>
+      <c r="F248">
+        <v>-0.1772665545749645</v>
+      </c>
+      <c r="G248">
+        <v>-0.0003367087545787664</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
+      <c r="A249">
+        <v>214.4597203367853</v>
+      </c>
+      <c r="B249">
+        <v>232.29640759212688</v>
+      </c>
+      <c r="C249">
+        <v>19.999963741112463</v>
+      </c>
+      <c r="D249">
+        <v>0.9667167960331495</v>
+      </c>
+      <c r="E249">
+        <v>0.18357001093732786</v>
+      </c>
+      <c r="F249">
+        <v>-0.17726762505509744</v>
+      </c>
+      <c r="G249">
+        <v>-0.00033671158427373975</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="A250">
+        <v>214.3860401707033</v>
+      </c>
+      <c r="B250">
+        <v>232.2201113881974</v>
+      </c>
+      <c r="C250">
+        <v>19.999963743794268</v>
+      </c>
+      <c r="D250">
+        <v>0.9667168015723471</v>
+      </c>
+      <c r="E250">
+        <v>0.1835689354142257</v>
+      </c>
+      <c r="F250">
+        <v>-0.17726870926623162</v>
+      </c>
+      <c r="G250">
+        <v>-0.00033671432336661067</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
+      <c r="A251">
+        <v>214.31235954888965</v>
+      </c>
+      <c r="B251">
+        <v>232.14381563781907</v>
+      </c>
+      <c r="C251">
+        <v>19.99996374338223</v>
+      </c>
+      <c r="D251">
+        <v>0.9667168073563631</v>
+      </c>
+      <c r="E251">
+        <v>0.1835678454436773</v>
+      </c>
+      <c r="F251">
+        <v>-0.17726980703221978</v>
+      </c>
+      <c r="G251">
+        <v>-0.00033671721087528186</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252">
+        <v>214.2386784650807</v>
+      </c>
+      <c r="B252">
+        <v>232.06752034666528</v>
+      </c>
+      <c r="C252">
+        <v>19.99996374001072</v>
+      </c>
+      <c r="D252">
+        <v>0.9667168131381412</v>
+      </c>
+      <c r="E252">
+        <v>0.18356674135158027</v>
+      </c>
+      <c r="F252">
+        <v>-0.17727091942299814</v>
+      </c>
+      <c r="G252">
+        <v>-0.0003367201371778508</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253">
+        <v>214.16499691261978</v>
+      </c>
+      <c r="B253">
+        <v>231.99122552032895</v>
+      </c>
+      <c r="C253">
+        <v>19.99996373578071</v>
+      </c>
+      <c r="D253">
+        <v>0.9667168188931571</v>
+      </c>
+      <c r="E253">
+        <v>0.18356562282123778</v>
+      </c>
+      <c r="F253">
+        <v>-0.17727204688204132</v>
+      </c>
+      <c r="G253">
+        <v>-0.00033672311628334735</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="A254">
+        <v>214.09131488545464</v>
+      </c>
+      <c r="B254">
+        <v>231.9149311653683</v>
+      </c>
+      <c r="C254">
+        <v>19.99996373885547</v>
+      </c>
+      <c r="D254">
+        <v>0.9667168248166337</v>
+      </c>
+      <c r="E254">
+        <v>0.1835644889501949</v>
+      </c>
+      <c r="F254">
+        <v>-0.17727318932449562</v>
+      </c>
+      <c r="G254">
+        <v>-0.00033672611918755585</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255">
+        <v>214.01763237775637</v>
+      </c>
+      <c r="B255">
+        <v>231.8386372889241</v>
+      </c>
+      <c r="C255">
+        <v>19.999963739661776</v>
+      </c>
+      <c r="D255">
+        <v>0.9667168310146904</v>
+      </c>
+      <c r="E255">
+        <v>0.18356333903515165</v>
+      </c>
+      <c r="F255">
+        <v>-0.177274346886039</v>
+      </c>
+      <c r="G255">
+        <v>-0.0003367291541927344</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256">
+        <v>213.9439493823602</v>
+      </c>
+      <c r="B256">
+        <v>231.76234389716726</v>
+      </c>
+      <c r="C256">
+        <v>19.999963741493122</v>
+      </c>
+      <c r="D256">
+        <v>0.9667168372651573</v>
+      </c>
+      <c r="E256">
+        <v>0.18356217329530172</v>
+      </c>
+      <c r="F256">
+        <v>-0.1772755206540446</v>
+      </c>
+      <c r="G256">
+        <v>-0.0003367320904565133</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="A257">
+        <v>213.87026589274524</v>
+      </c>
+      <c r="B257">
+        <v>231.6860509972339</v>
+      </c>
+      <c r="C257">
+        <v>19.99996374045585</v>
+      </c>
+      <c r="D257">
+        <v>0.9667168436510296</v>
+      </c>
+      <c r="E257">
+        <v>0.183560990995654</v>
+      </c>
+      <c r="F257">
+        <v>-0.17727671075880558</v>
+      </c>
+      <c r="G257">
+        <v>-0.0003367351513449217</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="A258">
+        <v>213.79658190120185</v>
+      </c>
+      <c r="B258">
+        <v>231.60975859542873</v>
+      </c>
+      <c r="C258">
+        <v>19.999963738148296</v>
+      </c>
+      <c r="D258">
+        <v>0.9667168499666651</v>
+      </c>
+      <c r="E258">
+        <v>0.1835597922221076</v>
+      </c>
+      <c r="F258">
+        <v>-0.17727791820315686</v>
+      </c>
+      <c r="G258">
+        <v>-0.00033673834856993426</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259">
+        <v>213.722897401078</v>
+      </c>
+      <c r="B259">
+        <v>231.53346669964097</v>
+      </c>
+      <c r="C259">
+        <v>19.99996373843759</v>
+      </c>
+      <c r="D259">
+        <v>0.9667168566070781</v>
+      </c>
+      <c r="E259">
+        <v>0.18355857551686502</v>
+      </c>
+      <c r="F259">
+        <v>-0.17727914258461264</v>
+      </c>
+      <c r="G259">
+        <v>-0.00033674145447750407</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
+      <c r="A260">
+        <v>213.64921238534302</v>
+      </c>
+      <c r="B260">
+        <v>231.45717531767897</v>
+      </c>
+      <c r="C260">
+        <v>19.99996374152284</v>
+      </c>
+      <c r="D260">
+        <v>0.9667168633852803</v>
+      </c>
+      <c r="E260">
+        <v>0.1835573407643344</v>
+      </c>
+      <c r="F260">
+        <v>-0.1772803847238624</v>
+      </c>
+      <c r="G260">
+        <v>-0.00033674482599992947</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="A261">
+        <v>213.57552684584644</v>
+      </c>
+      <c r="B261">
+        <v>231.3808844567884</v>
+      </c>
+      <c r="C261">
+        <v>19.999963739074637</v>
+      </c>
+      <c r="D261">
+        <v>0.9667168702762655</v>
+      </c>
+      <c r="E261">
+        <v>0.18355608761029343</v>
+      </c>
+      <c r="F261">
+        <v>-0.17728164542829292</v>
+      </c>
+      <c r="G261">
+        <v>-0.00033674804543740443</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262">
+        <v>213.50184077499696</v>
+      </c>
+      <c r="B262">
+        <v>231.30459412512988</v>
+      </c>
+      <c r="C262">
+        <v>19.99996373929928</v>
+      </c>
+      <c r="D262">
+        <v>0.9667168772802122</v>
+      </c>
+      <c r="E262">
+        <v>0.1835548154203485</v>
+      </c>
+      <c r="F262">
+        <v>-0.17728292508462049</v>
+      </c>
+      <c r="G262">
+        <v>-0.0003367515100364888</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263">
+        <v>213.43371594351743</v>
+      </c>
+      <c r="B263">
+        <v>231.2232348816512</v>
+      </c>
+      <c r="C263">
+        <v>19.99996374555358</v>
+      </c>
+      <c r="D263">
+        <v>0.9666856567648274</v>
+      </c>
+      <c r="E263">
+        <v>0.19574700985912488</v>
+      </c>
+      <c r="F263">
+        <v>-0.1639007218984201</v>
+      </c>
+      <c r="G263">
+        <v>-0.0003670585633393275</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="A264">
+        <v>213.36559053011996</v>
+      </c>
+      <c r="B264">
+        <v>231.14187619027626</v>
+      </c>
+      <c r="C264">
+        <v>19.999963744142743</v>
+      </c>
+      <c r="D264">
+        <v>0.9666856872588767</v>
+      </c>
+      <c r="E264">
+        <v>0.19574568539551032</v>
+      </c>
+      <c r="F264">
+        <v>-0.1639021278110987</v>
+      </c>
+      <c r="G264">
+        <v>-0.00036713281071130494</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
+      <c r="A265">
+        <v>213.297464526088</v>
+      </c>
+      <c r="B265">
+        <v>231.0605180583515</v>
+      </c>
+      <c r="C265">
+        <v>19.99996374185707</v>
+      </c>
+      <c r="D265">
+        <v>0.9666857180926518</v>
+      </c>
+      <c r="E265">
+        <v>0.19574434230231635</v>
+      </c>
+      <c r="F265">
+        <v>-0.16390355397156722</v>
+      </c>
+      <c r="G265">
+        <v>-0.00036720825420480727</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
+      <c r="A266">
+        <v>213.22933792341834</v>
+      </c>
+      <c r="B266">
+        <v>230.97916049461662</v>
+      </c>
+      <c r="C266">
+        <v>19.99996374186542</v>
+      </c>
+      <c r="D266">
+        <v>0.9666857495913395</v>
+      </c>
+      <c r="E266">
+        <v>0.19574297916542832</v>
+      </c>
+      <c r="F266">
+        <v>-0.1639050002280715</v>
+      </c>
+      <c r="G266">
+        <v>-0.0003672848383643068</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
+      <c r="A267">
+        <v>213.16121071293534</v>
+      </c>
+      <c r="B267">
+        <v>230.8978035069079</v>
+      </c>
+      <c r="C267">
+        <v>19.9999637390683</v>
+      </c>
+      <c r="D267">
+        <v>0.9666857815437871</v>
+      </c>
+      <c r="E267">
+        <v>0.19574159603785335</v>
+      </c>
+      <c r="F267">
+        <v>-0.1639064676854134</v>
+      </c>
+      <c r="G267">
+        <v>-0.0003673627081728676</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
+      <c r="A268">
+        <v>213.09308288585112</v>
+      </c>
+      <c r="B268">
+        <v>230.81644710413565</v>
+      </c>
+      <c r="C268">
+        <v>19.99996373986746</v>
+      </c>
+      <c r="D268">
+        <v>0.9666858142174146</v>
+      </c>
+      <c r="E268">
+        <v>0.19574019167923817</v>
+      </c>
+      <c r="F268">
+        <v>-0.16390795642372563</v>
+      </c>
+      <c r="G268">
+        <v>-0.00036744175302497135</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
+      <c r="A269">
+        <v>213.02495443329343</v>
+      </c>
+      <c r="B269">
+        <v>230.73509129565358</v>
+      </c>
+      <c r="C269">
+        <v>19.999963738836396</v>
+      </c>
+      <c r="D269">
+        <v>0.9666858476027814</v>
+      </c>
+      <c r="E269">
+        <v>0.19573876547813285</v>
+      </c>
+      <c r="F269">
+        <v>-0.16390946710633997</v>
+      </c>
+      <c r="G269">
+        <v>-0.00036752210346238423</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
+      <c r="A270">
+        <v>212.95682534582062</v>
+      </c>
+      <c r="B270">
+        <v>230.6537360907189</v>
+      </c>
+      <c r="C270">
+        <v>19.9999637397809</v>
+      </c>
+      <c r="D270">
+        <v>0.9666858815376952</v>
+      </c>
+      <c r="E270">
+        <v>0.19573731725006602</v>
+      </c>
+      <c r="F270">
+        <v>-0.16391100082054705</v>
+      </c>
+      <c r="G270">
+        <v>-0.00036760384490077563</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
+      <c r="A271">
+        <v>212.88869561337555</v>
+      </c>
+      <c r="B271">
+        <v>230.5723814985024</v>
+      </c>
+      <c r="C271">
+        <v>19.999963739185706</v>
+      </c>
+      <c r="D271">
+        <v>0.9666859160513039</v>
+      </c>
+      <c r="E271">
+        <v>0.19573584631264476</v>
+      </c>
+      <c r="F271">
+        <v>-0.16391255825335832</v>
+      </c>
+      <c r="G271">
+        <v>-0.00036768700735055024</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
+      <c r="A272">
+        <v>212.813370625714</v>
+      </c>
+      <c r="B272">
+        <v>230.497740303392</v>
+      </c>
+      <c r="C272">
+        <v>19.9999637439385</v>
+      </c>
+      <c r="D272">
+        <v>0.9667307183994065</v>
+      </c>
+      <c r="E272">
+        <v>0.17958846499027617</v>
+      </c>
+      <c r="F272">
+        <v>-0.1812277783497546</v>
+      </c>
+      <c r="G272">
+        <v>-0.0003479179940234544</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
+      <c r="A273">
+        <v>212.73804513594843</v>
+      </c>
+      <c r="B273">
+        <v>230.42309963194492</v>
+      </c>
+      <c r="C273">
+        <v>19.999963741712577</v>
+      </c>
+      <c r="D273">
+        <v>0.9667307254684299</v>
+      </c>
+      <c r="E273">
+        <v>0.179587206766278</v>
+      </c>
+      <c r="F273">
+        <v>-0.18122898821716288</v>
+      </c>
+      <c r="G273">
+        <v>-0.0003479215894191684</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
+      <c r="A274">
+        <v>212.66271913627904</v>
+      </c>
+      <c r="B274">
+        <v>230.34845949113145</v>
+      </c>
+      <c r="C274">
+        <v>19.999963740262494</v>
+      </c>
+      <c r="D274">
+        <v>0.9667307325153895</v>
+      </c>
+      <c r="E274">
+        <v>0.17958593075365237</v>
+      </c>
+      <c r="F274">
+        <v>-0.18123021582128787</v>
+      </c>
+      <c r="G274">
+        <v>-0.0003479252542578237</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
+      <c r="A275">
+        <v>212.58739261908676</v>
+      </c>
+      <c r="B275">
+        <v>230.2738198885295</v>
+      </c>
+      <c r="C275">
+        <v>19.999963739100984</v>
+      </c>
+      <c r="D275">
+        <v>0.9667307396586724</v>
+      </c>
+      <c r="E275">
+        <v>0.17958463609733916</v>
+      </c>
+      <c r="F275">
+        <v>-0.1812314613527146</v>
+      </c>
+      <c r="G275">
+        <v>-0.0003479289859395886</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
+      <c r="A276">
+        <v>212.5120655766931</v>
+      </c>
+      <c r="B276">
+        <v>230.19918083216663</v>
+      </c>
+      <c r="C276">
+        <v>19.999963745296622</v>
+      </c>
+      <c r="D276">
+        <v>0.966730747070286</v>
+      </c>
+      <c r="E276">
+        <v>0.1795833218966136</v>
+      </c>
+      <c r="F276">
+        <v>-0.18123272500065646</v>
+      </c>
+      <c r="G276">
+        <v>-0.0003479326368413273</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
+      <c r="A277">
+        <v>212.43529451884456</v>
+      </c>
+      <c r="B277">
+        <v>230.12605948337347</v>
+      </c>
+      <c r="C277">
+        <v>19.999963741090266</v>
+      </c>
+      <c r="D277">
+        <v>0.966744404701031</v>
+      </c>
+      <c r="E277">
+        <v>0.1759331012717081</v>
+      </c>
+      <c r="F277">
+        <v>-0.1847086615681339</v>
+      </c>
+      <c r="G277">
+        <v>-0.0003587257794133249</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
+      <c r="A278">
+        <v>212.35852292767584</v>
+      </c>
+      <c r="B278">
+        <v>230.052938712555</v>
+      </c>
+      <c r="C278">
+        <v>19.999963747028414</v>
+      </c>
+      <c r="D278">
+        <v>0.966744412741332</v>
+      </c>
+      <c r="E278">
+        <v>0.1759317107466318</v>
+      </c>
+      <c r="F278">
+        <v>-0.18470994486949882</v>
+      </c>
+      <c r="G278">
+        <v>-0.0003587299875349369</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
+      <c r="A279">
+        <v>212.28175079613445</v>
+      </c>
+      <c r="B279">
+        <v>229.97981852947504</v>
+      </c>
+      <c r="C279">
+        <v>19.999963738583133</v>
+      </c>
+      <c r="D279">
+        <v>0.9667444210521733</v>
+      </c>
+      <c r="E279">
+        <v>0.17593029865425824</v>
+      </c>
+      <c r="F279">
+        <v>-0.1847112472202315</v>
+      </c>
+      <c r="G279">
+        <v>-0.00035873420586672654</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
+      <c r="A280">
+        <v>212.20497811436647</v>
+      </c>
+      <c r="B280">
+        <v>229.90669894172984</v>
+      </c>
+      <c r="C280">
+        <v>19.999963740125054</v>
+      </c>
+      <c r="D280">
+        <v>0.9667444291582434</v>
+      </c>
+      <c r="E280">
+        <v>0.1759288656459257</v>
+      </c>
+      <c r="F280">
+        <v>-0.18471257052192122</v>
+      </c>
+      <c r="G280">
+        <v>-0.000358738547790661</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
+      <c r="A281">
+        <v>212.12820487484993</v>
+      </c>
+      <c r="B281">
+        <v>229.83357995971105</v>
+      </c>
+      <c r="C281">
+        <v>19.999963742101993</v>
+      </c>
+      <c r="D281">
+        <v>0.9667444378544507</v>
+      </c>
+      <c r="E281">
+        <v>0.17592740907368104</v>
+      </c>
+      <c r="F281">
+        <v>-0.184713913333588</v>
+      </c>
+      <c r="G281">
+        <v>-0.0003587429149591772</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
+      <c r="A282">
+        <v>212.05143106851924</v>
+      </c>
+      <c r="B282">
+        <v>229.76046159286048</v>
+      </c>
+      <c r="C282">
+        <v>19.999963741631763</v>
+      </c>
+      <c r="D282">
+        <v>0.9667444465957784</v>
+      </c>
+      <c r="E282">
+        <v>0.17592592952388586</v>
+      </c>
+      <c r="F282">
+        <v>-0.1847152777230481</v>
+      </c>
+      <c r="G282">
+        <v>-0.00035874733524957975</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
+      <c r="A283">
+        <v>211.97465668687147</v>
+      </c>
+      <c r="B283">
+        <v>229.68734385168787</v>
+      </c>
+      <c r="C283">
+        <v>19.999963744656096</v>
+      </c>
+      <c r="D283">
+        <v>0.9667444553057469</v>
+      </c>
+      <c r="E283">
+        <v>0.17592442633585556</v>
+      </c>
+      <c r="F283">
+        <v>-0.18471666450634033</v>
+      </c>
+      <c r="G283">
+        <v>-0.000358751887009978</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
+      <c r="A284">
+        <v>211.89788172019482</v>
+      </c>
+      <c r="B284">
+        <v>229.61422674630577</v>
+      </c>
+      <c r="C284">
+        <v>19.999963741354087</v>
+      </c>
+      <c r="D284">
+        <v>0.9667444646840165</v>
+      </c>
+      <c r="E284">
+        <v>0.17592289733188524</v>
+      </c>
+      <c r="F284">
+        <v>-0.18471807279832525</v>
+      </c>
+      <c r="G284">
+        <v>-0.00035875645111784903</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
+      <c r="A285">
+        <v>211.82110615770043</v>
+      </c>
+      <c r="B285">
+        <v>229.54111028631903</v>
+      </c>
+      <c r="C285">
+        <v>19.999963742063848</v>
+      </c>
+      <c r="D285">
+        <v>0.9667444737058254</v>
+      </c>
+      <c r="E285">
+        <v>0.17592134395574804</v>
+      </c>
+      <c r="F285">
+        <v>-0.1847195058979231</v>
+      </c>
+      <c r="G285">
+        <v>-0.0003587611152661735</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
+      <c r="A286">
+        <v>211.74432999047556</v>
+      </c>
+      <c r="B286">
+        <v>229.4679944838535</v>
+      </c>
+      <c r="C286">
+        <v>19.999963744233398</v>
+      </c>
+      <c r="D286">
+        <v>0.966744483278968</v>
+      </c>
+      <c r="E286">
+        <v>0.17591976320387473</v>
+      </c>
+      <c r="F286">
+        <v>-0.18472096227630702</v>
+      </c>
+      <c r="G286">
+        <v>-0.0003587658358091505</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
+      <c r="A287">
+        <v>211.66755320836617</v>
+      </c>
+      <c r="B287">
+        <v>229.39487935053697</v>
+      </c>
+      <c r="C287">
+        <v>19.999963742659087</v>
+      </c>
+      <c r="D287">
+        <v>0.9667444930834997</v>
+      </c>
+      <c r="E287">
+        <v>0.17591815493092602</v>
+      </c>
+      <c r="F287">
+        <v>-0.18472244360062604</v>
+      </c>
+      <c r="G287">
+        <v>-0.00035877066613428994</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
+      <c r="A288">
+        <v>211.5907758001514</v>
+      </c>
+      <c r="B288">
+        <v>229.32176489776225</v>
+      </c>
+      <c r="C288">
+        <v>19.99996373670968</v>
+      </c>
+      <c r="D288">
+        <v>0.966744503097681</v>
+      </c>
+      <c r="E288">
+        <v>0.17591651832306587</v>
+      </c>
+      <c r="F288">
+        <v>-0.18472395089330082</v>
+      </c>
+      <c r="G288">
+        <v>-0.00035877555693858236</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
+      <c r="A289">
+        <v>211.51399775446987</v>
+      </c>
+      <c r="B289">
+        <v>229.24865113754308</v>
+      </c>
+      <c r="C289">
+        <v>19.999963742392357</v>
+      </c>
+      <c r="D289">
+        <v>0.9667445131930108</v>
+      </c>
+      <c r="E289">
+        <v>0.17591485261766815</v>
+      </c>
+      <c r="F289">
+        <v>-0.18472548537838304</v>
+      </c>
+      <c r="G289">
+        <v>-0.00035878054073754307</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
+      <c r="A290">
+        <v>211.4372190604048</v>
+      </c>
+      <c r="B290">
+        <v>229.17553808317905</v>
+      </c>
+      <c r="C290">
+        <v>19.999963743016245</v>
+      </c>
+      <c r="D290">
+        <v>0.9667445238084622</v>
+      </c>
+      <c r="E290">
+        <v>0.17591315570672308</v>
+      </c>
+      <c r="F290">
+        <v>-0.18472704692254524</v>
+      </c>
+      <c r="G290">
+        <v>-0.00035878560326234055</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
+      <c r="A291">
+        <v>211.36043970601585</v>
+      </c>
+      <c r="B291">
+        <v>229.1024257478436</v>
+      </c>
+      <c r="C291">
+        <v>19.99996373847321</v>
+      </c>
+      <c r="D291">
+        <v>0.9667445345799388</v>
+      </c>
+      <c r="E291">
+        <v>0.175911427359704</v>
+      </c>
+      <c r="F291">
+        <v>-0.18472863751355192</v>
+      </c>
+      <c r="G291">
+        <v>-0.00035879077885334705</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
+      <c r="A292">
+        <v>211.28365967779678</v>
+      </c>
+      <c r="B292">
+        <v>229.02931414418143</v>
+      </c>
+      <c r="C292">
+        <v>19.99996373666135</v>
+      </c>
+      <c r="D292">
+        <v>0.9667445454411474</v>
+      </c>
+      <c r="E292">
+        <v>0.17590966663686636</v>
+      </c>
+      <c r="F292">
+        <v>-0.18473025851094585</v>
+      </c>
+      <c r="G292">
+        <v>-0.00035879601412360386</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
+      <c r="A293">
+        <v>211.20687896381656</v>
+      </c>
+      <c r="B293">
+        <v>228.95620328727992</v>
+      </c>
+      <c r="C293">
+        <v>19.99996373764261</v>
+      </c>
+      <c r="D293">
+        <v>0.9667445567531281</v>
+      </c>
+      <c r="E293">
+        <v>0.1759078713078244</v>
+      </c>
+      <c r="F293">
+        <v>-0.18473191003911626</v>
+      </c>
+      <c r="G293">
+        <v>-0.00035880140657778474</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
+      <c r="A294">
+        <v>211.13009755039351</v>
+      </c>
+      <c r="B294">
+        <v>228.88309319165262</v>
+      </c>
+      <c r="C294">
+        <v>19.999963743184797</v>
+      </c>
+      <c r="D294">
+        <v>0.9667445684359159</v>
+      </c>
+      <c r="E294">
+        <v>0.17590604034763713</v>
+      </c>
+      <c r="F294">
+        <v>-0.18473359366250633</v>
+      </c>
+      <c r="G294">
+        <v>-0.00035880683273663</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
+      <c r="A295">
+        <v>211.05331542457648</v>
+      </c>
+      <c r="B295">
+        <v>228.80998387355</v>
+      </c>
+      <c r="C295">
+        <v>19.99996373794844</v>
+      </c>
+      <c r="D295">
+        <v>0.9667445805175007</v>
+      </c>
+      <c r="E295">
+        <v>0.17590417217763726</v>
+      </c>
+      <c r="F295">
+        <v>-0.18473531051718156</v>
+      </c>
+      <c r="G295">
+        <v>-0.00035881241017269276</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
+      <c r="A296">
+        <v>210.97653257032195</v>
+      </c>
+      <c r="B296">
+        <v>228.73687534747268</v>
+      </c>
+      <c r="C296">
+        <v>19.999963742889154</v>
+      </c>
+      <c r="D296">
+        <v>0.9667445925611479</v>
+      </c>
+      <c r="E296">
+        <v>0.17590226649301477</v>
+      </c>
+      <c r="F296">
+        <v>-0.1847370632366834</v>
+      </c>
+      <c r="G296">
+        <v>-0.0003588181151692199</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7">
+      <c r="A297">
+        <v>210.8997489739015</v>
+      </c>
+      <c r="B297">
+        <v>228.66376763141062</v>
+      </c>
+      <c r="C297">
+        <v>19.999963741818874</v>
+      </c>
+      <c r="D297">
+        <v>0.9667446054417254</v>
+      </c>
+      <c r="E297">
+        <v>0.175900319566579</v>
+      </c>
+      <c r="F297">
+        <v>-0.18473885102154072</v>
+      </c>
+      <c r="G297">
+        <v>-0.0003588238778579374</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
+      <c r="A298">
+        <v>210.82296461881057</v>
+      </c>
+      <c r="B298">
+        <v>228.59066074198535</v>
+      </c>
+      <c r="C298">
+        <v>19.999963745156755</v>
+      </c>
+      <c r="D298">
+        <v>0.9667446184341415</v>
+      </c>
+      <c r="E298">
+        <v>0.17589833147709458</v>
+      </c>
+      <c r="F298">
+        <v>-0.1847406773352112</v>
+      </c>
+      <c r="G298">
+        <v>-0.00035882976726219395</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
+      <c r="A299">
+        <v>210.74617948940386</v>
+      </c>
+      <c r="B299">
+        <v>228.51755469806017</v>
+      </c>
+      <c r="C299">
+        <v>19.999963746619677</v>
+      </c>
+      <c r="D299">
+        <v>0.966744632010668</v>
+      </c>
+      <c r="E299">
+        <v>0.17589629927320455</v>
+      </c>
+      <c r="F299">
+        <v>-0.18474254261266362</v>
+      </c>
+      <c r="G299">
+        <v>-0.00035883578494016284</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
+      <c r="A300">
+        <v>210.66939356811397</v>
+      </c>
+      <c r="B300">
+        <v>228.44444951816698</v>
+      </c>
+      <c r="C300">
+        <v>19.999963743668022</v>
+      </c>
+      <c r="D300">
+        <v>0.9667446459021937</v>
+      </c>
+      <c r="E300">
+        <v>0.17589422172434085</v>
+      </c>
+      <c r="F300">
+        <v>-0.18474444938365714</v>
+      </c>
+      <c r="G300">
+        <v>-0.0003588419233965446</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7">
+      <c r="A301">
+        <v>210.59260683716352</v>
+      </c>
+      <c r="B301">
+        <v>228.37134522222433</v>
+      </c>
+      <c r="C301">
+        <v>19.999963743941173</v>
+      </c>
+      <c r="D301">
+        <v>0.9667446601673471</v>
+      </c>
+      <c r="E301">
+        <v>0.1758920966410348</v>
+      </c>
+      <c r="F301">
+        <v>-0.18474639939076654</v>
+      </c>
+      <c r="G301">
+        <v>-0.00035884825026894656</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7">
+      <c r="A302">
+        <v>210.5158192770885</v>
+      </c>
+      <c r="B302">
+        <v>228.29824183031607</v>
+      </c>
+      <c r="C302">
+        <v>19.99996374199433</v>
+      </c>
+      <c r="D302">
+        <v>0.9667446749392075</v>
+      </c>
+      <c r="E302">
+        <v>0.175889921598464</v>
+      </c>
+      <c r="F302">
+        <v>-0.1847483944161904</v>
+      </c>
+      <c r="G302">
+        <v>-0.0003588546945884925</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7">
+      <c r="A303">
+        <v>210.43903086883302</v>
+      </c>
+      <c r="B303">
+        <v>228.22513936469903</v>
+      </c>
+      <c r="C303">
+        <v>19.999963740242848</v>
+      </c>
+      <c r="D303">
+        <v>0.9667446901092925</v>
+      </c>
+      <c r="E303">
+        <v>0.17588769440213298</v>
+      </c>
+      <c r="F303">
+        <v>-0.184750436866889</v>
+      </c>
+      <c r="G303">
+        <v>-0.00035886128259764573</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7">
+      <c r="A304">
+        <v>210.36224159177166</v>
+      </c>
+      <c r="B304">
+        <v>228.15203784817945</v>
+      </c>
+      <c r="C304">
+        <v>19.99996373893446</v>
+      </c>
+      <c r="D304">
+        <v>0.9667447060845649</v>
+      </c>
+      <c r="E304">
+        <v>0.17588541171980412</v>
+      </c>
+      <c r="F304">
+        <v>-0.18475252814528767</v>
+      </c>
+      <c r="G304">
+        <v>-0.0003588680120453347</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7">
+      <c r="A305">
+        <v>210.28545142485532</v>
+      </c>
+      <c r="B305">
+        <v>228.07893730520792</v>
+      </c>
+      <c r="C305">
+        <v>19.999963746969364</v>
+      </c>
+      <c r="D305">
+        <v>0.966744722459695</v>
+      </c>
+      <c r="E305">
+        <v>0.17588307165888376</v>
+      </c>
+      <c r="F305">
+        <v>-0.18475467174331647</v>
+      </c>
+      <c r="G305">
+        <v>-0.00035887490386589177</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7">
+      <c r="A306">
+        <v>210.20866034549397</v>
+      </c>
+      <c r="B306">
+        <v>228.00583776110423</v>
+      </c>
+      <c r="C306">
+        <v>19.99996373974317</v>
+      </c>
+      <c r="D306">
+        <v>0.9667447395603416</v>
+      </c>
+      <c r="E306">
+        <v>0.175880670640113</v>
+      </c>
+      <c r="F306">
+        <v>-0.18475686961925894</v>
+      </c>
+      <c r="G306">
+        <v>-0.00035888197079029144</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7">
+      <c r="A307">
+        <v>210.13186832901712</v>
+      </c>
+      <c r="B307">
+        <v>227.9327392416499</v>
+      </c>
+      <c r="C307">
+        <v>19.99996374198443</v>
+      </c>
+      <c r="D307">
+        <v>0.9667447570188666</v>
+      </c>
+      <c r="E307">
+        <v>0.17587820643205432</v>
+      </c>
+      <c r="F307">
+        <v>-0.1847591256897484</v>
+      </c>
+      <c r="G307">
+        <v>-0.00035888925242539925</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7">
+      <c r="A308">
+        <v>210.07625899091101</v>
+      </c>
+      <c r="B308">
+        <v>227.8406002057182</v>
+      </c>
+      <c r="C308">
+        <v>19.9999565871988</v>
+      </c>
+      <c r="D308">
+        <v>0.9657336061867099</v>
+      </c>
+      <c r="E308">
+        <v>0.22157051366067504</v>
+      </c>
+      <c r="F308">
+        <v>-0.13372600315965033</v>
+      </c>
+      <c r="G308">
+        <v>-0.00010599145707010371</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7">
+      <c r="A309">
+        <v>210.0206487688326</v>
+      </c>
+      <c r="B309">
+        <v>227.74846066706783</v>
+      </c>
+      <c r="C309">
+        <v>19.99995658753961</v>
+      </c>
+      <c r="D309">
+        <v>0.9657334429954092</v>
+      </c>
+      <c r="E309">
+        <v>0.22157041145123368</v>
+      </c>
+      <c r="F309">
+        <v>-0.13372733757059901</v>
+      </c>
+      <c r="G309">
+        <v>-0.00010598626890821995</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7">
+      <c r="A310">
+        <v>209.96503812023397</v>
+      </c>
+      <c r="B310">
+        <v>227.65632139767933</v>
+      </c>
+      <c r="C310">
+        <v>19.999956587540197</v>
+      </c>
+      <c r="D310">
+        <v>0.9657334493561174</v>
+      </c>
+      <c r="E310">
+        <v>0.2215697647245777</v>
+      </c>
+      <c r="F310">
+        <v>-0.133728363699171</v>
+      </c>
+      <c r="G310">
+        <v>-0.00010599308964798129</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7">
+      <c r="A311">
+        <v>209.90942703628494</v>
+      </c>
+      <c r="B311">
+        <v>227.5641824033249</v>
+      </c>
+      <c r="C311">
+        <v>19.999956587541327</v>
+      </c>
+      <c r="D311">
+        <v>0.9657334559727532</v>
+      </c>
+      <c r="E311">
+        <v>0.2215691040844109</v>
+      </c>
+      <c r="F311">
+        <v>-0.13372941104209946</v>
+      </c>
+      <c r="G311">
+        <v>-0.00010600005030593958</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7">
+      <c r="A312">
+        <v>209.85381550780653</v>
+      </c>
+      <c r="B312">
+        <v>227.4720436900685</v>
+      </c>
+      <c r="C312">
+        <v>19.999956587543032</v>
+      </c>
+      <c r="D312">
+        <v>0.9657334628701647</v>
+      </c>
+      <c r="E312">
+        <v>0.2215684288936183</v>
+      </c>
+      <c r="F312">
+        <v>-0.13373048047687397</v>
+      </c>
+      <c r="G312">
+        <v>-0.00010600715734485934</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7">
+      <c r="A313">
+        <v>209.79820352522492</v>
+      </c>
+      <c r="B313">
+        <v>227.3799052642464</v>
+      </c>
+      <c r="C313">
+        <v>19.999956587545363</v>
+      </c>
+      <c r="D313">
+        <v>0.9657334700666493</v>
+      </c>
+      <c r="E313">
+        <v>0.22156773849910757</v>
+      </c>
+      <c r="F313">
+        <v>-0.13373157295416452</v>
+      </c>
+      <c r="G313">
+        <v>-0.00010601441704352274</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7">
+      <c r="A314">
+        <v>209.74259107854547</v>
+      </c>
+      <c r="B314">
+        <v>227.28776713248618</v>
+      </c>
+      <c r="C314">
+        <v>19.999956587548372</v>
+      </c>
+      <c r="D314">
+        <v>0.9657334775821309</v>
+      </c>
+      <c r="E314">
+        <v>0.22156703220290666</v>
+      </c>
+      <c r="F314">
+        <v>-0.13373268948732536</v>
+      </c>
+      <c r="G314">
+        <v>-0.00010602183609202676</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7">
+      <c r="A315">
+        <v>209.68697815732435</v>
+      </c>
+      <c r="B315">
+        <v>227.19562930172702</v>
+      </c>
+      <c r="C315">
+        <v>19.99995658755211</v>
+      </c>
+      <c r="D315">
+        <v>0.9657334854383439</v>
+      </c>
+      <c r="E315">
+        <v>0.22156630925795948</v>
+      </c>
+      <c r="F315">
+        <v>-0.1337338311580372</v>
+      </c>
+      <c r="G315">
+        <v>-0.00010602942163250534</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7">
+      <c r="A316">
+        <v>209.60620726067526</v>
+      </c>
+      <c r="B316">
+        <v>227.1264720394723</v>
+      </c>
+      <c r="C316">
+        <v>19.99996270215684</v>
+      </c>
+      <c r="D316">
+        <v>0.9665495180035304</v>
+      </c>
+      <c r="E316">
+        <v>0.16637644391513692</v>
+      </c>
+      <c r="F316">
+        <v>-0.1943100088454932</v>
+      </c>
+      <c r="G316">
+        <v>-0.00014000578508485407</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7">
+      <c r="A317">
+        <v>209.52543672714017</v>
+      </c>
+      <c r="B317">
+        <v>227.05731548797314</v>
+      </c>
+      <c r="C317">
+        <v>19.999962695480097</v>
+      </c>
+      <c r="D317">
+        <v>0.9665496638317407</v>
+      </c>
+      <c r="E317">
+        <v>0.16637553742666292</v>
+      </c>
+      <c r="F317">
+        <v>-0.19431007048522797</v>
+      </c>
+      <c r="G317">
+        <v>-0.00014000966796159423</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7">
+      <c r="A318">
+        <v>209.4446659985804</v>
+      </c>
+      <c r="B318">
+        <v>226.98815917558088</v>
+      </c>
+      <c r="C318">
+        <v>19.999962696486197</v>
+      </c>
+      <c r="D318">
+        <v>0.9665496685485122</v>
+      </c>
+      <c r="E318">
+        <v>0.16637496243810942</v>
+      </c>
+      <c r="F318">
+        <v>-0.19431053964724415</v>
+      </c>
+      <c r="G318">
+        <v>-0.0001400167803479855</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7">
+      <c r="A319">
+        <v>209.36389507143886</v>
+      </c>
+      <c r="B319">
+        <v>226.9190031069029</v>
+      </c>
+      <c r="C319">
+        <v>19.99996269685259</v>
+      </c>
+      <c r="D319">
+        <v>0.9665496736387749</v>
+      </c>
+      <c r="E319">
+        <v>0.1663743759962817</v>
+      </c>
+      <c r="F319">
+        <v>-0.19431101685858534</v>
+      </c>
+      <c r="G319">
+        <v>-0.00014002405874049528</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7">
+      <c r="A320">
+        <v>209.28312394239313</v>
+      </c>
+      <c r="B320">
+        <v>226.84984728702833</v>
+      </c>
+      <c r="C320">
+        <v>19.99996270022244</v>
+      </c>
+      <c r="D320">
+        <v>0.9665496789823684</v>
+      </c>
+      <c r="E320">
+        <v>0.16637377792863306</v>
+      </c>
+      <c r="F320">
+        <v>-0.1943115027711862</v>
+      </c>
+      <c r="G320">
+        <v>-0.0001400314624961873</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7">
+      <c r="A321">
+        <v>209.20448619770497</v>
+      </c>
+      <c r="B321">
+        <v>226.7787851697439</v>
+      </c>
+      <c r="C321">
+        <v>19.99996373955812</v>
+      </c>
+      <c r="D321">
+        <v>0.9667645781376063</v>
+      </c>
+      <c r="E321">
+        <v>0.17098038366785065</v>
+      </c>
+      <c r="F321">
+        <v>-0.1892022201808156</v>
+      </c>
+      <c r="G321">
+        <v>-0.00037499362271741236</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7">
+      <c r="A322">
+        <v>209.12584807705719</v>
+      </c>
+      <c r="B322">
+        <v>226.70772367008922</v>
+      </c>
+      <c r="C322">
+        <v>19.99996374129888</v>
+      </c>
+      <c r="D322">
+        <v>0.9667646099658918</v>
+      </c>
+      <c r="E322">
+        <v>0.17097903612931595</v>
+      </c>
+      <c r="F322">
+        <v>-0.18920327773584225</v>
+      </c>
+      <c r="G322">
+        <v>-0.0003749967135005101</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7">
+      <c r="A323">
+        <v>209.04777695739094</v>
+      </c>
+      <c r="B323">
+        <v>226.636024417239</v>
+      </c>
+      <c r="C323">
+        <v>19.99996374364103</v>
+      </c>
+      <c r="D323">
+        <v>0.9667581294291085</v>
+      </c>
+      <c r="E323">
+        <v>0.1725128648527764</v>
+      </c>
+      <c r="F323">
+        <v>-0.1878382791001186</v>
+      </c>
+      <c r="G323">
+        <v>-0.0003697630542597722</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7">
+      <c r="A324">
+        <v>208.96970536996056</v>
+      </c>
+      <c r="B324">
+        <v>226.56432569150863</v>
+      </c>
+      <c r="C324">
+        <v>19.999963742504338</v>
+      </c>
+      <c r="D324">
+        <v>0.9667581367118075</v>
+      </c>
+      <c r="E324">
+        <v>0.17251159786857126</v>
+      </c>
+      <c r="F324">
+        <v>-0.1878394060266365</v>
+      </c>
+      <c r="G324">
+        <v>-0.00036976714802167506</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7">
+      <c r="A325">
+        <v>208.89163330800295</v>
+      </c>
+      <c r="B325">
+        <v>226.49262749929986</v>
+      </c>
+      <c r="C325">
+        <v>19.99996373751509</v>
+      </c>
+      <c r="D325">
+        <v>0.9667581439757512</v>
+      </c>
+      <c r="E325">
+        <v>0.17251031444279316</v>
+      </c>
+      <c r="F325">
+        <v>-0.18784054811656753</v>
+      </c>
+      <c r="G325">
+        <v>-0.0003697713501228321</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7">
+      <c r="A326">
+        <v>208.8135607654992</v>
+      </c>
+      <c r="B326">
+        <v>226.4209298480603</v>
+      </c>
+      <c r="C326">
+        <v>19.999963738937033</v>
+      </c>
+      <c r="D326">
+        <v>0.9667581514179243</v>
+      </c>
+      <c r="E326">
+        <v>0.17250901366026936</v>
+      </c>
+      <c r="F326">
+        <v>-0.18784170527591187</v>
+      </c>
+      <c r="G326">
+        <v>-0.00036977557414697066</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7">
+      <c r="A327">
+        <v>208.73548773547986</v>
+      </c>
+      <c r="B327">
+        <v>226.34923274470714</v>
+      </c>
+      <c r="C327">
+        <v>19.999963739554016</v>
+      </c>
+      <c r="D327">
+        <v>0.9667581591914428</v>
+      </c>
+      <c r="E327">
+        <v>0.17250769474565042</v>
+      </c>
+      <c r="F327">
+        <v>-0.1878428774976032</v>
+      </c>
+      <c r="G327">
+        <v>-0.0003697799589852975</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7">
+      <c r="A328">
+        <v>208.6574142119815</v>
+      </c>
+      <c r="B328">
+        <v>226.2775361974415</v>
+      </c>
+      <c r="C328">
+        <v>19.99996374003165</v>
+      </c>
+      <c r="D328">
+        <v>0.9667581669526293</v>
+      </c>
+      <c r="E328">
+        <v>0.17250635788989144</v>
+      </c>
+      <c r="F328">
+        <v>-0.1878440661107895</v>
+      </c>
+      <c r="G328">
+        <v>-0.0003697843023991163</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7">
+      <c r="A329">
+        <v>208.5690433388756</v>
+      </c>
+      <c r="B329">
+        <v>226.21776445724157</v>
+      </c>
+      <c r="C329">
+        <v>19.999961570102617</v>
+      </c>
+      <c r="D329">
+        <v>0.966326123217398</v>
+      </c>
+      <c r="E329">
+        <v>0.14378205260853433</v>
+      </c>
+      <c r="F329">
+        <v>-0.21257120058053994</v>
+      </c>
+      <c r="G329">
+        <v>-2.7489855347288597e-5</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7">
+      <c r="A330">
+        <v>208.4806722069435</v>
+      </c>
+      <c r="B330">
+        <v>226.1579926315694</v>
+      </c>
+      <c r="C330">
+        <v>19.999961567660584</v>
+      </c>
+      <c r="D330">
+        <v>0.9663260727750468</v>
+      </c>
+      <c r="E330">
+        <v>0.1437820090946481</v>
+      </c>
+      <c r="F330">
+        <v>-0.21257145609188746</v>
+      </c>
+      <c r="G330">
+        <v>-2.7484889875482583e-5</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7">
+      <c r="A331">
+        <v>208.39230103761057</v>
+      </c>
+      <c r="B331">
+        <v>226.09822087057387</v>
+      </c>
+      <c r="C331">
+        <v>19.99996156553917</v>
+      </c>
+      <c r="D331">
+        <v>0.9663260761905844</v>
+      </c>
+      <c r="E331">
+        <v>0.1437818535436123</v>
+      </c>
+      <c r="F331">
+        <v>-0.2125715460621453</v>
+      </c>
+      <c r="G331">
+        <v>-2.7482726458032786e-5</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7">
+      <c r="A332">
+        <v>208.30392983046448</v>
+      </c>
+      <c r="B332">
+        <v>226.0384491750616</v>
+      </c>
+      <c r="C332">
+        <v>19.999961565775777</v>
+      </c>
+      <c r="D332">
+        <v>0.9663260798220863</v>
+      </c>
+      <c r="E332">
+        <v>0.14378169582874445</v>
+      </c>
+      <c r="F332">
+        <v>-0.21257163660289663</v>
+      </c>
+      <c r="G332">
+        <v>-2.748052041785133e-5</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7">
+      <c r="A333">
+        <v>208.2155585853782</v>
+      </c>
+      <c r="B333">
+        <v>225.97867754603618</v>
+      </c>
+      <c r="C333">
+        <v>19.999961568814612</v>
+      </c>
+      <c r="D333">
+        <v>0.966326083445314</v>
+      </c>
+      <c r="E333">
+        <v>0.14378153625254372</v>
+      </c>
+      <c r="F333">
+        <v>-0.21257172835920152</v>
+      </c>
+      <c r="G333">
+        <v>-2.7478310460152924e-5</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7">
+      <c r="A334">
+        <v>208.12718730217367</v>
+      </c>
+      <c r="B334">
+        <v>225.91890598450524</v>
+      </c>
+      <c r="C334">
+        <v>19.999961569058478</v>
+      </c>
+      <c r="D334">
+        <v>0.9663260871781248</v>
+      </c>
+      <c r="E334">
+        <v>0.14378137458731333</v>
+      </c>
+      <c r="F334">
+        <v>-0.21257182103979974</v>
+      </c>
+      <c r="G334">
+        <v>-2.747607305685905e-5</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7">
+      <c r="A335">
+        <v>208.0388159801527</v>
+      </c>
+      <c r="B335">
+        <v>225.8591344911525</v>
+      </c>
+      <c r="C335">
+        <v>19.999961566795527</v>
+      </c>
+      <c r="D335">
+        <v>0.9663260909381821</v>
+      </c>
+      <c r="E335">
+        <v>0.14378121095490118</v>
+      </c>
+      <c r="F335">
+        <v>-0.21257191492719665</v>
+      </c>
+      <c r="G335">
+        <v>-2.747380907111421e-5</v>
       </c>
     </row>
   </sheetData>
